--- a/BIIB.xlsx
+++ b/BIIB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F4CAAB-AF2A-4568-A4F2-2093090529D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DA8725-3CD4-4474-AACE-6FAE07A84940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{7CBEE6B4-8223-452C-B8C6-1EC2B28F2C97}"/>
+    <workbookView xWindow="51585" yWindow="0" windowWidth="25395" windowHeight="20880" activeTab="1" xr2:uid="{7CBEE6B4-8223-452C-B8C6-1EC2B28F2C97}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="87">
   <si>
     <t>Price</t>
   </si>
@@ -151,13 +151,160 @@
   </si>
   <si>
     <t>Main</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Q120</t>
+  </si>
+  <si>
+    <t>Q220</t>
+  </si>
+  <si>
+    <t>Q320</t>
+  </si>
+  <si>
+    <t>Q420</t>
+  </si>
+  <si>
+    <t>Q121</t>
+  </si>
+  <si>
+    <t>Q221</t>
+  </si>
+  <si>
+    <t>Q321</t>
+  </si>
+  <si>
+    <t>Q421</t>
+  </si>
+  <si>
+    <t>Q122</t>
+  </si>
+  <si>
+    <t>Q322</t>
+  </si>
+  <si>
+    <t>Q422</t>
+  </si>
+  <si>
+    <t>Vumerity</t>
+  </si>
+  <si>
+    <t>Plegridy</t>
+  </si>
+  <si>
+    <t>Tysabri</t>
+  </si>
+  <si>
+    <t>Fampyra</t>
+  </si>
+  <si>
+    <t>Spinraza</t>
+  </si>
+  <si>
+    <t>Benepali</t>
+  </si>
+  <si>
+    <t>Imraldi</t>
+  </si>
+  <si>
+    <t>Flixabi</t>
+  </si>
+  <si>
+    <t>Byooviz</t>
+  </si>
+  <si>
+    <t>Fumaderm</t>
+  </si>
+  <si>
+    <t>Aduhelm</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>CD20</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>SG&amp;A</t>
+  </si>
+  <si>
+    <t>OpEx</t>
+  </si>
+  <si>
+    <t>OpInc</t>
+  </si>
+  <si>
+    <t>Interest Income</t>
+  </si>
+  <si>
+    <t>Pretax Income</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>Lunsumio (mosunetuzumab)</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>CD20xCD3</t>
+  </si>
+  <si>
+    <t>Ocrevus</t>
+  </si>
+  <si>
+    <t>Rituxan/Gazyva</t>
+  </si>
+  <si>
+    <t>Revenue y/y</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>Lecanemab</t>
+  </si>
+  <si>
+    <t>Terminal</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Share</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -168,6 +315,13 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -279,7 +433,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -294,6 +448,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -310,6 +479,111 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>38966</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>38966</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>43295</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC7A0164-871D-34D0-FCC8-B9AAC596230D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17160734" y="0"/>
+          <a:ext cx="0" cy="6222929"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>607509</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>30307</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>607509</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>73602</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A5D9F34-9F98-4633-80FD-32FC96B7901E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7381875" y="30307"/>
+          <a:ext cx="0" cy="6222929"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -611,14 +885,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5306BA9-19F6-4D66-A355-F53C1BBA84BC}">
   <dimension ref="B2:K21"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
   </cols>
@@ -830,7 +1102,15 @@
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" t="s">
+        <v>77</v>
+      </c>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
@@ -861,23 +1141,4047 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7CEB2B-BE50-4D86-B93D-DDDB8C03F4F9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:BV38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AQ11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="AX35" sqref="AX35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="14" width="9.140625" style="2"/>
+    <col min="50" max="50" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="C2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2">
+        <v>2010</v>
+      </c>
+      <c r="R2">
+        <f>+Q2+1</f>
+        <v>2011</v>
+      </c>
+      <c r="S2">
+        <f t="shared" ref="S2:BV2" si="0">+R2+1</f>
+        <v>2012</v>
+      </c>
+      <c r="T2">
+        <f t="shared" si="0"/>
+        <v>2013</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="0"/>
+        <v>2015</v>
+      </c>
+      <c r="W2">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="X2">
+        <f t="shared" si="0"/>
+        <v>2017</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="AC2">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="AD2">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="AE2">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="AF2">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="AG2">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="AH2">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="AI2">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="AJ2">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="AK2">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="AL2">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="AM2">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="AN2">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="AO2">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
+      <c r="AP2">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
+      <c r="AQ2">
+        <f t="shared" si="0"/>
+        <v>2036</v>
+      </c>
+      <c r="AR2">
+        <f t="shared" si="0"/>
+        <v>2037</v>
+      </c>
+      <c r="AS2">
+        <f t="shared" si="0"/>
+        <v>2038</v>
+      </c>
+      <c r="AT2">
+        <f t="shared" si="0"/>
+        <v>2039</v>
+      </c>
+      <c r="AU2">
+        <f t="shared" si="0"/>
+        <v>2040</v>
+      </c>
+      <c r="AV2">
+        <f t="shared" si="0"/>
+        <v>2041</v>
+      </c>
+      <c r="AW2">
+        <f t="shared" si="0"/>
+        <v>2042</v>
+      </c>
+      <c r="AX2">
+        <f t="shared" si="0"/>
+        <v>2043</v>
+      </c>
+      <c r="AY2">
+        <f t="shared" si="0"/>
+        <v>2044</v>
+      </c>
+      <c r="AZ2">
+        <f t="shared" si="0"/>
+        <v>2045</v>
+      </c>
+      <c r="BA2">
+        <f t="shared" si="0"/>
+        <v>2046</v>
+      </c>
+      <c r="BB2">
+        <f t="shared" si="0"/>
+        <v>2047</v>
+      </c>
+      <c r="BC2">
+        <f t="shared" si="0"/>
+        <v>2048</v>
+      </c>
+      <c r="BD2">
+        <f t="shared" si="0"/>
+        <v>2049</v>
+      </c>
+      <c r="BE2">
+        <f t="shared" si="0"/>
+        <v>2050</v>
+      </c>
+      <c r="BF2">
+        <f t="shared" si="0"/>
+        <v>2051</v>
+      </c>
+      <c r="BG2">
+        <f t="shared" si="0"/>
+        <v>2052</v>
+      </c>
+      <c r="BH2">
+        <f t="shared" si="0"/>
+        <v>2053</v>
+      </c>
+      <c r="BI2">
+        <f t="shared" si="0"/>
+        <v>2054</v>
+      </c>
+      <c r="BJ2">
+        <f t="shared" si="0"/>
+        <v>2055</v>
+      </c>
+      <c r="BK2">
+        <f t="shared" si="0"/>
+        <v>2056</v>
+      </c>
+      <c r="BL2">
+        <f t="shared" si="0"/>
+        <v>2057</v>
+      </c>
+      <c r="BM2">
+        <f t="shared" si="0"/>
+        <v>2058</v>
+      </c>
+      <c r="BN2">
+        <f t="shared" si="0"/>
+        <v>2059</v>
+      </c>
+      <c r="BO2">
+        <f t="shared" si="0"/>
+        <v>2060</v>
+      </c>
+      <c r="BP2">
+        <f t="shared" si="0"/>
+        <v>2061</v>
+      </c>
+      <c r="BQ2">
+        <f t="shared" si="0"/>
+        <v>2062</v>
+      </c>
+      <c r="BR2">
+        <f t="shared" si="0"/>
+        <v>2063</v>
+      </c>
+      <c r="BS2">
+        <f t="shared" si="0"/>
+        <v>2064</v>
+      </c>
+      <c r="BT2">
+        <f t="shared" si="0"/>
+        <v>2065</v>
+      </c>
+      <c r="BU2">
+        <f t="shared" si="0"/>
+        <v>2066</v>
+      </c>
+      <c r="BV2">
+        <f t="shared" si="0"/>
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="3" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12">
+        <v>953.1</v>
+      </c>
+      <c r="F3" s="12">
+        <v>607.9</v>
+      </c>
+      <c r="G3" s="12">
+        <v>479.3</v>
+      </c>
+      <c r="H3" s="12">
+        <v>487.6</v>
+      </c>
+      <c r="I3" s="12">
+        <v>498.6</v>
+      </c>
+      <c r="J3" s="12">
+        <v>486.5</v>
+      </c>
+      <c r="K3" s="12">
+        <v>409.9</v>
+      </c>
+      <c r="L3" s="12">
+        <v>397.9</v>
+      </c>
+      <c r="M3" s="12">
+        <f>+L3-15</f>
+        <v>382.9</v>
+      </c>
+      <c r="N3" s="12">
+        <f>+M3-15</f>
+        <v>367.9</v>
+      </c>
+      <c r="AB3" s="1">
+        <f>SUM(G3:J3)</f>
+        <v>1952</v>
+      </c>
+      <c r="AC3" s="1">
+        <f>SUM(K3:N3)</f>
+        <v>1558.6</v>
+      </c>
+      <c r="AD3" s="1">
+        <f>+AC3*0.8</f>
+        <v>1246.8800000000001</v>
+      </c>
+      <c r="AE3" s="1">
+        <f t="shared" ref="AE3:AL3" si="1">+AD3*0.8</f>
+        <v>997.50400000000013</v>
+      </c>
+      <c r="AF3" s="1">
+        <f t="shared" si="1"/>
+        <v>798.00320000000011</v>
+      </c>
+      <c r="AG3" s="1">
+        <f t="shared" si="1"/>
+        <v>638.40256000000011</v>
+      </c>
+      <c r="AH3" s="1">
+        <f t="shared" si="1"/>
+        <v>510.72204800000009</v>
+      </c>
+      <c r="AI3" s="1">
+        <f t="shared" si="1"/>
+        <v>408.57763840000007</v>
+      </c>
+      <c r="AJ3" s="1">
+        <f t="shared" si="1"/>
+        <v>326.86211072000009</v>
+      </c>
+      <c r="AK3" s="1">
+        <f t="shared" si="1"/>
+        <v>261.48968857600011</v>
+      </c>
+      <c r="AL3" s="1">
+        <f t="shared" si="1"/>
+        <v>209.19175086080008</v>
+      </c>
+      <c r="AM3" s="1">
+        <f t="shared" ref="AM3" si="2">+AL3*0.8</f>
+        <v>167.35340068864008</v>
+      </c>
+      <c r="AN3" s="1">
+        <f t="shared" ref="AN3:AU3" si="3">+AM3*0.8</f>
+        <v>133.88272055091207</v>
+      </c>
+      <c r="AO3" s="1">
+        <f t="shared" si="3"/>
+        <v>107.10617644072966</v>
+      </c>
+      <c r="AP3" s="1">
+        <f t="shared" si="3"/>
+        <v>85.684941152583733</v>
+      </c>
+      <c r="AQ3" s="1">
+        <f t="shared" si="3"/>
+        <v>68.547952922066983</v>
+      </c>
+      <c r="AR3" s="1">
+        <f t="shared" si="3"/>
+        <v>54.838362337653592</v>
+      </c>
+      <c r="AS3" s="1">
+        <f t="shared" si="3"/>
+        <v>43.870689870122874</v>
+      </c>
+      <c r="AT3" s="1">
+        <f t="shared" si="3"/>
+        <v>35.096551896098298</v>
+      </c>
+      <c r="AU3" s="1">
+        <f t="shared" si="3"/>
+        <v>28.07724151687864</v>
+      </c>
+    </row>
+    <row r="4" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12">
+        <v>14.4</v>
+      </c>
+      <c r="F4" s="12">
+        <v>38.9</v>
+      </c>
+      <c r="G4" s="12">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="H4" s="12">
+        <v>90.9</v>
+      </c>
+      <c r="I4" s="12">
+        <v>120.9</v>
+      </c>
+      <c r="J4" s="12">
+        <v>124.9</v>
+      </c>
+      <c r="K4" s="12">
+        <v>128</v>
+      </c>
+      <c r="L4" s="12">
+        <v>136.80000000000001</v>
+      </c>
+      <c r="M4" s="12">
+        <f>+L4+5</f>
+        <v>141.80000000000001</v>
+      </c>
+      <c r="N4" s="12">
+        <f>+M4+5</f>
+        <v>146.80000000000001</v>
+      </c>
+      <c r="AB4" s="1">
+        <f t="shared" ref="AB4:AB21" si="4">SUM(G4:J4)</f>
+        <v>410.29999999999995</v>
+      </c>
+      <c r="AC4" s="1">
+        <f t="shared" ref="AC4:AC21" si="5">SUM(K4:N4)</f>
+        <v>553.40000000000009</v>
+      </c>
+      <c r="AD4" s="1">
+        <f>+AC4*1.1</f>
+        <v>608.74000000000012</v>
+      </c>
+      <c r="AE4" s="1">
+        <f t="shared" ref="AE4:AF4" si="6">+AD4*1.1</f>
+        <v>669.61400000000015</v>
+      </c>
+      <c r="AF4" s="1">
+        <f t="shared" si="6"/>
+        <v>736.57540000000017</v>
+      </c>
+      <c r="AG4" s="1">
+        <f>+AF4*1.03</f>
+        <v>758.67266200000017</v>
+      </c>
+      <c r="AH4" s="1">
+        <f t="shared" ref="AH4:AK4" si="7">+AG4*1.03</f>
+        <v>781.43284186000017</v>
+      </c>
+      <c r="AI4" s="1">
+        <f t="shared" si="7"/>
+        <v>804.87582711580023</v>
+      </c>
+      <c r="AJ4" s="1">
+        <f t="shared" si="7"/>
+        <v>829.0221019292743</v>
+      </c>
+      <c r="AK4" s="1">
+        <f t="shared" si="7"/>
+        <v>853.89276498715253</v>
+      </c>
+      <c r="AL4" s="1">
+        <f>+AK4*0.5</f>
+        <v>426.94638249357627</v>
+      </c>
+      <c r="AM4" s="1">
+        <f>+AL4*0.8</f>
+        <v>341.55710599486105</v>
+      </c>
+      <c r="AN4" s="1">
+        <f t="shared" ref="AN4:AU4" si="8">+AM4*0.8</f>
+        <v>273.24568479588885</v>
+      </c>
+      <c r="AO4" s="1">
+        <f t="shared" si="8"/>
+        <v>218.5965478367111</v>
+      </c>
+      <c r="AP4" s="1">
+        <f t="shared" si="8"/>
+        <v>174.87723826936889</v>
+      </c>
+      <c r="AQ4" s="1">
+        <f t="shared" si="8"/>
+        <v>139.90179061549512</v>
+      </c>
+      <c r="AR4" s="1">
+        <f t="shared" si="8"/>
+        <v>111.92143249239609</v>
+      </c>
+      <c r="AS4" s="1">
+        <f t="shared" si="8"/>
+        <v>89.53714599391688</v>
+      </c>
+      <c r="AT4" s="1">
+        <f t="shared" si="8"/>
+        <v>71.629716795133504</v>
+      </c>
+      <c r="AU4" s="1">
+        <f t="shared" si="8"/>
+        <v>57.303773436106809</v>
+      </c>
+    </row>
+    <row r="5" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12">
+        <v>380.5</v>
+      </c>
+      <c r="F5" s="12">
+        <v>356.4</v>
+      </c>
+      <c r="G5" s="12">
+        <v>311.10000000000002</v>
+      </c>
+      <c r="H5" s="12">
+        <v>310.89999999999998</v>
+      </c>
+      <c r="I5" s="12">
+        <v>301.3</v>
+      </c>
+      <c r="J5" s="12">
+        <v>285.39999999999998</v>
+      </c>
+      <c r="K5" s="12">
+        <v>229.6</v>
+      </c>
+      <c r="L5" s="12">
+        <v>258.7</v>
+      </c>
+      <c r="M5" s="12">
+        <f>+I5*0.9</f>
+        <v>271.17</v>
+      </c>
+      <c r="N5" s="12">
+        <f>+J5*0.9</f>
+        <v>256.86</v>
+      </c>
+      <c r="AB5" s="1">
+        <f t="shared" si="4"/>
+        <v>1208.6999999999998</v>
+      </c>
+      <c r="AC5" s="1">
+        <f t="shared" si="5"/>
+        <v>1016.33</v>
+      </c>
+      <c r="AD5" s="1">
+        <f>+AC5*0.9</f>
+        <v>914.697</v>
+      </c>
+      <c r="AE5" s="1">
+        <f t="shared" ref="AE5:AU5" si="9">+AD5*0.9</f>
+        <v>823.22730000000001</v>
+      </c>
+      <c r="AF5" s="1">
+        <f t="shared" si="9"/>
+        <v>740.90457000000004</v>
+      </c>
+      <c r="AG5" s="1">
+        <f t="shared" si="9"/>
+        <v>666.81411300000002</v>
+      </c>
+      <c r="AH5" s="1">
+        <f t="shared" si="9"/>
+        <v>600.13270169999998</v>
+      </c>
+      <c r="AI5" s="1">
+        <f t="shared" si="9"/>
+        <v>540.11943153000004</v>
+      </c>
+      <c r="AJ5" s="1">
+        <f t="shared" si="9"/>
+        <v>486.10748837700004</v>
+      </c>
+      <c r="AK5" s="1">
+        <f t="shared" si="9"/>
+        <v>437.49673953930005</v>
+      </c>
+      <c r="AL5" s="1">
+        <f t="shared" si="9"/>
+        <v>393.74706558537008</v>
+      </c>
+      <c r="AM5" s="1">
+        <f t="shared" si="9"/>
+        <v>354.37235902683307</v>
+      </c>
+      <c r="AN5" s="1">
+        <f t="shared" si="9"/>
+        <v>318.93512312414975</v>
+      </c>
+      <c r="AO5" s="1">
+        <f t="shared" si="9"/>
+        <v>287.04161081173481</v>
+      </c>
+      <c r="AP5" s="1">
+        <f t="shared" si="9"/>
+        <v>258.33744973056133</v>
+      </c>
+      <c r="AQ5" s="1">
+        <f t="shared" si="9"/>
+        <v>232.5037047575052</v>
+      </c>
+      <c r="AR5" s="1">
+        <f t="shared" si="9"/>
+        <v>209.25333428175469</v>
+      </c>
+      <c r="AS5" s="1">
+        <f t="shared" si="9"/>
+        <v>188.32800085357923</v>
+      </c>
+      <c r="AT5" s="1">
+        <f t="shared" si="9"/>
+        <v>169.49520076822131</v>
+      </c>
+      <c r="AU5" s="1">
+        <f t="shared" si="9"/>
+        <v>152.54568069139918</v>
+      </c>
+    </row>
+    <row r="6" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12">
+        <v>93.6</v>
+      </c>
+      <c r="F6" s="12">
+        <v>99.6</v>
+      </c>
+      <c r="G6" s="12">
+        <v>89.4</v>
+      </c>
+      <c r="H6" s="12">
+        <v>89.5</v>
+      </c>
+      <c r="I6" s="12">
+        <v>86.2</v>
+      </c>
+      <c r="J6" s="12">
+        <v>92.3</v>
+      </c>
+      <c r="K6" s="12">
+        <v>80</v>
+      </c>
+      <c r="L6" s="12">
+        <v>91.5</v>
+      </c>
+      <c r="M6" s="12">
+        <f>+L6+1</f>
+        <v>92.5</v>
+      </c>
+      <c r="N6" s="12">
+        <f>+M6+1</f>
+        <v>93.5</v>
+      </c>
+      <c r="AB6" s="1">
+        <f t="shared" si="4"/>
+        <v>357.40000000000003</v>
+      </c>
+      <c r="AC6" s="1">
+        <f t="shared" si="5"/>
+        <v>357.5</v>
+      </c>
+      <c r="AD6" s="1">
+        <f>+AC6*0.95</f>
+        <v>339.625</v>
+      </c>
+      <c r="AE6" s="1">
+        <f t="shared" ref="AE6:AU6" si="10">+AD6*0.95</f>
+        <v>322.64375000000001</v>
+      </c>
+      <c r="AF6" s="1">
+        <f t="shared" si="10"/>
+        <v>306.51156249999997</v>
+      </c>
+      <c r="AG6" s="1">
+        <f t="shared" si="10"/>
+        <v>291.18598437499998</v>
+      </c>
+      <c r="AH6" s="1">
+        <f t="shared" si="10"/>
+        <v>276.62668515624995</v>
+      </c>
+      <c r="AI6" s="1">
+        <f t="shared" si="10"/>
+        <v>262.79535089843745</v>
+      </c>
+      <c r="AJ6" s="1">
+        <f t="shared" si="10"/>
+        <v>249.65558335351557</v>
+      </c>
+      <c r="AK6" s="1">
+        <f t="shared" si="10"/>
+        <v>237.17280418583977</v>
+      </c>
+      <c r="AL6" s="1">
+        <f t="shared" si="10"/>
+        <v>225.31416397654777</v>
+      </c>
+      <c r="AM6" s="1">
+        <f t="shared" si="10"/>
+        <v>214.04845577772036</v>
+      </c>
+      <c r="AN6" s="1">
+        <f t="shared" si="10"/>
+        <v>203.34603298883434</v>
+      </c>
+      <c r="AO6" s="1">
+        <f t="shared" si="10"/>
+        <v>193.17873133939261</v>
+      </c>
+      <c r="AP6" s="1">
+        <f t="shared" si="10"/>
+        <v>183.51979477242298</v>
+      </c>
+      <c r="AQ6" s="1">
+        <f t="shared" si="10"/>
+        <v>174.34380503380183</v>
+      </c>
+      <c r="AR6" s="1">
+        <f t="shared" si="10"/>
+        <v>165.62661478211172</v>
+      </c>
+      <c r="AS6" s="1">
+        <f t="shared" si="10"/>
+        <v>157.34528404300613</v>
+      </c>
+      <c r="AT6" s="1">
+        <f t="shared" si="10"/>
+        <v>149.47801984085581</v>
+      </c>
+      <c r="AU6" s="1">
+        <f t="shared" si="10"/>
+        <v>142.00411884881302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12">
+        <v>516.5</v>
+      </c>
+      <c r="F7" s="12">
+        <v>475.2</v>
+      </c>
+      <c r="G7" s="12">
+        <v>503.3</v>
+      </c>
+      <c r="H7" s="12">
+        <v>524.20000000000005</v>
+      </c>
+      <c r="I7" s="12">
+        <v>522.79999999999995</v>
+      </c>
+      <c r="J7" s="12">
+        <v>512.70000000000005</v>
+      </c>
+      <c r="K7" s="12">
+        <v>520.79999999999995</v>
+      </c>
+      <c r="L7" s="12">
+        <v>516.20000000000005</v>
+      </c>
+      <c r="M7" s="12">
+        <f>+I7*1.03</f>
+        <v>538.48399999999992</v>
+      </c>
+      <c r="N7" s="12">
+        <f>+J7*1.03</f>
+        <v>528.08100000000002</v>
+      </c>
+      <c r="AB7" s="1">
+        <f t="shared" si="4"/>
+        <v>2063</v>
+      </c>
+      <c r="AC7" s="1">
+        <f t="shared" si="5"/>
+        <v>2103.5650000000001</v>
+      </c>
+      <c r="AD7" s="1">
+        <f>+AC7*1.01</f>
+        <v>2124.6006499999999</v>
+      </c>
+      <c r="AE7" s="1">
+        <f t="shared" ref="AE7" si="11">+AD7*1.01</f>
+        <v>2145.8466564999999</v>
+      </c>
+      <c r="AF7" s="1">
+        <f>+AE7*0.85</f>
+        <v>1823.9696580249999</v>
+      </c>
+      <c r="AG7" s="1">
+        <f t="shared" ref="AG7:AU7" si="12">+AF7*0.85</f>
+        <v>1550.37420932125</v>
+      </c>
+      <c r="AH7" s="1">
+        <f t="shared" si="12"/>
+        <v>1317.8180779230624</v>
+      </c>
+      <c r="AI7" s="1">
+        <f t="shared" si="12"/>
+        <v>1120.145366234603</v>
+      </c>
+      <c r="AJ7" s="1">
+        <f t="shared" si="12"/>
+        <v>952.12356129941247</v>
+      </c>
+      <c r="AK7" s="1">
+        <f t="shared" si="12"/>
+        <v>809.3050271045006</v>
+      </c>
+      <c r="AL7" s="1">
+        <f t="shared" si="12"/>
+        <v>687.90927303882552</v>
+      </c>
+      <c r="AM7" s="1">
+        <f t="shared" si="12"/>
+        <v>584.72288208300165</v>
+      </c>
+      <c r="AN7" s="1">
+        <f t="shared" si="12"/>
+        <v>497.01444977055138</v>
+      </c>
+      <c r="AO7" s="1">
+        <f t="shared" si="12"/>
+        <v>422.46228230496865</v>
+      </c>
+      <c r="AP7" s="1">
+        <f t="shared" si="12"/>
+        <v>359.09293995922337</v>
+      </c>
+      <c r="AQ7" s="1">
+        <f t="shared" si="12"/>
+        <v>305.22899896533988</v>
+      </c>
+      <c r="AR7" s="1">
+        <f t="shared" si="12"/>
+        <v>259.44464912053888</v>
+      </c>
+      <c r="AS7" s="1">
+        <f t="shared" si="12"/>
+        <v>220.52795175245805</v>
+      </c>
+      <c r="AT7" s="1">
+        <f t="shared" si="12"/>
+        <v>187.44875898958935</v>
+      </c>
+      <c r="AU7" s="1">
+        <f t="shared" si="12"/>
+        <v>159.33144514115094</v>
+      </c>
+    </row>
+    <row r="8" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12">
+        <v>26.8</v>
+      </c>
+      <c r="F8" s="12">
+        <v>25.1</v>
+      </c>
+      <c r="G8" s="12">
+        <v>26.6</v>
+      </c>
+      <c r="H8" s="12">
+        <v>26.1</v>
+      </c>
+      <c r="I8" s="12">
+        <v>26.2</v>
+      </c>
+      <c r="J8" s="12">
+        <v>26.7</v>
+      </c>
+      <c r="K8" s="12">
+        <v>26.2</v>
+      </c>
+      <c r="L8" s="12">
+        <v>25.5</v>
+      </c>
+      <c r="M8" s="12">
+        <f>+L8</f>
+        <v>25.5</v>
+      </c>
+      <c r="N8" s="12">
+        <f>+M8</f>
+        <v>25.5</v>
+      </c>
+      <c r="AB8" s="1">
+        <f t="shared" si="4"/>
+        <v>105.60000000000001</v>
+      </c>
+      <c r="AC8" s="1">
+        <f t="shared" si="5"/>
+        <v>102.7</v>
+      </c>
+      <c r="AD8" s="1">
+        <f>+AC8*0.9</f>
+        <v>92.43</v>
+      </c>
+      <c r="AE8" s="1">
+        <f t="shared" ref="AE8:AU8" si="13">+AD8*0.9</f>
+        <v>83.187000000000012</v>
+      </c>
+      <c r="AF8" s="1">
+        <f t="shared" si="13"/>
+        <v>74.868300000000019</v>
+      </c>
+      <c r="AG8" s="1">
+        <f t="shared" si="13"/>
+        <v>67.381470000000022</v>
+      </c>
+      <c r="AH8" s="1">
+        <f t="shared" si="13"/>
+        <v>60.643323000000024</v>
+      </c>
+      <c r="AI8" s="1">
+        <f t="shared" si="13"/>
+        <v>54.57899070000002</v>
+      </c>
+      <c r="AJ8" s="1">
+        <f t="shared" si="13"/>
+        <v>49.121091630000016</v>
+      </c>
+      <c r="AK8" s="1">
+        <f t="shared" si="13"/>
+        <v>44.208982467000013</v>
+      </c>
+      <c r="AL8" s="1">
+        <f t="shared" si="13"/>
+        <v>39.788084220300014</v>
+      </c>
+      <c r="AM8" s="1">
+        <f t="shared" si="13"/>
+        <v>35.809275798270015</v>
+      </c>
+      <c r="AN8" s="1">
+        <f t="shared" si="13"/>
+        <v>32.228348218443017</v>
+      </c>
+      <c r="AO8" s="1">
+        <f t="shared" si="13"/>
+        <v>29.005513396598715</v>
+      </c>
+      <c r="AP8" s="1">
+        <f t="shared" si="13"/>
+        <v>26.104962056938845</v>
+      </c>
+      <c r="AQ8" s="1">
+        <f t="shared" si="13"/>
+        <v>23.494465851244961</v>
+      </c>
+      <c r="AR8" s="1">
+        <f t="shared" si="13"/>
+        <v>21.145019266120464</v>
+      </c>
+      <c r="AS8" s="1">
+        <f t="shared" si="13"/>
+        <v>19.030517339508418</v>
+      </c>
+      <c r="AT8" s="1">
+        <f t="shared" si="13"/>
+        <v>17.127465605557575</v>
+      </c>
+      <c r="AU8" s="1">
+        <f t="shared" si="13"/>
+        <v>15.414719045001817</v>
+      </c>
+    </row>
+    <row r="9" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12">
+        <v>494.4</v>
+      </c>
+      <c r="F9" s="12">
+        <v>498</v>
+      </c>
+      <c r="G9" s="12">
+        <v>520.5</v>
+      </c>
+      <c r="H9" s="12">
+        <v>499.7</v>
+      </c>
+      <c r="I9" s="12">
+        <v>444.1</v>
+      </c>
+      <c r="J9" s="12">
+        <v>440.7</v>
+      </c>
+      <c r="K9" s="12">
+        <v>472.5</v>
+      </c>
+      <c r="L9" s="12">
+        <v>431</v>
+      </c>
+      <c r="M9" s="12">
+        <f>+L9+5</f>
+        <v>436</v>
+      </c>
+      <c r="N9" s="12">
+        <f>+M9+5</f>
+        <v>441</v>
+      </c>
+      <c r="AB9" s="1">
+        <f t="shared" si="4"/>
+        <v>1905.0000000000002</v>
+      </c>
+      <c r="AC9" s="1">
+        <f t="shared" si="5"/>
+        <v>1780.5</v>
+      </c>
+      <c r="AD9" s="1">
+        <f t="shared" ref="AD9:AU9" si="14">+AC9*0.9</f>
+        <v>1602.45</v>
+      </c>
+      <c r="AE9" s="1">
+        <f t="shared" si="14"/>
+        <v>1442.2050000000002</v>
+      </c>
+      <c r="AF9" s="1">
+        <f t="shared" si="14"/>
+        <v>1297.9845000000003</v>
+      </c>
+      <c r="AG9" s="1">
+        <f t="shared" si="14"/>
+        <v>1168.1860500000003</v>
+      </c>
+      <c r="AH9" s="1">
+        <f t="shared" si="14"/>
+        <v>1051.3674450000003</v>
+      </c>
+      <c r="AI9" s="1">
+        <f t="shared" si="14"/>
+        <v>946.23070050000035</v>
+      </c>
+      <c r="AJ9" s="1">
+        <f t="shared" si="14"/>
+        <v>851.60763045000033</v>
+      </c>
+      <c r="AK9" s="1">
+        <f t="shared" si="14"/>
+        <v>766.44686740500026</v>
+      </c>
+      <c r="AL9" s="1">
+        <f t="shared" si="14"/>
+        <v>689.80218066450027</v>
+      </c>
+      <c r="AM9" s="1">
+        <f t="shared" si="14"/>
+        <v>620.82196259805028</v>
+      </c>
+      <c r="AN9" s="1">
+        <f t="shared" si="14"/>
+        <v>558.73976633824532</v>
+      </c>
+      <c r="AO9" s="1">
+        <f t="shared" si="14"/>
+        <v>502.86578970442082</v>
+      </c>
+      <c r="AP9" s="1">
+        <f t="shared" si="14"/>
+        <v>452.57921073397875</v>
+      </c>
+      <c r="AQ9" s="1">
+        <f t="shared" si="14"/>
+        <v>407.32128966058087</v>
+      </c>
+      <c r="AR9" s="1">
+        <f t="shared" si="14"/>
+        <v>366.58916069452277</v>
+      </c>
+      <c r="AS9" s="1">
+        <f t="shared" si="14"/>
+        <v>329.93024462507049</v>
+      </c>
+      <c r="AT9" s="1">
+        <f t="shared" si="14"/>
+        <v>296.93722016256345</v>
+      </c>
+      <c r="AU9" s="1">
+        <f t="shared" si="14"/>
+        <v>267.2434981463071</v>
+      </c>
+    </row>
+    <row r="10" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12">
+        <v>124.2</v>
+      </c>
+      <c r="F10" s="12">
+        <v>117.6</v>
+      </c>
+      <c r="G10" s="12">
+        <v>121.7</v>
+      </c>
+      <c r="H10" s="12">
+        <v>121.5</v>
+      </c>
+      <c r="I10" s="12">
+        <v>120.8</v>
+      </c>
+      <c r="J10" s="12">
+        <v>134.4</v>
+      </c>
+      <c r="K10" s="12">
+        <v>114.7</v>
+      </c>
+      <c r="L10" s="12">
+        <v>115.8</v>
+      </c>
+      <c r="M10" s="12">
+        <f>AVERAGE(I10:L10)</f>
+        <v>121.425</v>
+      </c>
+      <c r="N10" s="12">
+        <f t="shared" ref="N10:N12" si="15">AVERAGE(J10:M10)</f>
+        <v>121.58125000000001</v>
+      </c>
+      <c r="AB10" s="1">
+        <f t="shared" si="4"/>
+        <v>498.4</v>
+      </c>
+      <c r="AC10" s="1">
+        <f t="shared" si="5"/>
+        <v>473.50625000000002</v>
+      </c>
+      <c r="AD10" s="1">
+        <f t="shared" ref="AD10:AU10" si="16">+AC10*0.9</f>
+        <v>426.15562500000004</v>
+      </c>
+      <c r="AE10" s="1">
+        <f t="shared" si="16"/>
+        <v>383.54006250000003</v>
+      </c>
+      <c r="AF10" s="1">
+        <f t="shared" si="16"/>
+        <v>345.18605625000004</v>
+      </c>
+      <c r="AG10" s="1">
+        <f t="shared" si="16"/>
+        <v>310.66745062500001</v>
+      </c>
+      <c r="AH10" s="1">
+        <f t="shared" si="16"/>
+        <v>279.60070556250002</v>
+      </c>
+      <c r="AI10" s="1">
+        <f t="shared" si="16"/>
+        <v>251.64063500625002</v>
+      </c>
+      <c r="AJ10" s="1">
+        <f t="shared" si="16"/>
+        <v>226.47657150562503</v>
+      </c>
+      <c r="AK10" s="1">
+        <f t="shared" si="16"/>
+        <v>203.82891435506252</v>
+      </c>
+      <c r="AL10" s="1">
+        <f t="shared" si="16"/>
+        <v>183.44602291955627</v>
+      </c>
+      <c r="AM10" s="1">
+        <f t="shared" si="16"/>
+        <v>165.10142062760065</v>
+      </c>
+      <c r="AN10" s="1">
+        <f t="shared" si="16"/>
+        <v>148.59127856484059</v>
+      </c>
+      <c r="AO10" s="1">
+        <f t="shared" si="16"/>
+        <v>133.73215070835653</v>
+      </c>
+      <c r="AP10" s="1">
+        <f t="shared" si="16"/>
+        <v>120.35893563752087</v>
+      </c>
+      <c r="AQ10" s="1">
+        <f t="shared" si="16"/>
+        <v>108.32304207376879</v>
+      </c>
+      <c r="AR10" s="1">
+        <f t="shared" si="16"/>
+        <v>97.49073786639191</v>
+      </c>
+      <c r="AS10" s="1">
+        <f t="shared" si="16"/>
+        <v>87.741664079752724</v>
+      </c>
+      <c r="AT10" s="1">
+        <f t="shared" si="16"/>
+        <v>78.967497671777451</v>
+      </c>
+      <c r="AU10" s="1">
+        <f t="shared" si="16"/>
+        <v>71.070747904599713</v>
+      </c>
+    </row>
+    <row r="11" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12">
+        <v>56.2</v>
+      </c>
+      <c r="F11" s="12">
+        <v>53.7</v>
+      </c>
+      <c r="G11" s="12">
+        <v>57.9</v>
+      </c>
+      <c r="H11" s="12">
+        <v>55.6</v>
+      </c>
+      <c r="I11" s="12">
+        <v>57.4</v>
+      </c>
+      <c r="J11" s="12">
+        <v>62.5</v>
+      </c>
+      <c r="K11" s="12">
+        <v>57.1</v>
+      </c>
+      <c r="L11" s="12">
+        <v>57.6</v>
+      </c>
+      <c r="M11" s="12">
+        <f t="shared" ref="M11:M12" si="17">AVERAGE(I11:L11)</f>
+        <v>58.65</v>
+      </c>
+      <c r="N11" s="12">
+        <f t="shared" si="15"/>
+        <v>58.962499999999999</v>
+      </c>
+      <c r="AB11" s="1">
+        <f t="shared" si="4"/>
+        <v>233.4</v>
+      </c>
+      <c r="AC11" s="1">
+        <f t="shared" si="5"/>
+        <v>232.3125</v>
+      </c>
+      <c r="AD11" s="1">
+        <f t="shared" ref="AD11:AU11" si="18">+AC11*0.9</f>
+        <v>209.08125000000001</v>
+      </c>
+      <c r="AE11" s="1">
+        <f t="shared" si="18"/>
+        <v>188.17312500000003</v>
+      </c>
+      <c r="AF11" s="1">
+        <f t="shared" si="18"/>
+        <v>169.35581250000004</v>
+      </c>
+      <c r="AG11" s="1">
+        <f t="shared" si="18"/>
+        <v>152.42023125000003</v>
+      </c>
+      <c r="AH11" s="1">
+        <f t="shared" si="18"/>
+        <v>137.17820812500003</v>
+      </c>
+      <c r="AI11" s="1">
+        <f t="shared" si="18"/>
+        <v>123.46038731250003</v>
+      </c>
+      <c r="AJ11" s="1">
+        <f t="shared" si="18"/>
+        <v>111.11434858125003</v>
+      </c>
+      <c r="AK11" s="1">
+        <f t="shared" si="18"/>
+        <v>100.00291372312503</v>
+      </c>
+      <c r="AL11" s="1">
+        <f t="shared" si="18"/>
+        <v>90.00262235081253</v>
+      </c>
+      <c r="AM11" s="1">
+        <f t="shared" si="18"/>
+        <v>81.002360115731278</v>
+      </c>
+      <c r="AN11" s="1">
+        <f t="shared" si="18"/>
+        <v>72.902124104158148</v>
+      </c>
+      <c r="AO11" s="1">
+        <f t="shared" si="18"/>
+        <v>65.611911693742329</v>
+      </c>
+      <c r="AP11" s="1">
+        <f t="shared" si="18"/>
+        <v>59.050720524368096</v>
+      </c>
+      <c r="AQ11" s="1">
+        <f t="shared" si="18"/>
+        <v>53.145648471931288</v>
+      </c>
+      <c r="AR11" s="1">
+        <f t="shared" si="18"/>
+        <v>47.831083624738163</v>
+      </c>
+      <c r="AS11" s="1">
+        <f t="shared" si="18"/>
+        <v>43.047975262264345</v>
+      </c>
+      <c r="AT11" s="1">
+        <f t="shared" si="18"/>
+        <v>38.743177736037914</v>
+      </c>
+      <c r="AU11" s="1">
+        <f t="shared" si="18"/>
+        <v>34.868859962434122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12">
+        <v>27.5</v>
+      </c>
+      <c r="F12" s="12">
+        <v>26.1</v>
+      </c>
+      <c r="G12" s="12">
+        <v>25.5</v>
+      </c>
+      <c r="H12" s="12">
+        <v>25.3</v>
+      </c>
+      <c r="I12" s="12">
+        <v>24.6</v>
+      </c>
+      <c r="J12" s="12">
+        <v>24</v>
+      </c>
+      <c r="K12" s="12">
+        <v>22.5</v>
+      </c>
+      <c r="L12" s="12">
+        <v>20.5</v>
+      </c>
+      <c r="M12" s="12">
+        <f t="shared" si="17"/>
+        <v>22.9</v>
+      </c>
+      <c r="N12" s="12">
+        <f t="shared" si="15"/>
+        <v>22.475000000000001</v>
+      </c>
+      <c r="AB12" s="1">
+        <f t="shared" si="4"/>
+        <v>99.4</v>
+      </c>
+      <c r="AC12" s="1">
+        <f t="shared" si="5"/>
+        <v>88.375</v>
+      </c>
+      <c r="AD12" s="1">
+        <f t="shared" ref="AD12:AU12" si="19">+AC12*0.9</f>
+        <v>79.537500000000009</v>
+      </c>
+      <c r="AE12" s="1">
+        <f t="shared" si="19"/>
+        <v>71.583750000000009</v>
+      </c>
+      <c r="AF12" s="1">
+        <f t="shared" si="19"/>
+        <v>64.425375000000017</v>
+      </c>
+      <c r="AG12" s="1">
+        <f t="shared" si="19"/>
+        <v>57.982837500000016</v>
+      </c>
+      <c r="AH12" s="1">
+        <f t="shared" si="19"/>
+        <v>52.184553750000013</v>
+      </c>
+      <c r="AI12" s="1">
+        <f t="shared" si="19"/>
+        <v>46.966098375000016</v>
+      </c>
+      <c r="AJ12" s="1">
+        <f t="shared" si="19"/>
+        <v>42.269488537500017</v>
+      </c>
+      <c r="AK12" s="1">
+        <f t="shared" si="19"/>
+        <v>38.042539683750014</v>
+      </c>
+      <c r="AL12" s="1">
+        <f t="shared" si="19"/>
+        <v>34.238285715375014</v>
+      </c>
+      <c r="AM12" s="1">
+        <f t="shared" si="19"/>
+        <v>30.814457143837512</v>
+      </c>
+      <c r="AN12" s="1">
+        <f t="shared" si="19"/>
+        <v>27.733011429453761</v>
+      </c>
+      <c r="AO12" s="1">
+        <f t="shared" si="19"/>
+        <v>24.959710286508386</v>
+      </c>
+      <c r="AP12" s="1">
+        <f t="shared" si="19"/>
+        <v>22.463739257857547</v>
+      </c>
+      <c r="AQ12" s="1">
+        <f t="shared" si="19"/>
+        <v>20.217365332071793</v>
+      </c>
+      <c r="AR12" s="1">
+        <f t="shared" si="19"/>
+        <v>18.195628798864615</v>
+      </c>
+      <c r="AS12" s="1">
+        <f t="shared" si="19"/>
+        <v>16.376065918978153</v>
+      </c>
+      <c r="AT12" s="1">
+        <f t="shared" si="19"/>
+        <v>14.738459327080339</v>
+      </c>
+      <c r="AU12" s="1">
+        <f t="shared" si="19"/>
+        <v>13.264613394372304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0</v>
+      </c>
+      <c r="K13" s="12">
+        <v>0</v>
+      </c>
+      <c r="L13" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="M13" s="12">
+        <f>+L13+3</f>
+        <v>3.5</v>
+      </c>
+      <c r="N13" s="12">
+        <f>+M13+4</f>
+        <v>7.5</v>
+      </c>
+      <c r="AB13" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="1">
+        <f t="shared" si="5"/>
+        <v>11.5</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>50</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>100</v>
+      </c>
+      <c r="AF13" s="1">
+        <f t="shared" ref="AF13:AU13" si="20">+AE13*0.9</f>
+        <v>90</v>
+      </c>
+      <c r="AG13" s="1">
+        <f t="shared" si="20"/>
+        <v>81</v>
+      </c>
+      <c r="AH13" s="1">
+        <f t="shared" si="20"/>
+        <v>72.900000000000006</v>
+      </c>
+      <c r="AI13" s="1">
+        <f t="shared" si="20"/>
+        <v>65.610000000000014</v>
+      </c>
+      <c r="AJ13" s="1">
+        <f t="shared" si="20"/>
+        <v>59.049000000000014</v>
+      </c>
+      <c r="AK13" s="1">
+        <f t="shared" si="20"/>
+        <v>53.144100000000016</v>
+      </c>
+      <c r="AL13" s="1">
+        <f t="shared" si="20"/>
+        <v>47.829690000000014</v>
+      </c>
+      <c r="AM13" s="1">
+        <f t="shared" si="20"/>
+        <v>43.046721000000012</v>
+      </c>
+      <c r="AN13" s="1">
+        <f t="shared" si="20"/>
+        <v>38.742048900000015</v>
+      </c>
+      <c r="AO13" s="1">
+        <f t="shared" si="20"/>
+        <v>34.867844010000013</v>
+      </c>
+      <c r="AP13" s="1">
+        <f t="shared" si="20"/>
+        <v>31.381059609000012</v>
+      </c>
+      <c r="AQ13" s="1">
+        <f t="shared" si="20"/>
+        <v>28.242953648100013</v>
+      </c>
+      <c r="AR13" s="1">
+        <f t="shared" si="20"/>
+        <v>25.418658283290011</v>
+      </c>
+      <c r="AS13" s="1">
+        <f t="shared" si="20"/>
+        <v>22.876792454961009</v>
+      </c>
+      <c r="AT13" s="1">
+        <f t="shared" si="20"/>
+        <v>20.589113209464909</v>
+      </c>
+      <c r="AU13" s="1">
+        <f t="shared" si="20"/>
+        <v>18.53020188851842</v>
+      </c>
+    </row>
+    <row r="14" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12">
+        <v>3.1</v>
+      </c>
+      <c r="F14" s="12">
+        <v>3.1</v>
+      </c>
+      <c r="G14" s="12">
+        <v>2.8</v>
+      </c>
+      <c r="H14" s="12">
+        <v>3.1</v>
+      </c>
+      <c r="I14" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="J14" s="12">
+        <v>2.7</v>
+      </c>
+      <c r="K14" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L14" s="12">
+        <v>2.7</v>
+      </c>
+      <c r="M14" s="12">
+        <f>+L14</f>
+        <v>2.7</v>
+      </c>
+      <c r="N14" s="12">
+        <f t="shared" ref="N14:N16" si="21">+M14</f>
+        <v>2.7</v>
+      </c>
+      <c r="AB14" s="1">
+        <f t="shared" si="4"/>
+        <v>11.100000000000001</v>
+      </c>
+      <c r="AC14" s="1">
+        <f t="shared" si="5"/>
+        <v>10.3</v>
+      </c>
+      <c r="AD14" s="1">
+        <f>+AC14*0.9</f>
+        <v>9.2700000000000014</v>
+      </c>
+      <c r="AE14" s="1">
+        <f t="shared" ref="AE14:AU15" si="22">+AD14*0.9</f>
+        <v>8.3430000000000017</v>
+      </c>
+      <c r="AF14" s="1">
+        <f t="shared" si="22"/>
+        <v>7.5087000000000019</v>
+      </c>
+      <c r="AG14" s="1">
+        <f t="shared" si="22"/>
+        <v>6.757830000000002</v>
+      </c>
+      <c r="AH14" s="1">
+        <f t="shared" si="22"/>
+        <v>6.082047000000002</v>
+      </c>
+      <c r="AI14" s="1">
+        <f t="shared" si="22"/>
+        <v>5.473842300000002</v>
+      </c>
+      <c r="AJ14" s="1">
+        <f t="shared" si="22"/>
+        <v>4.9264580700000016</v>
+      </c>
+      <c r="AK14" s="1">
+        <f t="shared" si="22"/>
+        <v>4.4338122630000019</v>
+      </c>
+      <c r="AL14" s="1">
+        <f t="shared" si="22"/>
+        <v>3.9904310367000018</v>
+      </c>
+      <c r="AM14" s="1">
+        <f t="shared" si="22"/>
+        <v>3.5913879330300018</v>
+      </c>
+      <c r="AN14" s="1">
+        <f t="shared" si="22"/>
+        <v>3.2322491397270019</v>
+      </c>
+      <c r="AO14" s="1">
+        <f t="shared" si="22"/>
+        <v>2.909024225754302</v>
+      </c>
+      <c r="AP14" s="1">
+        <f t="shared" si="22"/>
+        <v>2.6181218031788718</v>
+      </c>
+      <c r="AQ14" s="1">
+        <f t="shared" si="22"/>
+        <v>2.3563096228609846</v>
+      </c>
+      <c r="AR14" s="1">
+        <f t="shared" si="22"/>
+        <v>2.1206786605748862</v>
+      </c>
+      <c r="AS14" s="1">
+        <f t="shared" si="22"/>
+        <v>1.9086107945173976</v>
+      </c>
+      <c r="AT14" s="1">
+        <f t="shared" si="22"/>
+        <v>1.7177497150656578</v>
+      </c>
+      <c r="AU14" s="1">
+        <f t="shared" si="22"/>
+        <v>1.545974743559092</v>
+      </c>
+    </row>
+    <row r="15" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="AD15" s="1">
+        <v>1500</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>4000</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>6000</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>8000</v>
+      </c>
+      <c r="AH15" s="1">
+        <f>+AG15*1.05</f>
+        <v>8400</v>
+      </c>
+      <c r="AI15" s="1">
+        <f t="shared" ref="AI15:AU15" si="23">+AH15*1.05</f>
+        <v>8820</v>
+      </c>
+      <c r="AJ15" s="1">
+        <f t="shared" si="23"/>
+        <v>9261</v>
+      </c>
+      <c r="AK15" s="1">
+        <f>+AJ15*1.02</f>
+        <v>9446.2199999999993</v>
+      </c>
+      <c r="AL15" s="1">
+        <f t="shared" ref="AL15:AU15" si="24">+AK15*1.02</f>
+        <v>9635.1443999999992</v>
+      </c>
+      <c r="AM15" s="1">
+        <f t="shared" si="24"/>
+        <v>9827.847287999999</v>
+      </c>
+      <c r="AN15" s="1">
+        <f t="shared" si="24"/>
+        <v>10024.404233759999</v>
+      </c>
+      <c r="AO15" s="1">
+        <f t="shared" si="24"/>
+        <v>10224.892318435199</v>
+      </c>
+      <c r="AP15" s="1">
+        <f t="shared" si="24"/>
+        <v>10429.390164803903</v>
+      </c>
+      <c r="AQ15" s="1">
+        <f t="shared" si="24"/>
+        <v>10637.977968099982</v>
+      </c>
+      <c r="AR15" s="1">
+        <f t="shared" si="24"/>
+        <v>10850.737527461981</v>
+      </c>
+      <c r="AS15" s="1">
+        <f t="shared" si="24"/>
+        <v>11067.752278011221</v>
+      </c>
+      <c r="AT15" s="1">
+        <f t="shared" si="24"/>
+        <v>11289.107323571447</v>
+      </c>
+      <c r="AU15" s="1">
+        <f t="shared" si="24"/>
+        <v>11514.889470042875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12">
+        <v>0</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0</v>
+      </c>
+      <c r="H16" s="12">
+        <v>1.6</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="J16" s="12">
+        <v>1</v>
+      </c>
+      <c r="K16" s="12">
+        <v>2.8</v>
+      </c>
+      <c r="L16" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M16" s="12">
+        <f>+L16</f>
+        <v>0.1</v>
+      </c>
+      <c r="N16" s="12">
+        <f t="shared" si="21"/>
+        <v>0.1</v>
+      </c>
+      <c r="AB16" s="1">
+        <f t="shared" si="4"/>
+        <v>2.9000000000000004</v>
+      </c>
+      <c r="AC16" s="1">
+        <f t="shared" si="5"/>
+        <v>3.1</v>
+      </c>
+      <c r="AD16" s="1">
+        <f t="shared" ref="AD16:AU16" si="25">+AC16*0.9</f>
+        <v>2.79</v>
+      </c>
+      <c r="AE16" s="1">
+        <f t="shared" si="25"/>
+        <v>2.5110000000000001</v>
+      </c>
+      <c r="AF16" s="1">
+        <f t="shared" si="25"/>
+        <v>2.2599</v>
+      </c>
+      <c r="AG16" s="1">
+        <f t="shared" si="25"/>
+        <v>2.0339100000000001</v>
+      </c>
+      <c r="AH16" s="1">
+        <f t="shared" si="25"/>
+        <v>1.8305190000000002</v>
+      </c>
+      <c r="AI16" s="1">
+        <f t="shared" si="25"/>
+        <v>1.6474671000000003</v>
+      </c>
+      <c r="AJ16" s="1">
+        <f t="shared" si="25"/>
+        <v>1.4827203900000003</v>
+      </c>
+      <c r="AK16" s="1">
+        <f t="shared" si="25"/>
+        <v>1.3344483510000003</v>
+      </c>
+      <c r="AL16" s="1">
+        <f t="shared" si="25"/>
+        <v>1.2010035159000003</v>
+      </c>
+      <c r="AM16" s="1">
+        <f t="shared" si="25"/>
+        <v>1.0809031643100002</v>
+      </c>
+      <c r="AN16" s="1">
+        <f t="shared" si="25"/>
+        <v>0.97281284787900024</v>
+      </c>
+      <c r="AO16" s="1">
+        <f t="shared" si="25"/>
+        <v>0.87553156309110025</v>
+      </c>
+      <c r="AP16" s="1">
+        <f t="shared" si="25"/>
+        <v>0.78797840678199027</v>
+      </c>
+      <c r="AQ16" s="1">
+        <f t="shared" si="25"/>
+        <v>0.70918056610379121</v>
+      </c>
+      <c r="AR16" s="1">
+        <f t="shared" si="25"/>
+        <v>0.63826250949341212</v>
+      </c>
+      <c r="AS16" s="1">
+        <f t="shared" si="25"/>
+        <v>0.57443625854407088</v>
+      </c>
+      <c r="AT16" s="1">
+        <f t="shared" si="25"/>
+        <v>0.51699263268966378</v>
+      </c>
+      <c r="AU16" s="1">
+        <f t="shared" si="25"/>
+        <v>0.46529336942069743</v>
+      </c>
+    </row>
+    <row r="17" spans="2:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12">
+        <f t="shared" ref="E17:G17" si="26">SUM(E3:E16)</f>
+        <v>2690.2999999999993</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" si="26"/>
+        <v>2301.5999999999995</v>
+      </c>
+      <c r="G17" s="12">
+        <f t="shared" si="26"/>
+        <v>2211.7000000000003</v>
+      </c>
+      <c r="H17" s="12">
+        <f>SUM(H3:H16)</f>
+        <v>2235.9999999999995</v>
+      </c>
+      <c r="I17" s="12">
+        <f t="shared" ref="I17:L17" si="27">SUM(I3:I16)</f>
+        <v>2205.7000000000003</v>
+      </c>
+      <c r="J17" s="12">
+        <f t="shared" si="27"/>
+        <v>2193.7999999999997</v>
+      </c>
+      <c r="K17" s="12">
+        <f t="shared" si="27"/>
+        <v>2066.3000000000002</v>
+      </c>
+      <c r="L17" s="12">
+        <f t="shared" si="27"/>
+        <v>2054.7999999999997</v>
+      </c>
+      <c r="M17" s="12">
+        <f t="shared" ref="M17" si="28">SUM(M3:M16)</f>
+        <v>2097.6289999999999</v>
+      </c>
+      <c r="N17" s="12">
+        <f t="shared" ref="N17" si="29">SUM(N3:N16)</f>
+        <v>2072.95975</v>
+      </c>
+      <c r="AB17" s="1">
+        <f>SUM(AB3:AB16)</f>
+        <v>8847.1999999999989</v>
+      </c>
+      <c r="AC17" s="1">
+        <f t="shared" ref="AC17:AU17" si="30">SUM(AC3:AC16)</f>
+        <v>8291.6887499999993</v>
+      </c>
+      <c r="AD17" s="1">
+        <f>SUM(AD3:AD16)</f>
+        <v>9206.2570250000026</v>
+      </c>
+      <c r="AE17" s="1">
+        <f t="shared" si="30"/>
+        <v>11238.378644</v>
+      </c>
+      <c r="AF17" s="1">
+        <f t="shared" si="30"/>
+        <v>12457.553034275001</v>
+      </c>
+      <c r="AG17" s="1">
+        <f t="shared" si="30"/>
+        <v>13751.879308071251</v>
+      </c>
+      <c r="AH17" s="1">
+        <f t="shared" si="30"/>
+        <v>13548.519156076811</v>
+      </c>
+      <c r="AI17" s="1">
+        <f t="shared" si="30"/>
+        <v>13452.121735472589</v>
+      </c>
+      <c r="AJ17" s="1">
+        <f t="shared" si="30"/>
+        <v>13450.818154843579</v>
+      </c>
+      <c r="AK17" s="1">
+        <f t="shared" si="30"/>
+        <v>13257.019602640732</v>
+      </c>
+      <c r="AL17" s="1">
+        <f t="shared" si="30"/>
+        <v>12668.551356378264</v>
+      </c>
+      <c r="AM17" s="1">
+        <f t="shared" si="30"/>
+        <v>12471.169979951885</v>
+      </c>
+      <c r="AN17" s="1">
+        <f t="shared" si="30"/>
+        <v>12333.969884533082</v>
+      </c>
+      <c r="AO17" s="1">
+        <f t="shared" si="30"/>
+        <v>12248.105142757209</v>
+      </c>
+      <c r="AP17" s="1">
+        <f t="shared" si="30"/>
+        <v>12206.247256717688</v>
+      </c>
+      <c r="AQ17" s="1">
+        <f t="shared" si="30"/>
+        <v>12202.314475620853</v>
+      </c>
+      <c r="AR17" s="1">
+        <f t="shared" si="30"/>
+        <v>12231.251150180433</v>
+      </c>
+      <c r="AS17" s="1">
+        <f t="shared" si="30"/>
+        <v>12288.847657257902</v>
+      </c>
+      <c r="AT17" s="1">
+        <f t="shared" si="30"/>
+        <v>12371.593247921581</v>
+      </c>
+      <c r="AU17" s="1">
+        <f t="shared" si="30"/>
+        <v>12476.555638131438</v>
+      </c>
+    </row>
+    <row r="18" spans="2:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12">
+        <v>272.39999999999998</v>
+      </c>
+      <c r="F18" s="12">
+        <v>202.4</v>
+      </c>
+      <c r="G18" s="12">
+        <v>209.3</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12">
+        <v>264.3</v>
+      </c>
+      <c r="J18" s="12">
+        <v>261.2</v>
+      </c>
+      <c r="K18" s="12">
+        <v>252.3</v>
+      </c>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="AB18" s="1">
+        <f t="shared" si="4"/>
+        <v>734.8</v>
+      </c>
+      <c r="AC18" s="1">
+        <f>SUM(K18:N18)</f>
+        <v>252.3</v>
+      </c>
+      <c r="AD18" s="1">
+        <f>+AC18*0.9</f>
+        <v>227.07000000000002</v>
+      </c>
+      <c r="AE18" s="1">
+        <f t="shared" ref="AE18:AU18" si="31">+AD18*0.9</f>
+        <v>204.36300000000003</v>
+      </c>
+      <c r="AF18" s="1">
+        <f t="shared" si="31"/>
+        <v>183.92670000000004</v>
+      </c>
+      <c r="AG18" s="1">
+        <f t="shared" si="31"/>
+        <v>165.53403000000003</v>
+      </c>
+      <c r="AH18" s="1">
+        <f t="shared" si="31"/>
+        <v>148.98062700000003</v>
+      </c>
+      <c r="AI18" s="1">
+        <f t="shared" si="31"/>
+        <v>134.08256430000003</v>
+      </c>
+      <c r="AJ18" s="1">
+        <f t="shared" si="31"/>
+        <v>120.67430787000004</v>
+      </c>
+      <c r="AK18" s="1">
+        <f t="shared" si="31"/>
+        <v>108.60687708300003</v>
+      </c>
+      <c r="AL18" s="1">
+        <f t="shared" si="31"/>
+        <v>97.746189374700023</v>
+      </c>
+      <c r="AM18" s="1">
+        <f t="shared" si="31"/>
+        <v>87.971570437230028</v>
+      </c>
+      <c r="AN18" s="1">
+        <f t="shared" si="31"/>
+        <v>79.174413393507024</v>
+      </c>
+      <c r="AO18" s="1">
+        <f t="shared" si="31"/>
+        <v>71.256972054156321</v>
+      </c>
+      <c r="AP18" s="1">
+        <f t="shared" si="31"/>
+        <v>64.131274848740688</v>
+      </c>
+      <c r="AQ18" s="1">
+        <f t="shared" si="31"/>
+        <v>57.71814736386662</v>
+      </c>
+      <c r="AR18" s="1">
+        <f t="shared" si="31"/>
+        <v>51.946332627479961</v>
+      </c>
+      <c r="AS18" s="1">
+        <f t="shared" si="31"/>
+        <v>46.751699364731969</v>
+      </c>
+      <c r="AT18" s="1">
+        <f t="shared" si="31"/>
+        <v>42.076529428258773</v>
+      </c>
+      <c r="AU18" s="1">
+        <f t="shared" si="31"/>
+        <v>37.868876485432899</v>
+      </c>
+    </row>
+    <row r="19" spans="2:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12">
+        <v>287.7</v>
+      </c>
+      <c r="F19" s="12">
+        <v>216.6</v>
+      </c>
+      <c r="G19" s="12">
+        <v>179.7</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12">
+        <v>151.1</v>
+      </c>
+      <c r="J19" s="12">
+        <v>152.9</v>
+      </c>
+      <c r="K19" s="12">
+        <v>147.1</v>
+      </c>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="AB19" s="1">
+        <f t="shared" si="4"/>
+        <v>483.69999999999993</v>
+      </c>
+      <c r="AC19" s="1">
+        <f t="shared" si="5"/>
+        <v>147.1</v>
+      </c>
+      <c r="AD19" s="1">
+        <f t="shared" ref="AD19:AU19" si="32">+AC19*0.9</f>
+        <v>132.38999999999999</v>
+      </c>
+      <c r="AE19" s="1">
+        <f t="shared" si="32"/>
+        <v>119.151</v>
+      </c>
+      <c r="AF19" s="1">
+        <f t="shared" si="32"/>
+        <v>107.2359</v>
+      </c>
+      <c r="AG19" s="1">
+        <f t="shared" si="32"/>
+        <v>96.512309999999999</v>
+      </c>
+      <c r="AH19" s="1">
+        <f t="shared" si="32"/>
+        <v>86.861079000000004</v>
+      </c>
+      <c r="AI19" s="1">
+        <f t="shared" si="32"/>
+        <v>78.174971100000008</v>
+      </c>
+      <c r="AJ19" s="1">
+        <f t="shared" si="32"/>
+        <v>70.357473990000003</v>
+      </c>
+      <c r="AK19" s="1">
+        <f t="shared" si="32"/>
+        <v>63.321726591000001</v>
+      </c>
+      <c r="AL19" s="1">
+        <f t="shared" si="32"/>
+        <v>56.989553931900005</v>
+      </c>
+      <c r="AM19" s="1">
+        <f t="shared" si="32"/>
+        <v>51.290598538710007</v>
+      </c>
+      <c r="AN19" s="1">
+        <f t="shared" si="32"/>
+        <v>46.161538684839009</v>
+      </c>
+      <c r="AO19" s="1">
+        <f t="shared" si="32"/>
+        <v>41.54538481635511</v>
+      </c>
+      <c r="AP19" s="1">
+        <f t="shared" si="32"/>
+        <v>37.390846334719598</v>
+      </c>
+      <c r="AQ19" s="1">
+        <f t="shared" si="32"/>
+        <v>33.651761701247636</v>
+      </c>
+      <c r="AR19" s="1">
+        <f t="shared" si="32"/>
+        <v>30.286585531122874</v>
+      </c>
+      <c r="AS19" s="1">
+        <f t="shared" si="32"/>
+        <v>27.257926978010588</v>
+      </c>
+      <c r="AT19" s="1">
+        <f t="shared" si="32"/>
+        <v>24.532134280209529</v>
+      </c>
+      <c r="AU19" s="1">
+        <f t="shared" si="32"/>
+        <v>22.078920852188578</v>
+      </c>
+    </row>
+    <row r="20" spans="2:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12">
+        <v>440</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12">
+        <v>436.3</v>
+      </c>
+      <c r="M20" s="12">
+        <f>+L20</f>
+        <v>436.3</v>
+      </c>
+      <c r="N20" s="12">
+        <f>+M20</f>
+        <v>436.3</v>
+      </c>
+      <c r="AB20" s="1">
+        <f t="shared" si="4"/>
+        <v>440</v>
+      </c>
+      <c r="AC20" s="1">
+        <f t="shared" si="5"/>
+        <v>1308.9000000000001</v>
+      </c>
+      <c r="AD20" s="1">
+        <f t="shared" ref="AD20:AU20" si="33">+AC20*0.9</f>
+        <v>1178.0100000000002</v>
+      </c>
+      <c r="AE20" s="1">
+        <f t="shared" si="33"/>
+        <v>1060.2090000000003</v>
+      </c>
+      <c r="AF20" s="1">
+        <f t="shared" si="33"/>
+        <v>954.1881000000003</v>
+      </c>
+      <c r="AG20" s="1">
+        <f t="shared" si="33"/>
+        <v>858.7692900000003</v>
+      </c>
+      <c r="AH20" s="1">
+        <f t="shared" si="33"/>
+        <v>772.89236100000028</v>
+      </c>
+      <c r="AI20" s="1">
+        <f t="shared" si="33"/>
+        <v>695.60312490000024</v>
+      </c>
+      <c r="AJ20" s="1">
+        <f t="shared" si="33"/>
+        <v>626.04281241000024</v>
+      </c>
+      <c r="AK20" s="1">
+        <f t="shared" si="33"/>
+        <v>563.43853116900027</v>
+      </c>
+      <c r="AL20" s="1">
+        <f t="shared" si="33"/>
+        <v>507.09467805210028</v>
+      </c>
+      <c r="AM20" s="1">
+        <f t="shared" si="33"/>
+        <v>456.38521024689027</v>
+      </c>
+      <c r="AN20" s="1">
+        <f t="shared" si="33"/>
+        <v>410.74668922220127</v>
+      </c>
+      <c r="AO20" s="1">
+        <f t="shared" si="33"/>
+        <v>369.67202029998117</v>
+      </c>
+      <c r="AP20" s="1">
+        <f t="shared" si="33"/>
+        <v>332.70481826998304</v>
+      </c>
+      <c r="AQ20" s="1">
+        <f t="shared" si="33"/>
+        <v>299.43433644298472</v>
+      </c>
+      <c r="AR20" s="1">
+        <f t="shared" si="33"/>
+        <v>269.49090279868625</v>
+      </c>
+      <c r="AS20" s="1">
+        <f t="shared" si="33"/>
+        <v>242.54181251881764</v>
+      </c>
+      <c r="AT20" s="1">
+        <f t="shared" si="33"/>
+        <v>218.28763126693588</v>
+      </c>
+      <c r="AU20" s="1">
+        <f t="shared" si="33"/>
+        <v>196.45886814024229</v>
+      </c>
+    </row>
+    <row r="21" spans="2:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12">
+        <v>125.7</v>
+      </c>
+      <c r="F21" s="12">
+        <v>132</v>
+      </c>
+      <c r="G21" s="12">
+        <v>93.3</v>
+      </c>
+      <c r="H21" s="12">
+        <v>99</v>
+      </c>
+      <c r="I21" s="12">
+        <v>157.80000000000001</v>
+      </c>
+      <c r="J21" s="12">
+        <v>126.2</v>
+      </c>
+      <c r="K21" s="12">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="L21" s="12">
+        <v>98</v>
+      </c>
+      <c r="M21" s="12">
+        <f>+L21</f>
+        <v>98</v>
+      </c>
+      <c r="N21" s="12">
+        <f>+M21</f>
+        <v>98</v>
+      </c>
+      <c r="AB21" s="1">
+        <f t="shared" si="4"/>
+        <v>476.3</v>
+      </c>
+      <c r="AC21" s="1">
+        <f t="shared" si="5"/>
+        <v>360.1</v>
+      </c>
+      <c r="AD21" s="1">
+        <f t="shared" ref="AD21:AU21" si="34">+AC21*0.9</f>
+        <v>324.09000000000003</v>
+      </c>
+      <c r="AE21" s="1">
+        <f t="shared" si="34"/>
+        <v>291.68100000000004</v>
+      </c>
+      <c r="AF21" s="1">
+        <f t="shared" si="34"/>
+        <v>262.51290000000006</v>
+      </c>
+      <c r="AG21" s="1">
+        <f t="shared" si="34"/>
+        <v>236.26161000000005</v>
+      </c>
+      <c r="AH21" s="1">
+        <f t="shared" si="34"/>
+        <v>212.63544900000005</v>
+      </c>
+      <c r="AI21" s="1">
+        <f t="shared" si="34"/>
+        <v>191.37190410000005</v>
+      </c>
+      <c r="AJ21" s="1">
+        <f t="shared" si="34"/>
+        <v>172.23471369000006</v>
+      </c>
+      <c r="AK21" s="1">
+        <f t="shared" si="34"/>
+        <v>155.01124232100005</v>
+      </c>
+      <c r="AL21" s="1">
+        <f t="shared" si="34"/>
+        <v>139.51011808890004</v>
+      </c>
+      <c r="AM21" s="1">
+        <f t="shared" si="34"/>
+        <v>125.55910628001004</v>
+      </c>
+      <c r="AN21" s="1">
+        <f t="shared" si="34"/>
+        <v>113.00319565200904</v>
+      </c>
+      <c r="AO21" s="1">
+        <f t="shared" si="34"/>
+        <v>101.70287608680813</v>
+      </c>
+      <c r="AP21" s="1">
+        <f t="shared" si="34"/>
+        <v>91.532588478127323</v>
+      </c>
+      <c r="AQ21" s="1">
+        <f t="shared" si="34"/>
+        <v>82.379329630314587</v>
+      </c>
+      <c r="AR21" s="1">
+        <f t="shared" si="34"/>
+        <v>74.141396667283132</v>
+      </c>
+      <c r="AS21" s="1">
+        <f t="shared" si="34"/>
+        <v>66.727257000554815</v>
+      </c>
+      <c r="AT21" s="1">
+        <f t="shared" si="34"/>
+        <v>60.054531300499335</v>
+      </c>
+      <c r="AU21" s="1">
+        <f t="shared" si="34"/>
+        <v>54.049078170449405</v>
+      </c>
+    </row>
+    <row r="22" spans="2:47" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14">
+        <f>SUM(E17:E21)</f>
+        <v>3376.099999999999</v>
+      </c>
+      <c r="F22" s="14">
+        <f>SUM(F17:F21)</f>
+        <v>2852.5999999999995</v>
+      </c>
+      <c r="G22" s="14">
+        <f>SUM(G17:G21)</f>
+        <v>2694.0000000000005</v>
+      </c>
+      <c r="H22" s="14">
+        <f>SUM(H17:H21)</f>
+        <v>2774.9999999999995</v>
+      </c>
+      <c r="I22" s="14">
+        <f>SUM(I17:I21)</f>
+        <v>2778.9000000000005</v>
+      </c>
+      <c r="J22" s="14">
+        <f>SUM(J17:J21)</f>
+        <v>2734.0999999999995</v>
+      </c>
+      <c r="K22" s="14">
+        <f>SUM(K17:K21)</f>
+        <v>2531.8000000000002</v>
+      </c>
+      <c r="L22" s="14">
+        <f>SUM(L17:L21)</f>
+        <v>2589.1</v>
+      </c>
+      <c r="M22" s="14">
+        <f t="shared" ref="M22:N22" si="35">SUM(M17:M21)</f>
+        <v>2631.9290000000001</v>
+      </c>
+      <c r="N22" s="14">
+        <f t="shared" si="35"/>
+        <v>2607.2597500000002</v>
+      </c>
+      <c r="AB22" s="14">
+        <f t="shared" ref="AB22:AC22" si="36">SUM(AB17:AB21)</f>
+        <v>10981.999999999998</v>
+      </c>
+      <c r="AC22" s="14">
+        <f>SUM(AC17:AC21)</f>
+        <v>10360.088749999999</v>
+      </c>
+      <c r="AD22" s="14">
+        <f t="shared" ref="AD22:AU22" si="37">SUM(AD17:AD21)</f>
+        <v>11067.817025000002</v>
+      </c>
+      <c r="AE22" s="14">
+        <f t="shared" si="37"/>
+        <v>12913.782644000001</v>
+      </c>
+      <c r="AF22" s="14">
+        <f t="shared" si="37"/>
+        <v>13965.416634275001</v>
+      </c>
+      <c r="AG22" s="14">
+        <f t="shared" si="37"/>
+        <v>15108.956548071252</v>
+      </c>
+      <c r="AH22" s="14">
+        <f t="shared" si="37"/>
+        <v>14769.888672076811</v>
+      </c>
+      <c r="AI22" s="14">
+        <f t="shared" si="37"/>
+        <v>14551.35429987259</v>
+      </c>
+      <c r="AJ22" s="14">
+        <f t="shared" si="37"/>
+        <v>14440.127462803579</v>
+      </c>
+      <c r="AK22" s="14">
+        <f t="shared" si="37"/>
+        <v>14147.397979804733</v>
+      </c>
+      <c r="AL22" s="14">
+        <f t="shared" si="37"/>
+        <v>13469.891895825866</v>
+      </c>
+      <c r="AM22" s="14">
+        <f t="shared" si="37"/>
+        <v>13192.376465454725</v>
+      </c>
+      <c r="AN22" s="14">
+        <f t="shared" si="37"/>
+        <v>12983.055721485638</v>
+      </c>
+      <c r="AO22" s="14">
+        <f t="shared" si="37"/>
+        <v>12832.282396014509</v>
+      </c>
+      <c r="AP22" s="14">
+        <f t="shared" si="37"/>
+        <v>12732.006784649258</v>
+      </c>
+      <c r="AQ22" s="14">
+        <f t="shared" si="37"/>
+        <v>12675.498050759265</v>
+      </c>
+      <c r="AR22" s="14">
+        <f t="shared" si="37"/>
+        <v>12657.116367805005</v>
+      </c>
+      <c r="AS22" s="14">
+        <f t="shared" si="37"/>
+        <v>12672.126353120017</v>
+      </c>
+      <c r="AT22" s="14">
+        <f t="shared" si="37"/>
+        <v>12716.544074197483</v>
+      </c>
+      <c r="AU22" s="14">
+        <f t="shared" si="37"/>
+        <v>12787.011381779752</v>
+      </c>
+    </row>
+    <row r="23" spans="2:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12">
+        <v>449.1</v>
+      </c>
+      <c r="F23" s="12">
+        <v>490.6</v>
+      </c>
+      <c r="G23" s="12">
+        <v>478.1</v>
+      </c>
+      <c r="H23" s="12">
+        <v>459.7</v>
+      </c>
+      <c r="I23" s="12">
+        <v>511.8</v>
+      </c>
+      <c r="J23" s="12">
+        <v>660.1</v>
+      </c>
+      <c r="K23" s="12">
+        <v>753.9</v>
+      </c>
+      <c r="L23" s="12">
+        <v>484</v>
+      </c>
+      <c r="M23" s="12">
+        <f>+M22-M24</f>
+        <v>500.06650999999965</v>
+      </c>
+      <c r="N23" s="12">
+        <f t="shared" ref="N23" si="38">+N22-N24</f>
+        <v>495.3793525000001</v>
+      </c>
+      <c r="AB23" s="1">
+        <f t="shared" ref="AB23" si="39">SUM(G23:J23)</f>
+        <v>2109.6999999999998</v>
+      </c>
+      <c r="AC23" s="1">
+        <f t="shared" ref="AC23" si="40">SUM(K23:N23)</f>
+        <v>2233.3458624999998</v>
+      </c>
+      <c r="AD23" s="1">
+        <f>+AD22-AD24</f>
+        <v>1992.2070645000003</v>
+      </c>
+      <c r="AE23" s="1">
+        <f t="shared" ref="AE23:AU23" si="41">+AE22-AE24</f>
+        <v>2324.4808759200005</v>
+      </c>
+      <c r="AF23" s="1">
+        <f t="shared" si="41"/>
+        <v>2513.7749941695001</v>
+      </c>
+      <c r="AG23" s="1">
+        <f t="shared" si="41"/>
+        <v>2719.6121786528256</v>
+      </c>
+      <c r="AH23" s="1">
+        <f t="shared" si="41"/>
+        <v>2658.579960973826</v>
+      </c>
+      <c r="AI23" s="1">
+        <f t="shared" si="41"/>
+        <v>2619.2437739770667</v>
+      </c>
+      <c r="AJ23" s="1">
+        <f t="shared" si="41"/>
+        <v>2599.222943304645</v>
+      </c>
+      <c r="AK23" s="1">
+        <f t="shared" si="41"/>
+        <v>2546.5316363648526</v>
+      </c>
+      <c r="AL23" s="1">
+        <f t="shared" si="41"/>
+        <v>2424.580541248657</v>
+      </c>
+      <c r="AM23" s="1">
+        <f t="shared" si="41"/>
+        <v>2374.6277637818512</v>
+      </c>
+      <c r="AN23" s="1">
+        <f t="shared" si="41"/>
+        <v>2336.9500298674157</v>
+      </c>
+      <c r="AO23" s="1">
+        <f t="shared" si="41"/>
+        <v>2309.8108312826116</v>
+      </c>
+      <c r="AP23" s="1">
+        <f t="shared" si="41"/>
+        <v>2291.7612212368676</v>
+      </c>
+      <c r="AQ23" s="1">
+        <f t="shared" si="41"/>
+        <v>2281.5896491366675</v>
+      </c>
+      <c r="AR23" s="1">
+        <f t="shared" si="41"/>
+        <v>2278.2809462049008</v>
+      </c>
+      <c r="AS23" s="1">
+        <f t="shared" si="41"/>
+        <v>2280.9827435616044</v>
+      </c>
+      <c r="AT23" s="1">
+        <f t="shared" si="41"/>
+        <v>2288.9779333555471</v>
+      </c>
+      <c r="AU23" s="1">
+        <f t="shared" si="41"/>
+        <v>2301.6620487203563</v>
+      </c>
+    </row>
+    <row r="24" spans="2:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12">
+        <f>+E22-E23</f>
+        <v>2926.9999999999991</v>
+      </c>
+      <c r="F24" s="12">
+        <f>+F22-F23</f>
+        <v>2361.9999999999995</v>
+      </c>
+      <c r="G24" s="12">
+        <f>+G22-G23</f>
+        <v>2215.9000000000005</v>
+      </c>
+      <c r="H24" s="12">
+        <f>+H22-H23</f>
+        <v>2315.2999999999997</v>
+      </c>
+      <c r="I24" s="12">
+        <f>+I22-I23</f>
+        <v>2267.1000000000004</v>
+      </c>
+      <c r="J24" s="12">
+        <f>+J22-J23</f>
+        <v>2073.9999999999995</v>
+      </c>
+      <c r="K24" s="12">
+        <f>+K22-K23</f>
+        <v>1777.9</v>
+      </c>
+      <c r="L24" s="12">
+        <f>+L22-L23</f>
+        <v>2105.1</v>
+      </c>
+      <c r="M24" s="12">
+        <f>+M22*0.81</f>
+        <v>2131.8624900000004</v>
+      </c>
+      <c r="N24" s="12">
+        <f t="shared" ref="N24" si="42">+N22*0.81</f>
+        <v>2111.8803975000001</v>
+      </c>
+      <c r="AB24" s="1">
+        <f>+AB22-AB23</f>
+        <v>8872.2999999999993</v>
+      </c>
+      <c r="AC24" s="1">
+        <f>+AC22-AC23</f>
+        <v>8126.7428874999987</v>
+      </c>
+      <c r="AD24" s="1">
+        <f>+AD22*0.82</f>
+        <v>9075.6099605000018</v>
+      </c>
+      <c r="AE24" s="1">
+        <f t="shared" ref="AE24:AU24" si="43">+AE22*0.82</f>
+        <v>10589.30176808</v>
+      </c>
+      <c r="AF24" s="1">
+        <f t="shared" si="43"/>
+        <v>11451.641640105501</v>
+      </c>
+      <c r="AG24" s="1">
+        <f t="shared" si="43"/>
+        <v>12389.344369418426</v>
+      </c>
+      <c r="AH24" s="1">
+        <f t="shared" si="43"/>
+        <v>12111.308711102985</v>
+      </c>
+      <c r="AI24" s="1">
+        <f t="shared" si="43"/>
+        <v>11932.110525895523</v>
+      </c>
+      <c r="AJ24" s="1">
+        <f t="shared" si="43"/>
+        <v>11840.904519498934</v>
+      </c>
+      <c r="AK24" s="1">
+        <f t="shared" si="43"/>
+        <v>11600.86634343988</v>
+      </c>
+      <c r="AL24" s="1">
+        <f t="shared" si="43"/>
+        <v>11045.311354577208</v>
+      </c>
+      <c r="AM24" s="1">
+        <f t="shared" si="43"/>
+        <v>10817.748701672874</v>
+      </c>
+      <c r="AN24" s="1">
+        <f t="shared" si="43"/>
+        <v>10646.105691618222</v>
+      </c>
+      <c r="AO24" s="1">
+        <f t="shared" si="43"/>
+        <v>10522.471564731897</v>
+      </c>
+      <c r="AP24" s="1">
+        <f t="shared" si="43"/>
+        <v>10440.245563412391</v>
+      </c>
+      <c r="AQ24" s="1">
+        <f t="shared" si="43"/>
+        <v>10393.908401622597</v>
+      </c>
+      <c r="AR24" s="1">
+        <f t="shared" si="43"/>
+        <v>10378.835421600104</v>
+      </c>
+      <c r="AS24" s="1">
+        <f t="shared" si="43"/>
+        <v>10391.143609558412</v>
+      </c>
+      <c r="AT24" s="1">
+        <f t="shared" si="43"/>
+        <v>10427.566140841936</v>
+      </c>
+      <c r="AU24" s="1">
+        <f t="shared" si="43"/>
+        <v>10485.349333059396</v>
+      </c>
+    </row>
+    <row r="25" spans="2:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12">
+        <v>1140.9000000000001</v>
+      </c>
+      <c r="F25" s="12">
+        <v>1726</v>
+      </c>
+      <c r="G25" s="12">
+        <v>514.20000000000005</v>
+      </c>
+      <c r="H25" s="12">
+        <v>585.1</v>
+      </c>
+      <c r="I25" s="12">
+        <v>702.4</v>
+      </c>
+      <c r="J25" s="12">
+        <v>699.5</v>
+      </c>
+      <c r="K25" s="12">
+        <v>551.70000000000005</v>
+      </c>
+      <c r="L25" s="12">
+        <v>528.6</v>
+      </c>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="AB25" s="1">
+        <f t="shared" ref="AB25:AB26" si="44">SUM(G25:J25)</f>
+        <v>2501.2000000000003</v>
+      </c>
+      <c r="AC25" s="1">
+        <f t="shared" ref="AC25:AC26" si="45">SUM(K25:N25)</f>
+        <v>1080.3000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="2:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12">
+        <v>573.1</v>
+      </c>
+      <c r="F26" s="12">
+        <v>806.3</v>
+      </c>
+      <c r="G26" s="12">
+        <v>595</v>
+      </c>
+      <c r="H26" s="12">
+        <v>637.29999999999995</v>
+      </c>
+      <c r="I26" s="12">
+        <v>654.1</v>
+      </c>
+      <c r="J26" s="12">
+        <v>787.9</v>
+      </c>
+      <c r="K26" s="12">
+        <v>634.9</v>
+      </c>
+      <c r="L26" s="12">
+        <v>572.6</v>
+      </c>
+      <c r="M26" s="12">
+        <f>+L26</f>
+        <v>572.6</v>
+      </c>
+      <c r="N26" s="12">
+        <f>+M26+50</f>
+        <v>622.6</v>
+      </c>
+      <c r="AB26" s="1">
+        <f t="shared" si="44"/>
+        <v>2674.3</v>
+      </c>
+      <c r="AC26" s="1">
+        <f t="shared" si="45"/>
+        <v>2402.6999999999998</v>
+      </c>
+      <c r="AD26" s="1">
+        <f>+AC26*0.95</f>
+        <v>2282.5649999999996</v>
+      </c>
+      <c r="AE26" s="1">
+        <f t="shared" ref="AE26:AU26" si="46">+AD26*0.95</f>
+        <v>2168.4367499999994</v>
+      </c>
+      <c r="AF26" s="1">
+        <f t="shared" si="46"/>
+        <v>2060.0149124999994</v>
+      </c>
+      <c r="AG26" s="1">
+        <f t="shared" si="46"/>
+        <v>1957.0141668749993</v>
+      </c>
+      <c r="AH26" s="1">
+        <f t="shared" si="46"/>
+        <v>1859.1634585312493</v>
+      </c>
+      <c r="AI26" s="1">
+        <f t="shared" si="46"/>
+        <v>1766.2052856046867</v>
+      </c>
+      <c r="AJ26" s="1">
+        <f t="shared" si="46"/>
+        <v>1677.8950213244523</v>
+      </c>
+      <c r="AK26" s="1">
+        <f t="shared" si="46"/>
+        <v>1594.0002702582296</v>
+      </c>
+      <c r="AL26" s="1">
+        <f t="shared" si="46"/>
+        <v>1514.3002567453182</v>
+      </c>
+      <c r="AM26" s="1">
+        <f t="shared" si="46"/>
+        <v>1438.5852439080522</v>
+      </c>
+      <c r="AN26" s="1">
+        <f t="shared" si="46"/>
+        <v>1366.6559817126495</v>
+      </c>
+      <c r="AO26" s="1">
+        <f t="shared" si="46"/>
+        <v>1298.3231826270169</v>
+      </c>
+      <c r="AP26" s="1">
+        <f t="shared" si="46"/>
+        <v>1233.407023495666</v>
+      </c>
+      <c r="AQ26" s="1">
+        <f t="shared" si="46"/>
+        <v>1171.7366723208827</v>
+      </c>
+      <c r="AR26" s="1">
+        <f t="shared" si="46"/>
+        <v>1113.1498387048384</v>
+      </c>
+      <c r="AS26" s="1">
+        <f t="shared" si="46"/>
+        <v>1057.4923467695965</v>
+      </c>
+      <c r="AT26" s="1">
+        <f t="shared" si="46"/>
+        <v>1004.6177294311166</v>
+      </c>
+      <c r="AU26" s="1">
+        <f t="shared" si="46"/>
+        <v>954.38684295956068</v>
+      </c>
+    </row>
+    <row r="27" spans="2:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12">
+        <f>+E25+E26</f>
+        <v>1714</v>
+      </c>
+      <c r="F27" s="12">
+        <f>+F25+F26</f>
+        <v>2532.3000000000002</v>
+      </c>
+      <c r="G27" s="12">
+        <f>+G25+G26</f>
+        <v>1109.2</v>
+      </c>
+      <c r="H27" s="12">
+        <f>+H25+H26</f>
+        <v>1222.4000000000001</v>
+      </c>
+      <c r="I27" s="12">
+        <f>+I25+I26</f>
+        <v>1356.5</v>
+      </c>
+      <c r="J27" s="12">
+        <f>+J25+J26</f>
+        <v>1487.4</v>
+      </c>
+      <c r="K27" s="12">
+        <f>+K25+K26</f>
+        <v>1186.5999999999999</v>
+      </c>
+      <c r="L27" s="12">
+        <f>+L25+L26</f>
+        <v>1101.2</v>
+      </c>
+      <c r="M27" s="12">
+        <f t="shared" ref="M27:N27" si="47">+M25+M26</f>
+        <v>572.6</v>
+      </c>
+      <c r="N27" s="12">
+        <f t="shared" si="47"/>
+        <v>622.6</v>
+      </c>
+      <c r="AB27" s="1">
+        <f>+AB25+AB26</f>
+        <v>5175.5</v>
+      </c>
+      <c r="AC27" s="1">
+        <f>+AC25+AC26</f>
+        <v>3483</v>
+      </c>
+      <c r="AD27" s="1">
+        <f t="shared" ref="AD27:AU27" si="48">+AD25+AD26</f>
+        <v>2282.5649999999996</v>
+      </c>
+      <c r="AE27" s="1">
+        <f t="shared" si="48"/>
+        <v>2168.4367499999994</v>
+      </c>
+      <c r="AF27" s="1">
+        <f t="shared" si="48"/>
+        <v>2060.0149124999994</v>
+      </c>
+      <c r="AG27" s="1">
+        <f t="shared" si="48"/>
+        <v>1957.0141668749993</v>
+      </c>
+      <c r="AH27" s="1">
+        <f t="shared" si="48"/>
+        <v>1859.1634585312493</v>
+      </c>
+      <c r="AI27" s="1">
+        <f t="shared" si="48"/>
+        <v>1766.2052856046867</v>
+      </c>
+      <c r="AJ27" s="1">
+        <f t="shared" si="48"/>
+        <v>1677.8950213244523</v>
+      </c>
+      <c r="AK27" s="1">
+        <f t="shared" si="48"/>
+        <v>1594.0002702582296</v>
+      </c>
+      <c r="AL27" s="1">
+        <f t="shared" si="48"/>
+        <v>1514.3002567453182</v>
+      </c>
+      <c r="AM27" s="1">
+        <f t="shared" si="48"/>
+        <v>1438.5852439080522</v>
+      </c>
+      <c r="AN27" s="1">
+        <f t="shared" si="48"/>
+        <v>1366.6559817126495</v>
+      </c>
+      <c r="AO27" s="1">
+        <f t="shared" si="48"/>
+        <v>1298.3231826270169</v>
+      </c>
+      <c r="AP27" s="1">
+        <f t="shared" si="48"/>
+        <v>1233.407023495666</v>
+      </c>
+      <c r="AQ27" s="1">
+        <f t="shared" si="48"/>
+        <v>1171.7366723208827</v>
+      </c>
+      <c r="AR27" s="1">
+        <f t="shared" si="48"/>
+        <v>1113.1498387048384</v>
+      </c>
+      <c r="AS27" s="1">
+        <f t="shared" si="48"/>
+        <v>1057.4923467695965</v>
+      </c>
+      <c r="AT27" s="1">
+        <f t="shared" si="48"/>
+        <v>1004.6177294311166</v>
+      </c>
+      <c r="AU27" s="1">
+        <f t="shared" si="48"/>
+        <v>954.38684295956068</v>
+      </c>
+    </row>
+    <row r="28" spans="2:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12">
+        <f>+E24-E27</f>
+        <v>1212.9999999999991</v>
+      </c>
+      <c r="F28" s="12">
+        <f>+F24-F27</f>
+        <v>-170.30000000000064</v>
+      </c>
+      <c r="G28" s="12">
+        <f>+G24-G27</f>
+        <v>1106.7000000000005</v>
+      </c>
+      <c r="H28" s="12">
+        <f>+H24-H27</f>
+        <v>1092.8999999999996</v>
+      </c>
+      <c r="I28" s="12">
+        <f>+I24-I27</f>
+        <v>910.60000000000036</v>
+      </c>
+      <c r="J28" s="12">
+        <f>+J24-J27</f>
+        <v>586.59999999999945</v>
+      </c>
+      <c r="K28" s="12">
+        <f>+K24-K27</f>
+        <v>591.30000000000018</v>
+      </c>
+      <c r="L28" s="12">
+        <f>+L24-L27</f>
+        <v>1003.8999999999999</v>
+      </c>
+      <c r="M28" s="12">
+        <f t="shared" ref="M28:N28" si="49">+M24-M27</f>
+        <v>1559.2624900000005</v>
+      </c>
+      <c r="N28" s="12">
+        <f t="shared" si="49"/>
+        <v>1489.2803975000002</v>
+      </c>
+      <c r="AB28" s="1">
+        <f>+AB24-AB27</f>
+        <v>3696.7999999999993</v>
+      </c>
+      <c r="AC28" s="1">
+        <f>+AC24-AC27</f>
+        <v>4643.7428874999987</v>
+      </c>
+      <c r="AD28" s="1">
+        <f t="shared" ref="AD28:AU28" si="50">+AD24-AD27</f>
+        <v>6793.0449605000022</v>
+      </c>
+      <c r="AE28" s="1">
+        <f t="shared" si="50"/>
+        <v>8420.8650180800014</v>
+      </c>
+      <c r="AF28" s="1">
+        <f t="shared" si="50"/>
+        <v>9391.6267276055023</v>
+      </c>
+      <c r="AG28" s="1">
+        <f t="shared" si="50"/>
+        <v>10432.330202543428</v>
+      </c>
+      <c r="AH28" s="1">
+        <f t="shared" si="50"/>
+        <v>10252.145252571736</v>
+      </c>
+      <c r="AI28" s="1">
+        <f t="shared" si="50"/>
+        <v>10165.905240290836</v>
+      </c>
+      <c r="AJ28" s="1">
+        <f t="shared" si="50"/>
+        <v>10163.009498174482</v>
+      </c>
+      <c r="AK28" s="1">
+        <f t="shared" si="50"/>
+        <v>10006.866073181651</v>
+      </c>
+      <c r="AL28" s="1">
+        <f t="shared" si="50"/>
+        <v>9531.0110978318899</v>
+      </c>
+      <c r="AM28" s="1">
+        <f t="shared" si="50"/>
+        <v>9379.1634577648219</v>
+      </c>
+      <c r="AN28" s="1">
+        <f t="shared" si="50"/>
+        <v>9279.4497099055734</v>
+      </c>
+      <c r="AO28" s="1">
+        <f t="shared" si="50"/>
+        <v>9224.1483821048805</v>
+      </c>
+      <c r="AP28" s="1">
+        <f t="shared" si="50"/>
+        <v>9206.8385399167255</v>
+      </c>
+      <c r="AQ28" s="1">
+        <f t="shared" si="50"/>
+        <v>9222.1717293017136</v>
+      </c>
+      <c r="AR28" s="1">
+        <f t="shared" si="50"/>
+        <v>9265.6855828952666</v>
+      </c>
+      <c r="AS28" s="1">
+        <f t="shared" si="50"/>
+        <v>9333.6512627888151</v>
+      </c>
+      <c r="AT28" s="1">
+        <f t="shared" si="50"/>
+        <v>9422.94841141082</v>
+      </c>
+      <c r="AU28" s="1">
+        <f t="shared" si="50"/>
+        <v>9530.9624900998351</v>
+      </c>
+    </row>
+    <row r="29" spans="2:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12">
+        <f>73-128.6</f>
+        <v>-55.599999999999994</v>
+      </c>
+      <c r="F29" s="12">
+        <f>66.4+683.5</f>
+        <v>749.9</v>
+      </c>
+      <c r="G29" s="12">
+        <f>68.5-506.9</f>
+        <v>-438.4</v>
+      </c>
+      <c r="H29" s="12">
+        <v>-15.2</v>
+      </c>
+      <c r="I29" s="12">
+        <f>21.2-502.9</f>
+        <v>-481.7</v>
+      </c>
+      <c r="J29" s="12">
+        <f>67.3-182.1</f>
+        <v>-114.8</v>
+      </c>
+      <c r="K29" s="12">
+        <f>-117.3-263.3</f>
+        <v>-380.6</v>
+      </c>
+      <c r="L29" s="12">
+        <v>29.4</v>
+      </c>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="AB29" s="1">
+        <f t="shared" ref="AB29" si="51">SUM(G29:J29)</f>
+        <v>-1050.0999999999999</v>
+      </c>
+      <c r="AC29" s="1">
+        <f t="shared" ref="AC29" si="52">SUM(K29:N29)</f>
+        <v>-351.20000000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="2:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12">
+        <f>+E28+E29</f>
+        <v>1157.3999999999992</v>
+      </c>
+      <c r="F30" s="12">
+        <f>+F28+F29</f>
+        <v>579.59999999999934</v>
+      </c>
+      <c r="G30" s="12">
+        <f>+G28+G29</f>
+        <v>668.30000000000052</v>
+      </c>
+      <c r="H30" s="12">
+        <f>+H28+H29</f>
+        <v>1077.6999999999996</v>
+      </c>
+      <c r="I30" s="12">
+        <f>+I28+I29</f>
+        <v>428.90000000000038</v>
+      </c>
+      <c r="J30" s="12">
+        <f>+J28+J29</f>
+        <v>471.79999999999944</v>
+      </c>
+      <c r="K30" s="12">
+        <f>+K28+K29</f>
+        <v>210.70000000000016</v>
+      </c>
+      <c r="L30" s="12">
+        <f>+L28+L29</f>
+        <v>1033.3</v>
+      </c>
+      <c r="M30" s="12">
+        <f>+L30</f>
+        <v>1033.3</v>
+      </c>
+      <c r="N30" s="12">
+        <f>+M30</f>
+        <v>1033.3</v>
+      </c>
+      <c r="AB30" s="1">
+        <f>+AB28+AB29</f>
+        <v>2646.6999999999994</v>
+      </c>
+      <c r="AC30" s="1">
+        <f>+AC28+AC29</f>
+        <v>4292.5428874999989</v>
+      </c>
+      <c r="AD30" s="1">
+        <f t="shared" ref="AD30:AU30" si="53">+AD28+AD29</f>
+        <v>6793.0449605000022</v>
+      </c>
+      <c r="AE30" s="1">
+        <f t="shared" si="53"/>
+        <v>8420.8650180800014</v>
+      </c>
+      <c r="AF30" s="1">
+        <f t="shared" si="53"/>
+        <v>9391.6267276055023</v>
+      </c>
+      <c r="AG30" s="1">
+        <f t="shared" si="53"/>
+        <v>10432.330202543428</v>
+      </c>
+      <c r="AH30" s="1">
+        <f t="shared" si="53"/>
+        <v>10252.145252571736</v>
+      </c>
+      <c r="AI30" s="1">
+        <f t="shared" si="53"/>
+        <v>10165.905240290836</v>
+      </c>
+      <c r="AJ30" s="1">
+        <f t="shared" si="53"/>
+        <v>10163.009498174482</v>
+      </c>
+      <c r="AK30" s="1">
+        <f t="shared" si="53"/>
+        <v>10006.866073181651</v>
+      </c>
+      <c r="AL30" s="1">
+        <f t="shared" si="53"/>
+        <v>9531.0110978318899</v>
+      </c>
+      <c r="AM30" s="1">
+        <f t="shared" si="53"/>
+        <v>9379.1634577648219</v>
+      </c>
+      <c r="AN30" s="1">
+        <f t="shared" si="53"/>
+        <v>9279.4497099055734</v>
+      </c>
+      <c r="AO30" s="1">
+        <f t="shared" si="53"/>
+        <v>9224.1483821048805</v>
+      </c>
+      <c r="AP30" s="1">
+        <f t="shared" si="53"/>
+        <v>9206.8385399167255</v>
+      </c>
+      <c r="AQ30" s="1">
+        <f t="shared" si="53"/>
+        <v>9222.1717293017136</v>
+      </c>
+      <c r="AR30" s="1">
+        <f t="shared" si="53"/>
+        <v>9265.6855828952666</v>
+      </c>
+      <c r="AS30" s="1">
+        <f t="shared" si="53"/>
+        <v>9333.6512627888151</v>
+      </c>
+      <c r="AT30" s="1">
+        <f t="shared" si="53"/>
+        <v>9422.94841141082</v>
+      </c>
+      <c r="AU30" s="1">
+        <f t="shared" si="53"/>
+        <v>9530.9624900998351</v>
+      </c>
+    </row>
+    <row r="31" spans="2:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12">
+        <f>240.8+13.1+2.4</f>
+        <v>256.3</v>
+      </c>
+      <c r="F31" s="12">
+        <f>13.3-18-0.3</f>
+        <v>-4.9999999999999991</v>
+      </c>
+      <c r="G31" s="12">
+        <f>44.2+18.2-5.6</f>
+        <v>56.800000000000004</v>
+      </c>
+      <c r="H31" s="12">
+        <f>409.1-34.3+577</f>
+        <v>951.8</v>
+      </c>
+      <c r="I31" s="12">
+        <f>-25.9-1.1-11.1</f>
+        <v>-38.1</v>
+      </c>
+      <c r="J31" s="12">
+        <f>443.2-17.7-388.7</f>
+        <v>36.800000000000011</v>
+      </c>
+      <c r="K31" s="12">
+        <f>125.6+3.3-85.3</f>
+        <v>43.600000000000009</v>
+      </c>
+      <c r="L31" s="12">
+        <f>216.7-5.9</f>
+        <v>210.79999999999998</v>
+      </c>
+      <c r="M31" s="12">
+        <f>+M30*0.2</f>
+        <v>206.66</v>
+      </c>
+      <c r="N31" s="12">
+        <f>+N30*0.2</f>
+        <v>206.66</v>
+      </c>
+      <c r="AB31" s="1">
+        <f t="shared" ref="AB31" si="54">SUM(G31:J31)</f>
+        <v>1007.3</v>
+      </c>
+      <c r="AC31" s="1">
+        <f t="shared" ref="AC31" si="55">SUM(K31:N31)</f>
+        <v>667.71999999999991</v>
+      </c>
+      <c r="AD31" s="1">
+        <f>+AD30*0.2</f>
+        <v>1358.6089921000005</v>
+      </c>
+      <c r="AE31" s="1">
+        <f t="shared" ref="AE31:AU31" si="56">+AE30*0.2</f>
+        <v>1684.1730036160004</v>
+      </c>
+      <c r="AF31" s="1">
+        <f t="shared" si="56"/>
+        <v>1878.3253455211006</v>
+      </c>
+      <c r="AG31" s="1">
+        <f t="shared" si="56"/>
+        <v>2086.4660405086856</v>
+      </c>
+      <c r="AH31" s="1">
+        <f t="shared" si="56"/>
+        <v>2050.4290505143472</v>
+      </c>
+      <c r="AI31" s="1">
+        <f t="shared" si="56"/>
+        <v>2033.1810480581673</v>
+      </c>
+      <c r="AJ31" s="1">
+        <f t="shared" si="56"/>
+        <v>2032.6018996348967</v>
+      </c>
+      <c r="AK31" s="1">
+        <f t="shared" si="56"/>
+        <v>2001.3732146363302</v>
+      </c>
+      <c r="AL31" s="1">
+        <f t="shared" si="56"/>
+        <v>1906.2022195663781</v>
+      </c>
+      <c r="AM31" s="1">
+        <f t="shared" si="56"/>
+        <v>1875.8326915529644</v>
+      </c>
+      <c r="AN31" s="1">
+        <f t="shared" si="56"/>
+        <v>1855.8899419811148</v>
+      </c>
+      <c r="AO31" s="1">
+        <f t="shared" si="56"/>
+        <v>1844.8296764209763</v>
+      </c>
+      <c r="AP31" s="1">
+        <f t="shared" si="56"/>
+        <v>1841.3677079833451</v>
+      </c>
+      <c r="AQ31" s="1">
+        <f t="shared" si="56"/>
+        <v>1844.4343458603428</v>
+      </c>
+      <c r="AR31" s="1">
+        <f t="shared" si="56"/>
+        <v>1853.1371165790533</v>
+      </c>
+      <c r="AS31" s="1">
+        <f t="shared" si="56"/>
+        <v>1866.7302525577632</v>
+      </c>
+      <c r="AT31" s="1">
+        <f t="shared" si="56"/>
+        <v>1884.5896822821642</v>
+      </c>
+      <c r="AU31" s="1">
+        <f t="shared" si="56"/>
+        <v>1906.1924980199672</v>
+      </c>
+    </row>
+    <row r="32" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="12">
+        <f>+E30-E31</f>
+        <v>901.09999999999923</v>
+      </c>
+      <c r="F32" s="12">
+        <f>+F30-F31</f>
+        <v>584.59999999999934</v>
+      </c>
+      <c r="G32" s="12">
+        <f>+G30-G31</f>
+        <v>611.50000000000057</v>
+      </c>
+      <c r="H32" s="12">
+        <f>+H30-H31</f>
+        <v>125.89999999999964</v>
+      </c>
+      <c r="I32" s="12">
+        <f>+I30-I31</f>
+        <v>467.0000000000004</v>
+      </c>
+      <c r="J32" s="12">
+        <f>+J30-J31</f>
+        <v>434.99999999999943</v>
+      </c>
+      <c r="K32" s="12">
+        <f>+K30-K31</f>
+        <v>167.10000000000014</v>
+      </c>
+      <c r="L32" s="12">
+        <f>+L30-L31</f>
+        <v>822.5</v>
+      </c>
+      <c r="M32" s="12">
+        <f>+M30-M31</f>
+        <v>826.64</v>
+      </c>
+      <c r="N32" s="12">
+        <f>+N30-N31</f>
+        <v>826.64</v>
+      </c>
+      <c r="AB32" s="1">
+        <f>+AB30-AB31</f>
+        <v>1639.3999999999994</v>
+      </c>
+      <c r="AC32" s="1">
+        <f>+AC30-AC31</f>
+        <v>3624.8228874999991</v>
+      </c>
+      <c r="AD32" s="1">
+        <f>+AD30-AD31</f>
+        <v>5434.4359684000019</v>
+      </c>
+      <c r="AE32" s="1">
+        <f t="shared" ref="AE32:AU32" si="57">+AE30-AE31</f>
+        <v>6736.6920144640007</v>
+      </c>
+      <c r="AF32" s="1">
+        <f t="shared" si="57"/>
+        <v>7513.3013820844017</v>
+      </c>
+      <c r="AG32" s="1">
+        <f t="shared" si="57"/>
+        <v>8345.8641620347425</v>
+      </c>
+      <c r="AH32" s="1">
+        <f t="shared" si="57"/>
+        <v>8201.7162020573887</v>
+      </c>
+      <c r="AI32" s="1">
+        <f t="shared" si="57"/>
+        <v>8132.7241922326693</v>
+      </c>
+      <c r="AJ32" s="1">
+        <f t="shared" si="57"/>
+        <v>8130.4075985395857</v>
+      </c>
+      <c r="AK32" s="1">
+        <f t="shared" si="57"/>
+        <v>8005.4928585453208</v>
+      </c>
+      <c r="AL32" s="1">
+        <f t="shared" si="57"/>
+        <v>7624.8088782655122</v>
+      </c>
+      <c r="AM32" s="1">
+        <f t="shared" si="57"/>
+        <v>7503.3307662118577</v>
+      </c>
+      <c r="AN32" s="1">
+        <f t="shared" si="57"/>
+        <v>7423.5597679244584</v>
+      </c>
+      <c r="AO32" s="1">
+        <f t="shared" si="57"/>
+        <v>7379.3187056839042</v>
+      </c>
+      <c r="AP32" s="1">
+        <f t="shared" si="57"/>
+        <v>7365.4708319333804</v>
+      </c>
+      <c r="AQ32" s="1">
+        <f t="shared" si="57"/>
+        <v>7377.7373834413711</v>
+      </c>
+      <c r="AR32" s="1">
+        <f t="shared" si="57"/>
+        <v>7412.5484663162133</v>
+      </c>
+      <c r="AS32" s="1">
+        <f t="shared" si="57"/>
+        <v>7466.9210102310517</v>
+      </c>
+      <c r="AT32" s="1">
+        <f t="shared" si="57"/>
+        <v>7538.3587291286558</v>
+      </c>
+      <c r="AU32" s="1">
+        <f t="shared" si="57"/>
+        <v>7624.7699920798677</v>
+      </c>
+    </row>
+    <row r="33" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="15">
+        <f>+E32/E34</f>
+        <v>5.7321882951653897</v>
+      </c>
+      <c r="F33" s="15">
+        <f>+F32/F34</f>
+        <v>3.796103896103892</v>
+      </c>
+      <c r="G33" s="15">
+        <f>+G32/G34</f>
+        <v>4.0151017728168128</v>
+      </c>
+      <c r="H33" s="15">
+        <f>+H32/H34</f>
+        <v>0.83877415056628679</v>
+      </c>
+      <c r="I33" s="15">
+        <f>+I32/I34</f>
+        <v>3.1426648721399757</v>
+      </c>
+      <c r="J33" s="15">
+        <f>+J32/J34</f>
+        <v>2.9491525423728775</v>
+      </c>
+      <c r="K33" s="15">
+        <f>+K32/K34</f>
+        <v>1.1321138211382122</v>
+      </c>
+      <c r="L33" s="15">
+        <f>+L32/L34</f>
+        <v>5.625854993160055</v>
+      </c>
+      <c r="M33" s="15">
+        <f t="shared" ref="M33:N33" si="58">+M32/M34</f>
+        <v>5.6541723666210677</v>
+      </c>
+      <c r="N33" s="15">
+        <f t="shared" si="58"/>
+        <v>5.6541723666210677</v>
+      </c>
+      <c r="AB33" s="17">
+        <f>+AB32/AB34</f>
+        <v>10.956725146198826</v>
+      </c>
+      <c r="AC33" s="17">
+        <f>+AC32/AC34</f>
+        <v>24.734376577959736</v>
+      </c>
+      <c r="AD33" s="17">
+        <f>+AD32/AD34</f>
+        <v>37.082469931081562</v>
+      </c>
+      <c r="AE33" s="17">
+        <f t="shared" ref="AE33:AU33" si="59">+AE32/AE34</f>
+        <v>45.968556905247368</v>
+      </c>
+      <c r="AF33" s="17">
+        <f t="shared" si="59"/>
+        <v>51.267836111118406</v>
+      </c>
+      <c r="AG33" s="17">
+        <f t="shared" si="59"/>
+        <v>56.948919563526054</v>
+      </c>
+      <c r="AH33" s="17">
+        <f t="shared" si="59"/>
+        <v>55.96531014709921</v>
+      </c>
+      <c r="AI33" s="17">
+        <f t="shared" si="59"/>
+        <v>55.494535600359399</v>
+      </c>
+      <c r="AJ33" s="17">
+        <f t="shared" si="59"/>
+        <v>55.478728069188584</v>
+      </c>
+      <c r="AK33" s="17">
+        <f t="shared" si="59"/>
+        <v>54.626358638999122</v>
+      </c>
+      <c r="AL33" s="17">
+        <f t="shared" si="59"/>
+        <v>52.028719742514589</v>
+      </c>
+      <c r="AM33" s="17">
+        <f t="shared" si="59"/>
+        <v>51.199800520039979</v>
+      </c>
+      <c r="AN33" s="17">
+        <f t="shared" si="59"/>
+        <v>50.655474363182933</v>
+      </c>
+      <c r="AO33" s="17">
+        <f t="shared" si="59"/>
+        <v>50.353590622203377</v>
+      </c>
+      <c r="AP33" s="17">
+        <f t="shared" si="59"/>
+        <v>50.259098136699976</v>
+      </c>
+      <c r="AQ33" s="17">
+        <f t="shared" si="59"/>
+        <v>50.342800296426965</v>
+      </c>
+      <c r="AR33" s="17">
+        <f t="shared" si="59"/>
+        <v>50.580337538834627</v>
+      </c>
+      <c r="AS33" s="17">
+        <f t="shared" si="59"/>
+        <v>50.951354556336078</v>
+      </c>
+      <c r="AT33" s="17">
+        <f t="shared" si="59"/>
+        <v>51.438817667203388</v>
+      </c>
+      <c r="AU33" s="17">
+        <f t="shared" si="59"/>
+        <v>52.02845439836144</v>
+      </c>
+    </row>
+    <row r="34" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="12">
+        <v>157.19999999999999</v>
+      </c>
+      <c r="F34" s="12">
+        <v>154</v>
+      </c>
+      <c r="G34" s="12">
+        <v>152.30000000000001</v>
+      </c>
+      <c r="H34" s="12">
+        <v>150.1</v>
+      </c>
+      <c r="I34" s="12">
+        <v>148.6</v>
+      </c>
+      <c r="J34" s="12">
+        <v>147.5</v>
+      </c>
+      <c r="K34" s="12">
+        <v>147.6</v>
+      </c>
+      <c r="L34" s="12">
+        <v>146.19999999999999</v>
+      </c>
+      <c r="M34" s="12">
+        <f>+L34</f>
+        <v>146.19999999999999</v>
+      </c>
+      <c r="N34" s="12">
+        <f>+M34</f>
+        <v>146.19999999999999</v>
+      </c>
+      <c r="AB34" s="1">
+        <f>AVERAGE(G34:J34)</f>
+        <v>149.625</v>
+      </c>
+      <c r="AC34" s="1">
+        <f>AVERAGE(K34:N34)</f>
+        <v>146.54999999999998</v>
+      </c>
+      <c r="AD34" s="1">
+        <f>+AC34</f>
+        <v>146.54999999999998</v>
+      </c>
+      <c r="AE34" s="1">
+        <f t="shared" ref="AE34:AU34" si="60">+AD34</f>
+        <v>146.54999999999998</v>
+      </c>
+      <c r="AF34" s="1">
+        <f t="shared" si="60"/>
+        <v>146.54999999999998</v>
+      </c>
+      <c r="AG34" s="1">
+        <f t="shared" si="60"/>
+        <v>146.54999999999998</v>
+      </c>
+      <c r="AH34" s="1">
+        <f t="shared" si="60"/>
+        <v>146.54999999999998</v>
+      </c>
+      <c r="AI34" s="1">
+        <f t="shared" si="60"/>
+        <v>146.54999999999998</v>
+      </c>
+      <c r="AJ34" s="1">
+        <f t="shared" si="60"/>
+        <v>146.54999999999998</v>
+      </c>
+      <c r="AK34" s="1">
+        <f t="shared" si="60"/>
+        <v>146.54999999999998</v>
+      </c>
+      <c r="AL34" s="1">
+        <f t="shared" si="60"/>
+        <v>146.54999999999998</v>
+      </c>
+      <c r="AM34" s="1">
+        <f t="shared" si="60"/>
+        <v>146.54999999999998</v>
+      </c>
+      <c r="AN34" s="1">
+        <f t="shared" si="60"/>
+        <v>146.54999999999998</v>
+      </c>
+      <c r="AO34" s="1">
+        <f t="shared" si="60"/>
+        <v>146.54999999999998</v>
+      </c>
+      <c r="AP34" s="1">
+        <f t="shared" si="60"/>
+        <v>146.54999999999998</v>
+      </c>
+      <c r="AQ34" s="1">
+        <f t="shared" si="60"/>
+        <v>146.54999999999998</v>
+      </c>
+      <c r="AR34" s="1">
+        <f t="shared" si="60"/>
+        <v>146.54999999999998</v>
+      </c>
+      <c r="AS34" s="1">
+        <f t="shared" si="60"/>
+        <v>146.54999999999998</v>
+      </c>
+      <c r="AT34" s="1">
+        <f t="shared" si="60"/>
+        <v>146.54999999999998</v>
+      </c>
+      <c r="AU34" s="1">
+        <f t="shared" si="60"/>
+        <v>146.54999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="AW35" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX35" s="18">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="36" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="AW36" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX36" s="18">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="37" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I37" s="16">
+        <f>+I22/E22-1</f>
+        <v>-0.1768904949497937</v>
+      </c>
+      <c r="J37" s="16">
+        <f>+J22/F22-1</f>
+        <v>-4.1541050269929158E-2</v>
+      </c>
+      <c r="K37" s="16">
+        <f>+K22/G22-1</f>
+        <v>-6.0207869339272579E-2</v>
+      </c>
+      <c r="L37" s="16">
+        <f>+L22/H22-1</f>
+        <v>-6.6990990990990817E-2</v>
+      </c>
+      <c r="AW37" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX37" s="1">
+        <f>NPV(AX36,AD32:AU32)+Main!J5-Main!J6</f>
+        <v>69892.659177287424</v>
+      </c>
+    </row>
+    <row r="38" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="16">
+        <f>+E24/E22</f>
+        <v>0.86697668907911496</v>
+      </c>
+      <c r="F38" s="16">
+        <f>+F24/F22</f>
+        <v>0.82801654630863075</v>
+      </c>
+      <c r="G38" s="16">
+        <f>+G24/G22</f>
+        <v>0.82253155159613967</v>
+      </c>
+      <c r="H38" s="16">
+        <f t="shared" ref="H38" si="61">+H24/H22</f>
+        <v>0.83434234234234239</v>
+      </c>
+      <c r="I38" s="16">
+        <f t="shared" ref="I38:J38" si="62">+I24/I22</f>
+        <v>0.8158264061319227</v>
+      </c>
+      <c r="J38" s="16">
+        <f t="shared" si="62"/>
+        <v>0.7585677188105775</v>
+      </c>
+      <c r="K38" s="16">
+        <f t="shared" ref="K38:N38" si="63">+K24/K22</f>
+        <v>0.70222766411248916</v>
+      </c>
+      <c r="L38" s="16">
+        <f t="shared" si="63"/>
+        <v>0.8130624541346414</v>
+      </c>
+      <c r="M38" s="16">
+        <f t="shared" si="63"/>
+        <v>0.81000000000000016</v>
+      </c>
+      <c r="N38" s="16">
+        <f t="shared" si="63"/>
+        <v>0.80999999999999994</v>
+      </c>
+      <c r="AW38" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX38" s="17">
+        <f>AX37/Main!J3</f>
+        <v>481.64283379210849</v>
       </c>
     </row>
   </sheetData>
@@ -885,5 +5189,7 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{B820F574-645F-4D74-9059-6520877C6957}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/BIIB.xlsx
+++ b/BIIB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DA8725-3CD4-4474-AACE-6FAE07A84940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0025D66-906E-48D9-A412-7AFE84E783F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51585" yWindow="0" windowWidth="25395" windowHeight="20880" activeTab="1" xr2:uid="{7CBEE6B4-8223-452C-B8C6-1EC2B28F2C97}"/>
+    <workbookView xWindow="15945" yWindow="105" windowWidth="33330" windowHeight="20340" activeTab="1" xr2:uid="{7CBEE6B4-8223-452C-B8C6-1EC2B28F2C97}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="119">
   <si>
     <t>Price</t>
   </si>
@@ -102,9 +102,6 @@
     <t>BIIB122</t>
   </si>
   <si>
-    <t>:RRK2</t>
-  </si>
-  <si>
     <t>Parkinson's</t>
   </si>
   <si>
@@ -298,6 +295,105 @@
   </si>
   <si>
     <t>Share</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>glofitamab</t>
+  </si>
+  <si>
+    <t>Filed</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>LRRK2</t>
+  </si>
+  <si>
+    <t>CEO: Chris Viehbacher</t>
+  </si>
+  <si>
+    <t>PDUFA 4/25/2023</t>
+  </si>
+  <si>
+    <t>Byooviz (ranibizumab)</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>VEGF</t>
+  </si>
+  <si>
+    <t>amyloid-beta mab</t>
+  </si>
+  <si>
+    <t>IFN</t>
+  </si>
+  <si>
+    <t>VLA4</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>II/III</t>
+  </si>
+  <si>
+    <t>Dilws</t>
+  </si>
+  <si>
+    <t>Cambridge, MA</t>
+  </si>
+  <si>
+    <t>L+SE</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>OCA</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>Lease</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>Net Debt</t>
   </si>
 </sst>
 </file>
@@ -485,15 +581,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>38966</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>38966</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>43295</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -535,16 +631,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>607509</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>15956</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>30307</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>607509</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>73602</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>15956</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>20053</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -559,8 +655,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7381875" y="30307"/>
-          <a:ext cx="0" cy="6222929"/>
+          <a:off x="8042022" y="0"/>
+          <a:ext cx="0" cy="9484895"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -883,15 +979,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5306BA9-19F6-4D66-A355-F53C1BBA84BC}">
-  <dimension ref="B2:K21"/>
+  <dimension ref="B2:K23"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -917,26 +1016,29 @@
       <c r="I2" t="s">
         <v>0</v>
       </c>
-      <c r="J2">
-        <v>254.07</v>
+      <c r="J2" s="17">
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>101</v>
       </c>
       <c r="G3" s="4"/>
       <c r="I3" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="1">
-        <v>145.11304699999999</v>
+        <v>145</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
@@ -946,32 +1048,37 @@
       <c r="C4" t="s">
         <v>17</v>
       </c>
+      <c r="D4" t="s">
+        <v>100</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="I4" t="s">
         <v>2</v>
       </c>
       <c r="J4" s="1">
         <f>+J2*J3</f>
-        <v>36868.871851289994</v>
+        <v>40455</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>99</v>
       </c>
       <c r="G5" s="4"/>
       <c r="I5" t="s">
         <v>3</v>
       </c>
       <c r="J5" s="1">
-        <f>2646.6+2151.3+1102.9+1500.8</f>
-        <v>7401.5999999999995</v>
+        <v>7384</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
@@ -986,22 +1093,21 @@
         <v>4</v>
       </c>
       <c r="J6" s="1">
-        <f>6277.4+999.8</f>
-        <v>7277.2</v>
+        <v>6279</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
         <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
       </c>
       <c r="G7" s="4"/>
       <c r="I7" t="s">
@@ -1009,129 +1115,186 @@
       </c>
       <c r="J7" s="1">
         <f>+J4-J5+J6</f>
-        <v>36744.471851289993</v>
+        <v>39350</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="4"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
+      <c r="B9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="G10" s="4"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="G11" s="4"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="G12" s="4"/>
+      <c r="I12" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="4"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+      <c r="I13" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" t="s">
-        <v>26</v>
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" t="s">
+        <v>104</v>
       </c>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" t="s">
-        <v>31</v>
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>103</v>
       </c>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" t="s">
         <v>22</v>
-      </c>
-      <c r="D16" t="s">
-        <v>33</v>
       </c>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" t="s">
         <v>75</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D21" t="s">
         <v>76</v>
       </c>
-      <c r="D17" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="7"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1141,298 +1304,310 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7CEB2B-BE50-4D86-B93D-DDDB8C03F4F9}">
-  <dimension ref="A1:BV38"/>
+  <dimension ref="A1:BY59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AQ11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AJ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AX35" sqref="AX35"/>
+      <selection pane="bottomRight" activeCell="AX15" sqref="AX15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="14" width="9.140625" style="2"/>
-    <col min="50" max="50" width="9" customWidth="1"/>
+    <col min="3" max="17" width="9.140625" style="2"/>
+    <col min="53" max="53" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:74" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:77" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q2">
+      <c r="O2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="T2">
         <v>2010</v>
       </c>
-      <c r="R2">
-        <f>+Q2+1</f>
+      <c r="U2">
+        <f>+T2+1</f>
         <v>2011</v>
       </c>
-      <c r="S2">
-        <f t="shared" ref="S2:BV2" si="0">+R2+1</f>
+      <c r="V2">
+        <f t="shared" ref="V2:BY2" si="0">+U2+1</f>
         <v>2012</v>
       </c>
-      <c r="T2">
+      <c r="W2">
         <f t="shared" si="0"/>
         <v>2013</v>
       </c>
-      <c r="U2">
+      <c r="X2">
         <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="V2">
+      <c r="Y2">
         <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="W2">
+      <c r="Z2">
         <f t="shared" si="0"/>
         <v>2016</v>
       </c>
-      <c r="X2">
+      <c r="AA2">
         <f t="shared" si="0"/>
         <v>2017</v>
       </c>
-      <c r="Y2">
+      <c r="AB2">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="Z2">
+      <c r="AC2">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="AA2">
+      <c r="AD2">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="AB2">
+      <c r="AE2">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="AC2">
+      <c r="AF2">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="AD2">
+      <c r="AG2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="AE2">
+      <c r="AH2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AF2">
+      <c r="AI2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="AG2">
+      <c r="AJ2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="AH2">
+      <c r="AK2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="AI2">
+      <c r="AL2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="AJ2">
+      <c r="AM2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AK2">
+      <c r="AN2">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="AL2">
+      <c r="AO2">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="AM2">
+      <c r="AP2">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="AN2">
+      <c r="AQ2">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="AO2">
+      <c r="AR2">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="AP2">
+      <c r="AS2">
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
-      <c r="AQ2">
+      <c r="AT2">
         <f t="shared" si="0"/>
         <v>2036</v>
       </c>
-      <c r="AR2">
+      <c r="AU2">
         <f t="shared" si="0"/>
         <v>2037</v>
       </c>
-      <c r="AS2">
+      <c r="AV2">
         <f t="shared" si="0"/>
         <v>2038</v>
       </c>
-      <c r="AT2">
+      <c r="AW2">
         <f t="shared" si="0"/>
         <v>2039</v>
       </c>
-      <c r="AU2">
+      <c r="AX2">
         <f t="shared" si="0"/>
         <v>2040</v>
       </c>
-      <c r="AV2">
+      <c r="AY2">
         <f t="shared" si="0"/>
         <v>2041</v>
       </c>
-      <c r="AW2">
+      <c r="AZ2">
         <f t="shared" si="0"/>
         <v>2042</v>
       </c>
-      <c r="AX2">
+      <c r="BA2">
         <f t="shared" si="0"/>
         <v>2043</v>
       </c>
-      <c r="AY2">
+      <c r="BB2">
         <f t="shared" si="0"/>
         <v>2044</v>
       </c>
-      <c r="AZ2">
+      <c r="BC2">
         <f t="shared" si="0"/>
         <v>2045</v>
       </c>
-      <c r="BA2">
+      <c r="BD2">
         <f t="shared" si="0"/>
         <v>2046</v>
       </c>
-      <c r="BB2">
+      <c r="BE2">
         <f t="shared" si="0"/>
         <v>2047</v>
       </c>
-      <c r="BC2">
+      <c r="BF2">
         <f t="shared" si="0"/>
         <v>2048</v>
       </c>
-      <c r="BD2">
+      <c r="BG2">
         <f t="shared" si="0"/>
         <v>2049</v>
       </c>
-      <c r="BE2">
+      <c r="BH2">
         <f t="shared" si="0"/>
         <v>2050</v>
       </c>
-      <c r="BF2">
+      <c r="BI2">
         <f t="shared" si="0"/>
         <v>2051</v>
       </c>
-      <c r="BG2">
+      <c r="BJ2">
         <f t="shared" si="0"/>
         <v>2052</v>
       </c>
-      <c r="BH2">
+      <c r="BK2">
         <f t="shared" si="0"/>
         <v>2053</v>
       </c>
-      <c r="BI2">
+      <c r="BL2">
         <f t="shared" si="0"/>
         <v>2054</v>
       </c>
-      <c r="BJ2">
+      <c r="BM2">
         <f t="shared" si="0"/>
         <v>2055</v>
       </c>
-      <c r="BK2">
+      <c r="BN2">
         <f t="shared" si="0"/>
         <v>2056</v>
       </c>
-      <c r="BL2">
+      <c r="BO2">
         <f t="shared" si="0"/>
         <v>2057</v>
       </c>
-      <c r="BM2">
+      <c r="BP2">
         <f t="shared" si="0"/>
         <v>2058</v>
       </c>
-      <c r="BN2">
+      <c r="BQ2">
         <f t="shared" si="0"/>
         <v>2059</v>
       </c>
-      <c r="BO2">
+      <c r="BR2">
         <f t="shared" si="0"/>
         <v>2060</v>
       </c>
-      <c r="BP2">
+      <c r="BS2">
         <f t="shared" si="0"/>
         <v>2061</v>
       </c>
-      <c r="BQ2">
+      <c r="BT2">
         <f t="shared" si="0"/>
         <v>2062</v>
       </c>
-      <c r="BR2">
+      <c r="BU2">
         <f t="shared" si="0"/>
         <v>2063</v>
       </c>
-      <c r="BS2">
+      <c r="BV2">
         <f t="shared" si="0"/>
         <v>2064</v>
       </c>
-      <c r="BT2">
+      <c r="BW2">
         <f t="shared" si="0"/>
         <v>2065</v>
       </c>
-      <c r="BU2">
+      <c r="BX2">
         <f t="shared" si="0"/>
         <v>2066</v>
       </c>
-      <c r="BV2">
+      <c r="BY2">
         <f t="shared" si="0"/>
         <v>2067</v>
       </c>
     </row>
-    <row r="3" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1463,97 +1638,107 @@
         <v>397.9</v>
       </c>
       <c r="M3" s="12">
-        <f>+L3-15</f>
-        <v>382.9</v>
+        <v>339</v>
       </c>
       <c r="N3" s="12">
         <f>+M3-15</f>
-        <v>367.9</v>
-      </c>
-      <c r="AB3" s="1">
+        <v>324</v>
+      </c>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="AC3" s="1">
+        <f>3306.5+1126.2</f>
+        <v>4432.7</v>
+      </c>
+      <c r="AD3" s="1">
+        <f>2677.7+1163.4</f>
+        <v>3841.1</v>
+      </c>
+      <c r="AE3" s="1">
         <f>SUM(G3:J3)</f>
         <v>1952</v>
       </c>
-      <c r="AC3" s="1">
+      <c r="AF3" s="1">
         <f>SUM(K3:N3)</f>
-        <v>1558.6</v>
-      </c>
-      <c r="AD3" s="1">
-        <f>+AC3*0.8</f>
-        <v>1246.8800000000001</v>
-      </c>
-      <c r="AE3" s="1">
-        <f t="shared" ref="AE3:AL3" si="1">+AD3*0.8</f>
-        <v>997.50400000000013</v>
-      </c>
-      <c r="AF3" s="1">
-        <f t="shared" si="1"/>
-        <v>798.00320000000011</v>
+        <v>1470.8</v>
       </c>
       <c r="AG3" s="1">
-        <f t="shared" si="1"/>
-        <v>638.40256000000011</v>
+        <f>+AF3*0.8</f>
+        <v>1176.6400000000001</v>
       </c>
       <c r="AH3" s="1">
-        <f t="shared" si="1"/>
-        <v>510.72204800000009</v>
+        <f t="shared" ref="AH3:AO3" si="1">+AG3*0.8</f>
+        <v>941.31200000000013</v>
       </c>
       <c r="AI3" s="1">
         <f t="shared" si="1"/>
-        <v>408.57763840000007</v>
+        <v>753.04960000000017</v>
       </c>
       <c r="AJ3" s="1">
         <f t="shared" si="1"/>
-        <v>326.86211072000009</v>
+        <v>602.43968000000018</v>
       </c>
       <c r="AK3" s="1">
         <f t="shared" si="1"/>
-        <v>261.48968857600011</v>
+        <v>481.95174400000019</v>
       </c>
       <c r="AL3" s="1">
         <f t="shared" si="1"/>
-        <v>209.19175086080008</v>
+        <v>385.56139520000016</v>
       </c>
       <c r="AM3" s="1">
-        <f t="shared" ref="AM3" si="2">+AL3*0.8</f>
-        <v>167.35340068864008</v>
+        <f t="shared" si="1"/>
+        <v>308.44911616000013</v>
       </c>
       <c r="AN3" s="1">
-        <f t="shared" ref="AN3:AU3" si="3">+AM3*0.8</f>
-        <v>133.88272055091207</v>
+        <f t="shared" si="1"/>
+        <v>246.75929292800012</v>
       </c>
       <c r="AO3" s="1">
-        <f t="shared" si="3"/>
-        <v>107.10617644072966</v>
+        <f t="shared" si="1"/>
+        <v>197.40743434240011</v>
       </c>
       <c r="AP3" s="1">
-        <f t="shared" si="3"/>
-        <v>85.684941152583733</v>
+        <f t="shared" ref="AP3" si="2">+AO3*0.8</f>
+        <v>157.9259474739201</v>
       </c>
       <c r="AQ3" s="1">
-        <f t="shared" si="3"/>
-        <v>68.547952922066983</v>
+        <f t="shared" ref="AQ3:AX3" si="3">+AP3*0.8</f>
+        <v>126.34075797913609</v>
       </c>
       <c r="AR3" s="1">
         <f t="shared" si="3"/>
-        <v>54.838362337653592</v>
+        <v>101.07260638330888</v>
       </c>
       <c r="AS3" s="1">
         <f t="shared" si="3"/>
-        <v>43.870689870122874</v>
+        <v>80.85808510664711</v>
       </c>
       <c r="AT3" s="1">
         <f t="shared" si="3"/>
-        <v>35.096551896098298</v>
+        <v>64.686468085317685</v>
       </c>
       <c r="AU3" s="1">
         <f t="shared" si="3"/>
-        <v>28.07724151687864</v>
-      </c>
-    </row>
-    <row r="4" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>51.749174468254154</v>
+      </c>
+      <c r="AV3" s="1">
+        <f t="shared" si="3"/>
+        <v>41.399339574603324</v>
+      </c>
+      <c r="AW3" s="1">
+        <f t="shared" si="3"/>
+        <v>33.119471659682659</v>
+      </c>
+      <c r="AX3" s="1">
+        <f t="shared" si="3"/>
+        <v>26.49557732774613</v>
+      </c>
+    </row>
+    <row r="4" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -1582,95 +1767,103 @@
         <v>136.80000000000001</v>
       </c>
       <c r="M4" s="12">
-        <f>+L4+5</f>
-        <v>141.80000000000001</v>
+        <v>137.80000000000001</v>
       </c>
       <c r="N4" s="12">
         <f>+M4+5</f>
-        <v>146.80000000000001</v>
-      </c>
-      <c r="AB4" s="1">
-        <f t="shared" ref="AB4:AB21" si="4">SUM(G4:J4)</f>
+        <v>142.80000000000001</v>
+      </c>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="AC4" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>64.3</v>
+      </c>
+      <c r="AE4" s="1">
+        <f t="shared" ref="AE4:AE21" si="4">SUM(G4:J4)</f>
         <v>410.29999999999995</v>
       </c>
-      <c r="AC4" s="1">
-        <f t="shared" ref="AC4:AC21" si="5">SUM(K4:N4)</f>
-        <v>553.40000000000009</v>
-      </c>
-      <c r="AD4" s="1">
-        <f>+AC4*1.1</f>
-        <v>608.74000000000012</v>
-      </c>
-      <c r="AE4" s="1">
-        <f t="shared" ref="AE4:AF4" si="6">+AD4*1.1</f>
-        <v>669.61400000000015</v>
-      </c>
       <c r="AF4" s="1">
+        <f t="shared" ref="AF4:AF21" si="5">SUM(K4:N4)</f>
+        <v>545.40000000000009</v>
+      </c>
+      <c r="AG4" s="1">
+        <f>+AF4*1.1</f>
+        <v>599.94000000000017</v>
+      </c>
+      <c r="AH4" s="1">
+        <f t="shared" ref="AH4:AI4" si="6">+AG4*1.1</f>
+        <v>659.9340000000002</v>
+      </c>
+      <c r="AI4" s="1">
         <f t="shared" si="6"/>
-        <v>736.57540000000017</v>
-      </c>
-      <c r="AG4" s="1">
-        <f>+AF4*1.03</f>
-        <v>758.67266200000017</v>
-      </c>
-      <c r="AH4" s="1">
-        <f t="shared" ref="AH4:AK4" si="7">+AG4*1.03</f>
-        <v>781.43284186000017</v>
-      </c>
-      <c r="AI4" s="1">
+        <v>725.92740000000026</v>
+      </c>
+      <c r="AJ4" s="1">
+        <f>+AI4*1.03</f>
+        <v>747.70522200000028</v>
+      </c>
+      <c r="AK4" s="1">
+        <f t="shared" ref="AK4:AN4" si="7">+AJ4*1.03</f>
+        <v>770.13637866000033</v>
+      </c>
+      <c r="AL4" s="1">
         <f t="shared" si="7"/>
-        <v>804.87582711580023</v>
-      </c>
-      <c r="AJ4" s="1">
+        <v>793.24047001980034</v>
+      </c>
+      <c r="AM4" s="1">
         <f t="shared" si="7"/>
-        <v>829.0221019292743</v>
-      </c>
-      <c r="AK4" s="1">
+        <v>817.03768412039437</v>
+      </c>
+      <c r="AN4" s="1">
         <f t="shared" si="7"/>
-        <v>853.89276498715253</v>
-      </c>
-      <c r="AL4" s="1">
-        <f>+AK4*0.5</f>
-        <v>426.94638249357627</v>
-      </c>
-      <c r="AM4" s="1">
-        <f>+AL4*0.8</f>
-        <v>341.55710599486105</v>
-      </c>
-      <c r="AN4" s="1">
-        <f t="shared" ref="AN4:AU4" si="8">+AM4*0.8</f>
-        <v>273.24568479588885</v>
+        <v>841.54881464400626</v>
       </c>
       <c r="AO4" s="1">
-        <f t="shared" si="8"/>
-        <v>218.5965478367111</v>
+        <f>+AN4*0.5</f>
+        <v>420.77440732200313</v>
       </c>
       <c r="AP4" s="1">
-        <f t="shared" si="8"/>
-        <v>174.87723826936889</v>
+        <f>+AO4*0.8</f>
+        <v>336.61952585760253</v>
       </c>
       <c r="AQ4" s="1">
-        <f t="shared" si="8"/>
-        <v>139.90179061549512</v>
+        <f t="shared" ref="AQ4:AX4" si="8">+AP4*0.8</f>
+        <v>269.29562068608203</v>
       </c>
       <c r="AR4" s="1">
         <f t="shared" si="8"/>
-        <v>111.92143249239609</v>
+        <v>215.43649654886565</v>
       </c>
       <c r="AS4" s="1">
         <f t="shared" si="8"/>
-        <v>89.53714599391688</v>
+        <v>172.34919723909252</v>
       </c>
       <c r="AT4" s="1">
         <f t="shared" si="8"/>
-        <v>71.629716795133504</v>
+        <v>137.87935779127403</v>
       </c>
       <c r="AU4" s="1">
         <f t="shared" si="8"/>
-        <v>57.303773436106809</v>
-      </c>
-    </row>
-    <row r="5" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>110.30348623301923</v>
+      </c>
+      <c r="AV4" s="1">
+        <f t="shared" si="8"/>
+        <v>88.242788986415391</v>
+      </c>
+      <c r="AW4" s="1">
+        <f t="shared" si="8"/>
+        <v>70.594231189132316</v>
+      </c>
+      <c r="AX4" s="1">
+        <f t="shared" si="8"/>
+        <v>56.475384951305855</v>
+      </c>
+    </row>
+    <row r="5" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1701,97 +1894,107 @@
         <v>258.7</v>
       </c>
       <c r="M5" s="12">
-        <f>+I5*0.9</f>
-        <v>271.17</v>
+        <v>255.1</v>
       </c>
       <c r="N5" s="12">
         <f>+J5*0.9</f>
         <v>256.86</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="AC5" s="1">
+        <f>1202.1+463.8</f>
+        <v>1665.8999999999999</v>
+      </c>
+      <c r="AD5" s="1">
+        <f>1083.4+408.5</f>
+        <v>1491.9</v>
+      </c>
+      <c r="AE5" s="1">
         <f t="shared" si="4"/>
         <v>1208.6999999999998</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AF5" s="1">
         <f t="shared" si="5"/>
-        <v>1016.33</v>
-      </c>
-      <c r="AD5" s="1">
-        <f>+AC5*0.9</f>
-        <v>914.697</v>
-      </c>
-      <c r="AE5" s="1">
-        <f t="shared" ref="AE5:AU5" si="9">+AD5*0.9</f>
-        <v>823.22730000000001</v>
-      </c>
-      <c r="AF5" s="1">
-        <f t="shared" si="9"/>
-        <v>740.90457000000004</v>
+        <v>1000.26</v>
       </c>
       <c r="AG5" s="1">
-        <f t="shared" si="9"/>
-        <v>666.81411300000002</v>
+        <f>+AF5*0.9</f>
+        <v>900.23400000000004</v>
       </c>
       <c r="AH5" s="1">
-        <f t="shared" si="9"/>
-        <v>600.13270169999998</v>
+        <f t="shared" ref="AH5:AX5" si="9">+AG5*0.9</f>
+        <v>810.2106</v>
       </c>
       <c r="AI5" s="1">
         <f t="shared" si="9"/>
-        <v>540.11943153000004</v>
+        <v>729.18953999999997</v>
       </c>
       <c r="AJ5" s="1">
         <f t="shared" si="9"/>
-        <v>486.10748837700004</v>
+        <v>656.27058599999998</v>
       </c>
       <c r="AK5" s="1">
         <f t="shared" si="9"/>
-        <v>437.49673953930005</v>
+        <v>590.64352740000004</v>
       </c>
       <c r="AL5" s="1">
         <f t="shared" si="9"/>
-        <v>393.74706558537008</v>
+        <v>531.57917466000004</v>
       </c>
       <c r="AM5" s="1">
         <f t="shared" si="9"/>
-        <v>354.37235902683307</v>
+        <v>478.42125719400002</v>
       </c>
       <c r="AN5" s="1">
         <f t="shared" si="9"/>
-        <v>318.93512312414975</v>
+        <v>430.57913147460005</v>
       </c>
       <c r="AO5" s="1">
         <f t="shared" si="9"/>
-        <v>287.04161081173481</v>
+        <v>387.52121832714005</v>
       </c>
       <c r="AP5" s="1">
         <f t="shared" si="9"/>
-        <v>258.33744973056133</v>
+        <v>348.76909649442604</v>
       </c>
       <c r="AQ5" s="1">
         <f t="shared" si="9"/>
-        <v>232.5037047575052</v>
+        <v>313.89218684498343</v>
       </c>
       <c r="AR5" s="1">
         <f t="shared" si="9"/>
-        <v>209.25333428175469</v>
+        <v>282.50296816048507</v>
       </c>
       <c r="AS5" s="1">
         <f t="shared" si="9"/>
-        <v>188.32800085357923</v>
+        <v>254.25267134443658</v>
       </c>
       <c r="AT5" s="1">
         <f t="shared" si="9"/>
-        <v>169.49520076822131</v>
+        <v>228.82740420999292</v>
       </c>
       <c r="AU5" s="1">
         <f t="shared" si="9"/>
-        <v>152.54568069139918</v>
-      </c>
-    </row>
-    <row r="6" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>205.94466378899364</v>
+      </c>
+      <c r="AV5" s="1">
+        <f t="shared" si="9"/>
+        <v>185.35019741009427</v>
+      </c>
+      <c r="AW5" s="1">
+        <f t="shared" si="9"/>
+        <v>166.81517766908485</v>
+      </c>
+      <c r="AX5" s="1">
+        <f t="shared" si="9"/>
+        <v>150.13365990217636</v>
+      </c>
+    </row>
+    <row r="6" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -1820,97 +2023,107 @@
         <v>91.5</v>
       </c>
       <c r="M6" s="12">
-        <f>+L6+1</f>
-        <v>92.5</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="N6" s="12">
         <f>+M6+1</f>
-        <v>93.5</v>
-      </c>
-      <c r="AB6" s="1">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="AC6" s="1">
+        <f>224.5+211.4</f>
+        <v>435.9</v>
+      </c>
+      <c r="AD6" s="1">
+        <f>190.1+195.5</f>
+        <v>385.6</v>
+      </c>
+      <c r="AE6" s="1">
         <f t="shared" si="4"/>
         <v>357.40000000000003</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AF6" s="1">
         <f t="shared" si="5"/>
-        <v>357.5</v>
-      </c>
-      <c r="AD6" s="1">
-        <f>+AC6*0.95</f>
-        <v>339.625</v>
-      </c>
-      <c r="AE6" s="1">
-        <f t="shared" ref="AE6:AU6" si="10">+AD6*0.95</f>
-        <v>322.64375000000001</v>
-      </c>
-      <c r="AF6" s="1">
-        <f t="shared" si="10"/>
-        <v>306.51156249999997</v>
+        <v>334.3</v>
       </c>
       <c r="AG6" s="1">
-        <f t="shared" si="10"/>
-        <v>291.18598437499998</v>
+        <f>+AF6*0.95</f>
+        <v>317.58499999999998</v>
       </c>
       <c r="AH6" s="1">
-        <f t="shared" si="10"/>
-        <v>276.62668515624995</v>
+        <f t="shared" ref="AH6:AX6" si="10">+AG6*0.95</f>
+        <v>301.70574999999997</v>
       </c>
       <c r="AI6" s="1">
         <f t="shared" si="10"/>
-        <v>262.79535089843745</v>
+        <v>286.62046249999997</v>
       </c>
       <c r="AJ6" s="1">
         <f t="shared" si="10"/>
-        <v>249.65558335351557</v>
+        <v>272.28943937499997</v>
       </c>
       <c r="AK6" s="1">
         <f t="shared" si="10"/>
-        <v>237.17280418583977</v>
+        <v>258.67496740624995</v>
       </c>
       <c r="AL6" s="1">
         <f t="shared" si="10"/>
-        <v>225.31416397654777</v>
+        <v>245.74121903593743</v>
       </c>
       <c r="AM6" s="1">
         <f t="shared" si="10"/>
-        <v>214.04845577772036</v>
+        <v>233.45415808414054</v>
       </c>
       <c r="AN6" s="1">
         <f t="shared" si="10"/>
-        <v>203.34603298883434</v>
+        <v>221.7814501799335</v>
       </c>
       <c r="AO6" s="1">
         <f t="shared" si="10"/>
-        <v>193.17873133939261</v>
+        <v>210.69237767093682</v>
       </c>
       <c r="AP6" s="1">
         <f t="shared" si="10"/>
-        <v>183.51979477242298</v>
+        <v>200.15775878738998</v>
       </c>
       <c r="AQ6" s="1">
         <f t="shared" si="10"/>
-        <v>174.34380503380183</v>
+        <v>190.14987084802047</v>
       </c>
       <c r="AR6" s="1">
         <f t="shared" si="10"/>
-        <v>165.62661478211172</v>
+        <v>180.64237730561945</v>
       </c>
       <c r="AS6" s="1">
         <f t="shared" si="10"/>
-        <v>157.34528404300613</v>
+        <v>171.61025844033847</v>
       </c>
       <c r="AT6" s="1">
         <f t="shared" si="10"/>
-        <v>149.47801984085581</v>
+        <v>163.02974551832153</v>
       </c>
       <c r="AU6" s="1">
         <f t="shared" si="10"/>
-        <v>142.00411884881302</v>
-      </c>
-    </row>
-    <row r="7" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>154.87825824240545</v>
+      </c>
+      <c r="AV6" s="1">
+        <f t="shared" si="10"/>
+        <v>147.13434533028519</v>
+      </c>
+      <c r="AW6" s="1">
+        <f t="shared" si="10"/>
+        <v>139.77762806377092</v>
+      </c>
+      <c r="AX6" s="1">
+        <f t="shared" si="10"/>
+        <v>132.78874666058238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -1939,97 +2152,105 @@
         <v>516.20000000000005</v>
       </c>
       <c r="M7" s="12">
-        <f>+I7*1.03</f>
-        <v>538.48399999999992</v>
+        <v>505.5</v>
       </c>
       <c r="N7" s="12">
         <f>+J7*1.03</f>
         <v>528.08100000000002</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="AC7" s="1">
+        <v>1892.2</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>1946.1</v>
+      </c>
+      <c r="AE7" s="1">
         <f t="shared" si="4"/>
         <v>2063</v>
       </c>
-      <c r="AC7" s="1">
+      <c r="AF7" s="1">
         <f t="shared" si="5"/>
-        <v>2103.5650000000001</v>
-      </c>
-      <c r="AD7" s="1">
-        <f>+AC7*1.01</f>
-        <v>2124.6006499999999</v>
-      </c>
-      <c r="AE7" s="1">
-        <f t="shared" ref="AE7" si="11">+AD7*1.01</f>
-        <v>2145.8466564999999</v>
-      </c>
-      <c r="AF7" s="1">
-        <f>+AE7*0.85</f>
-        <v>1823.9696580249999</v>
+        <v>2070.5810000000001</v>
       </c>
       <c r="AG7" s="1">
-        <f t="shared" ref="AG7:AU7" si="12">+AF7*0.85</f>
-        <v>1550.37420932125</v>
+        <f>+AF7*1.01</f>
+        <v>2091.2868100000001</v>
       </c>
       <c r="AH7" s="1">
-        <f t="shared" si="12"/>
-        <v>1317.8180779230624</v>
+        <f t="shared" ref="AH7" si="11">+AG7*1.01</f>
+        <v>2112.1996781000003</v>
       </c>
       <c r="AI7" s="1">
-        <f t="shared" si="12"/>
-        <v>1120.145366234603</v>
+        <f>+AH7*0.85</f>
+        <v>1795.3697263850001</v>
       </c>
       <c r="AJ7" s="1">
-        <f t="shared" si="12"/>
-        <v>952.12356129941247</v>
+        <f t="shared" ref="AJ7:AX7" si="12">+AI7*0.85</f>
+        <v>1526.0642674272501</v>
       </c>
       <c r="AK7" s="1">
         <f t="shared" si="12"/>
-        <v>809.3050271045006</v>
+        <v>1297.1546273131626</v>
       </c>
       <c r="AL7" s="1">
         <f t="shared" si="12"/>
-        <v>687.90927303882552</v>
+        <v>1102.5814332161881</v>
       </c>
       <c r="AM7" s="1">
         <f t="shared" si="12"/>
-        <v>584.72288208300165</v>
+        <v>937.1942182337599</v>
       </c>
       <c r="AN7" s="1">
         <f t="shared" si="12"/>
-        <v>497.01444977055138</v>
+        <v>796.61508549869586</v>
       </c>
       <c r="AO7" s="1">
         <f t="shared" si="12"/>
-        <v>422.46228230496865</v>
+        <v>677.12282267389151</v>
       </c>
       <c r="AP7" s="1">
         <f t="shared" si="12"/>
-        <v>359.09293995922337</v>
+        <v>575.55439927280781</v>
       </c>
       <c r="AQ7" s="1">
         <f t="shared" si="12"/>
-        <v>305.22899896533988</v>
+        <v>489.22123938188662</v>
       </c>
       <c r="AR7" s="1">
         <f t="shared" si="12"/>
-        <v>259.44464912053888</v>
+        <v>415.83805347460361</v>
       </c>
       <c r="AS7" s="1">
         <f t="shared" si="12"/>
-        <v>220.52795175245805</v>
+        <v>353.46234545341304</v>
       </c>
       <c r="AT7" s="1">
         <f t="shared" si="12"/>
-        <v>187.44875898958935</v>
+        <v>300.44299363540108</v>
       </c>
       <c r="AU7" s="1">
         <f t="shared" si="12"/>
-        <v>159.33144514115094</v>
-      </c>
-    </row>
-    <row r="8" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>255.3765445900909</v>
+      </c>
+      <c r="AV7" s="1">
+        <f t="shared" si="12"/>
+        <v>217.07006290157727</v>
+      </c>
+      <c r="AW7" s="1">
+        <f t="shared" si="12"/>
+        <v>184.50955346634069</v>
+      </c>
+      <c r="AX7" s="1">
+        <f t="shared" si="12"/>
+        <v>156.83312044638959</v>
+      </c>
+    </row>
+    <row r="8" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -2058,97 +2279,105 @@
         <v>25.5</v>
       </c>
       <c r="M8" s="12">
-        <f>+L8</f>
-        <v>25.5</v>
+        <v>22</v>
       </c>
       <c r="N8" s="12">
         <f>+M8</f>
-        <v>25.5</v>
-      </c>
-      <c r="AB8" s="1">
+        <v>22</v>
+      </c>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="AC8" s="1">
+        <v>97.1</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>103.1</v>
+      </c>
+      <c r="AE8" s="1">
         <f t="shared" si="4"/>
         <v>105.60000000000001</v>
       </c>
-      <c r="AC8" s="1">
+      <c r="AF8" s="1">
         <f t="shared" si="5"/>
-        <v>102.7</v>
-      </c>
-      <c r="AD8" s="1">
-        <f>+AC8*0.9</f>
-        <v>92.43</v>
-      </c>
-      <c r="AE8" s="1">
-        <f t="shared" ref="AE8:AU8" si="13">+AD8*0.9</f>
-        <v>83.187000000000012</v>
-      </c>
-      <c r="AF8" s="1">
-        <f t="shared" si="13"/>
-        <v>74.868300000000019</v>
+        <v>95.7</v>
       </c>
       <c r="AG8" s="1">
-        <f t="shared" si="13"/>
-        <v>67.381470000000022</v>
+        <f>+AF8*0.9</f>
+        <v>86.13000000000001</v>
       </c>
       <c r="AH8" s="1">
-        <f t="shared" si="13"/>
-        <v>60.643323000000024</v>
+        <f t="shared" ref="AH8:AX8" si="13">+AG8*0.9</f>
+        <v>77.51700000000001</v>
       </c>
       <c r="AI8" s="1">
         <f t="shared" si="13"/>
-        <v>54.57899070000002</v>
+        <v>69.765300000000011</v>
       </c>
       <c r="AJ8" s="1">
         <f t="shared" si="13"/>
-        <v>49.121091630000016</v>
+        <v>62.788770000000014</v>
       </c>
       <c r="AK8" s="1">
         <f t="shared" si="13"/>
-        <v>44.208982467000013</v>
+        <v>56.509893000000012</v>
       </c>
       <c r="AL8" s="1">
         <f t="shared" si="13"/>
-        <v>39.788084220300014</v>
+        <v>50.858903700000013</v>
       </c>
       <c r="AM8" s="1">
         <f t="shared" si="13"/>
-        <v>35.809275798270015</v>
+        <v>45.773013330000012</v>
       </c>
       <c r="AN8" s="1">
         <f t="shared" si="13"/>
-        <v>32.228348218443017</v>
+        <v>41.195711997000011</v>
       </c>
       <c r="AO8" s="1">
         <f t="shared" si="13"/>
-        <v>29.005513396598715</v>
+        <v>37.076140797300013</v>
       </c>
       <c r="AP8" s="1">
         <f t="shared" si="13"/>
-        <v>26.104962056938845</v>
+        <v>33.368526717570013</v>
       </c>
       <c r="AQ8" s="1">
         <f t="shared" si="13"/>
-        <v>23.494465851244961</v>
+        <v>30.031674045813013</v>
       </c>
       <c r="AR8" s="1">
         <f t="shared" si="13"/>
-        <v>21.145019266120464</v>
+        <v>27.028506641231711</v>
       </c>
       <c r="AS8" s="1">
         <f t="shared" si="13"/>
-        <v>19.030517339508418</v>
+        <v>24.325655977108539</v>
       </c>
       <c r="AT8" s="1">
         <f t="shared" si="13"/>
-        <v>17.127465605557575</v>
+        <v>21.893090379397687</v>
       </c>
       <c r="AU8" s="1">
         <f t="shared" si="13"/>
-        <v>15.414719045001817</v>
-      </c>
-    </row>
-    <row r="9" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>19.703781341457919</v>
+      </c>
+      <c r="AV8" s="1">
+        <f t="shared" si="13"/>
+        <v>17.733403207312129</v>
+      </c>
+      <c r="AW8" s="1">
+        <f t="shared" si="13"/>
+        <v>15.960062886580916</v>
+      </c>
+      <c r="AX8" s="1">
+        <f t="shared" si="13"/>
+        <v>14.364056597922824</v>
+      </c>
+    </row>
+    <row r="9" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -2177,97 +2406,105 @@
         <v>431</v>
       </c>
       <c r="M9" s="12">
-        <f>+L9+5</f>
-        <v>436</v>
+        <v>431.1</v>
       </c>
       <c r="N9" s="12">
         <f>+M9+5</f>
-        <v>441</v>
-      </c>
-      <c r="AB9" s="1">
+        <v>436.1</v>
+      </c>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="AC9" s="1">
+        <v>2097</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>2052.1</v>
+      </c>
+      <c r="AE9" s="1">
         <f t="shared" si="4"/>
         <v>1905.0000000000002</v>
       </c>
-      <c r="AC9" s="1">
+      <c r="AF9" s="1">
         <f t="shared" si="5"/>
-        <v>1780.5</v>
-      </c>
-      <c r="AD9" s="1">
-        <f t="shared" ref="AD9:AU9" si="14">+AC9*0.9</f>
-        <v>1602.45</v>
-      </c>
-      <c r="AE9" s="1">
-        <f t="shared" si="14"/>
-        <v>1442.2050000000002</v>
-      </c>
-      <c r="AF9" s="1">
-        <f t="shared" si="14"/>
-        <v>1297.9845000000003</v>
+        <v>1770.6999999999998</v>
       </c>
       <c r="AG9" s="1">
-        <f t="shared" si="14"/>
-        <v>1168.1860500000003</v>
+        <f t="shared" ref="AG9:AX9" si="14">+AF9*0.9</f>
+        <v>1593.6299999999999</v>
       </c>
       <c r="AH9" s="1">
         <f t="shared" si="14"/>
-        <v>1051.3674450000003</v>
+        <v>1434.2669999999998</v>
       </c>
       <c r="AI9" s="1">
         <f t="shared" si="14"/>
-        <v>946.23070050000035</v>
+        <v>1290.8402999999998</v>
       </c>
       <c r="AJ9" s="1">
         <f t="shared" si="14"/>
-        <v>851.60763045000033</v>
+        <v>1161.7562699999999</v>
       </c>
       <c r="AK9" s="1">
         <f t="shared" si="14"/>
-        <v>766.44686740500026</v>
+        <v>1045.580643</v>
       </c>
       <c r="AL9" s="1">
         <f t="shared" si="14"/>
-        <v>689.80218066450027</v>
+        <v>941.02257870000005</v>
       </c>
       <c r="AM9" s="1">
         <f t="shared" si="14"/>
-        <v>620.82196259805028</v>
+        <v>846.92032083000004</v>
       </c>
       <c r="AN9" s="1">
         <f t="shared" si="14"/>
-        <v>558.73976633824532</v>
+        <v>762.22828874700008</v>
       </c>
       <c r="AO9" s="1">
         <f t="shared" si="14"/>
-        <v>502.86578970442082</v>
+        <v>686.00545987230009</v>
       </c>
       <c r="AP9" s="1">
         <f t="shared" si="14"/>
-        <v>452.57921073397875</v>
+        <v>617.40491388507007</v>
       </c>
       <c r="AQ9" s="1">
         <f t="shared" si="14"/>
-        <v>407.32128966058087</v>
+        <v>555.66442249656313</v>
       </c>
       <c r="AR9" s="1">
         <f t="shared" si="14"/>
-        <v>366.58916069452277</v>
+        <v>500.09798024690684</v>
       </c>
       <c r="AS9" s="1">
         <f t="shared" si="14"/>
-        <v>329.93024462507049</v>
+        <v>450.08818222221618</v>
       </c>
       <c r="AT9" s="1">
         <f t="shared" si="14"/>
-        <v>296.93722016256345</v>
+        <v>405.07936399999454</v>
       </c>
       <c r="AU9" s="1">
         <f t="shared" si="14"/>
-        <v>267.2434981463071</v>
-      </c>
-    </row>
-    <row r="10" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>364.5714275999951</v>
+      </c>
+      <c r="AV9" s="1">
+        <f t="shared" si="14"/>
+        <v>328.11428483999561</v>
+      </c>
+      <c r="AW9" s="1">
+        <f t="shared" si="14"/>
+        <v>295.30285635599603</v>
+      </c>
+      <c r="AX9" s="1">
+        <f t="shared" si="14"/>
+        <v>265.77257072039646</v>
+      </c>
+    </row>
+    <row r="10" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -2296,97 +2533,105 @@
         <v>115.8</v>
       </c>
       <c r="M10" s="12">
-        <f>AVERAGE(I10:L10)</f>
-        <v>121.425</v>
+        <v>110.2</v>
       </c>
       <c r="N10" s="12">
         <f t="shared" ref="N10:N12" si="15">AVERAGE(J10:M10)</f>
-        <v>121.58125000000001</v>
-      </c>
-      <c r="AB10" s="1">
+        <v>118.77500000000001</v>
+      </c>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="AC10" s="1">
+        <v>486.2</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>481.6</v>
+      </c>
+      <c r="AE10" s="1">
         <f t="shared" si="4"/>
         <v>498.4</v>
       </c>
-      <c r="AC10" s="1">
+      <c r="AF10" s="1">
         <f t="shared" si="5"/>
-        <v>473.50625000000002</v>
-      </c>
-      <c r="AD10" s="1">
-        <f t="shared" ref="AD10:AU10" si="16">+AC10*0.9</f>
-        <v>426.15562500000004</v>
-      </c>
-      <c r="AE10" s="1">
-        <f t="shared" si="16"/>
-        <v>383.54006250000003</v>
-      </c>
-      <c r="AF10" s="1">
-        <f t="shared" si="16"/>
-        <v>345.18605625000004</v>
+        <v>459.47500000000002</v>
       </c>
       <c r="AG10" s="1">
-        <f t="shared" si="16"/>
-        <v>310.66745062500001</v>
+        <f t="shared" ref="AG10:AX10" si="16">+AF10*0.9</f>
+        <v>413.52750000000003</v>
       </c>
       <c r="AH10" s="1">
         <f t="shared" si="16"/>
-        <v>279.60070556250002</v>
+        <v>372.17475000000002</v>
       </c>
       <c r="AI10" s="1">
         <f t="shared" si="16"/>
-        <v>251.64063500625002</v>
+        <v>334.95727500000004</v>
       </c>
       <c r="AJ10" s="1">
         <f t="shared" si="16"/>
-        <v>226.47657150562503</v>
+        <v>301.46154750000005</v>
       </c>
       <c r="AK10" s="1">
         <f t="shared" si="16"/>
-        <v>203.82891435506252</v>
+        <v>271.31539275000006</v>
       </c>
       <c r="AL10" s="1">
         <f t="shared" si="16"/>
-        <v>183.44602291955627</v>
+        <v>244.18385347500006</v>
       </c>
       <c r="AM10" s="1">
         <f t="shared" si="16"/>
-        <v>165.10142062760065</v>
+        <v>219.76546812750007</v>
       </c>
       <c r="AN10" s="1">
         <f t="shared" si="16"/>
-        <v>148.59127856484059</v>
+        <v>197.78892131475007</v>
       </c>
       <c r="AO10" s="1">
         <f t="shared" si="16"/>
-        <v>133.73215070835653</v>
+        <v>178.01002918327507</v>
       </c>
       <c r="AP10" s="1">
         <f t="shared" si="16"/>
-        <v>120.35893563752087</v>
+        <v>160.20902626494757</v>
       </c>
       <c r="AQ10" s="1">
         <f t="shared" si="16"/>
-        <v>108.32304207376879</v>
+        <v>144.18812363845282</v>
       </c>
       <c r="AR10" s="1">
         <f t="shared" si="16"/>
-        <v>97.49073786639191</v>
+        <v>129.76931127460753</v>
       </c>
       <c r="AS10" s="1">
         <f t="shared" si="16"/>
-        <v>87.741664079752724</v>
+        <v>116.79238014714679</v>
       </c>
       <c r="AT10" s="1">
         <f t="shared" si="16"/>
-        <v>78.967497671777451</v>
+        <v>105.11314213243212</v>
       </c>
       <c r="AU10" s="1">
         <f t="shared" si="16"/>
-        <v>71.070747904599713</v>
-      </c>
-    </row>
-    <row r="11" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>94.601827919188906</v>
+      </c>
+      <c r="AV10" s="1">
+        <f t="shared" si="16"/>
+        <v>85.141645127270024</v>
+      </c>
+      <c r="AW10" s="1">
+        <f t="shared" si="16"/>
+        <v>76.627480614543018</v>
+      </c>
+      <c r="AX10" s="1">
+        <f t="shared" si="16"/>
+        <v>68.964732553088723</v>
+      </c>
+    </row>
+    <row r="11" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -2415,97 +2660,105 @@
         <v>57.6</v>
       </c>
       <c r="M11" s="12">
-        <f t="shared" ref="M11:M12" si="17">AVERAGE(I11:L11)</f>
-        <v>58.65</v>
+        <v>57.7</v>
       </c>
       <c r="N11" s="12">
         <f t="shared" si="15"/>
-        <v>58.962499999999999</v>
-      </c>
-      <c r="AB11" s="1">
+        <v>58.724999999999994</v>
+      </c>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="AC11" s="1">
+        <v>184</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>216.3</v>
+      </c>
+      <c r="AE11" s="1">
         <f t="shared" si="4"/>
         <v>233.4</v>
       </c>
-      <c r="AC11" s="1">
+      <c r="AF11" s="1">
         <f t="shared" si="5"/>
-        <v>232.3125</v>
-      </c>
-      <c r="AD11" s="1">
-        <f t="shared" ref="AD11:AU11" si="18">+AC11*0.9</f>
-        <v>209.08125000000001</v>
-      </c>
-      <c r="AE11" s="1">
-        <f t="shared" si="18"/>
-        <v>188.17312500000003</v>
-      </c>
-      <c r="AF11" s="1">
-        <f t="shared" si="18"/>
-        <v>169.35581250000004</v>
+        <v>231.125</v>
       </c>
       <c r="AG11" s="1">
-        <f t="shared" si="18"/>
-        <v>152.42023125000003</v>
+        <f t="shared" ref="AG11:AX11" si="17">+AF11*0.9</f>
+        <v>208.01250000000002</v>
       </c>
       <c r="AH11" s="1">
-        <f t="shared" si="18"/>
-        <v>137.17820812500003</v>
+        <f t="shared" si="17"/>
+        <v>187.21125000000001</v>
       </c>
       <c r="AI11" s="1">
-        <f t="shared" si="18"/>
-        <v>123.46038731250003</v>
+        <f t="shared" si="17"/>
+        <v>168.49012500000001</v>
       </c>
       <c r="AJ11" s="1">
-        <f t="shared" si="18"/>
-        <v>111.11434858125003</v>
+        <f t="shared" si="17"/>
+        <v>151.64111250000002</v>
       </c>
       <c r="AK11" s="1">
-        <f t="shared" si="18"/>
-        <v>100.00291372312503</v>
+        <f t="shared" si="17"/>
+        <v>136.47700125000003</v>
       </c>
       <c r="AL11" s="1">
-        <f t="shared" si="18"/>
-        <v>90.00262235081253</v>
+        <f t="shared" si="17"/>
+        <v>122.82930112500003</v>
       </c>
       <c r="AM11" s="1">
-        <f t="shared" si="18"/>
-        <v>81.002360115731278</v>
+        <f t="shared" si="17"/>
+        <v>110.54637101250003</v>
       </c>
       <c r="AN11" s="1">
-        <f t="shared" si="18"/>
-        <v>72.902124104158148</v>
+        <f t="shared" si="17"/>
+        <v>99.491733911250037</v>
       </c>
       <c r="AO11" s="1">
-        <f t="shared" si="18"/>
-        <v>65.611911693742329</v>
+        <f t="shared" si="17"/>
+        <v>89.542560520125036</v>
       </c>
       <c r="AP11" s="1">
-        <f t="shared" si="18"/>
-        <v>59.050720524368096</v>
+        <f t="shared" si="17"/>
+        <v>80.58830446811254</v>
       </c>
       <c r="AQ11" s="1">
-        <f t="shared" si="18"/>
-        <v>53.145648471931288</v>
+        <f t="shared" si="17"/>
+        <v>72.529474021301283</v>
       </c>
       <c r="AR11" s="1">
-        <f t="shared" si="18"/>
-        <v>47.831083624738163</v>
+        <f t="shared" si="17"/>
+        <v>65.27652661917115</v>
       </c>
       <c r="AS11" s="1">
-        <f t="shared" si="18"/>
-        <v>43.047975262264345</v>
+        <f t="shared" si="17"/>
+        <v>58.748873957254034</v>
       </c>
       <c r="AT11" s="1">
-        <f t="shared" si="18"/>
-        <v>38.743177736037914</v>
+        <f t="shared" si="17"/>
+        <v>52.873986561528632</v>
       </c>
       <c r="AU11" s="1">
-        <f t="shared" si="18"/>
-        <v>34.868859962434122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>47.586587905375772</v>
+      </c>
+      <c r="AV11" s="1">
+        <f t="shared" si="17"/>
+        <v>42.827929114838199</v>
+      </c>
+      <c r="AW11" s="1">
+        <f t="shared" si="17"/>
+        <v>38.545136203354382</v>
+      </c>
+      <c r="AX11" s="1">
+        <f t="shared" si="17"/>
+        <v>34.690622583018943</v>
+      </c>
+    </row>
+    <row r="12" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -2534,97 +2787,105 @@
         <v>20.5</v>
       </c>
       <c r="M12" s="12">
-        <f t="shared" si="17"/>
-        <v>22.9</v>
+        <v>19</v>
       </c>
       <c r="N12" s="12">
         <f t="shared" si="15"/>
-        <v>22.475000000000001</v>
-      </c>
-      <c r="AB12" s="1">
+        <v>21.5</v>
+      </c>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="AC12" s="1">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>97.9</v>
+      </c>
+      <c r="AE12" s="1">
         <f t="shared" si="4"/>
         <v>99.4</v>
       </c>
-      <c r="AC12" s="1">
+      <c r="AF12" s="1">
         <f t="shared" si="5"/>
-        <v>88.375</v>
-      </c>
-      <c r="AD12" s="1">
-        <f t="shared" ref="AD12:AU12" si="19">+AC12*0.9</f>
-        <v>79.537500000000009</v>
-      </c>
-      <c r="AE12" s="1">
-        <f t="shared" si="19"/>
-        <v>71.583750000000009</v>
-      </c>
-      <c r="AF12" s="1">
-        <f t="shared" si="19"/>
-        <v>64.425375000000017</v>
+        <v>83.5</v>
       </c>
       <c r="AG12" s="1">
-        <f t="shared" si="19"/>
-        <v>57.982837500000016</v>
+        <f t="shared" ref="AG12:AX12" si="18">+AF12*0.9</f>
+        <v>75.150000000000006</v>
       </c>
       <c r="AH12" s="1">
-        <f t="shared" si="19"/>
-        <v>52.184553750000013</v>
+        <f t="shared" si="18"/>
+        <v>67.635000000000005</v>
       </c>
       <c r="AI12" s="1">
-        <f t="shared" si="19"/>
-        <v>46.966098375000016</v>
+        <f t="shared" si="18"/>
+        <v>60.871500000000005</v>
       </c>
       <c r="AJ12" s="1">
-        <f t="shared" si="19"/>
-        <v>42.269488537500017</v>
+        <f t="shared" si="18"/>
+        <v>54.784350000000003</v>
       </c>
       <c r="AK12" s="1">
-        <f t="shared" si="19"/>
-        <v>38.042539683750014</v>
+        <f t="shared" si="18"/>
+        <v>49.305915000000006</v>
       </c>
       <c r="AL12" s="1">
-        <f t="shared" si="19"/>
-        <v>34.238285715375014</v>
+        <f t="shared" si="18"/>
+        <v>44.375323500000007</v>
       </c>
       <c r="AM12" s="1">
-        <f t="shared" si="19"/>
-        <v>30.814457143837512</v>
+        <f t="shared" si="18"/>
+        <v>39.93779115000001</v>
       </c>
       <c r="AN12" s="1">
-        <f t="shared" si="19"/>
-        <v>27.733011429453761</v>
+        <f t="shared" si="18"/>
+        <v>35.944012035000007</v>
       </c>
       <c r="AO12" s="1">
-        <f t="shared" si="19"/>
-        <v>24.959710286508386</v>
+        <f t="shared" si="18"/>
+        <v>32.349610831500009</v>
       </c>
       <c r="AP12" s="1">
-        <f t="shared" si="19"/>
-        <v>22.463739257857547</v>
+        <f t="shared" si="18"/>
+        <v>29.114649748350008</v>
       </c>
       <c r="AQ12" s="1">
-        <f t="shared" si="19"/>
-        <v>20.217365332071793</v>
+        <f t="shared" si="18"/>
+        <v>26.203184773515009</v>
       </c>
       <c r="AR12" s="1">
-        <f t="shared" si="19"/>
-        <v>18.195628798864615</v>
+        <f t="shared" si="18"/>
+        <v>23.582866296163509</v>
       </c>
       <c r="AS12" s="1">
-        <f t="shared" si="19"/>
-        <v>16.376065918978153</v>
+        <f t="shared" si="18"/>
+        <v>21.224579666547157</v>
       </c>
       <c r="AT12" s="1">
-        <f t="shared" si="19"/>
-        <v>14.738459327080339</v>
+        <f t="shared" si="18"/>
+        <v>19.102121699892443</v>
       </c>
       <c r="AU12" s="1">
-        <f t="shared" si="19"/>
-        <v>13.264613394372304</v>
-      </c>
-    </row>
-    <row r="13" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="18"/>
+        <v>17.191909529903199</v>
+      </c>
+      <c r="AV12" s="1">
+        <f t="shared" si="18"/>
+        <v>15.472718576912881</v>
+      </c>
+      <c r="AW12" s="1">
+        <f t="shared" si="18"/>
+        <v>13.925446719221593</v>
+      </c>
+      <c r="AX12" s="1">
+        <f t="shared" si="18"/>
+        <v>12.532902047299434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -2653,95 +2914,103 @@
         <v>0.5</v>
       </c>
       <c r="M13" s="12">
-        <f>+L13+3</f>
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="N13" s="12">
         <f>+M13+4</f>
-        <v>7.5</v>
-      </c>
-      <c r="AB13" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="AC13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AC13" s="1">
+      <c r="AF13" s="1">
         <f t="shared" si="5"/>
-        <v>11.5</v>
-      </c>
-      <c r="AD13" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="AG13" s="1">
         <v>50</v>
       </c>
-      <c r="AE13" s="1">
+      <c r="AH13" s="1">
         <v>100</v>
       </c>
-      <c r="AF13" s="1">
-        <f t="shared" ref="AF13:AU13" si="20">+AE13*0.9</f>
+      <c r="AI13" s="1">
+        <f t="shared" ref="AI13:AX13" si="19">+AH13*0.9</f>
         <v>90</v>
       </c>
-      <c r="AG13" s="1">
-        <f t="shared" si="20"/>
+      <c r="AJ13" s="1">
+        <f t="shared" si="19"/>
         <v>81</v>
       </c>
-      <c r="AH13" s="1">
-        <f t="shared" si="20"/>
+      <c r="AK13" s="1">
+        <f t="shared" si="19"/>
         <v>72.900000000000006</v>
       </c>
-      <c r="AI13" s="1">
-        <f t="shared" si="20"/>
+      <c r="AL13" s="1">
+        <f t="shared" si="19"/>
         <v>65.610000000000014</v>
       </c>
-      <c r="AJ13" s="1">
-        <f t="shared" si="20"/>
+      <c r="AM13" s="1">
+        <f t="shared" si="19"/>
         <v>59.049000000000014</v>
       </c>
-      <c r="AK13" s="1">
-        <f t="shared" si="20"/>
+      <c r="AN13" s="1">
+        <f t="shared" si="19"/>
         <v>53.144100000000016</v>
       </c>
-      <c r="AL13" s="1">
-        <f t="shared" si="20"/>
+      <c r="AO13" s="1">
+        <f t="shared" si="19"/>
         <v>47.829690000000014</v>
       </c>
-      <c r="AM13" s="1">
-        <f t="shared" si="20"/>
+      <c r="AP13" s="1">
+        <f t="shared" si="19"/>
         <v>43.046721000000012</v>
       </c>
-      <c r="AN13" s="1">
-        <f t="shared" si="20"/>
+      <c r="AQ13" s="1">
+        <f t="shared" si="19"/>
         <v>38.742048900000015</v>
       </c>
-      <c r="AO13" s="1">
-        <f t="shared" si="20"/>
+      <c r="AR13" s="1">
+        <f t="shared" si="19"/>
         <v>34.867844010000013</v>
       </c>
-      <c r="AP13" s="1">
-        <f t="shared" si="20"/>
+      <c r="AS13" s="1">
+        <f t="shared" si="19"/>
         <v>31.381059609000012</v>
       </c>
-      <c r="AQ13" s="1">
-        <f t="shared" si="20"/>
+      <c r="AT13" s="1">
+        <f t="shared" si="19"/>
         <v>28.242953648100013</v>
       </c>
-      <c r="AR13" s="1">
-        <f t="shared" si="20"/>
+      <c r="AU13" s="1">
+        <f t="shared" si="19"/>
         <v>25.418658283290011</v>
       </c>
-      <c r="AS13" s="1">
-        <f t="shared" si="20"/>
+      <c r="AV13" s="1">
+        <f t="shared" si="19"/>
         <v>22.876792454961009</v>
       </c>
-      <c r="AT13" s="1">
-        <f t="shared" si="20"/>
+      <c r="AW13" s="1">
+        <f t="shared" si="19"/>
         <v>20.589113209464909</v>
       </c>
-      <c r="AU13" s="1">
-        <f t="shared" si="20"/>
+      <c r="AX13" s="1">
+        <f t="shared" si="19"/>
         <v>18.53020188851842</v>
       </c>
     </row>
-    <row r="14" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -2770,97 +3039,105 @@
         <v>2.7</v>
       </c>
       <c r="M14" s="12">
-        <f>+L14</f>
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="N14" s="12">
-        <f t="shared" ref="N14:N16" si="21">+M14</f>
-        <v>2.7</v>
-      </c>
-      <c r="AB14" s="1">
+        <f t="shared" ref="N14:N16" si="20">+M14</f>
+        <v>1.5</v>
+      </c>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="AC14" s="1">
+        <v>15.2</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="AE14" s="1">
         <f t="shared" si="4"/>
         <v>11.100000000000001</v>
       </c>
-      <c r="AC14" s="1">
+      <c r="AF14" s="1">
         <f t="shared" si="5"/>
-        <v>10.3</v>
-      </c>
-      <c r="AD14" s="1">
-        <f>+AC14*0.9</f>
-        <v>9.2700000000000014</v>
-      </c>
-      <c r="AE14" s="1">
-        <f t="shared" ref="AE14:AU15" si="22">+AD14*0.9</f>
-        <v>8.3430000000000017</v>
-      </c>
-      <c r="AF14" s="1">
-        <f t="shared" si="22"/>
-        <v>7.5087000000000019</v>
+        <v>7.9</v>
       </c>
       <c r="AG14" s="1">
-        <f t="shared" si="22"/>
-        <v>6.757830000000002</v>
+        <f>+AF14*0.9</f>
+        <v>7.11</v>
       </c>
       <c r="AH14" s="1">
-        <f t="shared" si="22"/>
-        <v>6.082047000000002</v>
+        <f t="shared" ref="AH14:AX14" si="21">+AG14*0.9</f>
+        <v>6.399</v>
       </c>
       <c r="AI14" s="1">
-        <f t="shared" si="22"/>
-        <v>5.473842300000002</v>
+        <f t="shared" si="21"/>
+        <v>5.7591000000000001</v>
       </c>
       <c r="AJ14" s="1">
-        <f t="shared" si="22"/>
-        <v>4.9264580700000016</v>
+        <f t="shared" si="21"/>
+        <v>5.1831900000000006</v>
       </c>
       <c r="AK14" s="1">
-        <f t="shared" si="22"/>
-        <v>4.4338122630000019</v>
+        <f t="shared" si="21"/>
+        <v>4.6648710000000007</v>
       </c>
       <c r="AL14" s="1">
-        <f t="shared" si="22"/>
-        <v>3.9904310367000018</v>
+        <f t="shared" si="21"/>
+        <v>4.1983839000000005</v>
       </c>
       <c r="AM14" s="1">
-        <f t="shared" si="22"/>
-        <v>3.5913879330300018</v>
+        <f t="shared" si="21"/>
+        <v>3.7785455100000007</v>
       </c>
       <c r="AN14" s="1">
-        <f t="shared" si="22"/>
-        <v>3.2322491397270019</v>
+        <f t="shared" si="21"/>
+        <v>3.4006909590000007</v>
       </c>
       <c r="AO14" s="1">
-        <f t="shared" si="22"/>
-        <v>2.909024225754302</v>
+        <f t="shared" si="21"/>
+        <v>3.0606218631000006</v>
       </c>
       <c r="AP14" s="1">
-        <f t="shared" si="22"/>
-        <v>2.6181218031788718</v>
+        <f t="shared" si="21"/>
+        <v>2.7545596767900005</v>
       </c>
       <c r="AQ14" s="1">
-        <f t="shared" si="22"/>
-        <v>2.3563096228609846</v>
+        <f t="shared" si="21"/>
+        <v>2.4791037091110004</v>
       </c>
       <c r="AR14" s="1">
-        <f t="shared" si="22"/>
-        <v>2.1206786605748862</v>
+        <f t="shared" si="21"/>
+        <v>2.2311933381999003</v>
       </c>
       <c r="AS14" s="1">
-        <f t="shared" si="22"/>
-        <v>1.9086107945173976</v>
+        <f t="shared" si="21"/>
+        <v>2.0080740043799103</v>
       </c>
       <c r="AT14" s="1">
-        <f t="shared" si="22"/>
-        <v>1.7177497150656578</v>
+        <f t="shared" si="21"/>
+        <v>1.8072666039419194</v>
       </c>
       <c r="AU14" s="1">
-        <f t="shared" si="22"/>
-        <v>1.545974743559092</v>
-      </c>
-    </row>
-    <row r="15" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="21"/>
+        <v>1.6265399435477275</v>
+      </c>
+      <c r="AV14" s="1">
+        <f t="shared" si="21"/>
+        <v>1.4638859491929548</v>
+      </c>
+      <c r="AW14" s="1">
+        <f t="shared" si="21"/>
+        <v>1.3174973542736594</v>
+      </c>
+      <c r="AX14" s="1">
+        <f t="shared" si="21"/>
+        <v>1.1857476188462934</v>
+      </c>
+    </row>
+    <row r="15" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -2874,78 +3151,81 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
-      <c r="AD15" s="1">
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="AG15" s="1">
         <v>1500</v>
       </c>
-      <c r="AE15" s="1">
+      <c r="AH15" s="1">
         <v>4000</v>
       </c>
-      <c r="AF15" s="1">
+      <c r="AI15" s="1">
         <v>6000</v>
       </c>
-      <c r="AG15" s="1">
+      <c r="AJ15" s="1">
         <v>8000</v>
       </c>
-      <c r="AH15" s="1">
-        <f>+AG15*1.05</f>
+      <c r="AK15" s="1">
+        <f>+AJ15*1.05</f>
         <v>8400</v>
       </c>
-      <c r="AI15" s="1">
-        <f t="shared" ref="AI15:AU15" si="23">+AH15*1.05</f>
+      <c r="AL15" s="1">
+        <f t="shared" ref="AL15:AM15" si="22">+AK15*1.05</f>
         <v>8820</v>
       </c>
-      <c r="AJ15" s="1">
+      <c r="AM15" s="1">
+        <f t="shared" si="22"/>
+        <v>9261</v>
+      </c>
+      <c r="AN15" s="1">
+        <f>+AM15*1.02</f>
+        <v>9446.2199999999993</v>
+      </c>
+      <c r="AO15" s="1">
+        <f t="shared" ref="AO15:AX15" si="23">+AN15*1.02</f>
+        <v>9635.1443999999992</v>
+      </c>
+      <c r="AP15" s="1">
         <f t="shared" si="23"/>
-        <v>9261</v>
-      </c>
-      <c r="AK15" s="1">
-        <f>+AJ15*1.02</f>
-        <v>9446.2199999999993</v>
-      </c>
-      <c r="AL15" s="1">
-        <f t="shared" ref="AL15:AU15" si="24">+AK15*1.02</f>
-        <v>9635.1443999999992</v>
-      </c>
-      <c r="AM15" s="1">
-        <f t="shared" si="24"/>
         <v>9827.847287999999</v>
       </c>
-      <c r="AN15" s="1">
-        <f t="shared" si="24"/>
+      <c r="AQ15" s="1">
+        <f t="shared" si="23"/>
         <v>10024.404233759999</v>
       </c>
-      <c r="AO15" s="1">
-        <f t="shared" si="24"/>
+      <c r="AR15" s="1">
+        <f t="shared" si="23"/>
         <v>10224.892318435199</v>
       </c>
-      <c r="AP15" s="1">
-        <f t="shared" si="24"/>
+      <c r="AS15" s="1">
+        <f t="shared" si="23"/>
         <v>10429.390164803903</v>
       </c>
-      <c r="AQ15" s="1">
-        <f t="shared" si="24"/>
+      <c r="AT15" s="1">
+        <f t="shared" si="23"/>
         <v>10637.977968099982</v>
       </c>
-      <c r="AR15" s="1">
-        <f t="shared" si="24"/>
+      <c r="AU15" s="1">
+        <f t="shared" si="23"/>
         <v>10850.737527461981</v>
       </c>
-      <c r="AS15" s="1">
-        <f t="shared" si="24"/>
+      <c r="AV15" s="1">
+        <f t="shared" si="23"/>
         <v>11067.752278011221</v>
       </c>
-      <c r="AT15" s="1">
-        <f t="shared" si="24"/>
+      <c r="AW15" s="1">
+        <f t="shared" si="23"/>
         <v>11289.107323571447</v>
       </c>
-      <c r="AU15" s="1">
-        <f t="shared" si="24"/>
+      <c r="AX15" s="1">
+        <f t="shared" si="23"/>
         <v>11514.889470042875</v>
       </c>
     </row>
-    <row r="16" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -2974,110 +3254,118 @@
         <v>0.1</v>
       </c>
       <c r="M16" s="12">
-        <f>+L16</f>
-        <v>0.1</v>
+        <v>1.6</v>
       </c>
       <c r="N16" s="12">
-        <f t="shared" si="21"/>
-        <v>0.1</v>
-      </c>
-      <c r="AB16" s="1">
+        <f t="shared" si="20"/>
+        <v>1.6</v>
+      </c>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="AC16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="1">
         <f t="shared" si="4"/>
         <v>2.9000000000000004</v>
       </c>
-      <c r="AC16" s="1">
+      <c r="AF16" s="1">
         <f t="shared" si="5"/>
-        <v>3.1</v>
-      </c>
-      <c r="AD16" s="1">
-        <f t="shared" ref="AD16:AU16" si="25">+AC16*0.9</f>
-        <v>2.79</v>
-      </c>
-      <c r="AE16" s="1">
-        <f t="shared" si="25"/>
-        <v>2.5110000000000001</v>
-      </c>
-      <c r="AF16" s="1">
-        <f t="shared" si="25"/>
-        <v>2.2599</v>
+        <v>6.1</v>
       </c>
       <c r="AG16" s="1">
-        <f t="shared" si="25"/>
-        <v>2.0339100000000001</v>
+        <f t="shared" ref="AG16:AX16" si="24">+AF16*0.9</f>
+        <v>5.49</v>
       </c>
       <c r="AH16" s="1">
-        <f t="shared" si="25"/>
-        <v>1.8305190000000002</v>
+        <f t="shared" si="24"/>
+        <v>4.9410000000000007</v>
       </c>
       <c r="AI16" s="1">
-        <f t="shared" si="25"/>
-        <v>1.6474671000000003</v>
+        <f t="shared" si="24"/>
+        <v>4.4469000000000012</v>
       </c>
       <c r="AJ16" s="1">
-        <f t="shared" si="25"/>
-        <v>1.4827203900000003</v>
+        <f t="shared" si="24"/>
+        <v>4.0022100000000016</v>
       </c>
       <c r="AK16" s="1">
-        <f t="shared" si="25"/>
-        <v>1.3344483510000003</v>
+        <f t="shared" si="24"/>
+        <v>3.6019890000000014</v>
       </c>
       <c r="AL16" s="1">
-        <f t="shared" si="25"/>
-        <v>1.2010035159000003</v>
+        <f t="shared" si="24"/>
+        <v>3.2417901000000016</v>
       </c>
       <c r="AM16" s="1">
-        <f t="shared" si="25"/>
-        <v>1.0809031643100002</v>
+        <f t="shared" si="24"/>
+        <v>2.9176110900000016</v>
       </c>
       <c r="AN16" s="1">
-        <f t="shared" si="25"/>
-        <v>0.97281284787900024</v>
+        <f t="shared" si="24"/>
+        <v>2.6258499810000013</v>
       </c>
       <c r="AO16" s="1">
-        <f t="shared" si="25"/>
-        <v>0.87553156309110025</v>
+        <f t="shared" si="24"/>
+        <v>2.3632649829000014</v>
       </c>
       <c r="AP16" s="1">
-        <f t="shared" si="25"/>
-        <v>0.78797840678199027</v>
+        <f t="shared" si="24"/>
+        <v>2.1269384846100015</v>
       </c>
       <c r="AQ16" s="1">
-        <f t="shared" si="25"/>
-        <v>0.70918056610379121</v>
+        <f t="shared" si="24"/>
+        <v>1.9142446361490013</v>
       </c>
       <c r="AR16" s="1">
-        <f t="shared" si="25"/>
-        <v>0.63826250949341212</v>
+        <f t="shared" si="24"/>
+        <v>1.7228201725341012</v>
       </c>
       <c r="AS16" s="1">
-        <f t="shared" si="25"/>
-        <v>0.57443625854407088</v>
+        <f t="shared" si="24"/>
+        <v>1.5505381552806912</v>
       </c>
       <c r="AT16" s="1">
-        <f t="shared" si="25"/>
-        <v>0.51699263268966378</v>
+        <f t="shared" si="24"/>
+        <v>1.395484339752622</v>
       </c>
       <c r="AU16" s="1">
-        <f t="shared" si="25"/>
-        <v>0.46529336942069743</v>
-      </c>
-    </row>
-    <row r="17" spans="2:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="24"/>
+        <v>1.2559359057773598</v>
+      </c>
+      <c r="AV16" s="1">
+        <f t="shared" si="24"/>
+        <v>1.1303423151996239</v>
+      </c>
+      <c r="AW16" s="1">
+        <f t="shared" si="24"/>
+        <v>1.0173080836796615</v>
+      </c>
+      <c r="AX16" s="1">
+        <f t="shared" si="24"/>
+        <v>0.91557727531169542</v>
+      </c>
+    </row>
+    <row r="17" spans="2:50" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12">
-        <f t="shared" ref="E17:G17" si="26">SUM(E3:E16)</f>
+        <f t="shared" ref="E17:G17" si="25">SUM(E3:E16)</f>
         <v>2690.2999999999993</v>
       </c>
       <c r="F17" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>2301.5999999999995</v>
       </c>
       <c r="G17" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>2211.7000000000003</v>
       </c>
       <c r="H17" s="12">
@@ -3085,113 +3373,124 @@
         <v>2235.9999999999995</v>
       </c>
       <c r="I17" s="12">
-        <f t="shared" ref="I17:L17" si="27">SUM(I3:I16)</f>
+        <f t="shared" ref="I17:L17" si="26">SUM(I3:I16)</f>
         <v>2205.7000000000003</v>
       </c>
       <c r="J17" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>2193.7999999999997</v>
       </c>
       <c r="K17" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>2066.3000000000002</v>
       </c>
       <c r="L17" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>2054.7999999999997</v>
       </c>
       <c r="M17" s="12">
-        <f t="shared" ref="M17" si="28">SUM(M3:M16)</f>
-        <v>2097.6289999999999</v>
+        <f t="shared" ref="M17" si="27">SUM(M3:M16)</f>
+        <v>1962.1000000000001</v>
       </c>
       <c r="N17" s="12">
-        <f t="shared" ref="N17" si="29">SUM(N3:N16)</f>
-        <v>2072.95975</v>
-      </c>
-      <c r="AB17" s="1">
-        <f>SUM(AB3:AB16)</f>
+        <f t="shared" ref="N17" si="28">SUM(N3:N16)</f>
+        <v>1998.5409999999999</v>
+      </c>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="AC17" s="1">
+        <f t="shared" ref="AC17:AD17" si="29">SUM(AC3:AC16)</f>
+        <v>11379.800000000001</v>
+      </c>
+      <c r="AD17" s="1">
+        <f t="shared" si="29"/>
+        <v>10692.2</v>
+      </c>
+      <c r="AE17" s="1">
+        <f>SUM(AE3:AE16)</f>
         <v>8847.1999999999989</v>
       </c>
-      <c r="AC17" s="1">
-        <f t="shared" ref="AC17:AU17" si="30">SUM(AC3:AC16)</f>
-        <v>8291.6887499999993</v>
-      </c>
-      <c r="AD17" s="1">
-        <f>SUM(AD3:AD16)</f>
-        <v>9206.2570250000026</v>
-      </c>
-      <c r="AE17" s="1">
-        <f t="shared" si="30"/>
-        <v>11238.378644</v>
-      </c>
       <c r="AF17" s="1">
-        <f t="shared" si="30"/>
-        <v>12457.553034275001</v>
+        <f t="shared" ref="AF17:AX17" si="30">SUM(AF3:AF16)</f>
+        <v>8081.741</v>
       </c>
       <c r="AG17" s="1">
-        <f t="shared" si="30"/>
-        <v>13751.879308071251</v>
+        <f>SUM(AG3:AG16)</f>
+        <v>9024.7358100000001</v>
       </c>
       <c r="AH17" s="1">
         <f t="shared" si="30"/>
-        <v>13548.519156076811</v>
+        <v>11075.507028100003</v>
       </c>
       <c r="AI17" s="1">
         <f t="shared" si="30"/>
-        <v>13452.121735472589</v>
+        <v>12315.287228885001</v>
       </c>
       <c r="AJ17" s="1">
         <f t="shared" si="30"/>
-        <v>13450.818154843579</v>
+        <v>13627.386644802251</v>
       </c>
       <c r="AK17" s="1">
         <f t="shared" si="30"/>
-        <v>13257.019602640732</v>
+        <v>13438.916949779412</v>
       </c>
       <c r="AL17" s="1">
         <f t="shared" si="30"/>
-        <v>12668.551356378264</v>
+        <v>13355.023826631928</v>
       </c>
       <c r="AM17" s="1">
         <f t="shared" si="30"/>
-        <v>12471.169979951885</v>
+        <v>13364.244554842297</v>
       </c>
       <c r="AN17" s="1">
         <f t="shared" si="30"/>
-        <v>12333.969884533082</v>
+        <v>13179.323083670235</v>
       </c>
       <c r="AO17" s="1">
         <f t="shared" si="30"/>
-        <v>12248.105142757209</v>
+        <v>12604.900038386872</v>
       </c>
       <c r="AP17" s="1">
         <f t="shared" si="30"/>
-        <v>12206.247256717688</v>
+        <v>12415.487656131594</v>
       </c>
       <c r="AQ17" s="1">
         <f t="shared" si="30"/>
-        <v>12202.314475620853</v>
+        <v>12285.056185721012</v>
       </c>
       <c r="AR17" s="1">
         <f t="shared" si="30"/>
-        <v>12231.251150180433</v>
+        <v>12204.961868906896</v>
       </c>
       <c r="AS17" s="1">
         <f t="shared" si="30"/>
-        <v>12288.847657257902</v>
+        <v>12168.042066126765</v>
       </c>
       <c r="AT17" s="1">
         <f t="shared" si="30"/>
-        <v>12371.593247921581</v>
+        <v>12168.351346705329</v>
       </c>
       <c r="AU17" s="1">
         <f t="shared" si="30"/>
-        <v>12476.555638131438</v>
-      </c>
-    </row>
-    <row r="18" spans="2:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>12200.94632321328</v>
+      </c>
+      <c r="AV17" s="1">
+        <f t="shared" si="30"/>
+        <v>12261.71001379988</v>
+      </c>
+      <c r="AW17" s="1">
+        <f t="shared" si="30"/>
+        <v>12347.208287046571</v>
+      </c>
+      <c r="AX17" s="1">
+        <f t="shared" si="30"/>
+        <v>12454.572370615479</v>
+      </c>
+    </row>
+    <row r="18" spans="2:50" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -3217,90 +3516,99 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
-      <c r="AB18" s="1">
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="AC18" s="1">
+        <v>748</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>897.6</v>
+      </c>
+      <c r="AE18" s="1">
         <f t="shared" si="4"/>
         <v>734.8</v>
       </c>
-      <c r="AC18" s="1">
+      <c r="AF18" s="1">
         <f>SUM(K18:N18)</f>
         <v>252.3</v>
       </c>
-      <c r="AD18" s="1">
-        <f>+AC18*0.9</f>
+      <c r="AG18" s="1">
+        <f>+AF18*0.9</f>
         <v>227.07000000000002</v>
       </c>
-      <c r="AE18" s="1">
-        <f t="shared" ref="AE18:AU18" si="31">+AD18*0.9</f>
+      <c r="AH18" s="1">
+        <f t="shared" ref="AH18:AX18" si="31">+AG18*0.9</f>
         <v>204.36300000000003</v>
       </c>
-      <c r="AF18" s="1">
+      <c r="AI18" s="1">
         <f t="shared" si="31"/>
         <v>183.92670000000004</v>
       </c>
-      <c r="AG18" s="1">
+      <c r="AJ18" s="1">
         <f t="shared" si="31"/>
         <v>165.53403000000003</v>
       </c>
-      <c r="AH18" s="1">
+      <c r="AK18" s="1">
         <f t="shared" si="31"/>
         <v>148.98062700000003</v>
       </c>
-      <c r="AI18" s="1">
+      <c r="AL18" s="1">
         <f t="shared" si="31"/>
         <v>134.08256430000003</v>
       </c>
-      <c r="AJ18" s="1">
+      <c r="AM18" s="1">
         <f t="shared" si="31"/>
         <v>120.67430787000004</v>
       </c>
-      <c r="AK18" s="1">
+      <c r="AN18" s="1">
         <f t="shared" si="31"/>
         <v>108.60687708300003</v>
       </c>
-      <c r="AL18" s="1">
+      <c r="AO18" s="1">
         <f t="shared" si="31"/>
         <v>97.746189374700023</v>
       </c>
-      <c r="AM18" s="1">
+      <c r="AP18" s="1">
         <f t="shared" si="31"/>
         <v>87.971570437230028</v>
       </c>
-      <c r="AN18" s="1">
+      <c r="AQ18" s="1">
         <f t="shared" si="31"/>
         <v>79.174413393507024</v>
       </c>
-      <c r="AO18" s="1">
+      <c r="AR18" s="1">
         <f t="shared" si="31"/>
         <v>71.256972054156321</v>
       </c>
-      <c r="AP18" s="1">
+      <c r="AS18" s="1">
         <f t="shared" si="31"/>
         <v>64.131274848740688</v>
       </c>
-      <c r="AQ18" s="1">
+      <c r="AT18" s="1">
         <f t="shared" si="31"/>
         <v>57.71814736386662</v>
       </c>
-      <c r="AR18" s="1">
+      <c r="AU18" s="1">
         <f t="shared" si="31"/>
         <v>51.946332627479961</v>
       </c>
-      <c r="AS18" s="1">
+      <c r="AV18" s="1">
         <f t="shared" si="31"/>
         <v>46.751699364731969</v>
       </c>
-      <c r="AT18" s="1">
+      <c r="AW18" s="1">
         <f t="shared" si="31"/>
         <v>42.076529428258773</v>
       </c>
-      <c r="AU18" s="1">
+      <c r="AX18" s="1">
         <f t="shared" si="31"/>
         <v>37.868876485432899</v>
       </c>
     </row>
-    <row r="19" spans="2:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:50" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -3326,90 +3634,99 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
-      <c r="AB19" s="1">
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="AC19" s="1">
+        <v>1542.4</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>1080.2</v>
+      </c>
+      <c r="AE19" s="1">
         <f t="shared" si="4"/>
         <v>483.69999999999993</v>
       </c>
-      <c r="AC19" s="1">
+      <c r="AF19" s="1">
         <f t="shared" si="5"/>
         <v>147.1</v>
       </c>
-      <c r="AD19" s="1">
-        <f t="shared" ref="AD19:AU19" si="32">+AC19*0.9</f>
+      <c r="AG19" s="1">
+        <f t="shared" ref="AG19:AX19" si="32">+AF19*0.9</f>
         <v>132.38999999999999</v>
       </c>
-      <c r="AE19" s="1">
+      <c r="AH19" s="1">
         <f t="shared" si="32"/>
         <v>119.151</v>
       </c>
-      <c r="AF19" s="1">
+      <c r="AI19" s="1">
         <f t="shared" si="32"/>
         <v>107.2359</v>
       </c>
-      <c r="AG19" s="1">
+      <c r="AJ19" s="1">
         <f t="shared" si="32"/>
         <v>96.512309999999999</v>
       </c>
-      <c r="AH19" s="1">
+      <c r="AK19" s="1">
         <f t="shared" si="32"/>
         <v>86.861079000000004</v>
       </c>
-      <c r="AI19" s="1">
+      <c r="AL19" s="1">
         <f t="shared" si="32"/>
         <v>78.174971100000008</v>
       </c>
-      <c r="AJ19" s="1">
+      <c r="AM19" s="1">
         <f t="shared" si="32"/>
         <v>70.357473990000003</v>
       </c>
-      <c r="AK19" s="1">
+      <c r="AN19" s="1">
         <f t="shared" si="32"/>
         <v>63.321726591000001</v>
       </c>
-      <c r="AL19" s="1">
+      <c r="AO19" s="1">
         <f t="shared" si="32"/>
         <v>56.989553931900005</v>
       </c>
-      <c r="AM19" s="1">
+      <c r="AP19" s="1">
         <f t="shared" si="32"/>
         <v>51.290598538710007</v>
       </c>
-      <c r="AN19" s="1">
+      <c r="AQ19" s="1">
         <f t="shared" si="32"/>
         <v>46.161538684839009</v>
       </c>
-      <c r="AO19" s="1">
+      <c r="AR19" s="1">
         <f t="shared" si="32"/>
         <v>41.54538481635511</v>
       </c>
-      <c r="AP19" s="1">
+      <c r="AS19" s="1">
         <f t="shared" si="32"/>
         <v>37.390846334719598</v>
       </c>
-      <c r="AQ19" s="1">
+      <c r="AT19" s="1">
         <f t="shared" si="32"/>
         <v>33.651761701247636</v>
       </c>
-      <c r="AR19" s="1">
+      <c r="AU19" s="1">
         <f t="shared" si="32"/>
         <v>30.286585531122874</v>
       </c>
-      <c r="AS19" s="1">
+      <c r="AV19" s="1">
         <f t="shared" si="32"/>
         <v>27.257926978010588</v>
       </c>
-      <c r="AT19" s="1">
+      <c r="AW19" s="1">
         <f t="shared" si="32"/>
         <v>24.532134280209529</v>
       </c>
-      <c r="AU19" s="1">
+      <c r="AX19" s="1">
         <f t="shared" si="32"/>
         <v>22.078920852188578</v>
       </c>
     </row>
-    <row r="20" spans="2:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:50" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -3426,97 +3743,100 @@
         <v>436.3</v>
       </c>
       <c r="M20" s="12">
-        <f>+L20</f>
-        <v>436.3</v>
+        <f>281.1+135.8</f>
+        <v>416.90000000000003</v>
       </c>
       <c r="N20" s="12">
         <f>+M20</f>
-        <v>436.3</v>
-      </c>
-      <c r="AB20" s="1">
+        <v>416.90000000000003</v>
+      </c>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="AE20" s="1">
         <f t="shared" si="4"/>
         <v>440</v>
       </c>
-      <c r="AC20" s="1">
+      <c r="AF20" s="1">
         <f t="shared" si="5"/>
-        <v>1308.9000000000001</v>
-      </c>
-      <c r="AD20" s="1">
-        <f t="shared" ref="AD20:AU20" si="33">+AC20*0.9</f>
-        <v>1178.0100000000002</v>
-      </c>
-      <c r="AE20" s="1">
-        <f t="shared" si="33"/>
-        <v>1060.2090000000003</v>
-      </c>
-      <c r="AF20" s="1">
-        <f t="shared" si="33"/>
-        <v>954.1881000000003</v>
+        <v>1270.1000000000001</v>
       </c>
       <c r="AG20" s="1">
-        <f t="shared" si="33"/>
-        <v>858.7692900000003</v>
+        <f t="shared" ref="AG20:AX20" si="33">+AF20*0.9</f>
+        <v>1143.0900000000001</v>
       </c>
       <c r="AH20" s="1">
         <f t="shared" si="33"/>
-        <v>772.89236100000028</v>
+        <v>1028.7810000000002</v>
       </c>
       <c r="AI20" s="1">
         <f t="shared" si="33"/>
-        <v>695.60312490000024</v>
+        <v>925.90290000000016</v>
       </c>
       <c r="AJ20" s="1">
         <f t="shared" si="33"/>
-        <v>626.04281241000024</v>
+        <v>833.31261000000018</v>
       </c>
       <c r="AK20" s="1">
         <f t="shared" si="33"/>
-        <v>563.43853116900027</v>
+        <v>749.98134900000014</v>
       </c>
       <c r="AL20" s="1">
         <f t="shared" si="33"/>
-        <v>507.09467805210028</v>
+        <v>674.98321410000017</v>
       </c>
       <c r="AM20" s="1">
         <f t="shared" si="33"/>
-        <v>456.38521024689027</v>
+        <v>607.48489269000015</v>
       </c>
       <c r="AN20" s="1">
         <f t="shared" si="33"/>
-        <v>410.74668922220127</v>
+        <v>546.7364034210002</v>
       </c>
       <c r="AO20" s="1">
         <f t="shared" si="33"/>
-        <v>369.67202029998117</v>
+        <v>492.06276307890022</v>
       </c>
       <c r="AP20" s="1">
         <f t="shared" si="33"/>
-        <v>332.70481826998304</v>
+        <v>442.85648677101022</v>
       </c>
       <c r="AQ20" s="1">
         <f t="shared" si="33"/>
-        <v>299.43433644298472</v>
+        <v>398.57083809390923</v>
       </c>
       <c r="AR20" s="1">
         <f t="shared" si="33"/>
-        <v>269.49090279868625</v>
+        <v>358.7137542845183</v>
       </c>
       <c r="AS20" s="1">
         <f t="shared" si="33"/>
-        <v>242.54181251881764</v>
+        <v>322.84237885606649</v>
       </c>
       <c r="AT20" s="1">
         <f t="shared" si="33"/>
-        <v>218.28763126693588</v>
+        <v>290.55814097045987</v>
       </c>
       <c r="AU20" s="1">
         <f t="shared" si="33"/>
-        <v>196.45886814024229</v>
-      </c>
-    </row>
-    <row r="21" spans="2:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>261.50232687341389</v>
+      </c>
+      <c r="AV20" s="1">
+        <f t="shared" si="33"/>
+        <v>235.35209418607252</v>
+      </c>
+      <c r="AW20" s="1">
+        <f t="shared" si="33"/>
+        <v>211.81688476746527</v>
+      </c>
+      <c r="AX20" s="1">
+        <f t="shared" si="33"/>
+        <v>190.63519629071874</v>
+      </c>
+    </row>
+    <row r="21" spans="2:50" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -3545,224 +3865,256 @@
         <v>98</v>
       </c>
       <c r="M21" s="12">
-        <f>+L21</f>
-        <v>98</v>
+        <v>129.5</v>
       </c>
       <c r="N21" s="12">
         <f>+M21</f>
-        <v>98</v>
-      </c>
-      <c r="AB21" s="1">
+        <v>129.5</v>
+      </c>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="AC21" s="1">
+        <v>707.7</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>774.6</v>
+      </c>
+      <c r="AE21" s="1">
         <f t="shared" si="4"/>
         <v>476.3</v>
       </c>
-      <c r="AC21" s="1">
+      <c r="AF21" s="1">
         <f t="shared" si="5"/>
-        <v>360.1</v>
-      </c>
-      <c r="AD21" s="1">
-        <f t="shared" ref="AD21:AU21" si="34">+AC21*0.9</f>
-        <v>324.09000000000003</v>
-      </c>
-      <c r="AE21" s="1">
-        <f t="shared" si="34"/>
-        <v>291.68100000000004</v>
-      </c>
-      <c r="AF21" s="1">
-        <f t="shared" si="34"/>
-        <v>262.51290000000006</v>
+        <v>423.1</v>
       </c>
       <c r="AG21" s="1">
-        <f t="shared" si="34"/>
-        <v>236.26161000000005</v>
+        <f t="shared" ref="AG21:AX21" si="34">+AF21*0.9</f>
+        <v>380.79</v>
       </c>
       <c r="AH21" s="1">
         <f t="shared" si="34"/>
-        <v>212.63544900000005</v>
+        <v>342.71100000000001</v>
       </c>
       <c r="AI21" s="1">
         <f t="shared" si="34"/>
-        <v>191.37190410000005</v>
+        <v>308.43990000000002</v>
       </c>
       <c r="AJ21" s="1">
         <f t="shared" si="34"/>
-        <v>172.23471369000006</v>
+        <v>277.59591</v>
       </c>
       <c r="AK21" s="1">
         <f t="shared" si="34"/>
-        <v>155.01124232100005</v>
+        <v>249.836319</v>
       </c>
       <c r="AL21" s="1">
         <f t="shared" si="34"/>
-        <v>139.51011808890004</v>
+        <v>224.8526871</v>
       </c>
       <c r="AM21" s="1">
         <f t="shared" si="34"/>
-        <v>125.55910628001004</v>
+        <v>202.36741839000001</v>
       </c>
       <c r="AN21" s="1">
         <f t="shared" si="34"/>
-        <v>113.00319565200904</v>
+        <v>182.13067655100002</v>
       </c>
       <c r="AO21" s="1">
         <f t="shared" si="34"/>
-        <v>101.70287608680813</v>
+        <v>163.91760889590003</v>
       </c>
       <c r="AP21" s="1">
         <f t="shared" si="34"/>
-        <v>91.532588478127323</v>
+        <v>147.52584800631004</v>
       </c>
       <c r="AQ21" s="1">
         <f t="shared" si="34"/>
-        <v>82.379329630314587</v>
+        <v>132.77326320567903</v>
       </c>
       <c r="AR21" s="1">
         <f t="shared" si="34"/>
-        <v>74.141396667283132</v>
+        <v>119.49593688511113</v>
       </c>
       <c r="AS21" s="1">
         <f t="shared" si="34"/>
-        <v>66.727257000554815</v>
+        <v>107.54634319660002</v>
       </c>
       <c r="AT21" s="1">
         <f t="shared" si="34"/>
-        <v>60.054531300499335</v>
+        <v>96.791708876940021</v>
       </c>
       <c r="AU21" s="1">
         <f t="shared" si="34"/>
-        <v>54.049078170449405</v>
-      </c>
-    </row>
-    <row r="22" spans="2:47" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>87.112537989246022</v>
+      </c>
+      <c r="AV21" s="1">
+        <f t="shared" si="34"/>
+        <v>78.401284190321419</v>
+      </c>
+      <c r="AW21" s="1">
+        <f t="shared" si="34"/>
+        <v>70.561155771289279</v>
+      </c>
+      <c r="AX21" s="1">
+        <f t="shared" si="34"/>
+        <v>63.505040194160351</v>
+      </c>
+    </row>
+    <row r="22" spans="2:50" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14">
-        <f>SUM(E17:E21)</f>
+        <f t="shared" ref="E22:L22" si="35">SUM(E17:E21)</f>
         <v>3376.099999999999</v>
       </c>
       <c r="F22" s="14">
-        <f>SUM(F17:F21)</f>
+        <f t="shared" si="35"/>
         <v>2852.5999999999995</v>
       </c>
       <c r="G22" s="14">
-        <f>SUM(G17:G21)</f>
+        <f t="shared" si="35"/>
         <v>2694.0000000000005</v>
       </c>
       <c r="H22" s="14">
-        <f>SUM(H17:H21)</f>
+        <f t="shared" si="35"/>
         <v>2774.9999999999995</v>
       </c>
       <c r="I22" s="14">
-        <f>SUM(I17:I21)</f>
+        <f t="shared" si="35"/>
         <v>2778.9000000000005</v>
       </c>
       <c r="J22" s="14">
-        <f>SUM(J17:J21)</f>
+        <f t="shared" si="35"/>
         <v>2734.0999999999995</v>
       </c>
       <c r="K22" s="14">
-        <f>SUM(K17:K21)</f>
+        <f t="shared" si="35"/>
         <v>2531.8000000000002</v>
       </c>
       <c r="L22" s="14">
-        <f>SUM(L17:L21)</f>
+        <f t="shared" si="35"/>
         <v>2589.1</v>
       </c>
       <c r="M22" s="14">
-        <f t="shared" ref="M22:N22" si="35">SUM(M17:M21)</f>
-        <v>2631.9290000000001</v>
+        <f t="shared" ref="M22:R22" si="36">SUM(M17:M21)</f>
+        <v>2508.5</v>
       </c>
       <c r="N22" s="14">
-        <f t="shared" si="35"/>
-        <v>2607.2597500000002</v>
-      </c>
-      <c r="AB22" s="14">
-        <f t="shared" ref="AB22:AC22" si="36">SUM(AB17:AB21)</f>
-        <v>10981.999999999998</v>
+        <f t="shared" si="36"/>
+        <v>2544.9409999999998</v>
+      </c>
+      <c r="O22" s="14">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="14">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="14">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="14">
+        <f t="shared" si="36"/>
+        <v>0</v>
       </c>
       <c r="AC22" s="14">
-        <f>SUM(AC17:AC21)</f>
-        <v>10360.088749999999</v>
+        <f t="shared" ref="AC22:AE22" si="37">SUM(AC17:AC21)</f>
+        <v>14377.900000000001</v>
       </c>
       <c r="AD22" s="14">
-        <f t="shared" ref="AD22:AU22" si="37">SUM(AD17:AD21)</f>
-        <v>11067.817025000002</v>
+        <f t="shared" si="37"/>
+        <v>13444.600000000002</v>
       </c>
       <c r="AE22" s="14">
         <f t="shared" si="37"/>
-        <v>12913.782644000001</v>
+        <v>10981.999999999998</v>
       </c>
       <c r="AF22" s="14">
-        <f t="shared" si="37"/>
-        <v>13965.416634275001</v>
+        <f>SUM(AF17:AF21)</f>
+        <v>10174.341</v>
       </c>
       <c r="AG22" s="14">
-        <f t="shared" si="37"/>
-        <v>15108.956548071252</v>
+        <f t="shared" ref="AG22:AX22" si="38">SUM(AG17:AG21)</f>
+        <v>10908.07581</v>
       </c>
       <c r="AH22" s="14">
-        <f t="shared" si="37"/>
-        <v>14769.888672076811</v>
+        <f t="shared" si="38"/>
+        <v>12770.513028100002</v>
       </c>
       <c r="AI22" s="14">
-        <f t="shared" si="37"/>
-        <v>14551.35429987259</v>
+        <f t="shared" si="38"/>
+        <v>13840.792628885001</v>
       </c>
       <c r="AJ22" s="14">
-        <f t="shared" si="37"/>
-        <v>14440.127462803579</v>
+        <f t="shared" si="38"/>
+        <v>15000.341504802253</v>
       </c>
       <c r="AK22" s="14">
-        <f t="shared" si="37"/>
-        <v>14147.397979804733</v>
+        <f t="shared" si="38"/>
+        <v>14674.576323779413</v>
       </c>
       <c r="AL22" s="14">
-        <f t="shared" si="37"/>
-        <v>13469.891895825866</v>
+        <f t="shared" si="38"/>
+        <v>14467.117263231929</v>
       </c>
       <c r="AM22" s="14">
-        <f t="shared" si="37"/>
-        <v>13192.376465454725</v>
+        <f t="shared" si="38"/>
+        <v>14365.128647782296</v>
       </c>
       <c r="AN22" s="14">
-        <f t="shared" si="37"/>
-        <v>12983.055721485638</v>
+        <f t="shared" si="38"/>
+        <v>14080.118767316237</v>
       </c>
       <c r="AO22" s="14">
-        <f t="shared" si="37"/>
-        <v>12832.282396014509</v>
+        <f t="shared" si="38"/>
+        <v>13415.616153668272</v>
       </c>
       <c r="AP22" s="14">
-        <f t="shared" si="37"/>
-        <v>12732.006784649258</v>
+        <f t="shared" si="38"/>
+        <v>13145.132159884854</v>
       </c>
       <c r="AQ22" s="14">
-        <f t="shared" si="37"/>
-        <v>12675.498050759265</v>
+        <f t="shared" si="38"/>
+        <v>12941.736239098946</v>
       </c>
       <c r="AR22" s="14">
-        <f t="shared" si="37"/>
-        <v>12657.116367805005</v>
+        <f t="shared" si="38"/>
+        <v>12795.973916947034</v>
       </c>
       <c r="AS22" s="14">
-        <f t="shared" si="37"/>
-        <v>12672.126353120017</v>
+        <f t="shared" si="38"/>
+        <v>12699.952909362892</v>
       </c>
       <c r="AT22" s="14">
-        <f t="shared" si="37"/>
-        <v>12716.544074197483</v>
+        <f t="shared" si="38"/>
+        <v>12647.071105617842</v>
       </c>
       <c r="AU22" s="14">
-        <f t="shared" si="37"/>
-        <v>12787.011381779752</v>
-      </c>
-    </row>
-    <row r="23" spans="2:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="38"/>
+        <v>12631.794106234542</v>
+      </c>
+      <c r="AV22" s="14">
+        <f t="shared" si="38"/>
+        <v>12649.473018519018</v>
+      </c>
+      <c r="AW22" s="14">
+        <f t="shared" si="38"/>
+        <v>12696.194991293794</v>
+      </c>
+      <c r="AX22" s="14">
+        <f t="shared" si="38"/>
+        <v>12768.66040443798</v>
+      </c>
+    </row>
+    <row r="23" spans="2:50" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -3791,224 +4143,243 @@
         <v>484</v>
       </c>
       <c r="M23" s="12">
-        <f>+M22-M24</f>
-        <v>500.06650999999965</v>
+        <v>469.5</v>
       </c>
       <c r="N23" s="12">
-        <f t="shared" ref="N23" si="38">+N22-N24</f>
-        <v>495.3793525000001</v>
-      </c>
-      <c r="AB23" s="1">
-        <f t="shared" ref="AB23" si="39">SUM(G23:J23)</f>
+        <f t="shared" ref="N23" si="39">+N22-N24</f>
+        <v>483.53878999999961</v>
+      </c>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="AC23" s="1">
+        <v>1955.4</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>1805.2</v>
+      </c>
+      <c r="AE23" s="1">
+        <f t="shared" ref="AE23" si="40">SUM(G23:J23)</f>
         <v>2109.6999999999998</v>
       </c>
-      <c r="AC23" s="1">
-        <f t="shared" ref="AC23" si="40">SUM(K23:N23)</f>
-        <v>2233.3458624999998</v>
-      </c>
-      <c r="AD23" s="1">
-        <f>+AD22-AD24</f>
-        <v>1992.2070645000003</v>
-      </c>
-      <c r="AE23" s="1">
-        <f t="shared" ref="AE23:AU23" si="41">+AE22-AE24</f>
-        <v>2324.4808759200005</v>
-      </c>
       <c r="AF23" s="1">
-        <f t="shared" si="41"/>
-        <v>2513.7749941695001</v>
+        <f t="shared" ref="AF23" si="41">SUM(K23:N23)</f>
+        <v>2190.9387899999997</v>
       </c>
       <c r="AG23" s="1">
-        <f t="shared" si="41"/>
-        <v>2719.6121786528256</v>
+        <f>+AG22-AG24</f>
+        <v>1963.4536458000002</v>
       </c>
       <c r="AH23" s="1">
-        <f t="shared" si="41"/>
-        <v>2658.579960973826</v>
+        <f t="shared" ref="AH23:AX23" si="42">+AH22-AH24</f>
+        <v>2298.6923450580016</v>
       </c>
       <c r="AI23" s="1">
-        <f t="shared" si="41"/>
-        <v>2619.2437739770667</v>
+        <f t="shared" si="42"/>
+        <v>2491.3426731993004</v>
       </c>
       <c r="AJ23" s="1">
-        <f t="shared" si="41"/>
-        <v>2599.222943304645</v>
+        <f t="shared" si="42"/>
+        <v>2700.0614708644061</v>
       </c>
       <c r="AK23" s="1">
-        <f t="shared" si="41"/>
-        <v>2546.5316363648526</v>
+        <f t="shared" si="42"/>
+        <v>2641.4237382802949</v>
       </c>
       <c r="AL23" s="1">
-        <f t="shared" si="41"/>
-        <v>2424.580541248657</v>
+        <f t="shared" si="42"/>
+        <v>2604.0811073817476</v>
       </c>
       <c r="AM23" s="1">
-        <f t="shared" si="41"/>
-        <v>2374.6277637818512</v>
+        <f t="shared" si="42"/>
+        <v>2585.723156600814</v>
       </c>
       <c r="AN23" s="1">
-        <f t="shared" si="41"/>
-        <v>2336.9500298674157</v>
+        <f t="shared" si="42"/>
+        <v>2534.4213781169237</v>
       </c>
       <c r="AO23" s="1">
-        <f t="shared" si="41"/>
-        <v>2309.8108312826116</v>
+        <f t="shared" si="42"/>
+        <v>2414.8109076602905</v>
       </c>
       <c r="AP23" s="1">
-        <f t="shared" si="41"/>
-        <v>2291.7612212368676</v>
+        <f t="shared" si="42"/>
+        <v>2366.123788779274</v>
       </c>
       <c r="AQ23" s="1">
-        <f t="shared" si="41"/>
-        <v>2281.5896491366675</v>
+        <f t="shared" si="42"/>
+        <v>2329.5125230378108</v>
       </c>
       <c r="AR23" s="1">
-        <f t="shared" si="41"/>
-        <v>2278.2809462049008</v>
+        <f t="shared" si="42"/>
+        <v>2303.2753050504671</v>
       </c>
       <c r="AS23" s="1">
-        <f t="shared" si="41"/>
-        <v>2280.9827435616044</v>
+        <f t="shared" si="42"/>
+        <v>2285.9915236853212</v>
       </c>
       <c r="AT23" s="1">
-        <f t="shared" si="41"/>
-        <v>2288.9779333555471</v>
+        <f t="shared" si="42"/>
+        <v>2276.4727990112115</v>
       </c>
       <c r="AU23" s="1">
-        <f t="shared" si="41"/>
-        <v>2301.6620487203563</v>
-      </c>
-    </row>
-    <row r="24" spans="2:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="42"/>
+        <v>2273.7229391222172</v>
+      </c>
+      <c r="AV23" s="1">
+        <f t="shared" si="42"/>
+        <v>2276.9051433334243</v>
+      </c>
+      <c r="AW23" s="1">
+        <f t="shared" si="42"/>
+        <v>2285.315098432884</v>
+      </c>
+      <c r="AX23" s="1">
+        <f t="shared" si="42"/>
+        <v>2298.3588727988372</v>
+      </c>
+    </row>
+    <row r="24" spans="2:50" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12">
-        <f>+E22-E23</f>
+        <f t="shared" ref="E24:L24" si="43">+E22-E23</f>
         <v>2926.9999999999991</v>
       </c>
       <c r="F24" s="12">
-        <f>+F22-F23</f>
+        <f t="shared" si="43"/>
         <v>2361.9999999999995</v>
       </c>
       <c r="G24" s="12">
-        <f>+G22-G23</f>
+        <f t="shared" si="43"/>
         <v>2215.9000000000005</v>
       </c>
       <c r="H24" s="12">
-        <f>+H22-H23</f>
+        <f t="shared" si="43"/>
         <v>2315.2999999999997</v>
       </c>
       <c r="I24" s="12">
-        <f>+I22-I23</f>
+        <f t="shared" si="43"/>
         <v>2267.1000000000004</v>
       </c>
       <c r="J24" s="12">
-        <f>+J22-J23</f>
+        <f t="shared" si="43"/>
         <v>2073.9999999999995</v>
       </c>
       <c r="K24" s="12">
-        <f>+K22-K23</f>
+        <f t="shared" si="43"/>
         <v>1777.9</v>
       </c>
       <c r="L24" s="12">
-        <f>+L22-L23</f>
+        <f t="shared" si="43"/>
         <v>2105.1</v>
       </c>
       <c r="M24" s="12">
-        <f>+M22*0.81</f>
-        <v>2131.8624900000004</v>
+        <f>+M22-M23</f>
+        <v>2039</v>
       </c>
       <c r="N24" s="12">
-        <f t="shared" ref="N24" si="42">+N22*0.81</f>
-        <v>2111.8803975000001</v>
-      </c>
-      <c r="AB24" s="1">
-        <f>+AB22-AB23</f>
-        <v>8872.2999999999993</v>
-      </c>
+        <f t="shared" ref="N24" si="44">+N22*0.81</f>
+        <v>2061.4022100000002</v>
+      </c>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
       <c r="AC24" s="1">
         <f>+AC22-AC23</f>
-        <v>8126.7428874999987</v>
+        <v>12422.500000000002</v>
       </c>
       <c r="AD24" s="1">
-        <f>+AD22*0.82</f>
-        <v>9075.6099605000018</v>
+        <f>+AD22-AD23</f>
+        <v>11639.400000000001</v>
       </c>
       <c r="AE24" s="1">
-        <f t="shared" ref="AE24:AU24" si="43">+AE22*0.82</f>
-        <v>10589.30176808</v>
+        <f>+AE22-AE23</f>
+        <v>8872.2999999999993</v>
       </c>
       <c r="AF24" s="1">
-        <f t="shared" si="43"/>
-        <v>11451.641640105501</v>
+        <f>+AF22-AF23</f>
+        <v>7983.4022100000002</v>
       </c>
       <c r="AG24" s="1">
-        <f t="shared" si="43"/>
-        <v>12389.344369418426</v>
+        <f>+AG22*0.82</f>
+        <v>8944.6221642</v>
       </c>
       <c r="AH24" s="1">
-        <f t="shared" si="43"/>
-        <v>12111.308711102985</v>
+        <f t="shared" ref="AH24:AX24" si="45">+AH22*0.82</f>
+        <v>10471.820683042</v>
       </c>
       <c r="AI24" s="1">
-        <f t="shared" si="43"/>
-        <v>11932.110525895523</v>
+        <f t="shared" si="45"/>
+        <v>11349.449955685701</v>
       </c>
       <c r="AJ24" s="1">
-        <f t="shared" si="43"/>
-        <v>11840.904519498934</v>
+        <f t="shared" si="45"/>
+        <v>12300.280033937846</v>
       </c>
       <c r="AK24" s="1">
-        <f t="shared" si="43"/>
-        <v>11600.86634343988</v>
+        <f t="shared" si="45"/>
+        <v>12033.152585499118</v>
       </c>
       <c r="AL24" s="1">
-        <f t="shared" si="43"/>
-        <v>11045.311354577208</v>
+        <f t="shared" si="45"/>
+        <v>11863.036155850181</v>
       </c>
       <c r="AM24" s="1">
-        <f t="shared" si="43"/>
-        <v>10817.748701672874</v>
+        <f t="shared" si="45"/>
+        <v>11779.405491181482</v>
       </c>
       <c r="AN24" s="1">
-        <f t="shared" si="43"/>
-        <v>10646.105691618222</v>
+        <f t="shared" si="45"/>
+        <v>11545.697389199313</v>
       </c>
       <c r="AO24" s="1">
-        <f t="shared" si="43"/>
-        <v>10522.471564731897</v>
+        <f t="shared" si="45"/>
+        <v>11000.805246007982</v>
       </c>
       <c r="AP24" s="1">
-        <f t="shared" si="43"/>
-        <v>10440.245563412391</v>
+        <f t="shared" si="45"/>
+        <v>10779.008371105579</v>
       </c>
       <c r="AQ24" s="1">
-        <f t="shared" si="43"/>
-        <v>10393.908401622597</v>
+        <f t="shared" si="45"/>
+        <v>10612.223716061135</v>
       </c>
       <c r="AR24" s="1">
-        <f t="shared" si="43"/>
-        <v>10378.835421600104</v>
+        <f t="shared" si="45"/>
+        <v>10492.698611896567</v>
       </c>
       <c r="AS24" s="1">
-        <f t="shared" si="43"/>
-        <v>10391.143609558412</v>
+        <f t="shared" si="45"/>
+        <v>10413.96138567757</v>
       </c>
       <c r="AT24" s="1">
-        <f t="shared" si="43"/>
-        <v>10427.566140841936</v>
+        <f t="shared" si="45"/>
+        <v>10370.598306606631</v>
       </c>
       <c r="AU24" s="1">
-        <f t="shared" si="43"/>
-        <v>10485.349333059396</v>
-      </c>
-    </row>
-    <row r="25" spans="2:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="45"/>
+        <v>10358.071167112324</v>
+      </c>
+      <c r="AV24" s="1">
+        <f t="shared" si="45"/>
+        <v>10372.567875185594</v>
+      </c>
+      <c r="AW24" s="1">
+        <f t="shared" si="45"/>
+        <v>10410.87989286091</v>
+      </c>
+      <c r="AX24" s="1">
+        <f t="shared" si="45"/>
+        <v>10470.301531639143</v>
+      </c>
+    </row>
+    <row r="25" spans="2:50" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
@@ -4036,20 +4407,31 @@
       <c r="L25" s="12">
         <v>528.6</v>
       </c>
-      <c r="M25" s="12"/>
+      <c r="M25" s="12">
+        <v>549.20000000000005</v>
+      </c>
       <c r="N25" s="12"/>
-      <c r="AB25" s="1">
-        <f t="shared" ref="AB25:AB26" si="44">SUM(G25:J25)</f>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="AC25" s="1">
+        <v>2280.6</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>3990.9</v>
+      </c>
+      <c r="AE25" s="1">
+        <f t="shared" ref="AE25:AE26" si="46">SUM(G25:J25)</f>
         <v>2501.2000000000003</v>
       </c>
-      <c r="AC25" s="1">
-        <f t="shared" ref="AC25:AC26" si="45">SUM(K25:N25)</f>
-        <v>1080.3000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="2:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF25" s="1">
+        <f t="shared" ref="AF25:AF26" si="47">SUM(K25:N25)</f>
+        <v>1629.5000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="2:50" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -4078,351 +4460,381 @@
         <v>572.6</v>
       </c>
       <c r="M26" s="12">
-        <f>+L26</f>
-        <v>572.6</v>
+        <v>563.29999999999995</v>
       </c>
       <c r="N26" s="12">
         <f>+M26+50</f>
-        <v>622.6</v>
-      </c>
-      <c r="AB26" s="1">
-        <f t="shared" si="44"/>
+        <v>613.29999999999995</v>
+      </c>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="AC26" s="1">
+        <v>2374.6999999999998</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>2504.5</v>
+      </c>
+      <c r="AE26" s="1">
+        <f t="shared" si="46"/>
         <v>2674.3</v>
       </c>
-      <c r="AC26" s="1">
-        <f t="shared" si="45"/>
-        <v>2402.6999999999998</v>
-      </c>
-      <c r="AD26" s="1">
-        <f>+AC26*0.95</f>
-        <v>2282.5649999999996</v>
-      </c>
-      <c r="AE26" s="1">
-        <f t="shared" ref="AE26:AU26" si="46">+AD26*0.95</f>
-        <v>2168.4367499999994</v>
-      </c>
       <c r="AF26" s="1">
-        <f t="shared" si="46"/>
-        <v>2060.0149124999994</v>
+        <f t="shared" si="47"/>
+        <v>2384.1</v>
       </c>
       <c r="AG26" s="1">
-        <f t="shared" si="46"/>
-        <v>1957.0141668749993</v>
+        <f>+AF26*0.95</f>
+        <v>2264.895</v>
       </c>
       <c r="AH26" s="1">
-        <f t="shared" si="46"/>
-        <v>1859.1634585312493</v>
+        <f t="shared" ref="AH26:AX26" si="48">+AG26*0.95</f>
+        <v>2151.6502499999997</v>
       </c>
       <c r="AI26" s="1">
-        <f t="shared" si="46"/>
-        <v>1766.2052856046867</v>
+        <f t="shared" si="48"/>
+        <v>2044.0677374999996</v>
       </c>
       <c r="AJ26" s="1">
-        <f t="shared" si="46"/>
-        <v>1677.8950213244523</v>
+        <f t="shared" si="48"/>
+        <v>1941.8643506249996</v>
       </c>
       <c r="AK26" s="1">
-        <f t="shared" si="46"/>
-        <v>1594.0002702582296</v>
+        <f t="shared" si="48"/>
+        <v>1844.7711330937495</v>
       </c>
       <c r="AL26" s="1">
-        <f t="shared" si="46"/>
-        <v>1514.3002567453182</v>
+        <f t="shared" si="48"/>
+        <v>1752.532576439062</v>
       </c>
       <c r="AM26" s="1">
-        <f t="shared" si="46"/>
-        <v>1438.5852439080522</v>
+        <f t="shared" si="48"/>
+        <v>1664.9059476171089</v>
       </c>
       <c r="AN26" s="1">
-        <f t="shared" si="46"/>
-        <v>1366.6559817126495</v>
+        <f t="shared" si="48"/>
+        <v>1581.6606502362533</v>
       </c>
       <c r="AO26" s="1">
-        <f t="shared" si="46"/>
-        <v>1298.3231826270169</v>
+        <f t="shared" si="48"/>
+        <v>1502.5776177244406</v>
       </c>
       <c r="AP26" s="1">
-        <f t="shared" si="46"/>
-        <v>1233.407023495666</v>
+        <f t="shared" si="48"/>
+        <v>1427.4487368382186</v>
       </c>
       <c r="AQ26" s="1">
-        <f t="shared" si="46"/>
-        <v>1171.7366723208827</v>
+        <f t="shared" si="48"/>
+        <v>1356.0762999963076</v>
       </c>
       <c r="AR26" s="1">
-        <f t="shared" si="46"/>
-        <v>1113.1498387048384</v>
+        <f t="shared" si="48"/>
+        <v>1288.2724849964923</v>
       </c>
       <c r="AS26" s="1">
-        <f t="shared" si="46"/>
-        <v>1057.4923467695965</v>
+        <f t="shared" si="48"/>
+        <v>1223.8588607466677</v>
       </c>
       <c r="AT26" s="1">
-        <f t="shared" si="46"/>
-        <v>1004.6177294311166</v>
+        <f t="shared" si="48"/>
+        <v>1162.6659177093343</v>
       </c>
       <c r="AU26" s="1">
-        <f t="shared" si="46"/>
-        <v>954.38684295956068</v>
-      </c>
-    </row>
-    <row r="27" spans="2:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="48"/>
+        <v>1104.5326218238674</v>
+      </c>
+      <c r="AV26" s="1">
+        <f t="shared" si="48"/>
+        <v>1049.305990732674</v>
+      </c>
+      <c r="AW26" s="1">
+        <f t="shared" si="48"/>
+        <v>996.84069119604021</v>
+      </c>
+      <c r="AX26" s="1">
+        <f t="shared" si="48"/>
+        <v>946.99865663623814</v>
+      </c>
+    </row>
+    <row r="27" spans="2:50" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12">
-        <f>+E25+E26</f>
+        <f t="shared" ref="E27:L27" si="49">+E25+E26</f>
         <v>1714</v>
       </c>
       <c r="F27" s="12">
-        <f>+F25+F26</f>
+        <f t="shared" si="49"/>
         <v>2532.3000000000002</v>
       </c>
       <c r="G27" s="12">
-        <f>+G25+G26</f>
+        <f t="shared" si="49"/>
         <v>1109.2</v>
       </c>
       <c r="H27" s="12">
-        <f>+H25+H26</f>
+        <f t="shared" si="49"/>
         <v>1222.4000000000001</v>
       </c>
       <c r="I27" s="12">
-        <f>+I25+I26</f>
+        <f t="shared" si="49"/>
         <v>1356.5</v>
       </c>
       <c r="J27" s="12">
-        <f>+J25+J26</f>
+        <f t="shared" si="49"/>
         <v>1487.4</v>
       </c>
       <c r="K27" s="12">
-        <f>+K25+K26</f>
+        <f t="shared" si="49"/>
         <v>1186.5999999999999</v>
       </c>
       <c r="L27" s="12">
-        <f>+L25+L26</f>
+        <f t="shared" si="49"/>
         <v>1101.2</v>
       </c>
       <c r="M27" s="12">
-        <f t="shared" ref="M27:N27" si="47">+M25+M26</f>
-        <v>572.6</v>
+        <f t="shared" ref="M27:N27" si="50">+M25+M26</f>
+        <v>1112.5</v>
       </c>
       <c r="N27" s="12">
-        <f t="shared" si="47"/>
-        <v>622.6</v>
-      </c>
-      <c r="AB27" s="1">
-        <f>+AB25+AB26</f>
+        <f t="shared" si="50"/>
+        <v>613.29999999999995</v>
+      </c>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="AC27" s="1">
+        <f t="shared" ref="AC27:AD27" si="51">+AC25+AC26</f>
+        <v>4655.2999999999993</v>
+      </c>
+      <c r="AD27" s="1">
+        <f t="shared" si="51"/>
+        <v>6495.4</v>
+      </c>
+      <c r="AE27" s="1">
+        <f>+AE25+AE26</f>
         <v>5175.5</v>
       </c>
-      <c r="AC27" s="1">
-        <f>+AC25+AC26</f>
-        <v>3483</v>
-      </c>
-      <c r="AD27" s="1">
-        <f t="shared" ref="AD27:AU27" si="48">+AD25+AD26</f>
-        <v>2282.5649999999996</v>
-      </c>
-      <c r="AE27" s="1">
-        <f t="shared" si="48"/>
-        <v>2168.4367499999994</v>
-      </c>
       <c r="AF27" s="1">
-        <f t="shared" si="48"/>
-        <v>2060.0149124999994</v>
+        <f>+AF25+AF26</f>
+        <v>4013.6000000000004</v>
       </c>
       <c r="AG27" s="1">
-        <f t="shared" si="48"/>
-        <v>1957.0141668749993</v>
+        <f t="shared" ref="AG27:AX27" si="52">+AG25+AG26</f>
+        <v>2264.895</v>
       </c>
       <c r="AH27" s="1">
-        <f t="shared" si="48"/>
-        <v>1859.1634585312493</v>
+        <f t="shared" si="52"/>
+        <v>2151.6502499999997</v>
       </c>
       <c r="AI27" s="1">
-        <f t="shared" si="48"/>
-        <v>1766.2052856046867</v>
+        <f t="shared" si="52"/>
+        <v>2044.0677374999996</v>
       </c>
       <c r="AJ27" s="1">
-        <f t="shared" si="48"/>
-        <v>1677.8950213244523</v>
+        <f t="shared" si="52"/>
+        <v>1941.8643506249996</v>
       </c>
       <c r="AK27" s="1">
-        <f t="shared" si="48"/>
-        <v>1594.0002702582296</v>
+        <f t="shared" si="52"/>
+        <v>1844.7711330937495</v>
       </c>
       <c r="AL27" s="1">
-        <f t="shared" si="48"/>
-        <v>1514.3002567453182</v>
+        <f t="shared" si="52"/>
+        <v>1752.532576439062</v>
       </c>
       <c r="AM27" s="1">
-        <f t="shared" si="48"/>
-        <v>1438.5852439080522</v>
+        <f t="shared" si="52"/>
+        <v>1664.9059476171089</v>
       </c>
       <c r="AN27" s="1">
-        <f t="shared" si="48"/>
-        <v>1366.6559817126495</v>
+        <f t="shared" si="52"/>
+        <v>1581.6606502362533</v>
       </c>
       <c r="AO27" s="1">
-        <f t="shared" si="48"/>
-        <v>1298.3231826270169</v>
+        <f t="shared" si="52"/>
+        <v>1502.5776177244406</v>
       </c>
       <c r="AP27" s="1">
-        <f t="shared" si="48"/>
-        <v>1233.407023495666</v>
+        <f t="shared" si="52"/>
+        <v>1427.4487368382186</v>
       </c>
       <c r="AQ27" s="1">
-        <f t="shared" si="48"/>
-        <v>1171.7366723208827</v>
+        <f t="shared" si="52"/>
+        <v>1356.0762999963076</v>
       </c>
       <c r="AR27" s="1">
-        <f t="shared" si="48"/>
-        <v>1113.1498387048384</v>
+        <f t="shared" si="52"/>
+        <v>1288.2724849964923</v>
       </c>
       <c r="AS27" s="1">
-        <f t="shared" si="48"/>
-        <v>1057.4923467695965</v>
+        <f t="shared" si="52"/>
+        <v>1223.8588607466677</v>
       </c>
       <c r="AT27" s="1">
-        <f t="shared" si="48"/>
-        <v>1004.6177294311166</v>
+        <f t="shared" si="52"/>
+        <v>1162.6659177093343</v>
       </c>
       <c r="AU27" s="1">
-        <f t="shared" si="48"/>
-        <v>954.38684295956068</v>
-      </c>
-    </row>
-    <row r="28" spans="2:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="52"/>
+        <v>1104.5326218238674</v>
+      </c>
+      <c r="AV27" s="1">
+        <f t="shared" si="52"/>
+        <v>1049.305990732674</v>
+      </c>
+      <c r="AW27" s="1">
+        <f t="shared" si="52"/>
+        <v>996.84069119604021</v>
+      </c>
+      <c r="AX27" s="1">
+        <f t="shared" si="52"/>
+        <v>946.99865663623814</v>
+      </c>
+    </row>
+    <row r="28" spans="2:50" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12">
-        <f>+E24-E27</f>
+        <f t="shared" ref="E28:L28" si="53">+E24-E27</f>
         <v>1212.9999999999991</v>
       </c>
       <c r="F28" s="12">
-        <f>+F24-F27</f>
+        <f t="shared" si="53"/>
         <v>-170.30000000000064</v>
       </c>
       <c r="G28" s="12">
-        <f>+G24-G27</f>
+        <f t="shared" si="53"/>
         <v>1106.7000000000005</v>
       </c>
       <c r="H28" s="12">
-        <f>+H24-H27</f>
+        <f t="shared" si="53"/>
         <v>1092.8999999999996</v>
       </c>
       <c r="I28" s="12">
-        <f>+I24-I27</f>
+        <f t="shared" si="53"/>
         <v>910.60000000000036</v>
       </c>
       <c r="J28" s="12">
-        <f>+J24-J27</f>
+        <f t="shared" si="53"/>
         <v>586.59999999999945</v>
       </c>
       <c r="K28" s="12">
-        <f>+K24-K27</f>
+        <f t="shared" si="53"/>
         <v>591.30000000000018</v>
       </c>
       <c r="L28" s="12">
-        <f>+L24-L27</f>
+        <f t="shared" si="53"/>
         <v>1003.8999999999999</v>
       </c>
       <c r="M28" s="12">
-        <f t="shared" ref="M28:N28" si="49">+M24-M27</f>
-        <v>1559.2624900000005</v>
+        <f t="shared" ref="M28:N28" si="54">+M24-M27</f>
+        <v>926.5</v>
       </c>
       <c r="N28" s="12">
-        <f t="shared" si="49"/>
-        <v>1489.2803975000002</v>
-      </c>
-      <c r="AB28" s="1">
-        <f>+AB24-AB27</f>
+        <f t="shared" si="54"/>
+        <v>1448.1022100000002</v>
+      </c>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="AC28" s="1">
+        <f t="shared" ref="AC28:AD28" si="55">+AC24-AC27</f>
+        <v>7767.2000000000025</v>
+      </c>
+      <c r="AD28" s="1">
+        <f t="shared" si="55"/>
+        <v>5144.0000000000018</v>
+      </c>
+      <c r="AE28" s="1">
+        <f>+AE24-AE27</f>
         <v>3696.7999999999993</v>
       </c>
-      <c r="AC28" s="1">
-        <f>+AC24-AC27</f>
-        <v>4643.7428874999987</v>
-      </c>
-      <c r="AD28" s="1">
-        <f t="shared" ref="AD28:AU28" si="50">+AD24-AD27</f>
-        <v>6793.0449605000022</v>
-      </c>
-      <c r="AE28" s="1">
-        <f t="shared" si="50"/>
-        <v>8420.8650180800014</v>
-      </c>
       <c r="AF28" s="1">
-        <f t="shared" si="50"/>
-        <v>9391.6267276055023</v>
+        <f>+AF24-AF27</f>
+        <v>3969.8022099999998</v>
       </c>
       <c r="AG28" s="1">
-        <f t="shared" si="50"/>
-        <v>10432.330202543428</v>
+        <f t="shared" ref="AG28:AX28" si="56">+AG24-AG27</f>
+        <v>6679.7271641999996</v>
       </c>
       <c r="AH28" s="1">
-        <f t="shared" si="50"/>
-        <v>10252.145252571736</v>
+        <f t="shared" si="56"/>
+        <v>8320.1704330419998</v>
       </c>
       <c r="AI28" s="1">
-        <f t="shared" si="50"/>
-        <v>10165.905240290836</v>
+        <f t="shared" si="56"/>
+        <v>9305.3822181857013</v>
       </c>
       <c r="AJ28" s="1">
-        <f t="shared" si="50"/>
-        <v>10163.009498174482</v>
+        <f t="shared" si="56"/>
+        <v>10358.415683312847</v>
       </c>
       <c r="AK28" s="1">
-        <f t="shared" si="50"/>
-        <v>10006.866073181651</v>
+        <f t="shared" si="56"/>
+        <v>10188.381452405369</v>
       </c>
       <c r="AL28" s="1">
-        <f t="shared" si="50"/>
-        <v>9531.0110978318899</v>
+        <f t="shared" si="56"/>
+        <v>10110.503579411119</v>
       </c>
       <c r="AM28" s="1">
-        <f t="shared" si="50"/>
-        <v>9379.1634577648219</v>
+        <f t="shared" si="56"/>
+        <v>10114.499543564372</v>
       </c>
       <c r="AN28" s="1">
-        <f t="shared" si="50"/>
-        <v>9279.4497099055734</v>
+        <f t="shared" si="56"/>
+        <v>9964.0367389630592</v>
       </c>
       <c r="AO28" s="1">
-        <f t="shared" si="50"/>
-        <v>9224.1483821048805</v>
+        <f t="shared" si="56"/>
+        <v>9498.227628283541</v>
       </c>
       <c r="AP28" s="1">
-        <f t="shared" si="50"/>
-        <v>9206.8385399167255</v>
+        <f t="shared" si="56"/>
+        <v>9351.5596342673616</v>
       </c>
       <c r="AQ28" s="1">
-        <f t="shared" si="50"/>
-        <v>9222.1717293017136</v>
+        <f t="shared" si="56"/>
+        <v>9256.1474160648268</v>
       </c>
       <c r="AR28" s="1">
-        <f t="shared" si="50"/>
-        <v>9265.6855828952666</v>
+        <f t="shared" si="56"/>
+        <v>9204.4261269000745</v>
       </c>
       <c r="AS28" s="1">
-        <f t="shared" si="50"/>
-        <v>9333.6512627888151</v>
+        <f t="shared" si="56"/>
+        <v>9190.1025249309023</v>
       </c>
       <c r="AT28" s="1">
-        <f t="shared" si="50"/>
-        <v>9422.94841141082</v>
+        <f t="shared" si="56"/>
+        <v>9207.9323888972976</v>
       </c>
       <c r="AU28" s="1">
-        <f t="shared" si="50"/>
-        <v>9530.9624900998351</v>
-      </c>
-    </row>
-    <row r="29" spans="2:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="56"/>
+        <v>9253.5385452884566</v>
+      </c>
+      <c r="AV28" s="1">
+        <f t="shared" si="56"/>
+        <v>9323.2618844529206</v>
+      </c>
+      <c r="AW28" s="1">
+        <f t="shared" si="56"/>
+        <v>9414.0392016648693</v>
+      </c>
+      <c r="AX28" s="1">
+        <f t="shared" si="56"/>
+        <v>9523.3028750029043</v>
+      </c>
+    </row>
+    <row r="29" spans="2:50" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
@@ -4456,53 +4868,67 @@
       <c r="L29" s="12">
         <v>29.4</v>
       </c>
-      <c r="M29" s="12"/>
+      <c r="M29" s="12">
+        <f>45.3+56</f>
+        <v>101.3</v>
+      </c>
       <c r="N29" s="12"/>
-      <c r="AB29" s="1">
-        <f t="shared" ref="AB29" si="51">SUM(G29:J29)</f>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="AC29" s="1">
+        <f>241.6+83.3</f>
+        <v>324.89999999999998</v>
+      </c>
+      <c r="AD29" s="1">
+        <f>232.9+497.4</f>
+        <v>730.3</v>
+      </c>
+      <c r="AE29" s="1">
+        <f t="shared" ref="AE29" si="57">SUM(G29:J29)</f>
         <v>-1050.0999999999999</v>
       </c>
-      <c r="AC29" s="1">
-        <f t="shared" ref="AC29" si="52">SUM(K29:N29)</f>
-        <v>-351.20000000000005</v>
-      </c>
-    </row>
-    <row r="30" spans="2:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF29" s="1">
+        <f t="shared" ref="AF29" si="58">SUM(K29:N29)</f>
+        <v>-249.90000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="2:50" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12">
-        <f>+E28+E29</f>
+        <f t="shared" ref="E30:L30" si="59">+E28+E29</f>
         <v>1157.3999999999992</v>
       </c>
       <c r="F30" s="12">
-        <f>+F28+F29</f>
+        <f t="shared" si="59"/>
         <v>579.59999999999934</v>
       </c>
       <c r="G30" s="12">
-        <f>+G28+G29</f>
+        <f t="shared" si="59"/>
         <v>668.30000000000052</v>
       </c>
       <c r="H30" s="12">
-        <f>+H28+H29</f>
+        <f t="shared" si="59"/>
         <v>1077.6999999999996</v>
       </c>
       <c r="I30" s="12">
-        <f>+I28+I29</f>
+        <f t="shared" si="59"/>
         <v>428.90000000000038</v>
       </c>
       <c r="J30" s="12">
-        <f>+J28+J29</f>
+        <f t="shared" si="59"/>
         <v>471.79999999999944</v>
       </c>
       <c r="K30" s="12">
-        <f>+K28+K29</f>
+        <f t="shared" si="59"/>
         <v>210.70000000000016</v>
       </c>
       <c r="L30" s="12">
-        <f>+L28+L29</f>
+        <f t="shared" si="59"/>
         <v>1033.3</v>
       </c>
       <c r="M30" s="12">
@@ -4513,90 +4939,101 @@
         <f>+M30</f>
         <v>1033.3</v>
       </c>
-      <c r="AB30" s="1">
-        <f>+AB28+AB29</f>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="AC30" s="1">
+        <f t="shared" ref="AC30:AD30" si="60">+AC28+AC29</f>
+        <v>8092.1000000000022</v>
+      </c>
+      <c r="AD30" s="1">
+        <f t="shared" si="60"/>
+        <v>5874.300000000002</v>
+      </c>
+      <c r="AE30" s="1">
+        <f>+AE28+AE29</f>
         <v>2646.6999999999994</v>
       </c>
-      <c r="AC30" s="1">
-        <f>+AC28+AC29</f>
-        <v>4292.5428874999989</v>
-      </c>
-      <c r="AD30" s="1">
-        <f t="shared" ref="AD30:AU30" si="53">+AD28+AD29</f>
-        <v>6793.0449605000022</v>
-      </c>
-      <c r="AE30" s="1">
-        <f t="shared" si="53"/>
-        <v>8420.8650180800014</v>
-      </c>
       <c r="AF30" s="1">
-        <f t="shared" si="53"/>
-        <v>9391.6267276055023</v>
+        <f>+AF28+AF29</f>
+        <v>3719.9022099999997</v>
       </c>
       <c r="AG30" s="1">
-        <f t="shared" si="53"/>
-        <v>10432.330202543428</v>
+        <f t="shared" ref="AG30:AX30" si="61">+AG28+AG29</f>
+        <v>6679.7271641999996</v>
       </c>
       <c r="AH30" s="1">
-        <f t="shared" si="53"/>
-        <v>10252.145252571736</v>
+        <f t="shared" si="61"/>
+        <v>8320.1704330419998</v>
       </c>
       <c r="AI30" s="1">
-        <f t="shared" si="53"/>
-        <v>10165.905240290836</v>
+        <f t="shared" si="61"/>
+        <v>9305.3822181857013</v>
       </c>
       <c r="AJ30" s="1">
-        <f t="shared" si="53"/>
-        <v>10163.009498174482</v>
+        <f t="shared" si="61"/>
+        <v>10358.415683312847</v>
       </c>
       <c r="AK30" s="1">
-        <f t="shared" si="53"/>
-        <v>10006.866073181651</v>
+        <f t="shared" si="61"/>
+        <v>10188.381452405369</v>
       </c>
       <c r="AL30" s="1">
-        <f t="shared" si="53"/>
-        <v>9531.0110978318899</v>
+        <f t="shared" si="61"/>
+        <v>10110.503579411119</v>
       </c>
       <c r="AM30" s="1">
-        <f t="shared" si="53"/>
-        <v>9379.1634577648219</v>
+        <f t="shared" si="61"/>
+        <v>10114.499543564372</v>
       </c>
       <c r="AN30" s="1">
-        <f t="shared" si="53"/>
-        <v>9279.4497099055734</v>
+        <f t="shared" si="61"/>
+        <v>9964.0367389630592</v>
       </c>
       <c r="AO30" s="1">
-        <f t="shared" si="53"/>
-        <v>9224.1483821048805</v>
+        <f t="shared" si="61"/>
+        <v>9498.227628283541</v>
       </c>
       <c r="AP30" s="1">
-        <f t="shared" si="53"/>
-        <v>9206.8385399167255</v>
+        <f t="shared" si="61"/>
+        <v>9351.5596342673616</v>
       </c>
       <c r="AQ30" s="1">
-        <f t="shared" si="53"/>
-        <v>9222.1717293017136</v>
+        <f t="shared" si="61"/>
+        <v>9256.1474160648268</v>
       </c>
       <c r="AR30" s="1">
-        <f t="shared" si="53"/>
-        <v>9265.6855828952666</v>
+        <f t="shared" si="61"/>
+        <v>9204.4261269000745</v>
       </c>
       <c r="AS30" s="1">
-        <f t="shared" si="53"/>
-        <v>9333.6512627888151</v>
+        <f t="shared" si="61"/>
+        <v>9190.1025249309023</v>
       </c>
       <c r="AT30" s="1">
-        <f t="shared" si="53"/>
-        <v>9422.94841141082</v>
+        <f t="shared" si="61"/>
+        <v>9207.9323888972976</v>
       </c>
       <c r="AU30" s="1">
-        <f t="shared" si="53"/>
-        <v>9530.9624900998351</v>
-      </c>
-    </row>
-    <row r="31" spans="2:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="61"/>
+        <v>9253.5385452884566</v>
+      </c>
+      <c r="AV30" s="1">
+        <f t="shared" si="61"/>
+        <v>9323.2618844529206</v>
+      </c>
+      <c r="AW30" s="1">
+        <f t="shared" si="61"/>
+        <v>9414.0392016648693</v>
+      </c>
+      <c r="AX30" s="1">
+        <f t="shared" si="61"/>
+        <v>9523.3028750029043</v>
+      </c>
+    </row>
+    <row r="31" spans="2:50" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
@@ -4633,347 +5070,379 @@
         <v>210.79999999999998</v>
       </c>
       <c r="M31" s="12">
-        <f>+M30*0.2</f>
-        <v>206.66</v>
+        <v>236.2</v>
       </c>
       <c r="N31" s="12">
         <f>+N30*0.2</f>
         <v>206.66</v>
       </c>
-      <c r="AB31" s="1">
-        <f t="shared" ref="AB31" si="54">SUM(G31:J31)</f>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="AC31" s="1">
+        <f>1158+79.4</f>
+        <v>1237.4000000000001</v>
+      </c>
+      <c r="AD31" s="1">
+        <f>992.3+59.9</f>
+        <v>1052.2</v>
+      </c>
+      <c r="AE31" s="1">
+        <f t="shared" ref="AE31" si="62">SUM(G31:J31)</f>
         <v>1007.3</v>
       </c>
-      <c r="AC31" s="1">
-        <f t="shared" ref="AC31" si="55">SUM(K31:N31)</f>
-        <v>667.71999999999991</v>
-      </c>
-      <c r="AD31" s="1">
-        <f>+AD30*0.2</f>
-        <v>1358.6089921000005</v>
-      </c>
-      <c r="AE31" s="1">
-        <f t="shared" ref="AE31:AU31" si="56">+AE30*0.2</f>
-        <v>1684.1730036160004</v>
-      </c>
       <c r="AF31" s="1">
-        <f t="shared" si="56"/>
-        <v>1878.3253455211006</v>
+        <f t="shared" ref="AF31" si="63">SUM(K31:N31)</f>
+        <v>697.26</v>
       </c>
       <c r="AG31" s="1">
-        <f t="shared" si="56"/>
-        <v>2086.4660405086856</v>
+        <f>+AG30*0.2</f>
+        <v>1335.94543284</v>
       </c>
       <c r="AH31" s="1">
-        <f t="shared" si="56"/>
-        <v>2050.4290505143472</v>
+        <f t="shared" ref="AH31:AX31" si="64">+AH30*0.2</f>
+        <v>1664.0340866084</v>
       </c>
       <c r="AI31" s="1">
-        <f t="shared" si="56"/>
-        <v>2033.1810480581673</v>
+        <f t="shared" si="64"/>
+        <v>1861.0764436371403</v>
       </c>
       <c r="AJ31" s="1">
-        <f t="shared" si="56"/>
-        <v>2032.6018996348967</v>
+        <f t="shared" si="64"/>
+        <v>2071.6831366625697</v>
       </c>
       <c r="AK31" s="1">
-        <f t="shared" si="56"/>
-        <v>2001.3732146363302</v>
+        <f t="shared" si="64"/>
+        <v>2037.6762904810739</v>
       </c>
       <c r="AL31" s="1">
-        <f t="shared" si="56"/>
-        <v>1906.2022195663781</v>
+        <f t="shared" si="64"/>
+        <v>2022.100715882224</v>
       </c>
       <c r="AM31" s="1">
-        <f t="shared" si="56"/>
-        <v>1875.8326915529644</v>
+        <f t="shared" si="64"/>
+        <v>2022.8999087128745</v>
       </c>
       <c r="AN31" s="1">
-        <f t="shared" si="56"/>
-        <v>1855.8899419811148</v>
+        <f t="shared" si="64"/>
+        <v>1992.8073477926118</v>
       </c>
       <c r="AO31" s="1">
-        <f t="shared" si="56"/>
-        <v>1844.8296764209763</v>
+        <f t="shared" si="64"/>
+        <v>1899.6455256567083</v>
       </c>
       <c r="AP31" s="1">
-        <f t="shared" si="56"/>
-        <v>1841.3677079833451</v>
+        <f t="shared" si="64"/>
+        <v>1870.3119268534724</v>
       </c>
       <c r="AQ31" s="1">
-        <f t="shared" si="56"/>
-        <v>1844.4343458603428</v>
+        <f t="shared" si="64"/>
+        <v>1851.2294832129655</v>
       </c>
       <c r="AR31" s="1">
-        <f t="shared" si="56"/>
-        <v>1853.1371165790533</v>
+        <f t="shared" si="64"/>
+        <v>1840.8852253800151</v>
       </c>
       <c r="AS31" s="1">
-        <f t="shared" si="56"/>
-        <v>1866.7302525577632</v>
+        <f t="shared" si="64"/>
+        <v>1838.0205049861806</v>
       </c>
       <c r="AT31" s="1">
-        <f t="shared" si="56"/>
-        <v>1884.5896822821642</v>
+        <f t="shared" si="64"/>
+        <v>1841.5864777794595</v>
       </c>
       <c r="AU31" s="1">
-        <f t="shared" si="56"/>
-        <v>1906.1924980199672</v>
-      </c>
-    </row>
-    <row r="32" spans="2:47" x14ac:dyDescent="0.2">
+        <f t="shared" si="64"/>
+        <v>1850.7077090576913</v>
+      </c>
+      <c r="AV31" s="1">
+        <f t="shared" si="64"/>
+        <v>1864.6523768905843</v>
+      </c>
+      <c r="AW31" s="1">
+        <f t="shared" si="64"/>
+        <v>1882.8078403329739</v>
+      </c>
+      <c r="AX31" s="1">
+        <f t="shared" si="64"/>
+        <v>1904.660575000581</v>
+      </c>
+    </row>
+    <row r="32" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E32" s="12">
-        <f>+E30-E31</f>
+        <f t="shared" ref="E32:N32" si="65">+E30-E31</f>
         <v>901.09999999999923</v>
       </c>
       <c r="F32" s="12">
-        <f>+F30-F31</f>
+        <f t="shared" si="65"/>
         <v>584.59999999999934</v>
       </c>
       <c r="G32" s="12">
-        <f>+G30-G31</f>
+        <f t="shared" si="65"/>
         <v>611.50000000000057</v>
       </c>
       <c r="H32" s="12">
-        <f>+H30-H31</f>
+        <f t="shared" si="65"/>
         <v>125.89999999999964</v>
       </c>
       <c r="I32" s="12">
-        <f>+I30-I31</f>
+        <f t="shared" si="65"/>
         <v>467.0000000000004</v>
       </c>
       <c r="J32" s="12">
-        <f>+J30-J31</f>
+        <f t="shared" si="65"/>
         <v>434.99999999999943</v>
       </c>
       <c r="K32" s="12">
-        <f>+K30-K31</f>
+        <f t="shared" si="65"/>
         <v>167.10000000000014</v>
       </c>
       <c r="L32" s="12">
-        <f>+L30-L31</f>
+        <f t="shared" si="65"/>
         <v>822.5</v>
       </c>
       <c r="M32" s="12">
         <f>+M30-M31</f>
+        <v>797.09999999999991</v>
+      </c>
+      <c r="N32" s="12">
+        <f t="shared" si="65"/>
         <v>826.64</v>
       </c>
-      <c r="N32" s="12">
-        <f>+N30-N31</f>
-        <v>826.64</v>
-      </c>
-      <c r="AB32" s="1">
-        <f>+AB30-AB31</f>
-        <v>1639.3999999999994</v>
-      </c>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
       <c r="AC32" s="1">
         <f>+AC30-AC31</f>
-        <v>3624.8228874999991</v>
+        <v>6854.7000000000025</v>
       </c>
       <c r="AD32" s="1">
         <f>+AD30-AD31</f>
-        <v>5434.4359684000019</v>
+        <v>4822.1000000000022</v>
       </c>
       <c r="AE32" s="1">
-        <f t="shared" ref="AE32:AU32" si="57">+AE30-AE31</f>
-        <v>6736.6920144640007</v>
+        <f>+AE30-AE31</f>
+        <v>1639.3999999999994</v>
       </c>
       <c r="AF32" s="1">
-        <f t="shared" si="57"/>
-        <v>7513.3013820844017</v>
+        <f>+AF30-AF31</f>
+        <v>3022.64221</v>
       </c>
       <c r="AG32" s="1">
-        <f t="shared" si="57"/>
-        <v>8345.8641620347425</v>
+        <f>+AG30-AG31</f>
+        <v>5343.7817313599999</v>
       </c>
       <c r="AH32" s="1">
-        <f t="shared" si="57"/>
-        <v>8201.7162020573887</v>
+        <f t="shared" ref="AH32:AX32" si="66">+AH30-AH31</f>
+        <v>6656.1363464336</v>
       </c>
       <c r="AI32" s="1">
-        <f t="shared" si="57"/>
-        <v>8132.7241922326693</v>
+        <f t="shared" si="66"/>
+        <v>7444.3057745485612</v>
       </c>
       <c r="AJ32" s="1">
-        <f t="shared" si="57"/>
-        <v>8130.4075985395857</v>
+        <f t="shared" si="66"/>
+        <v>8286.7325466502771</v>
       </c>
       <c r="AK32" s="1">
-        <f t="shared" si="57"/>
-        <v>8005.4928585453208</v>
+        <f t="shared" si="66"/>
+        <v>8150.7051619242948</v>
       </c>
       <c r="AL32" s="1">
-        <f t="shared" si="57"/>
-        <v>7624.8088782655122</v>
+        <f t="shared" si="66"/>
+        <v>8088.4028635288951</v>
       </c>
       <c r="AM32" s="1">
-        <f t="shared" si="57"/>
-        <v>7503.3307662118577</v>
+        <f t="shared" si="66"/>
+        <v>8091.5996348514982</v>
       </c>
       <c r="AN32" s="1">
-        <f t="shared" si="57"/>
-        <v>7423.5597679244584</v>
+        <f t="shared" si="66"/>
+        <v>7971.2293911704473</v>
       </c>
       <c r="AO32" s="1">
-        <f t="shared" si="57"/>
-        <v>7379.3187056839042</v>
+        <f t="shared" si="66"/>
+        <v>7598.5821026268331</v>
       </c>
       <c r="AP32" s="1">
-        <f t="shared" si="57"/>
-        <v>7365.4708319333804</v>
+        <f t="shared" si="66"/>
+        <v>7481.2477074138897</v>
       </c>
       <c r="AQ32" s="1">
-        <f t="shared" si="57"/>
-        <v>7377.7373834413711</v>
+        <f t="shared" si="66"/>
+        <v>7404.9179328518612</v>
       </c>
       <c r="AR32" s="1">
-        <f t="shared" si="57"/>
-        <v>7412.5484663162133</v>
+        <f t="shared" si="66"/>
+        <v>7363.5409015200594</v>
       </c>
       <c r="AS32" s="1">
-        <f t="shared" si="57"/>
-        <v>7466.9210102310517</v>
+        <f t="shared" si="66"/>
+        <v>7352.0820199447217</v>
       </c>
       <c r="AT32" s="1">
-        <f t="shared" si="57"/>
-        <v>7538.3587291286558</v>
+        <f t="shared" si="66"/>
+        <v>7366.3459111178381</v>
       </c>
       <c r="AU32" s="1">
-        <f t="shared" si="57"/>
-        <v>7624.7699920798677</v>
-      </c>
-    </row>
-    <row r="33" spans="2:50" x14ac:dyDescent="0.2">
+        <f t="shared" si="66"/>
+        <v>7402.8308362307653</v>
+      </c>
+      <c r="AV32" s="1">
+        <f t="shared" si="66"/>
+        <v>7458.6095075623361</v>
+      </c>
+      <c r="AW32" s="1">
+        <f t="shared" si="66"/>
+        <v>7531.2313613318956</v>
+      </c>
+      <c r="AX32" s="1">
+        <f t="shared" si="66"/>
+        <v>7618.6423000023233</v>
+      </c>
+    </row>
+    <row r="33" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E33" s="15">
-        <f>+E32/E34</f>
+        <f t="shared" ref="E33:L33" si="67">+E32/E34</f>
         <v>5.7321882951653897</v>
       </c>
       <c r="F33" s="15">
-        <f>+F32/F34</f>
+        <f t="shared" si="67"/>
         <v>3.796103896103892</v>
       </c>
       <c r="G33" s="15">
-        <f>+G32/G34</f>
+        <f t="shared" si="67"/>
         <v>4.0151017728168128</v>
       </c>
       <c r="H33" s="15">
-        <f>+H32/H34</f>
+        <f t="shared" si="67"/>
         <v>0.83877415056628679</v>
       </c>
       <c r="I33" s="15">
-        <f>+I32/I34</f>
+        <f t="shared" si="67"/>
         <v>3.1426648721399757</v>
       </c>
       <c r="J33" s="15">
-        <f>+J32/J34</f>
+        <f t="shared" si="67"/>
         <v>2.9491525423728775</v>
       </c>
       <c r="K33" s="15">
-        <f>+K32/K34</f>
+        <f t="shared" si="67"/>
         <v>1.1321138211382122</v>
       </c>
       <c r="L33" s="15">
-        <f>+L32/L34</f>
+        <f t="shared" si="67"/>
         <v>5.625854993160055</v>
       </c>
       <c r="M33" s="15">
-        <f t="shared" ref="M33:N33" si="58">+M32/M34</f>
-        <v>5.6541723666210677</v>
+        <f t="shared" ref="M33:N33" si="68">+M32/M34</f>
+        <v>5.5048342541436455</v>
       </c>
       <c r="N33" s="15">
-        <f t="shared" si="58"/>
-        <v>5.6541723666210677</v>
-      </c>
-      <c r="AB33" s="17">
-        <f>+AB32/AB34</f>
-        <v>10.956725146198826</v>
-      </c>
+        <f t="shared" si="68"/>
+        <v>5.7088397790055243</v>
+      </c>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
       <c r="AC33" s="17">
         <f>+AC32/AC34</f>
-        <v>24.734376577959736</v>
+        <v>36.577908217716129</v>
       </c>
       <c r="AD33" s="17">
         <f>+AD32/AD34</f>
-        <v>37.082469931081562</v>
+        <v>29.895226286422826</v>
       </c>
       <c r="AE33" s="17">
-        <f t="shared" ref="AE33:AU33" si="59">+AE32/AE34</f>
-        <v>45.968556905247368</v>
+        <f>+AE32/AE34</f>
+        <v>10.956725146198826</v>
       </c>
       <c r="AF33" s="17">
-        <f t="shared" si="59"/>
-        <v>51.267836111118406</v>
+        <f>+AF32/AF34</f>
+        <v>20.724320946177581</v>
       </c>
       <c r="AG33" s="17">
-        <f t="shared" si="59"/>
-        <v>56.948919563526054</v>
+        <f>+AG32/AG34</f>
+        <v>36.638887427905381</v>
       </c>
       <c r="AH33" s="17">
-        <f t="shared" si="59"/>
-        <v>55.96531014709921</v>
+        <f t="shared" ref="AH33:AX33" si="69">+AH32/AH34</f>
+        <v>45.636862162726089</v>
       </c>
       <c r="AI33" s="17">
-        <f t="shared" si="59"/>
-        <v>55.494535600359399</v>
+        <f t="shared" si="69"/>
+        <v>51.040834930055276</v>
       </c>
       <c r="AJ33" s="17">
-        <f t="shared" si="59"/>
-        <v>55.478728069188584</v>
+        <f t="shared" si="69"/>
+        <v>56.816815540968648</v>
       </c>
       <c r="AK33" s="17">
-        <f t="shared" si="59"/>
-        <v>54.626358638999122</v>
+        <f t="shared" si="69"/>
+        <v>55.884162920289988</v>
       </c>
       <c r="AL33" s="17">
-        <f t="shared" si="59"/>
-        <v>52.028719742514589</v>
+        <f t="shared" si="69"/>
+        <v>55.456995978943404</v>
       </c>
       <c r="AM33" s="17">
-        <f t="shared" si="59"/>
-        <v>51.199800520039979</v>
+        <f t="shared" si="69"/>
+        <v>55.478914191645515</v>
       </c>
       <c r="AN33" s="17">
-        <f t="shared" si="59"/>
-        <v>50.655474363182933</v>
+        <f t="shared" si="69"/>
+        <v>54.653612555162482</v>
       </c>
       <c r="AO33" s="17">
-        <f t="shared" si="59"/>
-        <v>50.353590622203377</v>
+        <f t="shared" si="69"/>
+        <v>52.098608862713974</v>
       </c>
       <c r="AP33" s="17">
-        <f t="shared" si="59"/>
-        <v>50.259098136699976</v>
+        <f t="shared" si="69"/>
+        <v>51.294122094027358</v>
       </c>
       <c r="AQ33" s="17">
-        <f t="shared" si="59"/>
-        <v>50.342800296426965</v>
+        <f t="shared" si="69"/>
+        <v>50.770777736385746</v>
       </c>
       <c r="AR33" s="17">
-        <f t="shared" si="59"/>
-        <v>50.580337538834627</v>
+        <f t="shared" si="69"/>
+        <v>50.487081943915392</v>
       </c>
       <c r="AS33" s="17">
-        <f t="shared" si="59"/>
-        <v>50.951354556336078</v>
+        <f t="shared" si="69"/>
+        <v>50.408515734965526</v>
       </c>
       <c r="AT33" s="17">
-        <f t="shared" si="59"/>
-        <v>51.438817667203388</v>
+        <f t="shared" si="69"/>
+        <v>50.506314097482608</v>
       </c>
       <c r="AU33" s="17">
-        <f t="shared" si="59"/>
-        <v>52.02845439836144</v>
-      </c>
-    </row>
-    <row r="34" spans="2:50" x14ac:dyDescent="0.2">
+        <f t="shared" si="69"/>
+        <v>50.75646785211358</v>
+      </c>
+      <c r="AV33" s="17">
+        <f t="shared" si="69"/>
+        <v>51.138906462546018</v>
+      </c>
+      <c r="AW33" s="17">
+        <f t="shared" si="69"/>
+        <v>51.636827983077794</v>
+      </c>
+      <c r="AX33" s="17">
+        <f t="shared" si="69"/>
+        <v>52.236148783012162</v>
+      </c>
+    </row>
+    <row r="34" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E34" s="12">
         <v>157.19999999999999</v>
@@ -5000,113 +5469,121 @@
         <v>146.19999999999999</v>
       </c>
       <c r="M34" s="12">
-        <f>+L34</f>
-        <v>146.19999999999999</v>
+        <v>144.80000000000001</v>
       </c>
       <c r="N34" s="12">
         <f>+M34</f>
-        <v>146.19999999999999</v>
-      </c>
-      <c r="AB34" s="1">
+        <v>144.80000000000001</v>
+      </c>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="AC34" s="1">
+        <v>187.4</v>
+      </c>
+      <c r="AD34" s="1">
+        <v>161.30000000000001</v>
+      </c>
+      <c r="AE34" s="1">
         <f>AVERAGE(G34:J34)</f>
         <v>149.625</v>
       </c>
-      <c r="AC34" s="1">
+      <c r="AF34" s="1">
         <f>AVERAGE(K34:N34)</f>
-        <v>146.54999999999998</v>
-      </c>
-      <c r="AD34" s="1">
-        <f>+AC34</f>
-        <v>146.54999999999998</v>
-      </c>
-      <c r="AE34" s="1">
-        <f t="shared" ref="AE34:AU34" si="60">+AD34</f>
-        <v>146.54999999999998</v>
-      </c>
-      <c r="AF34" s="1">
-        <f t="shared" si="60"/>
-        <v>146.54999999999998</v>
+        <v>145.85</v>
       </c>
       <c r="AG34" s="1">
-        <f t="shared" si="60"/>
-        <v>146.54999999999998</v>
+        <f>+AF34</f>
+        <v>145.85</v>
       </c>
       <c r="AH34" s="1">
-        <f t="shared" si="60"/>
-        <v>146.54999999999998</v>
+        <f t="shared" ref="AH34:AX34" si="70">+AG34</f>
+        <v>145.85</v>
       </c>
       <c r="AI34" s="1">
-        <f t="shared" si="60"/>
-        <v>146.54999999999998</v>
+        <f t="shared" si="70"/>
+        <v>145.85</v>
       </c>
       <c r="AJ34" s="1">
-        <f t="shared" si="60"/>
-        <v>146.54999999999998</v>
+        <f t="shared" si="70"/>
+        <v>145.85</v>
       </c>
       <c r="AK34" s="1">
-        <f t="shared" si="60"/>
-        <v>146.54999999999998</v>
+        <f t="shared" si="70"/>
+        <v>145.85</v>
       </c>
       <c r="AL34" s="1">
-        <f t="shared" si="60"/>
-        <v>146.54999999999998</v>
+        <f t="shared" si="70"/>
+        <v>145.85</v>
       </c>
       <c r="AM34" s="1">
-        <f t="shared" si="60"/>
-        <v>146.54999999999998</v>
+        <f t="shared" si="70"/>
+        <v>145.85</v>
       </c>
       <c r="AN34" s="1">
-        <f t="shared" si="60"/>
-        <v>146.54999999999998</v>
+        <f t="shared" si="70"/>
+        <v>145.85</v>
       </c>
       <c r="AO34" s="1">
-        <f t="shared" si="60"/>
-        <v>146.54999999999998</v>
+        <f t="shared" si="70"/>
+        <v>145.85</v>
       </c>
       <c r="AP34" s="1">
-        <f t="shared" si="60"/>
-        <v>146.54999999999998</v>
+        <f t="shared" si="70"/>
+        <v>145.85</v>
       </c>
       <c r="AQ34" s="1">
-        <f t="shared" si="60"/>
-        <v>146.54999999999998</v>
+        <f t="shared" si="70"/>
+        <v>145.85</v>
       </c>
       <c r="AR34" s="1">
-        <f t="shared" si="60"/>
-        <v>146.54999999999998</v>
+        <f t="shared" si="70"/>
+        <v>145.85</v>
       </c>
       <c r="AS34" s="1">
-        <f t="shared" si="60"/>
-        <v>146.54999999999998</v>
+        <f t="shared" si="70"/>
+        <v>145.85</v>
       </c>
       <c r="AT34" s="1">
-        <f t="shared" si="60"/>
-        <v>146.54999999999998</v>
+        <f t="shared" si="70"/>
+        <v>145.85</v>
       </c>
       <c r="AU34" s="1">
-        <f t="shared" si="60"/>
-        <v>146.54999999999998</v>
-      </c>
-    </row>
-    <row r="35" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="AW35" t="s">
+        <f t="shared" si="70"/>
+        <v>145.85</v>
+      </c>
+      <c r="AV34" s="1">
+        <f t="shared" si="70"/>
+        <v>145.85</v>
+      </c>
+      <c r="AW34" s="1">
+        <f t="shared" si="70"/>
+        <v>145.85</v>
+      </c>
+      <c r="AX34" s="1">
+        <f t="shared" si="70"/>
+        <v>145.85</v>
+      </c>
+    </row>
+    <row r="35" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="AZ35" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA35" s="18">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="36" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="AZ36" t="s">
         <v>83</v>
       </c>
-      <c r="AX35" s="18">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="36" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="AW36" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX36" s="18">
+      <c r="BA36" s="18">
         <v>0.08</v>
       </c>
     </row>
-    <row r="37" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I37" s="16">
         <f>+I22/E22-1</f>
@@ -5124,17 +5601,105 @@
         <f>+L22/H22-1</f>
         <v>-6.6990990990990817E-2</v>
       </c>
-      <c r="AW37" t="s">
-        <v>85</v>
-      </c>
-      <c r="AX37" s="1">
-        <f>NPV(AX36,AD32:AU32)+Main!J5-Main!J6</f>
-        <v>69892.659177287424</v>
-      </c>
-    </row>
-    <row r="38" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="M37" s="16">
+        <f>+M22/I22-1</f>
+        <v>-9.7304688905682335E-2</v>
+      </c>
+      <c r="AD37" s="18">
+        <f>+AD22/AC22-1</f>
+        <v>-6.4912122076241974E-2</v>
+      </c>
+      <c r="AE37" s="18">
+        <f t="shared" ref="AE37:AX37" si="71">+AE22/AD22-1</f>
+        <v>-0.18316647575978484</v>
+      </c>
+      <c r="AF37" s="18">
+        <f t="shared" si="71"/>
+        <v>-7.3543890001820933E-2</v>
+      </c>
+      <c r="AG37" s="18">
+        <f t="shared" si="71"/>
+        <v>7.211619995830687E-2</v>
+      </c>
+      <c r="AH37" s="18">
+        <f t="shared" si="71"/>
+        <v>0.17073929907900065</v>
+      </c>
+      <c r="AI37" s="18">
+        <f t="shared" si="71"/>
+        <v>8.3808661283221397E-2</v>
+      </c>
+      <c r="AJ37" s="18">
+        <f t="shared" si="71"/>
+        <v>8.3777635212692436E-2</v>
+      </c>
+      <c r="AK37" s="18">
+        <f t="shared" si="71"/>
+        <v>-2.1717184300007353E-2</v>
+      </c>
+      <c r="AL37" s="18">
+        <f t="shared" si="71"/>
+        <v>-1.4137311767652649E-2</v>
+      </c>
+      <c r="AM37" s="18">
+        <f t="shared" si="71"/>
+        <v>-7.0496847156161779E-3</v>
+      </c>
+      <c r="AN37" s="18">
+        <f t="shared" si="71"/>
+        <v>-1.9840398749931043E-2</v>
+      </c>
+      <c r="AO37" s="18">
+        <f t="shared" si="71"/>
+        <v>-4.7194389808021708E-2</v>
+      </c>
+      <c r="AP37" s="18">
+        <f t="shared" si="71"/>
+        <v>-2.0161876330179518E-2</v>
+      </c>
+      <c r="AQ37" s="18">
+        <f t="shared" si="71"/>
+        <v>-1.5473098201828184E-2</v>
+      </c>
+      <c r="AR37" s="18">
+        <f t="shared" si="71"/>
+        <v>-1.1262964988541624E-2</v>
+      </c>
+      <c r="AS37" s="18">
+        <f t="shared" si="71"/>
+        <v>-7.5040015091756285E-3</v>
+      </c>
+      <c r="AT37" s="18">
+        <f t="shared" si="71"/>
+        <v>-4.1639369942909621E-3</v>
+      </c>
+      <c r="AU37" s="18">
+        <f t="shared" si="71"/>
+        <v>-1.2079476153584734E-3</v>
+      </c>
+      <c r="AV37" s="18">
+        <f t="shared" si="71"/>
+        <v>1.3995567166307232E-3</v>
+      </c>
+      <c r="AW37" s="18">
+        <f t="shared" si="71"/>
+        <v>3.6935904528492269E-3</v>
+      </c>
+      <c r="AX37" s="18">
+        <f t="shared" si="71"/>
+        <v>5.7076480940847496E-3</v>
+      </c>
+      <c r="AZ37" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA37" s="1">
+        <f>NPV(BA36,AG32:AX32)+Main!J5-Main!J6</f>
+        <v>70462.859365994213</v>
+      </c>
+    </row>
+    <row r="38" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E38" s="16">
         <f>+E24/E22</f>
@@ -5149,40 +5714,527 @@
         <v>0.82253155159613967</v>
       </c>
       <c r="H38" s="16">
-        <f t="shared" ref="H38" si="61">+H24/H22</f>
+        <f t="shared" ref="H38" si="72">+H24/H22</f>
         <v>0.83434234234234239</v>
       </c>
       <c r="I38" s="16">
-        <f t="shared" ref="I38:J38" si="62">+I24/I22</f>
+        <f t="shared" ref="I38:J38" si="73">+I24/I22</f>
         <v>0.8158264061319227</v>
       </c>
       <c r="J38" s="16">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>0.7585677188105775</v>
       </c>
       <c r="K38" s="16">
-        <f t="shared" ref="K38:N38" si="63">+K24/K22</f>
+        <f t="shared" ref="K38:N38" si="74">+K24/K22</f>
         <v>0.70222766411248916</v>
       </c>
       <c r="L38" s="16">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
         <v>0.8130624541346414</v>
       </c>
       <c r="M38" s="16">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
+        <v>0.81283635638827989</v>
+      </c>
+      <c r="N38" s="16">
+        <f t="shared" si="74"/>
         <v>0.81000000000000016</v>
       </c>
-      <c r="N38" s="16">
-        <f t="shared" si="63"/>
-        <v>0.80999999999999994</v>
-      </c>
-      <c r="AW38" t="s">
-        <v>86</v>
-      </c>
-      <c r="AX38" s="17">
-        <f>AX37/Main!J3</f>
-        <v>481.64283379210849</v>
-      </c>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="AC38" s="18">
+        <f t="shared" ref="AC38:AE38" si="75">+AC24/AC22</f>
+        <v>0.86399961051335739</v>
+      </c>
+      <c r="AD38" s="18">
+        <f t="shared" si="75"/>
+        <v>0.86573047915148083</v>
+      </c>
+      <c r="AE38" s="18">
+        <f>+AE24/AE22</f>
+        <v>0.80789473684210533</v>
+      </c>
+      <c r="AF38" s="18">
+        <f t="shared" ref="AF38:AX38" si="76">+AF24/AF22</f>
+        <v>0.78466037358095231</v>
+      </c>
+      <c r="AG38" s="18">
+        <f t="shared" si="76"/>
+        <v>0.82</v>
+      </c>
+      <c r="AH38" s="18">
+        <f t="shared" si="76"/>
+        <v>0.82</v>
+      </c>
+      <c r="AI38" s="18">
+        <f t="shared" si="76"/>
+        <v>0.82</v>
+      </c>
+      <c r="AJ38" s="18">
+        <f t="shared" si="76"/>
+        <v>0.82</v>
+      </c>
+      <c r="AK38" s="18">
+        <f t="shared" si="76"/>
+        <v>0.82</v>
+      </c>
+      <c r="AL38" s="18">
+        <f t="shared" si="76"/>
+        <v>0.82</v>
+      </c>
+      <c r="AM38" s="18">
+        <f t="shared" si="76"/>
+        <v>0.82</v>
+      </c>
+      <c r="AN38" s="18">
+        <f t="shared" si="76"/>
+        <v>0.82</v>
+      </c>
+      <c r="AO38" s="18">
+        <f t="shared" si="76"/>
+        <v>0.81999999999999984</v>
+      </c>
+      <c r="AP38" s="18">
+        <f t="shared" si="76"/>
+        <v>0.82</v>
+      </c>
+      <c r="AQ38" s="18">
+        <f t="shared" si="76"/>
+        <v>0.82</v>
+      </c>
+      <c r="AR38" s="18">
+        <f t="shared" si="76"/>
+        <v>0.82</v>
+      </c>
+      <c r="AS38" s="18">
+        <f t="shared" si="76"/>
+        <v>0.82</v>
+      </c>
+      <c r="AT38" s="18">
+        <f t="shared" si="76"/>
+        <v>0.82000000000000006</v>
+      </c>
+      <c r="AU38" s="18">
+        <f t="shared" si="76"/>
+        <v>0.82000000000000006</v>
+      </c>
+      <c r="AV38" s="18">
+        <f t="shared" si="76"/>
+        <v>0.82</v>
+      </c>
+      <c r="AW38" s="18">
+        <f t="shared" si="76"/>
+        <v>0.82</v>
+      </c>
+      <c r="AX38" s="18">
+        <f t="shared" si="76"/>
+        <v>0.82</v>
+      </c>
+      <c r="AZ38" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA38" s="17">
+        <f>BA37/Main!J3</f>
+        <v>485.95075424823597</v>
+      </c>
+    </row>
+    <row r="40" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>118</v>
+      </c>
+      <c r="M40" s="12">
+        <f>M41-M55</f>
+        <v>1104.8000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12">
+        <f>3675.6+1235.5+860.3+1612.6</f>
+        <v>7384</v>
+      </c>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+    </row>
+    <row r="42" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12">
+        <v>1568.8</v>
+      </c>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+    </row>
+    <row r="43" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12">
+        <v>415.4</v>
+      </c>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+    </row>
+    <row r="44" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12">
+        <v>1375</v>
+      </c>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+    </row>
+    <row r="45" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12">
+        <v>1495.5</v>
+      </c>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+    </row>
+    <row r="46" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12">
+        <v>3266.4</v>
+      </c>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+    </row>
+    <row r="47" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12">
+        <v>424.5</v>
+      </c>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+    </row>
+    <row r="48" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12">
+        <f>5741.2+2008.9</f>
+        <v>7750.1</v>
+      </c>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
+    </row>
+    <row r="49" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12">
+        <v>1174.5</v>
+      </c>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M50" s="12">
+        <f>SUM(M41:M49)</f>
+        <v>24854.199999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12">
+        <f>237.3+328.9</f>
+        <v>566.20000000000005</v>
+      </c>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+    </row>
+    <row r="53" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12">
+        <v>383.2</v>
+      </c>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
+    </row>
+    <row r="54" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12">
+        <v>3305.9</v>
+      </c>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+    </row>
+    <row r="55" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12">
+        <v>6279.2</v>
+      </c>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+    </row>
+    <row r="56" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12">
+        <v>354.8</v>
+      </c>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
+    </row>
+    <row r="57" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12">
+        <v>1198.0999999999999</v>
+      </c>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12"/>
+    </row>
+    <row r="58" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12">
+        <v>12766.8</v>
+      </c>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="12"/>
+    </row>
+    <row r="59" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12">
+        <f>SUM(M52:M58)</f>
+        <v>24854.199999999997</v>
+      </c>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/BIIB.xlsx
+++ b/BIIB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0025D66-906E-48D9-A412-7AFE84E783F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047BF6C3-DC25-43CF-B92E-09A4BEE00865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15945" yWindow="105" windowWidth="33330" windowHeight="20340" activeTab="1" xr2:uid="{7CBEE6B4-8223-452C-B8C6-1EC2B28F2C97}"/>
+    <workbookView xWindow="23265" yWindow="2535" windowWidth="32370" windowHeight="18030" activeTab="1" xr2:uid="{7CBEE6B4-8223-452C-B8C6-1EC2B28F2C97}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="129">
   <si>
     <t>Price</t>
   </si>
@@ -84,9 +84,6 @@
     <t>IP</t>
   </si>
   <si>
-    <t>lecanemab</t>
-  </si>
-  <si>
     <t>Alzheimer's</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>SAGE</t>
   </si>
   <si>
-    <t>tofersen</t>
-  </si>
-  <si>
     <t>ALS</t>
   </si>
   <si>
@@ -282,9 +276,6 @@
     <t>Gross Margin</t>
   </si>
   <si>
-    <t>Lecanemab</t>
-  </si>
-  <si>
     <t>Terminal</t>
   </si>
   <si>
@@ -321,12 +312,6 @@
     <t>LRRK2</t>
   </si>
   <si>
-    <t>CEO: Chris Viehbacher</t>
-  </si>
-  <si>
-    <t>PDUFA 4/25/2023</t>
-  </si>
-  <si>
     <t>Byooviz (ranibizumab)</t>
   </si>
   <si>
@@ -351,9 +336,6 @@
     <t>II/III</t>
   </si>
   <si>
-    <t>Dilws</t>
-  </si>
-  <si>
     <t>Cambridge, MA</t>
   </si>
   <si>
@@ -394,13 +376,61 @@
   </si>
   <si>
     <t>Net Debt</t>
+  </si>
+  <si>
+    <t>Leqembi (lecanemab)</t>
+  </si>
+  <si>
+    <t>BIIB080</t>
+  </si>
+  <si>
+    <t>MAPT ASO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEO: Chris Viehbacher replaced </t>
+  </si>
+  <si>
+    <t>MDD</t>
+  </si>
+  <si>
+    <t>Leqembi</t>
+  </si>
+  <si>
+    <t>Product y/y</t>
+  </si>
+  <si>
+    <t>OLTL</t>
+  </si>
+  <si>
+    <t>Qalsody (tofersen)</t>
+  </si>
+  <si>
+    <t>Qalsody</t>
+  </si>
+  <si>
+    <t>Rheumatoid Arthritis</t>
+  </si>
+  <si>
+    <t>IL-6</t>
+  </si>
+  <si>
+    <t>7/6/23 full approval PDUFA</t>
+  </si>
+  <si>
+    <t>8/5/23 PDUFA</t>
+  </si>
+  <si>
+    <t>BIIB093 discontinued</t>
+  </si>
+  <si>
+    <t>BIIB132 discontinued</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -416,6 +446,13 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -529,7 +566,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -559,13 +596,28 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{F4031B99-DC9B-4149-BFC4-2899F1BF335D}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -589,7 +641,7 @@
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>38966</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>43295</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -631,16 +683,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>15956</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>30996</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>20052</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>15956</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>20053</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>30996</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>150395</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -655,8 +707,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8042022" y="0"/>
-          <a:ext cx="0" cy="9484895"/>
+          <a:off x="9280272" y="20052"/>
+          <a:ext cx="0" cy="11680659"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -979,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5306BA9-19F6-4D66-A355-F53C1BBA84BC}">
-  <dimension ref="B2:K23"/>
+  <dimension ref="B2:K27"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1017,18 +1069,18 @@
         <v>0</v>
       </c>
       <c r="J2" s="17">
-        <v>279</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G3" s="4"/>
       <c r="I3" t="s">
@@ -1038,7 +1090,7 @@
         <v>145</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
@@ -1046,10 +1098,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G4" s="4"/>
       <c r="I4" t="s">
@@ -1057,28 +1109,28 @@
       </c>
       <c r="J4" s="1">
         <f>+J2*J3</f>
-        <v>40455</v>
+        <v>42630</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G5" s="4"/>
       <c r="I5" t="s">
         <v>3</v>
       </c>
       <c r="J5" s="1">
-        <v>7384</v>
+        <v>7400</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
@@ -1086,28 +1138,28 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="4"/>
       <c r="I6" t="s">
         <v>4</v>
       </c>
       <c r="J6" s="1">
-        <v>6279</v>
+        <v>6283</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
         <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
       </c>
       <c r="G7" s="4"/>
       <c r="I7" t="s">
@@ -1115,186 +1167,215 @@
       </c>
       <c r="J7" s="1">
         <f>+J4-J5+J6</f>
-        <v>39350</v>
+        <v>41513</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="4"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G9" s="4"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G10" s="4"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>56</v>
+        <v>113</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" t="s">
+        <v>125</v>
       </c>
       <c r="G11" s="4"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="G12" s="4"/>
-      <c r="I12" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-      <c r="I13" t="s">
-        <v>94</v>
-      </c>
+      <c r="B13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" t="s">
-        <v>104</v>
+        <v>25</v>
+      </c>
+      <c r="E14" s="19">
+        <v>45041</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
       </c>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" t="s">
-        <v>103</v>
+        <v>92</v>
+      </c>
+      <c r="D15" t="s">
+        <v>93</v>
       </c>
       <c r="G15" s="4"/>
+      <c r="I15" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" t="s">
-        <v>102</v>
-      </c>
-      <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="4"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10"/>
+      <c r="I16" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>90</v>
       </c>
       <c r="E18" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>123</v>
+      </c>
+      <c r="D19" t="s">
+        <v>124</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" t="s">
-        <v>32</v>
+        <v>117</v>
+      </c>
+      <c r="D20" s="20">
+        <v>45143</v>
+      </c>
+      <c r="E20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
       </c>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+      <c r="B23" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="7"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="25" t="s">
+        <v>128</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1304,13 +1385,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7CEB2B-BE50-4D86-B93D-DDDB8C03F4F9}">
-  <dimension ref="A1:BY59"/>
+  <dimension ref="A1:BY62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AJ3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="M13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AX15" sqref="AX15"/>
+      <selection pane="bottomRight" activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1323,57 +1404,57 @@
   <sheetData>
     <row r="1" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:77" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="T2">
         <v>2010</v>
@@ -1641,12 +1722,23 @@
         <v>339</v>
       </c>
       <c r="N3" s="12">
-        <f>+M3-15</f>
-        <v>324</v>
-      </c>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
+        <v>297.10000000000002</v>
+      </c>
+      <c r="O3" s="12">
+        <v>274.5</v>
+      </c>
+      <c r="P3" s="12">
+        <f>+L3*0.7</f>
+        <v>278.52999999999997</v>
+      </c>
+      <c r="Q3" s="12">
+        <f>+M3*0.7</f>
+        <v>237.29999999999998</v>
+      </c>
+      <c r="R3" s="12">
+        <f>+N3*0.7</f>
+        <v>207.97</v>
+      </c>
       <c r="AC3" s="1">
         <f>3306.5+1126.2</f>
         <v>4432.7</v>
@@ -1661,84 +1753,84 @@
       </c>
       <c r="AF3" s="1">
         <f>SUM(K3:N3)</f>
-        <v>1470.8</v>
+        <v>1443.9</v>
       </c>
       <c r="AG3" s="1">
         <f>+AF3*0.8</f>
-        <v>1176.6400000000001</v>
+        <v>1155.1200000000001</v>
       </c>
       <c r="AH3" s="1">
         <f t="shared" ref="AH3:AO3" si="1">+AG3*0.8</f>
-        <v>941.31200000000013</v>
+        <v>924.09600000000012</v>
       </c>
       <c r="AI3" s="1">
         <f t="shared" si="1"/>
-        <v>753.04960000000017</v>
+        <v>739.27680000000009</v>
       </c>
       <c r="AJ3" s="1">
         <f t="shared" si="1"/>
-        <v>602.43968000000018</v>
+        <v>591.42144000000008</v>
       </c>
       <c r="AK3" s="1">
         <f t="shared" si="1"/>
-        <v>481.95174400000019</v>
+        <v>473.13715200000007</v>
       </c>
       <c r="AL3" s="1">
         <f t="shared" si="1"/>
-        <v>385.56139520000016</v>
+        <v>378.50972160000009</v>
       </c>
       <c r="AM3" s="1">
         <f t="shared" si="1"/>
-        <v>308.44911616000013</v>
+        <v>302.8077772800001</v>
       </c>
       <c r="AN3" s="1">
         <f t="shared" si="1"/>
-        <v>246.75929292800012</v>
+        <v>242.24622182400009</v>
       </c>
       <c r="AO3" s="1">
         <f t="shared" si="1"/>
-        <v>197.40743434240011</v>
+        <v>193.79697745920009</v>
       </c>
       <c r="AP3" s="1">
         <f t="shared" ref="AP3" si="2">+AO3*0.8</f>
-        <v>157.9259474739201</v>
+        <v>155.0375819673601</v>
       </c>
       <c r="AQ3" s="1">
         <f t="shared" ref="AQ3:AX3" si="3">+AP3*0.8</f>
-        <v>126.34075797913609</v>
+        <v>124.03006557388808</v>
       </c>
       <c r="AR3" s="1">
         <f t="shared" si="3"/>
-        <v>101.07260638330888</v>
+        <v>99.224052459110467</v>
       </c>
       <c r="AS3" s="1">
         <f t="shared" si="3"/>
-        <v>80.85808510664711</v>
+        <v>79.37924196728838</v>
       </c>
       <c r="AT3" s="1">
         <f t="shared" si="3"/>
-        <v>64.686468085317685</v>
+        <v>63.503393573830706</v>
       </c>
       <c r="AU3" s="1">
         <f t="shared" si="3"/>
-        <v>51.749174468254154</v>
+        <v>50.802714859064565</v>
       </c>
       <c r="AV3" s="1">
         <f t="shared" si="3"/>
-        <v>41.399339574603324</v>
+        <v>40.642171887251656</v>
       </c>
       <c r="AW3" s="1">
         <f t="shared" si="3"/>
-        <v>33.119471659682659</v>
+        <v>32.513737509801324</v>
       </c>
       <c r="AX3" s="1">
         <f t="shared" si="3"/>
-        <v>26.49557732774613</v>
+        <v>26.010990007841059</v>
       </c>
     </row>
     <row r="4" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -1770,12 +1862,23 @@
         <v>137.80000000000001</v>
       </c>
       <c r="N4" s="12">
-        <f>+M4+5</f>
-        <v>142.80000000000001</v>
-      </c>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
+        <v>150.80000000000001</v>
+      </c>
+      <c r="O4" s="12">
+        <v>108.2</v>
+      </c>
+      <c r="P4" s="12">
+        <f>+L4*0.7</f>
+        <v>95.76</v>
+      </c>
+      <c r="Q4" s="12">
+        <f>+M4*0.7</f>
+        <v>96.460000000000008</v>
+      </c>
+      <c r="R4" s="12">
+        <f>+N4*0.7</f>
+        <v>105.56</v>
+      </c>
       <c r="AC4" s="1">
         <v>5.5</v>
       </c>
@@ -1783,84 +1886,84 @@
         <v>64.3</v>
       </c>
       <c r="AE4" s="1">
-        <f t="shared" ref="AE4:AE21" si="4">SUM(G4:J4)</f>
+        <f t="shared" ref="AE4:AE22" si="4">SUM(G4:J4)</f>
         <v>410.29999999999995</v>
       </c>
       <c r="AF4" s="1">
-        <f t="shared" ref="AF4:AF21" si="5">SUM(K4:N4)</f>
-        <v>545.40000000000009</v>
+        <f t="shared" ref="AF4:AF22" si="5">SUM(K4:N4)</f>
+        <v>553.40000000000009</v>
       </c>
       <c r="AG4" s="1">
         <f>+AF4*1.1</f>
-        <v>599.94000000000017</v>
+        <v>608.74000000000012</v>
       </c>
       <c r="AH4" s="1">
         <f t="shared" ref="AH4:AI4" si="6">+AG4*1.1</f>
-        <v>659.9340000000002</v>
+        <v>669.61400000000015</v>
       </c>
       <c r="AI4" s="1">
         <f t="shared" si="6"/>
-        <v>725.92740000000026</v>
+        <v>736.57540000000017</v>
       </c>
       <c r="AJ4" s="1">
         <f>+AI4*1.03</f>
-        <v>747.70522200000028</v>
+        <v>758.67266200000017</v>
       </c>
       <c r="AK4" s="1">
         <f t="shared" ref="AK4:AN4" si="7">+AJ4*1.03</f>
-        <v>770.13637866000033</v>
+        <v>781.43284186000017</v>
       </c>
       <c r="AL4" s="1">
         <f t="shared" si="7"/>
-        <v>793.24047001980034</v>
+        <v>804.87582711580023</v>
       </c>
       <c r="AM4" s="1">
         <f t="shared" si="7"/>
-        <v>817.03768412039437</v>
+        <v>829.0221019292743</v>
       </c>
       <c r="AN4" s="1">
         <f t="shared" si="7"/>
-        <v>841.54881464400626</v>
+        <v>853.89276498715253</v>
       </c>
       <c r="AO4" s="1">
         <f>+AN4*0.5</f>
-        <v>420.77440732200313</v>
+        <v>426.94638249357627</v>
       </c>
       <c r="AP4" s="1">
         <f>+AO4*0.8</f>
-        <v>336.61952585760253</v>
+        <v>341.55710599486105</v>
       </c>
       <c r="AQ4" s="1">
         <f t="shared" ref="AQ4:AX4" si="8">+AP4*0.8</f>
-        <v>269.29562068608203</v>
+        <v>273.24568479588885</v>
       </c>
       <c r="AR4" s="1">
         <f t="shared" si="8"/>
-        <v>215.43649654886565</v>
+        <v>218.5965478367111</v>
       </c>
       <c r="AS4" s="1">
         <f t="shared" si="8"/>
-        <v>172.34919723909252</v>
+        <v>174.87723826936889</v>
       </c>
       <c r="AT4" s="1">
         <f t="shared" si="8"/>
-        <v>137.87935779127403</v>
+        <v>139.90179061549512</v>
       </c>
       <c r="AU4" s="1">
         <f t="shared" si="8"/>
-        <v>110.30348623301923</v>
+        <v>111.92143249239609</v>
       </c>
       <c r="AV4" s="1">
         <f t="shared" si="8"/>
-        <v>88.242788986415391</v>
+        <v>89.53714599391688</v>
       </c>
       <c r="AW4" s="1">
         <f t="shared" si="8"/>
-        <v>70.594231189132316</v>
+        <v>71.629716795133504</v>
       </c>
       <c r="AX4" s="1">
         <f t="shared" si="8"/>
-        <v>56.475384951305855</v>
+        <v>57.303773436106809</v>
       </c>
     </row>
     <row r="5" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1897,12 +2000,23 @@
         <v>255.1</v>
       </c>
       <c r="N5" s="12">
-        <f>+J5*0.9</f>
-        <v>256.86</v>
-      </c>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
+        <v>230.1</v>
+      </c>
+      <c r="O5" s="12">
+        <v>172.4</v>
+      </c>
+      <c r="P5" s="12">
+        <f>+L5*0.8</f>
+        <v>206.96</v>
+      </c>
+      <c r="Q5" s="12">
+        <f>+M5*0.8</f>
+        <v>204.08</v>
+      </c>
+      <c r="R5" s="12">
+        <f>+N5*0.8</f>
+        <v>184.08</v>
+      </c>
       <c r="AC5" s="1">
         <f>1202.1+463.8</f>
         <v>1665.8999999999999</v>
@@ -1917,84 +2031,84 @@
       </c>
       <c r="AF5" s="1">
         <f t="shared" si="5"/>
-        <v>1000.26</v>
+        <v>973.5</v>
       </c>
       <c r="AG5" s="1">
         <f>+AF5*0.9</f>
-        <v>900.23400000000004</v>
+        <v>876.15</v>
       </c>
       <c r="AH5" s="1">
         <f t="shared" ref="AH5:AX5" si="9">+AG5*0.9</f>
-        <v>810.2106</v>
+        <v>788.53499999999997</v>
       </c>
       <c r="AI5" s="1">
         <f t="shared" si="9"/>
-        <v>729.18953999999997</v>
+        <v>709.68150000000003</v>
       </c>
       <c r="AJ5" s="1">
         <f t="shared" si="9"/>
-        <v>656.27058599999998</v>
+        <v>638.71334999999999</v>
       </c>
       <c r="AK5" s="1">
         <f t="shared" si="9"/>
-        <v>590.64352740000004</v>
+        <v>574.84201500000006</v>
       </c>
       <c r="AL5" s="1">
         <f t="shared" si="9"/>
-        <v>531.57917466000004</v>
+        <v>517.35781350000002</v>
       </c>
       <c r="AM5" s="1">
         <f t="shared" si="9"/>
-        <v>478.42125719400002</v>
+        <v>465.62203215000005</v>
       </c>
       <c r="AN5" s="1">
         <f t="shared" si="9"/>
-        <v>430.57913147460005</v>
+        <v>419.05982893500004</v>
       </c>
       <c r="AO5" s="1">
         <f t="shared" si="9"/>
-        <v>387.52121832714005</v>
+        <v>377.15384604150006</v>
       </c>
       <c r="AP5" s="1">
         <f t="shared" si="9"/>
-        <v>348.76909649442604</v>
+        <v>339.43846143735004</v>
       </c>
       <c r="AQ5" s="1">
         <f t="shared" si="9"/>
-        <v>313.89218684498343</v>
+        <v>305.49461529361503</v>
       </c>
       <c r="AR5" s="1">
         <f t="shared" si="9"/>
-        <v>282.50296816048507</v>
+        <v>274.94515376425352</v>
       </c>
       <c r="AS5" s="1">
         <f t="shared" si="9"/>
-        <v>254.25267134443658</v>
+        <v>247.45063838782818</v>
       </c>
       <c r="AT5" s="1">
         <f t="shared" si="9"/>
-        <v>228.82740420999292</v>
+        <v>222.70557454904537</v>
       </c>
       <c r="AU5" s="1">
         <f t="shared" si="9"/>
-        <v>205.94466378899364</v>
+        <v>200.43501709414085</v>
       </c>
       <c r="AV5" s="1">
         <f t="shared" si="9"/>
-        <v>185.35019741009427</v>
+        <v>180.39151538472677</v>
       </c>
       <c r="AW5" s="1">
         <f t="shared" si="9"/>
-        <v>166.81517766908485</v>
+        <v>162.35236384625409</v>
       </c>
       <c r="AX5" s="1">
         <f t="shared" si="9"/>
-        <v>150.13365990217636</v>
+        <v>146.11712746162868</v>
       </c>
     </row>
     <row r="6" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -2026,12 +2140,23 @@
         <v>80.900000000000006</v>
       </c>
       <c r="N6" s="12">
-        <f>+M6+1</f>
-        <v>81.900000000000006</v>
-      </c>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
+        <v>79.5</v>
+      </c>
+      <c r="O6" s="12">
+        <v>73.2</v>
+      </c>
+      <c r="P6" s="12">
+        <f>+L6*0.9</f>
+        <v>82.350000000000009</v>
+      </c>
+      <c r="Q6" s="12">
+        <f>+M6*0.9</f>
+        <v>72.81</v>
+      </c>
+      <c r="R6" s="12">
+        <f>+N6*0.9</f>
+        <v>71.55</v>
+      </c>
       <c r="AC6" s="1">
         <f>224.5+211.4</f>
         <v>435.9</v>
@@ -2046,84 +2171,84 @@
       </c>
       <c r="AF6" s="1">
         <f t="shared" si="5"/>
-        <v>334.3</v>
+        <v>331.9</v>
       </c>
       <c r="AG6" s="1">
         <f>+AF6*0.95</f>
-        <v>317.58499999999998</v>
+        <v>315.30499999999995</v>
       </c>
       <c r="AH6" s="1">
         <f t="shared" ref="AH6:AX6" si="10">+AG6*0.95</f>
-        <v>301.70574999999997</v>
+        <v>299.53974999999991</v>
       </c>
       <c r="AI6" s="1">
         <f t="shared" si="10"/>
-        <v>286.62046249999997</v>
+        <v>284.56276249999991</v>
       </c>
       <c r="AJ6" s="1">
         <f t="shared" si="10"/>
-        <v>272.28943937499997</v>
+        <v>270.33462437499992</v>
       </c>
       <c r="AK6" s="1">
         <f t="shared" si="10"/>
-        <v>258.67496740624995</v>
+        <v>256.81789315624991</v>
       </c>
       <c r="AL6" s="1">
         <f t="shared" si="10"/>
-        <v>245.74121903593743</v>
+        <v>243.97699849843741</v>
       </c>
       <c r="AM6" s="1">
         <f t="shared" si="10"/>
-        <v>233.45415808414054</v>
+        <v>231.77814857351552</v>
       </c>
       <c r="AN6" s="1">
         <f t="shared" si="10"/>
-        <v>221.7814501799335</v>
+        <v>220.18924114483974</v>
       </c>
       <c r="AO6" s="1">
         <f t="shared" si="10"/>
-        <v>210.69237767093682</v>
+        <v>209.17977908759775</v>
       </c>
       <c r="AP6" s="1">
         <f t="shared" si="10"/>
-        <v>200.15775878738998</v>
+        <v>198.72079013321786</v>
       </c>
       <c r="AQ6" s="1">
         <f t="shared" si="10"/>
-        <v>190.14987084802047</v>
+        <v>188.78475062655696</v>
       </c>
       <c r="AR6" s="1">
         <f t="shared" si="10"/>
-        <v>180.64237730561945</v>
+        <v>179.34551309522911</v>
       </c>
       <c r="AS6" s="1">
         <f t="shared" si="10"/>
-        <v>171.61025844033847</v>
+        <v>170.37823744046764</v>
       </c>
       <c r="AT6" s="1">
         <f t="shared" si="10"/>
-        <v>163.02974551832153</v>
+        <v>161.85932556844426</v>
       </c>
       <c r="AU6" s="1">
         <f t="shared" si="10"/>
-        <v>154.87825824240545</v>
+        <v>153.76635929002205</v>
       </c>
       <c r="AV6" s="1">
         <f t="shared" si="10"/>
-        <v>147.13434533028519</v>
+        <v>146.07804132552096</v>
       </c>
       <c r="AW6" s="1">
         <f t="shared" si="10"/>
-        <v>139.77762806377092</v>
+        <v>138.77413925924489</v>
       </c>
       <c r="AX6" s="1">
         <f t="shared" si="10"/>
-        <v>132.78874666058238</v>
+        <v>131.83543229628265</v>
       </c>
     </row>
     <row r="7" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -2155,12 +2280,23 @@
         <v>505.5</v>
       </c>
       <c r="N7" s="12">
-        <f>+J7*1.03</f>
-        <v>528.08100000000002</v>
-      </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
+        <v>488.4</v>
+      </c>
+      <c r="O7" s="12">
+        <v>472.8</v>
+      </c>
+      <c r="P7" s="12">
+        <f>+L7*0.9</f>
+        <v>464.58000000000004</v>
+      </c>
+      <c r="Q7" s="12">
+        <f>+M7*0.9</f>
+        <v>454.95</v>
+      </c>
+      <c r="R7" s="12">
+        <f>+N7*0.9</f>
+        <v>439.56</v>
+      </c>
       <c r="AC7" s="1">
         <v>1892.2</v>
       </c>
@@ -2173,84 +2309,84 @@
       </c>
       <c r="AF7" s="1">
         <f t="shared" si="5"/>
-        <v>2070.5810000000001</v>
+        <v>2030.9</v>
       </c>
       <c r="AG7" s="1">
         <f>+AF7*1.01</f>
-        <v>2091.2868100000001</v>
+        <v>2051.2090000000003</v>
       </c>
       <c r="AH7" s="1">
         <f t="shared" ref="AH7" si="11">+AG7*1.01</f>
-        <v>2112.1996781000003</v>
+        <v>2071.7210900000005</v>
       </c>
       <c r="AI7" s="1">
         <f>+AH7*0.85</f>
-        <v>1795.3697263850001</v>
+        <v>1760.9629265000003</v>
       </c>
       <c r="AJ7" s="1">
         <f t="shared" ref="AJ7:AX7" si="12">+AI7*0.85</f>
-        <v>1526.0642674272501</v>
+        <v>1496.8184875250001</v>
       </c>
       <c r="AK7" s="1">
         <f t="shared" si="12"/>
-        <v>1297.1546273131626</v>
+        <v>1272.2957143962501</v>
       </c>
       <c r="AL7" s="1">
         <f t="shared" si="12"/>
-        <v>1102.5814332161881</v>
+        <v>1081.4513572368126</v>
       </c>
       <c r="AM7" s="1">
         <f t="shared" si="12"/>
-        <v>937.1942182337599</v>
+        <v>919.23365365129064</v>
       </c>
       <c r="AN7" s="1">
         <f t="shared" si="12"/>
-        <v>796.61508549869586</v>
+        <v>781.34860560359698</v>
       </c>
       <c r="AO7" s="1">
         <f t="shared" si="12"/>
-        <v>677.12282267389151</v>
+        <v>664.14631476305738</v>
       </c>
       <c r="AP7" s="1">
         <f t="shared" si="12"/>
-        <v>575.55439927280781</v>
+        <v>564.52436754859878</v>
       </c>
       <c r="AQ7" s="1">
         <f t="shared" si="12"/>
-        <v>489.22123938188662</v>
+        <v>479.84571241630897</v>
       </c>
       <c r="AR7" s="1">
         <f t="shared" si="12"/>
-        <v>415.83805347460361</v>
+        <v>407.8688555538626</v>
       </c>
       <c r="AS7" s="1">
         <f t="shared" si="12"/>
-        <v>353.46234545341304</v>
+        <v>346.68852722078321</v>
       </c>
       <c r="AT7" s="1">
         <f t="shared" si="12"/>
-        <v>300.44299363540108</v>
+        <v>294.68524813766572</v>
       </c>
       <c r="AU7" s="1">
         <f t="shared" si="12"/>
-        <v>255.3765445900909</v>
+        <v>250.48246091701586</v>
       </c>
       <c r="AV7" s="1">
         <f t="shared" si="12"/>
-        <v>217.07006290157727</v>
+        <v>212.91009177946347</v>
       </c>
       <c r="AW7" s="1">
         <f t="shared" si="12"/>
-        <v>184.50955346634069</v>
+        <v>180.97357801254395</v>
       </c>
       <c r="AX7" s="1">
         <f t="shared" si="12"/>
-        <v>156.83312044638959</v>
+        <v>153.82754131066235</v>
       </c>
     </row>
     <row r="8" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -2282,12 +2418,23 @@
         <v>22</v>
       </c>
       <c r="N8" s="12">
-        <f>+M8</f>
-        <v>22</v>
-      </c>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
+        <v>22.9</v>
+      </c>
+      <c r="O8" s="12">
+        <v>24.1</v>
+      </c>
+      <c r="P8" s="12">
+        <f>+O8</f>
+        <v>24.1</v>
+      </c>
+      <c r="Q8" s="12">
+        <f>+P8</f>
+        <v>24.1</v>
+      </c>
+      <c r="R8" s="12">
+        <f>+Q8</f>
+        <v>24.1</v>
+      </c>
       <c r="AC8" s="1">
         <v>97.1</v>
       </c>
@@ -2300,84 +2447,84 @@
       </c>
       <c r="AF8" s="1">
         <f t="shared" si="5"/>
-        <v>95.7</v>
+        <v>96.6</v>
       </c>
       <c r="AG8" s="1">
         <f>+AF8*0.9</f>
-        <v>86.13000000000001</v>
+        <v>86.94</v>
       </c>
       <c r="AH8" s="1">
         <f t="shared" ref="AH8:AX8" si="13">+AG8*0.9</f>
-        <v>77.51700000000001</v>
+        <v>78.245999999999995</v>
       </c>
       <c r="AI8" s="1">
         <f t="shared" si="13"/>
-        <v>69.765300000000011</v>
+        <v>70.421399999999991</v>
       </c>
       <c r="AJ8" s="1">
         <f t="shared" si="13"/>
-        <v>62.788770000000014</v>
+        <v>63.379259999999995</v>
       </c>
       <c r="AK8" s="1">
         <f t="shared" si="13"/>
-        <v>56.509893000000012</v>
+        <v>57.041333999999999</v>
       </c>
       <c r="AL8" s="1">
         <f t="shared" si="13"/>
-        <v>50.858903700000013</v>
+        <v>51.337200600000003</v>
       </c>
       <c r="AM8" s="1">
         <f t="shared" si="13"/>
-        <v>45.773013330000012</v>
+        <v>46.203480540000001</v>
       </c>
       <c r="AN8" s="1">
         <f t="shared" si="13"/>
-        <v>41.195711997000011</v>
+        <v>41.583132486000004</v>
       </c>
       <c r="AO8" s="1">
         <f t="shared" si="13"/>
-        <v>37.076140797300013</v>
+        <v>37.424819237400001</v>
       </c>
       <c r="AP8" s="1">
         <f t="shared" si="13"/>
-        <v>33.368526717570013</v>
+        <v>33.68233731366</v>
       </c>
       <c r="AQ8" s="1">
         <f t="shared" si="13"/>
-        <v>30.031674045813013</v>
+        <v>30.314103582293999</v>
       </c>
       <c r="AR8" s="1">
         <f t="shared" si="13"/>
-        <v>27.028506641231711</v>
+        <v>27.282693224064598</v>
       </c>
       <c r="AS8" s="1">
         <f t="shared" si="13"/>
-        <v>24.325655977108539</v>
+        <v>24.55442390165814</v>
       </c>
       <c r="AT8" s="1">
         <f t="shared" si="13"/>
-        <v>21.893090379397687</v>
+        <v>22.098981511492326</v>
       </c>
       <c r="AU8" s="1">
         <f t="shared" si="13"/>
-        <v>19.703781341457919</v>
+        <v>19.889083360343093</v>
       </c>
       <c r="AV8" s="1">
         <f t="shared" si="13"/>
-        <v>17.733403207312129</v>
+        <v>17.900175024308783</v>
       </c>
       <c r="AW8" s="1">
         <f t="shared" si="13"/>
-        <v>15.960062886580916</v>
+        <v>16.110157521877905</v>
       </c>
       <c r="AX8" s="1">
         <f t="shared" si="13"/>
-        <v>14.364056597922824</v>
+        <v>14.499141769690116</v>
       </c>
     </row>
     <row r="9" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -2409,12 +2556,23 @@
         <v>431.1</v>
       </c>
       <c r="N9" s="12">
-        <f>+M9+5</f>
-        <v>436.1</v>
-      </c>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
+        <v>458.8</v>
+      </c>
+      <c r="O9" s="12">
+        <v>443.3</v>
+      </c>
+      <c r="P9" s="12">
+        <f>+L9</f>
+        <v>431</v>
+      </c>
+      <c r="Q9" s="12">
+        <f>+M9</f>
+        <v>431.1</v>
+      </c>
+      <c r="R9" s="12">
+        <f>+N9</f>
+        <v>458.8</v>
+      </c>
       <c r="AC9" s="1">
         <v>2097</v>
       </c>
@@ -2427,84 +2585,84 @@
       </c>
       <c r="AF9" s="1">
         <f t="shared" si="5"/>
-        <v>1770.6999999999998</v>
+        <v>1793.3999999999999</v>
       </c>
       <c r="AG9" s="1">
         <f t="shared" ref="AG9:AX9" si="14">+AF9*0.9</f>
-        <v>1593.6299999999999</v>
+        <v>1614.06</v>
       </c>
       <c r="AH9" s="1">
         <f t="shared" si="14"/>
-        <v>1434.2669999999998</v>
+        <v>1452.654</v>
       </c>
       <c r="AI9" s="1">
         <f t="shared" si="14"/>
-        <v>1290.8402999999998</v>
+        <v>1307.3886</v>
       </c>
       <c r="AJ9" s="1">
         <f t="shared" si="14"/>
-        <v>1161.7562699999999</v>
+        <v>1176.6497400000001</v>
       </c>
       <c r="AK9" s="1">
         <f t="shared" si="14"/>
-        <v>1045.580643</v>
+        <v>1058.984766</v>
       </c>
       <c r="AL9" s="1">
         <f t="shared" si="14"/>
-        <v>941.02257870000005</v>
+        <v>953.08628940000006</v>
       </c>
       <c r="AM9" s="1">
         <f t="shared" si="14"/>
-        <v>846.92032083000004</v>
+        <v>857.77766046000011</v>
       </c>
       <c r="AN9" s="1">
         <f t="shared" si="14"/>
-        <v>762.22828874700008</v>
+        <v>771.9998944140001</v>
       </c>
       <c r="AO9" s="1">
         <f t="shared" si="14"/>
-        <v>686.00545987230009</v>
+        <v>694.79990497260007</v>
       </c>
       <c r="AP9" s="1">
         <f t="shared" si="14"/>
-        <v>617.40491388507007</v>
+        <v>625.31991447534006</v>
       </c>
       <c r="AQ9" s="1">
         <f t="shared" si="14"/>
-        <v>555.66442249656313</v>
+        <v>562.78792302780607</v>
       </c>
       <c r="AR9" s="1">
         <f t="shared" si="14"/>
-        <v>500.09798024690684</v>
+        <v>506.5091307250255</v>
       </c>
       <c r="AS9" s="1">
         <f t="shared" si="14"/>
-        <v>450.08818222221618</v>
+        <v>455.85821765252297</v>
       </c>
       <c r="AT9" s="1">
         <f t="shared" si="14"/>
-        <v>405.07936399999454</v>
+        <v>410.2723958872707</v>
       </c>
       <c r="AU9" s="1">
         <f t="shared" si="14"/>
-        <v>364.5714275999951</v>
+        <v>369.24515629854363</v>
       </c>
       <c r="AV9" s="1">
         <f t="shared" si="14"/>
-        <v>328.11428483999561</v>
+        <v>332.32064066868929</v>
       </c>
       <c r="AW9" s="1">
         <f t="shared" si="14"/>
-        <v>295.30285635599603</v>
+        <v>299.08857660182036</v>
       </c>
       <c r="AX9" s="1">
         <f t="shared" si="14"/>
-        <v>265.77257072039646</v>
+        <v>269.17971894163833</v>
       </c>
     </row>
     <row r="10" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -2536,12 +2694,23 @@
         <v>110.2</v>
       </c>
       <c r="N10" s="12">
-        <f t="shared" ref="N10:N12" si="15">AVERAGE(J10:M10)</f>
-        <v>118.77500000000001</v>
-      </c>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
+        <v>100.3</v>
+      </c>
+      <c r="O10" s="12">
+        <v>109</v>
+      </c>
+      <c r="P10" s="12">
+        <f>+L10*0.9</f>
+        <v>104.22</v>
+      </c>
+      <c r="Q10" s="12">
+        <f>+M10*0.9</f>
+        <v>99.18</v>
+      </c>
+      <c r="R10" s="12">
+        <f>+N10*0.9</f>
+        <v>90.27</v>
+      </c>
       <c r="AC10" s="1">
         <v>486.2</v>
       </c>
@@ -2554,84 +2723,84 @@
       </c>
       <c r="AF10" s="1">
         <f t="shared" si="5"/>
-        <v>459.47500000000002</v>
+        <v>441</v>
       </c>
       <c r="AG10" s="1">
-        <f t="shared" ref="AG10:AX10" si="16">+AF10*0.9</f>
-        <v>413.52750000000003</v>
+        <f t="shared" ref="AG10:AX10" si="15">+AF10*0.9</f>
+        <v>396.90000000000003</v>
       </c>
       <c r="AH10" s="1">
-        <f t="shared" si="16"/>
-        <v>372.17475000000002</v>
+        <f t="shared" si="15"/>
+        <v>357.21000000000004</v>
       </c>
       <c r="AI10" s="1">
-        <f t="shared" si="16"/>
-        <v>334.95727500000004</v>
+        <f t="shared" si="15"/>
+        <v>321.48900000000003</v>
       </c>
       <c r="AJ10" s="1">
-        <f t="shared" si="16"/>
-        <v>301.46154750000005</v>
+        <f t="shared" si="15"/>
+        <v>289.34010000000006</v>
       </c>
       <c r="AK10" s="1">
-        <f t="shared" si="16"/>
-        <v>271.31539275000006</v>
+        <f t="shared" si="15"/>
+        <v>260.40609000000006</v>
       </c>
       <c r="AL10" s="1">
-        <f t="shared" si="16"/>
-        <v>244.18385347500006</v>
+        <f t="shared" si="15"/>
+        <v>234.36548100000007</v>
       </c>
       <c r="AM10" s="1">
-        <f t="shared" si="16"/>
-        <v>219.76546812750007</v>
+        <f t="shared" si="15"/>
+        <v>210.92893290000006</v>
       </c>
       <c r="AN10" s="1">
-        <f t="shared" si="16"/>
-        <v>197.78892131475007</v>
+        <f t="shared" si="15"/>
+        <v>189.83603961000006</v>
       </c>
       <c r="AO10" s="1">
-        <f t="shared" si="16"/>
-        <v>178.01002918327507</v>
+        <f t="shared" si="15"/>
+        <v>170.85243564900006</v>
       </c>
       <c r="AP10" s="1">
-        <f t="shared" si="16"/>
-        <v>160.20902626494757</v>
+        <f t="shared" si="15"/>
+        <v>153.76719208410006</v>
       </c>
       <c r="AQ10" s="1">
-        <f t="shared" si="16"/>
-        <v>144.18812363845282</v>
+        <f t="shared" si="15"/>
+        <v>138.39047287569005</v>
       </c>
       <c r="AR10" s="1">
-        <f t="shared" si="16"/>
-        <v>129.76931127460753</v>
+        <f t="shared" si="15"/>
+        <v>124.55142558812105</v>
       </c>
       <c r="AS10" s="1">
-        <f t="shared" si="16"/>
-        <v>116.79238014714679</v>
+        <f t="shared" si="15"/>
+        <v>112.09628302930895</v>
       </c>
       <c r="AT10" s="1">
-        <f t="shared" si="16"/>
-        <v>105.11314213243212</v>
+        <f t="shared" si="15"/>
+        <v>100.88665472637805</v>
       </c>
       <c r="AU10" s="1">
-        <f t="shared" si="16"/>
-        <v>94.601827919188906</v>
+        <f t="shared" si="15"/>
+        <v>90.797989253740255</v>
       </c>
       <c r="AV10" s="1">
-        <f t="shared" si="16"/>
-        <v>85.141645127270024</v>
+        <f t="shared" si="15"/>
+        <v>81.718190328366234</v>
       </c>
       <c r="AW10" s="1">
-        <f t="shared" si="16"/>
-        <v>76.627480614543018</v>
+        <f t="shared" si="15"/>
+        <v>73.54637129552961</v>
       </c>
       <c r="AX10" s="1">
-        <f t="shared" si="16"/>
-        <v>68.964732553088723</v>
+        <f t="shared" si="15"/>
+        <v>66.191734165976655</v>
       </c>
     </row>
     <row r="11" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -2663,12 +2832,23 @@
         <v>57.7</v>
       </c>
       <c r="N11" s="12">
-        <f t="shared" si="15"/>
-        <v>58.724999999999994</v>
-      </c>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
+        <v>52.1</v>
+      </c>
+      <c r="O11" s="12">
+        <v>54.4</v>
+      </c>
+      <c r="P11" s="12">
+        <f t="shared" ref="P11:P12" si="16">+L11*0.9</f>
+        <v>51.84</v>
+      </c>
+      <c r="Q11" s="12">
+        <f t="shared" ref="Q11:Q12" si="17">+M11*0.9</f>
+        <v>51.930000000000007</v>
+      </c>
+      <c r="R11" s="12">
+        <f t="shared" ref="R11:R12" si="18">+N11*0.9</f>
+        <v>46.89</v>
+      </c>
       <c r="AC11" s="1">
         <v>184</v>
       </c>
@@ -2681,84 +2861,84 @@
       </c>
       <c r="AF11" s="1">
         <f t="shared" si="5"/>
-        <v>231.125</v>
+        <v>224.5</v>
       </c>
       <c r="AG11" s="1">
-        <f t="shared" ref="AG11:AX11" si="17">+AF11*0.9</f>
-        <v>208.01250000000002</v>
+        <f t="shared" ref="AG11:AX11" si="19">+AF11*0.9</f>
+        <v>202.05</v>
       </c>
       <c r="AH11" s="1">
-        <f t="shared" si="17"/>
-        <v>187.21125000000001</v>
+        <f t="shared" si="19"/>
+        <v>181.84500000000003</v>
       </c>
       <c r="AI11" s="1">
-        <f t="shared" si="17"/>
-        <v>168.49012500000001</v>
+        <f t="shared" si="19"/>
+        <v>163.66050000000004</v>
       </c>
       <c r="AJ11" s="1">
-        <f t="shared" si="17"/>
-        <v>151.64111250000002</v>
+        <f t="shared" si="19"/>
+        <v>147.29445000000004</v>
       </c>
       <c r="AK11" s="1">
-        <f t="shared" si="17"/>
-        <v>136.47700125000003</v>
+        <f t="shared" si="19"/>
+        <v>132.56500500000004</v>
       </c>
       <c r="AL11" s="1">
-        <f t="shared" si="17"/>
-        <v>122.82930112500003</v>
+        <f t="shared" si="19"/>
+        <v>119.30850450000004</v>
       </c>
       <c r="AM11" s="1">
-        <f t="shared" si="17"/>
-        <v>110.54637101250003</v>
+        <f t="shared" si="19"/>
+        <v>107.37765405000003</v>
       </c>
       <c r="AN11" s="1">
-        <f t="shared" si="17"/>
-        <v>99.491733911250037</v>
+        <f t="shared" si="19"/>
+        <v>96.639888645000028</v>
       </c>
       <c r="AO11" s="1">
-        <f t="shared" si="17"/>
-        <v>89.542560520125036</v>
+        <f t="shared" si="19"/>
+        <v>86.975899780500029</v>
       </c>
       <c r="AP11" s="1">
-        <f t="shared" si="17"/>
-        <v>80.58830446811254</v>
+        <f t="shared" si="19"/>
+        <v>78.278309802450025</v>
       </c>
       <c r="AQ11" s="1">
-        <f t="shared" si="17"/>
-        <v>72.529474021301283</v>
+        <f t="shared" si="19"/>
+        <v>70.450478822205028</v>
       </c>
       <c r="AR11" s="1">
-        <f t="shared" si="17"/>
-        <v>65.27652661917115</v>
+        <f t="shared" si="19"/>
+        <v>63.405430939984527</v>
       </c>
       <c r="AS11" s="1">
-        <f t="shared" si="17"/>
-        <v>58.748873957254034</v>
+        <f t="shared" si="19"/>
+        <v>57.064887845986078</v>
       </c>
       <c r="AT11" s="1">
-        <f t="shared" si="17"/>
-        <v>52.873986561528632</v>
+        <f t="shared" si="19"/>
+        <v>51.358399061387473</v>
       </c>
       <c r="AU11" s="1">
-        <f t="shared" si="17"/>
-        <v>47.586587905375772</v>
+        <f t="shared" si="19"/>
+        <v>46.222559155248724</v>
       </c>
       <c r="AV11" s="1">
-        <f t="shared" si="17"/>
-        <v>42.827929114838199</v>
+        <f t="shared" si="19"/>
+        <v>41.60030323972385</v>
       </c>
       <c r="AW11" s="1">
-        <f t="shared" si="17"/>
-        <v>38.545136203354382</v>
+        <f t="shared" si="19"/>
+        <v>37.440272915751464</v>
       </c>
       <c r="AX11" s="1">
-        <f t="shared" si="17"/>
-        <v>34.690622583018943</v>
+        <f t="shared" si="19"/>
+        <v>33.696245624176321</v>
       </c>
     </row>
     <row r="12" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -2790,12 +2970,23 @@
         <v>19</v>
       </c>
       <c r="N12" s="12">
-        <f t="shared" si="15"/>
-        <v>21.5</v>
-      </c>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
+        <v>19.3</v>
+      </c>
+      <c r="O12" s="12">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="P12" s="12">
+        <f t="shared" si="16"/>
+        <v>18.45</v>
+      </c>
+      <c r="Q12" s="12">
+        <f t="shared" si="17"/>
+        <v>17.100000000000001</v>
+      </c>
+      <c r="R12" s="12">
+        <f t="shared" si="18"/>
+        <v>17.37</v>
+      </c>
       <c r="AC12" s="1">
         <v>68.099999999999994</v>
       </c>
@@ -2808,84 +2999,84 @@
       </c>
       <c r="AF12" s="1">
         <f t="shared" si="5"/>
-        <v>83.5</v>
+        <v>81.3</v>
       </c>
       <c r="AG12" s="1">
-        <f t="shared" ref="AG12:AX12" si="18">+AF12*0.9</f>
-        <v>75.150000000000006</v>
+        <f t="shared" ref="AG12:AX12" si="20">+AF12*0.9</f>
+        <v>73.17</v>
       </c>
       <c r="AH12" s="1">
-        <f t="shared" si="18"/>
-        <v>67.635000000000005</v>
+        <f t="shared" si="20"/>
+        <v>65.853000000000009</v>
       </c>
       <c r="AI12" s="1">
-        <f t="shared" si="18"/>
-        <v>60.871500000000005</v>
+        <f t="shared" si="20"/>
+        <v>59.267700000000012</v>
       </c>
       <c r="AJ12" s="1">
-        <f t="shared" si="18"/>
-        <v>54.784350000000003</v>
+        <f t="shared" si="20"/>
+        <v>53.340930000000014</v>
       </c>
       <c r="AK12" s="1">
-        <f t="shared" si="18"/>
-        <v>49.305915000000006</v>
+        <f t="shared" si="20"/>
+        <v>48.006837000000012</v>
       </c>
       <c r="AL12" s="1">
-        <f t="shared" si="18"/>
-        <v>44.375323500000007</v>
+        <f t="shared" si="20"/>
+        <v>43.206153300000011</v>
       </c>
       <c r="AM12" s="1">
-        <f t="shared" si="18"/>
-        <v>39.93779115000001</v>
+        <f t="shared" si="20"/>
+        <v>38.885537970000009</v>
       </c>
       <c r="AN12" s="1">
-        <f t="shared" si="18"/>
-        <v>35.944012035000007</v>
+        <f t="shared" si="20"/>
+        <v>34.996984173000008</v>
       </c>
       <c r="AO12" s="1">
-        <f t="shared" si="18"/>
-        <v>32.349610831500009</v>
+        <f t="shared" si="20"/>
+        <v>31.497285755700009</v>
       </c>
       <c r="AP12" s="1">
-        <f t="shared" si="18"/>
-        <v>29.114649748350008</v>
+        <f t="shared" si="20"/>
+        <v>28.347557180130007</v>
       </c>
       <c r="AQ12" s="1">
-        <f t="shared" si="18"/>
-        <v>26.203184773515009</v>
+        <f t="shared" si="20"/>
+        <v>25.512801462117007</v>
       </c>
       <c r="AR12" s="1">
-        <f t="shared" si="18"/>
-        <v>23.582866296163509</v>
+        <f t="shared" si="20"/>
+        <v>22.961521315905308</v>
       </c>
       <c r="AS12" s="1">
-        <f t="shared" si="18"/>
-        <v>21.224579666547157</v>
+        <f t="shared" si="20"/>
+        <v>20.665369184314777</v>
       </c>
       <c r="AT12" s="1">
-        <f t="shared" si="18"/>
-        <v>19.102121699892443</v>
+        <f t="shared" si="20"/>
+        <v>18.598832265883299</v>
       </c>
       <c r="AU12" s="1">
-        <f t="shared" si="18"/>
-        <v>17.191909529903199</v>
+        <f t="shared" si="20"/>
+        <v>16.738949039294969</v>
       </c>
       <c r="AV12" s="1">
-        <f t="shared" si="18"/>
-        <v>15.472718576912881</v>
+        <f t="shared" si="20"/>
+        <v>15.065054135365472</v>
       </c>
       <c r="AW12" s="1">
-        <f t="shared" si="18"/>
-        <v>13.925446719221593</v>
+        <f t="shared" si="20"/>
+        <v>13.558548721828926</v>
       </c>
       <c r="AX12" s="1">
-        <f t="shared" si="18"/>
-        <v>12.532902047299434</v>
+        <f t="shared" si="20"/>
+        <v>12.202693849646034</v>
       </c>
     </row>
     <row r="13" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -2917,12 +3108,23 @@
         <v>0.7</v>
       </c>
       <c r="N13" s="12">
-        <f>+M13+4</f>
-        <v>4.7</v>
-      </c>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
+        <v>3.1</v>
+      </c>
+      <c r="O13" s="12">
+        <v>8.6</v>
+      </c>
+      <c r="P13" s="12">
+        <f>+O13+4</f>
+        <v>12.6</v>
+      </c>
+      <c r="Q13" s="12">
+        <f>+P13+4</f>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="R13" s="12">
+        <f>+Q13+4</f>
+        <v>20.6</v>
+      </c>
       <c r="AC13" s="1">
         <v>0</v>
       </c>
@@ -2935,7 +3137,7 @@
       </c>
       <c r="AF13" s="1">
         <f t="shared" si="5"/>
-        <v>5.9</v>
+        <v>4.3</v>
       </c>
       <c r="AG13" s="1">
         <v>50</v>
@@ -2944,73 +3146,73 @@
         <v>100</v>
       </c>
       <c r="AI13" s="1">
-        <f t="shared" ref="AI13:AX13" si="19">+AH13*0.9</f>
+        <f t="shared" ref="AI13:AX13" si="21">+AH13*0.9</f>
         <v>90</v>
       </c>
       <c r="AJ13" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>81</v>
       </c>
       <c r="AK13" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>72.900000000000006</v>
       </c>
       <c r="AL13" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>65.610000000000014</v>
       </c>
       <c r="AM13" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>59.049000000000014</v>
       </c>
       <c r="AN13" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>53.144100000000016</v>
       </c>
       <c r="AO13" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>47.829690000000014</v>
       </c>
       <c r="AP13" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>43.046721000000012</v>
       </c>
       <c r="AQ13" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>38.742048900000015</v>
       </c>
       <c r="AR13" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>34.867844010000013</v>
       </c>
       <c r="AS13" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>31.381059609000012</v>
       </c>
       <c r="AT13" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>28.242953648100013</v>
       </c>
       <c r="AU13" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>25.418658283290011</v>
       </c>
       <c r="AV13" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>22.876792454961009</v>
       </c>
       <c r="AW13" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>20.589113209464909</v>
       </c>
       <c r="AX13" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>18.53020188851842</v>
       </c>
     </row>
     <row r="14" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -3042,12 +3244,23 @@
         <v>1.5</v>
       </c>
       <c r="N14" s="12">
-        <f t="shared" ref="N14:N16" si="20">+M14</f>
-        <v>1.5</v>
-      </c>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
+        <v>1.8</v>
+      </c>
+      <c r="O14" s="12">
+        <v>2.4</v>
+      </c>
+      <c r="P14" s="12">
+        <f>+O14</f>
+        <v>2.4</v>
+      </c>
+      <c r="Q14" s="12">
+        <f>+P14</f>
+        <v>2.4</v>
+      </c>
+      <c r="R14" s="1">
+        <f>+Q14</f>
+        <v>2.4</v>
+      </c>
       <c r="AC14" s="1">
         <v>15.2</v>
       </c>
@@ -3060,84 +3273,84 @@
       </c>
       <c r="AF14" s="1">
         <f t="shared" si="5"/>
-        <v>7.9</v>
+        <v>8.2000000000000011</v>
       </c>
       <c r="AG14" s="1">
         <f>+AF14*0.9</f>
-        <v>7.11</v>
+        <v>7.3800000000000008</v>
       </c>
       <c r="AH14" s="1">
-        <f t="shared" ref="AH14:AX14" si="21">+AG14*0.9</f>
-        <v>6.399</v>
+        <f t="shared" ref="AH14:AX14" si="22">+AG14*0.9</f>
+        <v>6.6420000000000012</v>
       </c>
       <c r="AI14" s="1">
-        <f t="shared" si="21"/>
-        <v>5.7591000000000001</v>
+        <f t="shared" si="22"/>
+        <v>5.9778000000000011</v>
       </c>
       <c r="AJ14" s="1">
-        <f t="shared" si="21"/>
-        <v>5.1831900000000006</v>
+        <f t="shared" si="22"/>
+        <v>5.3800200000000009</v>
       </c>
       <c r="AK14" s="1">
-        <f t="shared" si="21"/>
-        <v>4.6648710000000007</v>
+        <f t="shared" si="22"/>
+        <v>4.8420180000000013</v>
       </c>
       <c r="AL14" s="1">
-        <f t="shared" si="21"/>
-        <v>4.1983839000000005</v>
+        <f t="shared" si="22"/>
+        <v>4.3578162000000011</v>
       </c>
       <c r="AM14" s="1">
-        <f t="shared" si="21"/>
-        <v>3.7785455100000007</v>
+        <f t="shared" si="22"/>
+        <v>3.9220345800000009</v>
       </c>
       <c r="AN14" s="1">
-        <f t="shared" si="21"/>
-        <v>3.4006909590000007</v>
+        <f t="shared" si="22"/>
+        <v>3.5298311220000009</v>
       </c>
       <c r="AO14" s="1">
-        <f t="shared" si="21"/>
-        <v>3.0606218631000006</v>
+        <f t="shared" si="22"/>
+        <v>3.1768480098000009</v>
       </c>
       <c r="AP14" s="1">
-        <f t="shared" si="21"/>
-        <v>2.7545596767900005</v>
+        <f t="shared" si="22"/>
+        <v>2.859163208820001</v>
       </c>
       <c r="AQ14" s="1">
-        <f t="shared" si="21"/>
-        <v>2.4791037091110004</v>
+        <f t="shared" si="22"/>
+        <v>2.573246887938001</v>
       </c>
       <c r="AR14" s="1">
-        <f t="shared" si="21"/>
-        <v>2.2311933381999003</v>
+        <f t="shared" si="22"/>
+        <v>2.3159221991442012</v>
       </c>
       <c r="AS14" s="1">
-        <f t="shared" si="21"/>
-        <v>2.0080740043799103</v>
+        <f t="shared" si="22"/>
+        <v>2.0843299792297811</v>
       </c>
       <c r="AT14" s="1">
-        <f t="shared" si="21"/>
-        <v>1.8072666039419194</v>
+        <f t="shared" si="22"/>
+        <v>1.8758969813068032</v>
       </c>
       <c r="AU14" s="1">
-        <f t="shared" si="21"/>
-        <v>1.6265399435477275</v>
+        <f t="shared" si="22"/>
+        <v>1.6883072831761228</v>
       </c>
       <c r="AV14" s="1">
-        <f t="shared" si="21"/>
-        <v>1.4638859491929548</v>
+        <f t="shared" si="22"/>
+        <v>1.5194765548585105</v>
       </c>
       <c r="AW14" s="1">
-        <f t="shared" si="21"/>
-        <v>1.3174973542736594</v>
+        <f t="shared" si="22"/>
+        <v>1.3675288993726595</v>
       </c>
       <c r="AX14" s="1">
-        <f t="shared" si="21"/>
-        <v>1.1857476188462934</v>
+        <f t="shared" si="22"/>
+        <v>1.2307760094353937</v>
       </c>
     </row>
     <row r="15" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -3152,2751 +3365,3036 @@
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="AG15" s="1">
-        <v>1500</v>
-      </c>
-      <c r="AH15" s="1">
-        <v>4000</v>
-      </c>
-      <c r="AI15" s="1">
-        <v>6000</v>
-      </c>
-      <c r="AJ15" s="1">
-        <v>8000</v>
-      </c>
-      <c r="AK15" s="1">
-        <f>+AJ15*1.05</f>
-        <v>8400</v>
-      </c>
-      <c r="AL15" s="1">
-        <f t="shared" ref="AL15:AM15" si="22">+AK15*1.05</f>
-        <v>8820</v>
-      </c>
-      <c r="AM15" s="1">
-        <f t="shared" si="22"/>
-        <v>9261</v>
-      </c>
-      <c r="AN15" s="1">
-        <f>+AM15*1.02</f>
-        <v>9446.2199999999993</v>
-      </c>
-      <c r="AO15" s="1">
-        <f t="shared" ref="AO15:AX15" si="23">+AN15*1.02</f>
-        <v>9635.1443999999992</v>
-      </c>
-      <c r="AP15" s="1">
-        <f t="shared" si="23"/>
-        <v>9827.847287999999</v>
-      </c>
-      <c r="AQ15" s="1">
-        <f t="shared" si="23"/>
-        <v>10024.404233759999</v>
-      </c>
-      <c r="AR15" s="1">
-        <f t="shared" si="23"/>
-        <v>10224.892318435199</v>
-      </c>
-      <c r="AS15" s="1">
-        <f t="shared" si="23"/>
-        <v>10429.390164803903</v>
-      </c>
-      <c r="AT15" s="1">
-        <f t="shared" si="23"/>
-        <v>10637.977968099982</v>
-      </c>
-      <c r="AU15" s="1">
-        <f t="shared" si="23"/>
-        <v>10850.737527461981</v>
-      </c>
-      <c r="AV15" s="1">
-        <f t="shared" si="23"/>
-        <v>11067.752278011221</v>
-      </c>
-      <c r="AW15" s="1">
-        <f t="shared" si="23"/>
-        <v>11289.107323571447</v>
-      </c>
-      <c r="AX15" s="1">
-        <f t="shared" si="23"/>
-        <v>11514.889470042875</v>
+      <c r="P15" s="12">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="12">
+        <v>20</v>
+      </c>
+      <c r="R15" s="1">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
-      <c r="E16" s="12">
-        <v>0</v>
-      </c>
-      <c r="F16" s="12">
-        <v>0</v>
-      </c>
-      <c r="G16" s="12">
-        <v>0</v>
-      </c>
-      <c r="H16" s="12">
-        <v>1.6</v>
-      </c>
-      <c r="I16" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="J16" s="12">
-        <v>1</v>
-      </c>
-      <c r="K16" s="12">
-        <v>2.8</v>
-      </c>
-      <c r="L16" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="M16" s="12">
-        <v>1.6</v>
-      </c>
-      <c r="N16" s="12">
-        <f t="shared" si="20"/>
-        <v>1.6</v>
-      </c>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="AC16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="1">
-        <f t="shared" si="4"/>
-        <v>2.9000000000000004</v>
-      </c>
-      <c r="AF16" s="1">
-        <f t="shared" si="5"/>
-        <v>6.1</v>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="P16" s="12">
+        <v>30</v>
+      </c>
+      <c r="Q16" s="12">
+        <v>300</v>
+      </c>
+      <c r="R16" s="1">
+        <v>500</v>
       </c>
       <c r="AG16" s="1">
-        <f t="shared" ref="AG16:AX16" si="24">+AF16*0.9</f>
-        <v>5.49</v>
+        <v>1500</v>
       </c>
       <c r="AH16" s="1">
-        <f t="shared" si="24"/>
-        <v>4.9410000000000007</v>
+        <v>4000</v>
       </c>
       <c r="AI16" s="1">
-        <f t="shared" si="24"/>
-        <v>4.4469000000000012</v>
+        <v>6000</v>
       </c>
       <c r="AJ16" s="1">
-        <f t="shared" si="24"/>
-        <v>4.0022100000000016</v>
+        <v>8000</v>
       </c>
       <c r="AK16" s="1">
-        <f t="shared" si="24"/>
-        <v>3.6019890000000014</v>
+        <f>+AJ16*1.05</f>
+        <v>8400</v>
       </c>
       <c r="AL16" s="1">
-        <f t="shared" si="24"/>
-        <v>3.2417901000000016</v>
+        <f t="shared" ref="AL16:AM16" si="23">+AK16*1.05</f>
+        <v>8820</v>
       </c>
       <c r="AM16" s="1">
-        <f t="shared" si="24"/>
-        <v>2.9176110900000016</v>
+        <f t="shared" si="23"/>
+        <v>9261</v>
       </c>
       <c r="AN16" s="1">
-        <f t="shared" si="24"/>
-        <v>2.6258499810000013</v>
+        <f>+AM16*1.02</f>
+        <v>9446.2199999999993</v>
       </c>
       <c r="AO16" s="1">
-        <f t="shared" si="24"/>
-        <v>2.3632649829000014</v>
+        <f t="shared" ref="AO16:AX16" si="24">+AN16*1.02</f>
+        <v>9635.1443999999992</v>
       </c>
       <c r="AP16" s="1">
         <f t="shared" si="24"/>
-        <v>2.1269384846100015</v>
+        <v>9827.847287999999</v>
       </c>
       <c r="AQ16" s="1">
         <f t="shared" si="24"/>
-        <v>1.9142446361490013</v>
+        <v>10024.404233759999</v>
       </c>
       <c r="AR16" s="1">
         <f t="shared" si="24"/>
-        <v>1.7228201725341012</v>
+        <v>10224.892318435199</v>
       </c>
       <c r="AS16" s="1">
         <f t="shared" si="24"/>
-        <v>1.5505381552806912</v>
+        <v>10429.390164803903</v>
       </c>
       <c r="AT16" s="1">
         <f t="shared" si="24"/>
-        <v>1.395484339752622</v>
+        <v>10637.977968099982</v>
       </c>
       <c r="AU16" s="1">
         <f t="shared" si="24"/>
-        <v>1.2559359057773598</v>
+        <v>10850.737527461981</v>
       </c>
       <c r="AV16" s="1">
         <f t="shared" si="24"/>
-        <v>1.1303423151996239</v>
+        <v>11067.752278011221</v>
       </c>
       <c r="AW16" s="1">
         <f t="shared" si="24"/>
-        <v>1.0173080836796615</v>
+        <v>11289.107323571447</v>
       </c>
       <c r="AX16" s="1">
         <f t="shared" si="24"/>
-        <v>0.91557727531169542</v>
+        <v>11514.889470042875</v>
       </c>
     </row>
     <row r="17" spans="2:50" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12">
-        <f t="shared" ref="E17:G17" si="25">SUM(E3:E16)</f>
-        <v>2690.2999999999993</v>
+        <v>0</v>
       </c>
       <c r="F17" s="12">
-        <f t="shared" si="25"/>
-        <v>2301.5999999999995</v>
+        <v>0</v>
       </c>
       <c r="G17" s="12">
-        <f t="shared" si="25"/>
-        <v>2211.7000000000003</v>
+        <v>0</v>
       </c>
       <c r="H17" s="12">
-        <f>SUM(H3:H16)</f>
-        <v>2235.9999999999995</v>
+        <v>1.6</v>
       </c>
       <c r="I17" s="12">
-        <f t="shared" ref="I17:L17" si="26">SUM(I3:I16)</f>
-        <v>2205.7000000000003</v>
+        <v>0.3</v>
       </c>
       <c r="J17" s="12">
-        <f t="shared" si="26"/>
-        <v>2193.7999999999997</v>
+        <v>1</v>
       </c>
       <c r="K17" s="12">
-        <f t="shared" si="26"/>
-        <v>2066.3000000000002</v>
+        <v>2.8</v>
       </c>
       <c r="L17" s="12">
-        <f t="shared" si="26"/>
-        <v>2054.7999999999997</v>
+        <v>0.1</v>
       </c>
       <c r="M17" s="12">
-        <f t="shared" ref="M17" si="27">SUM(M3:M16)</f>
-        <v>1962.1000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="N17" s="12">
-        <f t="shared" ref="N17" si="28">SUM(N3:N16)</f>
-        <v>1998.5409999999999</v>
+        <v>0.3</v>
       </c>
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
       <c r="AC17" s="1">
-        <f t="shared" ref="AC17:AD17" si="29">SUM(AC3:AC16)</f>
-        <v>11379.800000000001</v>
+        <v>0</v>
       </c>
       <c r="AD17" s="1">
-        <f t="shared" si="29"/>
-        <v>10692.2</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <f>SUM(AE3:AE16)</f>
-        <v>8847.1999999999989</v>
+        <f t="shared" si="4"/>
+        <v>2.9000000000000004</v>
       </c>
       <c r="AF17" s="1">
-        <f t="shared" ref="AF17:AX17" si="30">SUM(AF3:AF16)</f>
-        <v>8081.741</v>
+        <f t="shared" si="5"/>
+        <v>4.8</v>
       </c>
       <c r="AG17" s="1">
-        <f>SUM(AG3:AG16)</f>
-        <v>9024.7358100000001</v>
+        <f t="shared" ref="AG17:AX17" si="25">+AF17*0.9</f>
+        <v>4.32</v>
       </c>
       <c r="AH17" s="1">
-        <f t="shared" si="30"/>
-        <v>11075.507028100003</v>
+        <f t="shared" si="25"/>
+        <v>3.8880000000000003</v>
       </c>
       <c r="AI17" s="1">
-        <f t="shared" si="30"/>
-        <v>12315.287228885001</v>
+        <f t="shared" si="25"/>
+        <v>3.4992000000000005</v>
       </c>
       <c r="AJ17" s="1">
-        <f t="shared" si="30"/>
-        <v>13627.386644802251</v>
+        <f t="shared" si="25"/>
+        <v>3.1492800000000005</v>
       </c>
       <c r="AK17" s="1">
-        <f t="shared" si="30"/>
-        <v>13438.916949779412</v>
+        <f t="shared" si="25"/>
+        <v>2.8343520000000004</v>
       </c>
       <c r="AL17" s="1">
-        <f t="shared" si="30"/>
-        <v>13355.023826631928</v>
+        <f t="shared" si="25"/>
+        <v>2.5509168000000004</v>
       </c>
       <c r="AM17" s="1">
-        <f t="shared" si="30"/>
-        <v>13364.244554842297</v>
+        <f t="shared" si="25"/>
+        <v>2.2958251200000004</v>
       </c>
       <c r="AN17" s="1">
-        <f t="shared" si="30"/>
-        <v>13179.323083670235</v>
+        <f t="shared" si="25"/>
+        <v>2.0662426080000005</v>
       </c>
       <c r="AO17" s="1">
-        <f t="shared" si="30"/>
-        <v>12604.900038386872</v>
+        <f t="shared" si="25"/>
+        <v>1.8596183472000005</v>
       </c>
       <c r="AP17" s="1">
-        <f t="shared" si="30"/>
-        <v>12415.487656131594</v>
+        <f t="shared" si="25"/>
+        <v>1.6736565124800005</v>
       </c>
       <c r="AQ17" s="1">
-        <f t="shared" si="30"/>
-        <v>12285.056185721012</v>
+        <f t="shared" si="25"/>
+        <v>1.5062908612320005</v>
       </c>
       <c r="AR17" s="1">
-        <f t="shared" si="30"/>
-        <v>12204.961868906896</v>
+        <f t="shared" si="25"/>
+        <v>1.3556617751088005</v>
       </c>
       <c r="AS17" s="1">
-        <f t="shared" si="30"/>
-        <v>12168.042066126765</v>
+        <f t="shared" si="25"/>
+        <v>1.2200955975979204</v>
       </c>
       <c r="AT17" s="1">
-        <f t="shared" si="30"/>
-        <v>12168.351346705329</v>
+        <f t="shared" si="25"/>
+        <v>1.0980860378381283</v>
       </c>
       <c r="AU17" s="1">
-        <f t="shared" si="30"/>
-        <v>12200.94632321328</v>
+        <f t="shared" si="25"/>
+        <v>0.98827743405431545</v>
       </c>
       <c r="AV17" s="1">
-        <f t="shared" si="30"/>
-        <v>12261.71001379988</v>
+        <f t="shared" si="25"/>
+        <v>0.88944969064888391</v>
       </c>
       <c r="AW17" s="1">
-        <f t="shared" si="30"/>
-        <v>12347.208287046571</v>
+        <f t="shared" si="25"/>
+        <v>0.80050472158399555</v>
       </c>
       <c r="AX17" s="1">
-        <f t="shared" si="30"/>
-        <v>12454.572370615479</v>
+        <f t="shared" si="25"/>
+        <v>0.72045424942559599</v>
       </c>
     </row>
     <row r="18" spans="2:50" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12">
-        <v>272.39999999999998</v>
+        <f t="shared" ref="E18:G18" si="26">SUM(E3:E17)</f>
+        <v>2690.2999999999993</v>
       </c>
       <c r="F18" s="12">
-        <v>202.4</v>
+        <f t="shared" si="26"/>
+        <v>2301.5999999999995</v>
       </c>
       <c r="G18" s="12">
-        <v>209.3</v>
-      </c>
-      <c r="H18" s="12"/>
+        <f t="shared" si="26"/>
+        <v>2211.7000000000003</v>
+      </c>
+      <c r="H18" s="12">
+        <f>SUM(H3:H17)</f>
+        <v>2235.9999999999995</v>
+      </c>
       <c r="I18" s="12">
-        <v>264.3</v>
+        <f t="shared" ref="I18:L18" si="27">SUM(I3:I17)</f>
+        <v>2205.7000000000003</v>
       </c>
       <c r="J18" s="12">
-        <v>261.2</v>
+        <f t="shared" si="27"/>
+        <v>2193.7999999999997</v>
       </c>
       <c r="K18" s="12">
-        <v>252.3</v>
-      </c>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
+        <f t="shared" si="27"/>
+        <v>2066.3000000000002</v>
+      </c>
+      <c r="L18" s="12">
+        <f t="shared" si="27"/>
+        <v>2054.7999999999997</v>
+      </c>
+      <c r="M18" s="12">
+        <f t="shared" ref="M18" si="28">SUM(M3:M17)</f>
+        <v>1962.1000000000001</v>
+      </c>
+      <c r="N18" s="12">
+        <f t="shared" ref="N18:R18" si="29">SUM(N3:N17)</f>
+        <v>1904.4999999999998</v>
+      </c>
+      <c r="O18" s="12">
+        <f t="shared" si="29"/>
+        <v>1744.4</v>
+      </c>
+      <c r="P18" s="12">
+        <f t="shared" si="29"/>
+        <v>1807.79</v>
+      </c>
+      <c r="Q18" s="12">
+        <f t="shared" si="29"/>
+        <v>2028.0100000000002</v>
+      </c>
+      <c r="R18" s="12">
+        <f t="shared" si="29"/>
+        <v>2194.1499999999996</v>
+      </c>
       <c r="AC18" s="1">
-        <v>748</v>
+        <f t="shared" ref="AC18:AD18" si="30">SUM(AC3:AC17)</f>
+        <v>11379.800000000001</v>
       </c>
       <c r="AD18" s="1">
-        <v>897.6</v>
+        <f t="shared" si="30"/>
+        <v>10692.2</v>
       </c>
       <c r="AE18" s="1">
-        <f t="shared" si="4"/>
-        <v>734.8</v>
+        <f>SUM(AE3:AE17)</f>
+        <v>8847.1999999999989</v>
       </c>
       <c r="AF18" s="1">
-        <f>SUM(K18:N18)</f>
-        <v>252.3</v>
+        <f t="shared" ref="AF18:AX18" si="31">SUM(AF3:AF17)</f>
+        <v>7987.7000000000007</v>
       </c>
       <c r="AG18" s="1">
-        <f>+AF18*0.9</f>
-        <v>227.07000000000002</v>
+        <f>SUM(AG3:AG17)</f>
+        <v>8941.3439999999991</v>
       </c>
       <c r="AH18" s="1">
-        <f t="shared" ref="AH18:AX18" si="31">+AG18*0.9</f>
-        <v>204.36300000000003</v>
+        <f t="shared" si="31"/>
+        <v>10999.843840000003</v>
       </c>
       <c r="AI18" s="1">
         <f t="shared" si="31"/>
-        <v>183.92670000000004</v>
+        <v>12252.763589</v>
       </c>
       <c r="AJ18" s="1">
         <f t="shared" si="31"/>
-        <v>165.53403000000003</v>
+        <v>13575.4943439</v>
       </c>
       <c r="AK18" s="1">
         <f t="shared" si="31"/>
-        <v>148.98062700000003</v>
+        <v>13396.1060184125</v>
       </c>
       <c r="AL18" s="1">
         <f t="shared" si="31"/>
-        <v>134.08256430000003</v>
+        <v>13319.994079751052</v>
       </c>
       <c r="AM18" s="1">
         <f t="shared" si="31"/>
-        <v>120.67430787000004</v>
+        <v>13335.90383920408</v>
       </c>
       <c r="AN18" s="1">
         <f t="shared" si="31"/>
-        <v>108.60687708300003</v>
+        <v>13156.75277555259</v>
       </c>
       <c r="AO18" s="1">
         <f t="shared" si="31"/>
-        <v>97.746189374700023</v>
+        <v>12580.784201597131</v>
       </c>
       <c r="AP18" s="1">
         <f t="shared" si="31"/>
-        <v>87.971570437230028</v>
+        <v>12394.100446658367</v>
       </c>
       <c r="AQ18" s="1">
         <f t="shared" si="31"/>
-        <v>79.174413393507024</v>
+        <v>12266.082428885538</v>
       </c>
       <c r="AR18" s="1">
         <f t="shared" si="31"/>
-        <v>71.256972054156321</v>
+        <v>12188.12207092172</v>
       </c>
       <c r="AS18" s="1">
         <f t="shared" si="31"/>
-        <v>64.131274848740688</v>
+        <v>12153.088714889258</v>
       </c>
       <c r="AT18" s="1">
         <f t="shared" si="31"/>
-        <v>57.71814736386662</v>
+        <v>12155.065500664121</v>
       </c>
       <c r="AU18" s="1">
         <f t="shared" si="31"/>
-        <v>51.946332627479961</v>
+        <v>12189.134492222312</v>
       </c>
       <c r="AV18" s="1">
         <f t="shared" si="31"/>
-        <v>46.751699364731969</v>
+        <v>12251.201326479024</v>
       </c>
       <c r="AW18" s="1">
         <f t="shared" si="31"/>
-        <v>42.076529428258773</v>
+        <v>12337.851932881655</v>
       </c>
       <c r="AX18" s="1">
         <f t="shared" si="31"/>
-        <v>37.868876485432899</v>
+        <v>12446.235301053905</v>
       </c>
     </row>
     <row r="19" spans="2:50" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12">
-        <v>287.7</v>
+        <v>272.39999999999998</v>
       </c>
       <c r="F19" s="12">
-        <v>216.6</v>
+        <v>202.4</v>
       </c>
       <c r="G19" s="12">
-        <v>179.7</v>
+        <v>209.3</v>
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="12">
-        <v>151.1</v>
+        <v>264.3</v>
       </c>
       <c r="J19" s="12">
-        <v>152.9</v>
+        <v>261.2</v>
       </c>
       <c r="K19" s="12">
-        <v>147.1</v>
+        <v>252.3</v>
       </c>
       <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
+      <c r="M19" s="12">
+        <v>281.10000000000002</v>
+      </c>
+      <c r="N19" s="12">
+        <v>311.10000000000002</v>
+      </c>
+      <c r="O19" s="12">
+        <v>283.60000000000002</v>
+      </c>
+      <c r="P19" s="12">
+        <f>+O19</f>
+        <v>283.60000000000002</v>
+      </c>
+      <c r="Q19" s="12">
+        <f>+P19</f>
+        <v>283.60000000000002</v>
+      </c>
+      <c r="R19" s="1">
+        <f>+Q19</f>
+        <v>283.60000000000002</v>
+      </c>
       <c r="AC19" s="1">
-        <v>1542.4</v>
+        <v>748</v>
       </c>
       <c r="AD19" s="1">
-        <v>1080.2</v>
+        <v>897.6</v>
       </c>
       <c r="AE19" s="1">
         <f t="shared" si="4"/>
-        <v>483.69999999999993</v>
+        <v>734.8</v>
       </c>
       <c r="AF19" s="1">
-        <f t="shared" si="5"/>
-        <v>147.1</v>
+        <f>SUM(K19:N19)</f>
+        <v>844.50000000000011</v>
       </c>
       <c r="AG19" s="1">
-        <f t="shared" ref="AG19:AX19" si="32">+AF19*0.9</f>
-        <v>132.38999999999999</v>
+        <f>+AF19*0.9</f>
+        <v>760.05000000000007</v>
       </c>
       <c r="AH19" s="1">
-        <f t="shared" si="32"/>
-        <v>119.151</v>
+        <f t="shared" ref="AH19:AX19" si="32">+AG19*0.9</f>
+        <v>684.04500000000007</v>
       </c>
       <c r="AI19" s="1">
         <f t="shared" si="32"/>
-        <v>107.2359</v>
+        <v>615.64050000000009</v>
       </c>
       <c r="AJ19" s="1">
         <f t="shared" si="32"/>
-        <v>96.512309999999999</v>
+        <v>554.07645000000014</v>
       </c>
       <c r="AK19" s="1">
         <f t="shared" si="32"/>
-        <v>86.861079000000004</v>
+        <v>498.66880500000013</v>
       </c>
       <c r="AL19" s="1">
         <f t="shared" si="32"/>
-        <v>78.174971100000008</v>
+        <v>448.80192450000015</v>
       </c>
       <c r="AM19" s="1">
         <f t="shared" si="32"/>
-        <v>70.357473990000003</v>
+        <v>403.92173205000017</v>
       </c>
       <c r="AN19" s="1">
         <f t="shared" si="32"/>
-        <v>63.321726591000001</v>
+        <v>363.52955884500017</v>
       </c>
       <c r="AO19" s="1">
         <f t="shared" si="32"/>
-        <v>56.989553931900005</v>
+        <v>327.17660296050013</v>
       </c>
       <c r="AP19" s="1">
         <f t="shared" si="32"/>
-        <v>51.290598538710007</v>
+        <v>294.45894266445015</v>
       </c>
       <c r="AQ19" s="1">
         <f t="shared" si="32"/>
-        <v>46.161538684839009</v>
+        <v>265.01304839800514</v>
       </c>
       <c r="AR19" s="1">
         <f t="shared" si="32"/>
-        <v>41.54538481635511</v>
+        <v>238.51174355820464</v>
       </c>
       <c r="AS19" s="1">
         <f t="shared" si="32"/>
-        <v>37.390846334719598</v>
+        <v>214.66056920238418</v>
       </c>
       <c r="AT19" s="1">
         <f t="shared" si="32"/>
-        <v>33.651761701247636</v>
+        <v>193.19451228214578</v>
       </c>
       <c r="AU19" s="1">
         <f t="shared" si="32"/>
-        <v>30.286585531122874</v>
+        <v>173.8750610539312</v>
       </c>
       <c r="AV19" s="1">
         <f t="shared" si="32"/>
-        <v>27.257926978010588</v>
+        <v>156.48755494853808</v>
       </c>
       <c r="AW19" s="1">
         <f t="shared" si="32"/>
-        <v>24.532134280209529</v>
+        <v>140.83879945368426</v>
       </c>
       <c r="AX19" s="1">
         <f t="shared" si="32"/>
-        <v>22.078920852188578</v>
+        <v>126.75491950831584</v>
       </c>
     </row>
     <row r="20" spans="2:50" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12">
-        <v>440</v>
-      </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12">
-        <v>436.3</v>
-      </c>
+      <c r="E20" s="12">
+        <v>287.7</v>
+      </c>
+      <c r="F20" s="12">
+        <v>216.6</v>
+      </c>
+      <c r="G20" s="12">
+        <v>179.7</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12">
+        <v>151.1</v>
+      </c>
+      <c r="J20" s="12">
+        <v>152.9</v>
+      </c>
+      <c r="K20" s="12">
+        <v>147.1</v>
+      </c>
+      <c r="L20" s="12"/>
       <c r="M20" s="12">
-        <f>281.1+135.8</f>
-        <v>416.90000000000003</v>
+        <v>135.80000000000001</v>
       </c>
       <c r="N20" s="12">
-        <f>+M20</f>
-        <v>416.90000000000003</v>
-      </c>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
+        <v>136.80000000000001</v>
+      </c>
+      <c r="O20" s="12">
+        <v>112.5</v>
+      </c>
+      <c r="P20" s="12">
+        <f t="shared" ref="P20:R20" si="33">+O20</f>
+        <v>112.5</v>
+      </c>
+      <c r="Q20" s="12">
+        <f t="shared" si="33"/>
+        <v>112.5</v>
+      </c>
+      <c r="R20" s="1">
+        <f t="shared" si="33"/>
+        <v>112.5</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>1542.4</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>1080.2</v>
+      </c>
       <c r="AE20" s="1">
         <f t="shared" si="4"/>
-        <v>440</v>
+        <v>483.69999999999993</v>
       </c>
       <c r="AF20" s="1">
         <f t="shared" si="5"/>
-        <v>1270.1000000000001</v>
+        <v>419.7</v>
       </c>
       <c r="AG20" s="1">
-        <f t="shared" ref="AG20:AX20" si="33">+AF20*0.9</f>
-        <v>1143.0900000000001</v>
+        <f t="shared" ref="AG20:AX20" si="34">+AF20*0.9</f>
+        <v>377.73</v>
       </c>
       <c r="AH20" s="1">
-        <f t="shared" si="33"/>
-        <v>1028.7810000000002</v>
+        <f t="shared" si="34"/>
+        <v>339.95700000000005</v>
       </c>
       <c r="AI20" s="1">
-        <f t="shared" si="33"/>
-        <v>925.90290000000016</v>
+        <f t="shared" si="34"/>
+        <v>305.96130000000005</v>
       </c>
       <c r="AJ20" s="1">
-        <f t="shared" si="33"/>
-        <v>833.31261000000018</v>
+        <f t="shared" si="34"/>
+        <v>275.36517000000003</v>
       </c>
       <c r="AK20" s="1">
-        <f t="shared" si="33"/>
-        <v>749.98134900000014</v>
+        <f t="shared" si="34"/>
+        <v>247.82865300000003</v>
       </c>
       <c r="AL20" s="1">
-        <f t="shared" si="33"/>
-        <v>674.98321410000017</v>
+        <f t="shared" si="34"/>
+        <v>223.04578770000003</v>
       </c>
       <c r="AM20" s="1">
-        <f t="shared" si="33"/>
-        <v>607.48489269000015</v>
+        <f t="shared" si="34"/>
+        <v>200.74120893000003</v>
       </c>
       <c r="AN20" s="1">
-        <f t="shared" si="33"/>
-        <v>546.7364034210002</v>
+        <f t="shared" si="34"/>
+        <v>180.66708803700004</v>
       </c>
       <c r="AO20" s="1">
-        <f t="shared" si="33"/>
-        <v>492.06276307890022</v>
+        <f t="shared" si="34"/>
+        <v>162.60037923330003</v>
       </c>
       <c r="AP20" s="1">
-        <f t="shared" si="33"/>
-        <v>442.85648677101022</v>
+        <f t="shared" si="34"/>
+        <v>146.34034130997003</v>
       </c>
       <c r="AQ20" s="1">
-        <f t="shared" si="33"/>
-        <v>398.57083809390923</v>
+        <f t="shared" si="34"/>
+        <v>131.70630717897302</v>
       </c>
       <c r="AR20" s="1">
-        <f t="shared" si="33"/>
-        <v>358.7137542845183</v>
+        <f t="shared" si="34"/>
+        <v>118.53567646107572</v>
       </c>
       <c r="AS20" s="1">
-        <f t="shared" si="33"/>
-        <v>322.84237885606649</v>
+        <f t="shared" si="34"/>
+        <v>106.68210881496816</v>
       </c>
       <c r="AT20" s="1">
-        <f t="shared" si="33"/>
-        <v>290.55814097045987</v>
+        <f t="shared" si="34"/>
+        <v>96.013897933471341</v>
       </c>
       <c r="AU20" s="1">
-        <f t="shared" si="33"/>
-        <v>261.50232687341389</v>
+        <f t="shared" si="34"/>
+        <v>86.412508140124203</v>
       </c>
       <c r="AV20" s="1">
-        <f t="shared" si="33"/>
-        <v>235.35209418607252</v>
+        <f t="shared" si="34"/>
+        <v>77.77125732611178</v>
       </c>
       <c r="AW20" s="1">
-        <f t="shared" si="33"/>
-        <v>211.81688476746527</v>
+        <f t="shared" si="34"/>
+        <v>69.994131593500597</v>
       </c>
       <c r="AX20" s="1">
-        <f t="shared" si="33"/>
-        <v>190.63519629071874</v>
+        <f t="shared" si="34"/>
+        <v>62.994718434150542</v>
       </c>
     </row>
     <row r="21" spans="2:50" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
-      <c r="E21" s="12">
-        <v>125.7</v>
-      </c>
-      <c r="F21" s="12">
-        <v>132</v>
-      </c>
-      <c r="G21" s="12">
-        <v>93.3</v>
-      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
       <c r="H21" s="12">
-        <v>99</v>
-      </c>
-      <c r="I21" s="12">
-        <v>157.80000000000001</v>
-      </c>
-      <c r="J21" s="12">
-        <v>126.2</v>
-      </c>
-      <c r="K21" s="12">
-        <v>66.099999999999994</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
       <c r="L21" s="12">
-        <v>98</v>
+        <v>436.3</v>
       </c>
       <c r="M21" s="12">
-        <v>129.5</v>
+        <f>+M19+M20</f>
+        <v>416.90000000000003</v>
       </c>
       <c r="N21" s="12">
-        <f>+M21</f>
-        <v>129.5</v>
-      </c>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="AC21" s="1">
-        <v>707.7</v>
-      </c>
-      <c r="AD21" s="1">
-        <v>774.6</v>
+        <f>+N19+N20</f>
+        <v>447.90000000000003</v>
+      </c>
+      <c r="O21" s="12">
+        <f>+O19+O20+3.4</f>
+        <v>399.5</v>
+      </c>
+      <c r="P21" s="12">
+        <f t="shared" ref="P21:R21" si="35">+P19+P20+3.4</f>
+        <v>399.5</v>
+      </c>
+      <c r="Q21" s="12">
+        <f t="shared" si="35"/>
+        <v>399.5</v>
+      </c>
+      <c r="R21" s="12">
+        <f t="shared" si="35"/>
+        <v>399.5</v>
       </c>
       <c r="AE21" s="1">
         <f t="shared" si="4"/>
-        <v>476.3</v>
+        <v>440</v>
       </c>
       <c r="AF21" s="1">
         <f t="shared" si="5"/>
-        <v>423.1</v>
+        <v>1301.1000000000001</v>
       </c>
       <c r="AG21" s="1">
-        <f t="shared" ref="AG21:AX21" si="34">+AF21*0.9</f>
-        <v>380.79</v>
+        <f t="shared" ref="AG21:AX21" si="36">+AF21*0.9</f>
+        <v>1170.9900000000002</v>
       </c>
       <c r="AH21" s="1">
-        <f t="shared" si="34"/>
-        <v>342.71100000000001</v>
+        <f t="shared" si="36"/>
+        <v>1053.8910000000003</v>
       </c>
       <c r="AI21" s="1">
-        <f t="shared" si="34"/>
-        <v>308.43990000000002</v>
+        <f t="shared" si="36"/>
+        <v>948.50190000000032</v>
       </c>
       <c r="AJ21" s="1">
-        <f t="shared" si="34"/>
-        <v>277.59591</v>
+        <f t="shared" si="36"/>
+        <v>853.65171000000032</v>
       </c>
       <c r="AK21" s="1">
-        <f t="shared" si="34"/>
-        <v>249.836319</v>
+        <f t="shared" si="36"/>
+        <v>768.28653900000029</v>
       </c>
       <c r="AL21" s="1">
-        <f t="shared" si="34"/>
-        <v>224.8526871</v>
+        <f t="shared" si="36"/>
+        <v>691.45788510000023</v>
       </c>
       <c r="AM21" s="1">
-        <f t="shared" si="34"/>
-        <v>202.36741839000001</v>
+        <f t="shared" si="36"/>
+        <v>622.31209659000024</v>
       </c>
       <c r="AN21" s="1">
-        <f t="shared" si="34"/>
-        <v>182.13067655100002</v>
+        <f t="shared" si="36"/>
+        <v>560.08088693100024</v>
       </c>
       <c r="AO21" s="1">
-        <f t="shared" si="34"/>
-        <v>163.91760889590003</v>
+        <f t="shared" si="36"/>
+        <v>504.0727982379002</v>
       </c>
       <c r="AP21" s="1">
-        <f t="shared" si="34"/>
-        <v>147.52584800631004</v>
+        <f t="shared" si="36"/>
+        <v>453.66551841411018</v>
       </c>
       <c r="AQ21" s="1">
-        <f t="shared" si="34"/>
-        <v>132.77326320567903</v>
+        <f t="shared" si="36"/>
+        <v>408.29896657269916</v>
       </c>
       <c r="AR21" s="1">
-        <f t="shared" si="34"/>
-        <v>119.49593688511113</v>
+        <f t="shared" si="36"/>
+        <v>367.46906991542926</v>
       </c>
       <c r="AS21" s="1">
-        <f t="shared" si="34"/>
-        <v>107.54634319660002</v>
+        <f t="shared" si="36"/>
+        <v>330.72216292388634</v>
       </c>
       <c r="AT21" s="1">
-        <f t="shared" si="34"/>
-        <v>96.791708876940021</v>
+        <f t="shared" si="36"/>
+        <v>297.6499466314977</v>
       </c>
       <c r="AU21" s="1">
-        <f t="shared" si="34"/>
-        <v>87.112537989246022</v>
+        <f t="shared" si="36"/>
+        <v>267.88495196834793</v>
       </c>
       <c r="AV21" s="1">
-        <f t="shared" si="34"/>
-        <v>78.401284190321419</v>
+        <f t="shared" si="36"/>
+        <v>241.09645677151315</v>
       </c>
       <c r="AW21" s="1">
-        <f t="shared" si="34"/>
-        <v>70.561155771289279</v>
+        <f t="shared" si="36"/>
+        <v>216.98681109436183</v>
       </c>
       <c r="AX21" s="1">
-        <f t="shared" si="34"/>
-        <v>63.505040194160351</v>
-      </c>
-    </row>
-    <row r="22" spans="2:50" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14">
-        <f t="shared" ref="E22:L22" si="35">SUM(E17:E21)</f>
+        <f t="shared" si="36"/>
+        <v>195.28812998492566</v>
+      </c>
+    </row>
+    <row r="22" spans="2:50" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12">
+        <v>125.7</v>
+      </c>
+      <c r="F22" s="12">
+        <v>132</v>
+      </c>
+      <c r="G22" s="12">
+        <v>93.3</v>
+      </c>
+      <c r="H22" s="12">
+        <v>99</v>
+      </c>
+      <c r="I22" s="12">
+        <v>157.80000000000001</v>
+      </c>
+      <c r="J22" s="12">
+        <v>126.2</v>
+      </c>
+      <c r="K22" s="12">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="L22" s="12">
+        <v>98</v>
+      </c>
+      <c r="M22" s="12">
+        <v>129.5</v>
+      </c>
+      <c r="N22" s="12">
+        <v>191.6</v>
+      </c>
+      <c r="O22" s="12">
+        <v>319.10000000000002</v>
+      </c>
+      <c r="P22" s="12">
+        <f>L22</f>
+        <v>98</v>
+      </c>
+      <c r="Q22" s="12">
+        <f>M22</f>
+        <v>129.5</v>
+      </c>
+      <c r="R22" s="12">
+        <f>N22</f>
+        <v>191.6</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>707.7</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>774.6</v>
+      </c>
+      <c r="AE22" s="1">
+        <f t="shared" si="4"/>
+        <v>476.3</v>
+      </c>
+      <c r="AF22" s="1">
+        <f t="shared" si="5"/>
+        <v>485.20000000000005</v>
+      </c>
+      <c r="AG22" s="1">
+        <f t="shared" ref="AG22:AX22" si="37">+AF22*0.9</f>
+        <v>436.68000000000006</v>
+      </c>
+      <c r="AH22" s="1">
+        <f t="shared" si="37"/>
+        <v>393.01200000000006</v>
+      </c>
+      <c r="AI22" s="1">
+        <f t="shared" si="37"/>
+        <v>353.71080000000006</v>
+      </c>
+      <c r="AJ22" s="1">
+        <f t="shared" si="37"/>
+        <v>318.33972000000006</v>
+      </c>
+      <c r="AK22" s="1">
+        <f t="shared" si="37"/>
+        <v>286.50574800000004</v>
+      </c>
+      <c r="AL22" s="1">
+        <f t="shared" si="37"/>
+        <v>257.85517320000002</v>
+      </c>
+      <c r="AM22" s="1">
+        <f t="shared" si="37"/>
+        <v>232.06965588000003</v>
+      </c>
+      <c r="AN22" s="1">
+        <f t="shared" si="37"/>
+        <v>208.86269029200002</v>
+      </c>
+      <c r="AO22" s="1">
+        <f t="shared" si="37"/>
+        <v>187.97642126280002</v>
+      </c>
+      <c r="AP22" s="1">
+        <f t="shared" si="37"/>
+        <v>169.17877913652001</v>
+      </c>
+      <c r="AQ22" s="1">
+        <f t="shared" si="37"/>
+        <v>152.260901222868</v>
+      </c>
+      <c r="AR22" s="1">
+        <f t="shared" si="37"/>
+        <v>137.03481110058121</v>
+      </c>
+      <c r="AS22" s="1">
+        <f t="shared" si="37"/>
+        <v>123.33132999052309</v>
+      </c>
+      <c r="AT22" s="1">
+        <f t="shared" si="37"/>
+        <v>110.99819699147078</v>
+      </c>
+      <c r="AU22" s="1">
+        <f t="shared" si="37"/>
+        <v>99.898377292323701</v>
+      </c>
+      <c r="AV22" s="1">
+        <f t="shared" si="37"/>
+        <v>89.908539563091338</v>
+      </c>
+      <c r="AW22" s="1">
+        <f t="shared" si="37"/>
+        <v>80.9176856067822</v>
+      </c>
+      <c r="AX22" s="1">
+        <f t="shared" si="37"/>
+        <v>72.825917046103982</v>
+      </c>
+    </row>
+    <row r="23" spans="2:50" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14">
+        <f t="shared" ref="E23:L23" si="38">SUM(E18:E22)</f>
         <v>3376.099999999999</v>
       </c>
-      <c r="F22" s="14">
-        <f t="shared" si="35"/>
+      <c r="F23" s="14">
+        <f t="shared" si="38"/>
         <v>2852.5999999999995</v>
       </c>
-      <c r="G22" s="14">
-        <f t="shared" si="35"/>
+      <c r="G23" s="14">
+        <f t="shared" si="38"/>
         <v>2694.0000000000005</v>
       </c>
-      <c r="H22" s="14">
-        <f t="shared" si="35"/>
+      <c r="H23" s="14">
+        <f t="shared" si="38"/>
         <v>2774.9999999999995</v>
       </c>
-      <c r="I22" s="14">
-        <f t="shared" si="35"/>
+      <c r="I23" s="14">
+        <f t="shared" si="38"/>
         <v>2778.9000000000005</v>
       </c>
-      <c r="J22" s="14">
-        <f t="shared" si="35"/>
+      <c r="J23" s="14">
+        <f t="shared" si="38"/>
         <v>2734.0999999999995</v>
       </c>
-      <c r="K22" s="14">
-        <f t="shared" si="35"/>
+      <c r="K23" s="14">
+        <f t="shared" si="38"/>
         <v>2531.8000000000002</v>
       </c>
-      <c r="L22" s="14">
-        <f t="shared" si="35"/>
+      <c r="L23" s="14">
+        <f t="shared" si="38"/>
         <v>2589.1</v>
       </c>
-      <c r="M22" s="14">
-        <f t="shared" ref="M22:R22" si="36">SUM(M17:M21)</f>
+      <c r="M23" s="14">
+        <f>+M18+M21+M22</f>
         <v>2508.5</v>
       </c>
-      <c r="N22" s="14">
-        <f t="shared" si="36"/>
-        <v>2544.9409999999998</v>
-      </c>
-      <c r="O22" s="14">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="14">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="14">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="14">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="AC22" s="14">
-        <f t="shared" ref="AC22:AE22" si="37">SUM(AC17:AC21)</f>
+      <c r="N23" s="14">
+        <f>+N18+N21+N22</f>
+        <v>2543.9999999999995</v>
+      </c>
+      <c r="O23" s="14">
+        <f>+O18+O21+O22</f>
+        <v>2463</v>
+      </c>
+      <c r="P23" s="14">
+        <f t="shared" ref="M23:R23" si="39">SUM(P18:P22)</f>
+        <v>2701.39</v>
+      </c>
+      <c r="Q23" s="14">
+        <f t="shared" si="39"/>
+        <v>2953.11</v>
+      </c>
+      <c r="R23" s="14">
+        <f t="shared" si="39"/>
+        <v>3181.3499999999995</v>
+      </c>
+      <c r="AC23" s="14">
+        <f t="shared" ref="AC23:AE23" si="40">SUM(AC18:AC22)</f>
         <v>14377.900000000001</v>
       </c>
-      <c r="AD22" s="14">
-        <f t="shared" si="37"/>
+      <c r="AD23" s="14">
+        <f t="shared" si="40"/>
         <v>13444.600000000002</v>
       </c>
-      <c r="AE22" s="14">
-        <f t="shared" si="37"/>
+      <c r="AE23" s="14">
+        <f t="shared" si="40"/>
         <v>10981.999999999998</v>
       </c>
-      <c r="AF22" s="14">
-        <f>SUM(AF17:AF21)</f>
-        <v>10174.341</v>
-      </c>
-      <c r="AG22" s="14">
-        <f t="shared" ref="AG22:AX22" si="38">SUM(AG17:AG21)</f>
-        <v>10908.07581</v>
-      </c>
-      <c r="AH22" s="14">
-        <f t="shared" si="38"/>
-        <v>12770.513028100002</v>
-      </c>
-      <c r="AI22" s="14">
-        <f t="shared" si="38"/>
-        <v>13840.792628885001</v>
-      </c>
-      <c r="AJ22" s="14">
-        <f t="shared" si="38"/>
-        <v>15000.341504802253</v>
-      </c>
-      <c r="AK22" s="14">
-        <f t="shared" si="38"/>
-        <v>14674.576323779413</v>
-      </c>
-      <c r="AL22" s="14">
-        <f t="shared" si="38"/>
-        <v>14467.117263231929</v>
-      </c>
-      <c r="AM22" s="14">
-        <f t="shared" si="38"/>
-        <v>14365.128647782296</v>
-      </c>
-      <c r="AN22" s="14">
-        <f t="shared" si="38"/>
-        <v>14080.118767316237</v>
-      </c>
-      <c r="AO22" s="14">
-        <f t="shared" si="38"/>
-        <v>13415.616153668272</v>
-      </c>
-      <c r="AP22" s="14">
-        <f t="shared" si="38"/>
-        <v>13145.132159884854</v>
-      </c>
-      <c r="AQ22" s="14">
-        <f t="shared" si="38"/>
-        <v>12941.736239098946</v>
-      </c>
-      <c r="AR22" s="14">
-        <f t="shared" si="38"/>
-        <v>12795.973916947034</v>
-      </c>
-      <c r="AS22" s="14">
-        <f t="shared" si="38"/>
-        <v>12699.952909362892</v>
-      </c>
-      <c r="AT22" s="14">
-        <f t="shared" si="38"/>
-        <v>12647.071105617842</v>
-      </c>
-      <c r="AU22" s="14">
-        <f t="shared" si="38"/>
-        <v>12631.794106234542</v>
-      </c>
-      <c r="AV22" s="14">
-        <f t="shared" si="38"/>
-        <v>12649.473018519018</v>
-      </c>
-      <c r="AW22" s="14">
-        <f t="shared" si="38"/>
-        <v>12696.194991293794</v>
-      </c>
-      <c r="AX22" s="14">
-        <f t="shared" si="38"/>
-        <v>12768.66040443798</v>
-      </c>
-    </row>
-    <row r="23" spans="2:50" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12">
-        <v>449.1</v>
-      </c>
-      <c r="F23" s="12">
-        <v>490.6</v>
-      </c>
-      <c r="G23" s="12">
-        <v>478.1</v>
-      </c>
-      <c r="H23" s="12">
-        <v>459.7</v>
-      </c>
-      <c r="I23" s="12">
-        <v>511.8</v>
-      </c>
-      <c r="J23" s="12">
-        <v>660.1</v>
-      </c>
-      <c r="K23" s="12">
-        <v>753.9</v>
-      </c>
-      <c r="L23" s="12">
-        <v>484</v>
-      </c>
-      <c r="M23" s="12">
-        <v>469.5</v>
-      </c>
-      <c r="N23" s="12">
-        <f t="shared" ref="N23" si="39">+N22-N24</f>
-        <v>483.53878999999961</v>
-      </c>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="AC23" s="1">
-        <v>1955.4</v>
-      </c>
-      <c r="AD23" s="1">
-        <v>1805.2</v>
-      </c>
-      <c r="AE23" s="1">
-        <f t="shared" ref="AE23" si="40">SUM(G23:J23)</f>
-        <v>2109.6999999999998</v>
-      </c>
-      <c r="AF23" s="1">
-        <f t="shared" ref="AF23" si="41">SUM(K23:N23)</f>
-        <v>2190.9387899999997</v>
-      </c>
-      <c r="AG23" s="1">
-        <f>+AG22-AG24</f>
-        <v>1963.4536458000002</v>
-      </c>
-      <c r="AH23" s="1">
-        <f t="shared" ref="AH23:AX23" si="42">+AH22-AH24</f>
-        <v>2298.6923450580016</v>
-      </c>
-      <c r="AI23" s="1">
-        <f t="shared" si="42"/>
-        <v>2491.3426731993004</v>
-      </c>
-      <c r="AJ23" s="1">
-        <f t="shared" si="42"/>
-        <v>2700.0614708644061</v>
-      </c>
-      <c r="AK23" s="1">
-        <f t="shared" si="42"/>
-        <v>2641.4237382802949</v>
-      </c>
-      <c r="AL23" s="1">
-        <f t="shared" si="42"/>
-        <v>2604.0811073817476</v>
-      </c>
-      <c r="AM23" s="1">
-        <f t="shared" si="42"/>
-        <v>2585.723156600814</v>
-      </c>
-      <c r="AN23" s="1">
-        <f t="shared" si="42"/>
-        <v>2534.4213781169237</v>
-      </c>
-      <c r="AO23" s="1">
-        <f t="shared" si="42"/>
-        <v>2414.8109076602905</v>
-      </c>
-      <c r="AP23" s="1">
-        <f t="shared" si="42"/>
-        <v>2366.123788779274</v>
-      </c>
-      <c r="AQ23" s="1">
-        <f t="shared" si="42"/>
-        <v>2329.5125230378108</v>
-      </c>
-      <c r="AR23" s="1">
-        <f t="shared" si="42"/>
-        <v>2303.2753050504671</v>
-      </c>
-      <c r="AS23" s="1">
-        <f t="shared" si="42"/>
-        <v>2285.9915236853212</v>
-      </c>
-      <c r="AT23" s="1">
-        <f t="shared" si="42"/>
-        <v>2276.4727990112115</v>
-      </c>
-      <c r="AU23" s="1">
-        <f t="shared" si="42"/>
-        <v>2273.7229391222172</v>
-      </c>
-      <c r="AV23" s="1">
-        <f t="shared" si="42"/>
-        <v>2276.9051433334243</v>
-      </c>
-      <c r="AW23" s="1">
-        <f t="shared" si="42"/>
-        <v>2285.315098432884</v>
-      </c>
-      <c r="AX23" s="1">
-        <f t="shared" si="42"/>
-        <v>2298.3588727988372</v>
+      <c r="AF23" s="14">
+        <f>SUM(AF18:AF22)</f>
+        <v>11038.200000000003</v>
+      </c>
+      <c r="AG23" s="14">
+        <f t="shared" ref="AG23:AX23" si="41">SUM(AG18:AG22)</f>
+        <v>11686.793999999998</v>
+      </c>
+      <c r="AH23" s="14">
+        <f t="shared" si="41"/>
+        <v>13470.748840000004</v>
+      </c>
+      <c r="AI23" s="14">
+        <f t="shared" si="41"/>
+        <v>14476.578089000002</v>
+      </c>
+      <c r="AJ23" s="14">
+        <f t="shared" si="41"/>
+        <v>15576.9273939</v>
+      </c>
+      <c r="AK23" s="14">
+        <f t="shared" si="41"/>
+        <v>15197.3957634125</v>
+      </c>
+      <c r="AL23" s="14">
+        <f t="shared" si="41"/>
+        <v>14941.154850251052</v>
+      </c>
+      <c r="AM23" s="14">
+        <f t="shared" si="41"/>
+        <v>14794.948532654082</v>
+      </c>
+      <c r="AN23" s="14">
+        <f t="shared" si="41"/>
+        <v>14469.892999657592</v>
+      </c>
+      <c r="AO23" s="14">
+        <f t="shared" si="41"/>
+        <v>13762.61040329163</v>
+      </c>
+      <c r="AP23" s="14">
+        <f t="shared" si="41"/>
+        <v>13457.744028183419</v>
+      </c>
+      <c r="AQ23" s="14">
+        <f t="shared" si="41"/>
+        <v>13223.361652258083</v>
+      </c>
+      <c r="AR23" s="14">
+        <f t="shared" si="41"/>
+        <v>13049.673371957009</v>
+      </c>
+      <c r="AS23" s="14">
+        <f t="shared" si="41"/>
+        <v>12928.484885821021</v>
+      </c>
+      <c r="AT23" s="14">
+        <f t="shared" si="41"/>
+        <v>12852.922054502707</v>
+      </c>
+      <c r="AU23" s="14">
+        <f t="shared" si="41"/>
+        <v>12817.20539067704</v>
+      </c>
+      <c r="AV23" s="14">
+        <f t="shared" si="41"/>
+        <v>12816.46513508828</v>
+      </c>
+      <c r="AW23" s="14">
+        <f t="shared" si="41"/>
+        <v>12846.589360629985</v>
+      </c>
+      <c r="AX23" s="14">
+        <f t="shared" si="41"/>
+        <v>12904.0989860274</v>
       </c>
     </row>
     <row r="24" spans="2:50" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12">
-        <f t="shared" ref="E24:L24" si="43">+E22-E23</f>
-        <v>2926.9999999999991</v>
+        <v>449.1</v>
       </c>
       <c r="F24" s="12">
-        <f t="shared" si="43"/>
-        <v>2361.9999999999995</v>
+        <v>490.6</v>
       </c>
       <c r="G24" s="12">
-        <f t="shared" si="43"/>
-        <v>2215.9000000000005</v>
+        <v>478.1</v>
       </c>
       <c r="H24" s="12">
-        <f t="shared" si="43"/>
-        <v>2315.2999999999997</v>
+        <v>459.7</v>
       </c>
       <c r="I24" s="12">
-        <f t="shared" si="43"/>
-        <v>2267.1000000000004</v>
+        <v>511.8</v>
       </c>
       <c r="J24" s="12">
-        <f t="shared" si="43"/>
-        <v>2073.9999999999995</v>
+        <v>660.1</v>
       </c>
       <c r="K24" s="12">
-        <f t="shared" si="43"/>
-        <v>1777.9</v>
+        <v>753.9</v>
       </c>
       <c r="L24" s="12">
-        <f t="shared" si="43"/>
-        <v>2105.1</v>
+        <v>484</v>
       </c>
       <c r="M24" s="12">
-        <f>+M22-M23</f>
-        <v>2039</v>
+        <v>469.5</v>
       </c>
       <c r="N24" s="12">
-        <f t="shared" ref="N24" si="44">+N22*0.81</f>
-        <v>2061.4022100000002</v>
-      </c>
-      <c r="O24" s="12"/>
+        <v>570.9</v>
+      </c>
+      <c r="O24" s="12">
+        <v>662.8</v>
+      </c>
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
       <c r="AC24" s="1">
-        <f>+AC22-AC23</f>
-        <v>12422.500000000002</v>
+        <v>1955.4</v>
       </c>
       <c r="AD24" s="1">
-        <f>+AD22-AD23</f>
-        <v>11639.400000000001</v>
+        <v>1805.2</v>
       </c>
       <c r="AE24" s="1">
-        <f>+AE22-AE23</f>
-        <v>8872.2999999999993</v>
+        <f t="shared" ref="AE24" si="42">SUM(G24:J24)</f>
+        <v>2109.6999999999998</v>
       </c>
       <c r="AF24" s="1">
-        <f>+AF22-AF23</f>
-        <v>7983.4022100000002</v>
+        <f t="shared" ref="AF24" si="43">SUM(K24:N24)</f>
+        <v>2278.3000000000002</v>
       </c>
       <c r="AG24" s="1">
-        <f>+AG22*0.82</f>
-        <v>8944.6221642</v>
+        <f>+AG23-AG25</f>
+        <v>2103.6229199999998</v>
       </c>
       <c r="AH24" s="1">
-        <f t="shared" ref="AH24:AX24" si="45">+AH22*0.82</f>
-        <v>10471.820683042</v>
+        <f t="shared" ref="AH24:AX24" si="44">+AH23-AH25</f>
+        <v>2424.7347912000005</v>
       </c>
       <c r="AI24" s="1">
-        <f t="shared" si="45"/>
-        <v>11349.449955685701</v>
+        <f t="shared" si="44"/>
+        <v>2605.784056020002</v>
       </c>
       <c r="AJ24" s="1">
-        <f t="shared" si="45"/>
-        <v>12300.280033937846</v>
+        <f t="shared" si="44"/>
+        <v>2803.8469309020002</v>
       </c>
       <c r="AK24" s="1">
-        <f t="shared" si="45"/>
-        <v>12033.152585499118</v>
+        <f t="shared" si="44"/>
+        <v>2735.5312374142504</v>
       </c>
       <c r="AL24" s="1">
-        <f t="shared" si="45"/>
-        <v>11863.036155850181</v>
+        <f t="shared" si="44"/>
+        <v>2689.4078730451893</v>
       </c>
       <c r="AM24" s="1">
-        <f t="shared" si="45"/>
-        <v>11779.405491181482</v>
+        <f t="shared" si="44"/>
+        <v>2663.0907358777349</v>
       </c>
       <c r="AN24" s="1">
-        <f t="shared" si="45"/>
-        <v>11545.697389199313</v>
+        <f t="shared" si="44"/>
+        <v>2604.5807399383666</v>
       </c>
       <c r="AO24" s="1">
-        <f t="shared" si="45"/>
-        <v>11000.805246007982</v>
+        <f t="shared" si="44"/>
+        <v>2477.2698725924947</v>
       </c>
       <c r="AP24" s="1">
-        <f t="shared" si="45"/>
-        <v>10779.008371105579</v>
+        <f t="shared" si="44"/>
+        <v>2422.3939250730164</v>
       </c>
       <c r="AQ24" s="1">
-        <f t="shared" si="45"/>
-        <v>10612.223716061135</v>
+        <f t="shared" si="44"/>
+        <v>2380.205097406455</v>
       </c>
       <c r="AR24" s="1">
-        <f t="shared" si="45"/>
-        <v>10492.698611896567</v>
+        <f t="shared" si="44"/>
+        <v>2348.9412069522623</v>
       </c>
       <c r="AS24" s="1">
-        <f t="shared" si="45"/>
-        <v>10413.96138567757</v>
+        <f t="shared" si="44"/>
+        <v>2327.1272794477845</v>
       </c>
       <c r="AT24" s="1">
-        <f t="shared" si="45"/>
-        <v>10370.598306606631</v>
+        <f t="shared" si="44"/>
+        <v>2313.5259698104874</v>
       </c>
       <c r="AU24" s="1">
-        <f t="shared" si="45"/>
-        <v>10358.071167112324</v>
+        <f t="shared" si="44"/>
+        <v>2307.096970321867</v>
       </c>
       <c r="AV24" s="1">
-        <f t="shared" si="45"/>
-        <v>10372.567875185594</v>
+        <f t="shared" si="44"/>
+        <v>2306.9637243158904</v>
       </c>
       <c r="AW24" s="1">
-        <f t="shared" si="45"/>
-        <v>10410.87989286091</v>
+        <f t="shared" si="44"/>
+        <v>2312.386084913398</v>
       </c>
       <c r="AX24" s="1">
-        <f t="shared" si="45"/>
-        <v>10470.301531639143</v>
+        <f t="shared" si="44"/>
+        <v>2322.7378174849327</v>
       </c>
     </row>
     <row r="25" spans="2:50" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12">
-        <v>1140.9000000000001</v>
+        <f t="shared" ref="E25:L25" si="45">+E23-E24</f>
+        <v>2926.9999999999991</v>
       </c>
       <c r="F25" s="12">
-        <v>1726</v>
+        <f t="shared" si="45"/>
+        <v>2361.9999999999995</v>
       </c>
       <c r="G25" s="12">
-        <v>514.20000000000005</v>
+        <f t="shared" si="45"/>
+        <v>2215.9000000000005</v>
       </c>
       <c r="H25" s="12">
-        <v>585.1</v>
+        <f t="shared" si="45"/>
+        <v>2315.2999999999997</v>
       </c>
       <c r="I25" s="12">
-        <v>702.4</v>
+        <f t="shared" si="45"/>
+        <v>2267.1000000000004</v>
       </c>
       <c r="J25" s="12">
-        <v>699.5</v>
+        <f t="shared" si="45"/>
+        <v>2073.9999999999995</v>
       </c>
       <c r="K25" s="12">
-        <v>551.70000000000005</v>
+        <f t="shared" si="45"/>
+        <v>1777.9</v>
       </c>
       <c r="L25" s="12">
-        <v>528.6</v>
+        <f t="shared" si="45"/>
+        <v>2105.1</v>
       </c>
       <c r="M25" s="12">
-        <v>549.20000000000005</v>
-      </c>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
+        <f>+M23-M24</f>
+        <v>2039</v>
+      </c>
+      <c r="N25" s="12">
+        <f>+N23-N24</f>
+        <v>1973.0999999999995</v>
+      </c>
+      <c r="O25" s="12">
+        <f>+O23-O24</f>
+        <v>1800.2</v>
+      </c>
+      <c r="P25" s="12">
+        <f>+P23-P24</f>
+        <v>2701.39</v>
+      </c>
+      <c r="Q25" s="12">
+        <f>+Q23-Q24</f>
+        <v>2953.11</v>
+      </c>
+      <c r="R25" s="12">
+        <f>+R23-R24</f>
+        <v>3181.3499999999995</v>
+      </c>
       <c r="AC25" s="1">
-        <v>2280.6</v>
+        <f>+AC23-AC24</f>
+        <v>12422.500000000002</v>
       </c>
       <c r="AD25" s="1">
-        <v>3990.9</v>
+        <f>+AD23-AD24</f>
+        <v>11639.400000000001</v>
       </c>
       <c r="AE25" s="1">
-        <f t="shared" ref="AE25:AE26" si="46">SUM(G25:J25)</f>
-        <v>2501.2000000000003</v>
+        <f>+AE23-AE24</f>
+        <v>8872.2999999999993</v>
       </c>
       <c r="AF25" s="1">
-        <f t="shared" ref="AF25:AF26" si="47">SUM(K25:N25)</f>
-        <v>1629.5000000000002</v>
+        <f>+AF23-AF24</f>
+        <v>8759.9000000000015</v>
+      </c>
+      <c r="AG25" s="1">
+        <f>+AG23*0.82</f>
+        <v>9583.1710799999983</v>
+      </c>
+      <c r="AH25" s="1">
+        <f t="shared" ref="AH25:AX25" si="46">+AH23*0.82</f>
+        <v>11046.014048800003</v>
+      </c>
+      <c r="AI25" s="1">
+        <f t="shared" si="46"/>
+        <v>11870.79403298</v>
+      </c>
+      <c r="AJ25" s="1">
+        <f t="shared" si="46"/>
+        <v>12773.080462997999</v>
+      </c>
+      <c r="AK25" s="1">
+        <f t="shared" si="46"/>
+        <v>12461.86452599825</v>
+      </c>
+      <c r="AL25" s="1">
+        <f t="shared" si="46"/>
+        <v>12251.746977205863</v>
+      </c>
+      <c r="AM25" s="1">
+        <f t="shared" si="46"/>
+        <v>12131.857796776347</v>
+      </c>
+      <c r="AN25" s="1">
+        <f t="shared" si="46"/>
+        <v>11865.312259719225</v>
+      </c>
+      <c r="AO25" s="1">
+        <f t="shared" si="46"/>
+        <v>11285.340530699135</v>
+      </c>
+      <c r="AP25" s="1">
+        <f t="shared" si="46"/>
+        <v>11035.350103110402</v>
+      </c>
+      <c r="AQ25" s="1">
+        <f t="shared" si="46"/>
+        <v>10843.156554851628</v>
+      </c>
+      <c r="AR25" s="1">
+        <f t="shared" si="46"/>
+        <v>10700.732165004747</v>
+      </c>
+      <c r="AS25" s="1">
+        <f t="shared" si="46"/>
+        <v>10601.357606373236</v>
+      </c>
+      <c r="AT25" s="1">
+        <f t="shared" si="46"/>
+        <v>10539.39608469222</v>
+      </c>
+      <c r="AU25" s="1">
+        <f t="shared" si="46"/>
+        <v>10510.108420355173</v>
+      </c>
+      <c r="AV25" s="1">
+        <f t="shared" si="46"/>
+        <v>10509.501410772389</v>
+      </c>
+      <c r="AW25" s="1">
+        <f t="shared" si="46"/>
+        <v>10534.203275716587</v>
+      </c>
+      <c r="AX25" s="1">
+        <f t="shared" si="46"/>
+        <v>10581.361168542468</v>
       </c>
     </row>
     <row r="26" spans="2:50" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12">
-        <v>573.1</v>
+        <v>1140.9000000000001</v>
       </c>
       <c r="F26" s="12">
-        <v>806.3</v>
+        <v>1726</v>
       </c>
       <c r="G26" s="12">
-        <v>595</v>
+        <v>514.20000000000005</v>
       </c>
       <c r="H26" s="12">
-        <v>637.29999999999995</v>
+        <v>585.1</v>
       </c>
       <c r="I26" s="12">
-        <v>654.1</v>
+        <v>702.4</v>
       </c>
       <c r="J26" s="12">
-        <v>787.9</v>
+        <v>699.5</v>
       </c>
       <c r="K26" s="12">
-        <v>634.9</v>
+        <v>551.70000000000005</v>
       </c>
       <c r="L26" s="12">
-        <v>572.6</v>
+        <v>528.6</v>
       </c>
       <c r="M26" s="12">
-        <v>563.29999999999995</v>
+        <v>549.20000000000005</v>
       </c>
       <c r="N26" s="12">
-        <f>+M26+50</f>
-        <v>613.29999999999995</v>
-      </c>
-      <c r="O26" s="12"/>
+        <v>601.6</v>
+      </c>
+      <c r="O26" s="12">
+        <v>570.6</v>
+      </c>
       <c r="P26" s="12"/>
       <c r="Q26" s="12"/>
       <c r="AC26" s="1">
-        <v>2374.6999999999998</v>
+        <v>2280.6</v>
       </c>
       <c r="AD26" s="1">
-        <v>2504.5</v>
+        <v>3990.9</v>
       </c>
       <c r="AE26" s="1">
-        <f t="shared" si="46"/>
-        <v>2674.3</v>
+        <f t="shared" ref="AE26:AE27" si="47">SUM(G26:J26)</f>
+        <v>2501.2000000000003</v>
       </c>
       <c r="AF26" s="1">
-        <f t="shared" si="47"/>
-        <v>2384.1</v>
-      </c>
-      <c r="AG26" s="1">
-        <f>+AF26*0.95</f>
-        <v>2264.895</v>
-      </c>
-      <c r="AH26" s="1">
-        <f t="shared" ref="AH26:AX26" si="48">+AG26*0.95</f>
-        <v>2151.6502499999997</v>
-      </c>
-      <c r="AI26" s="1">
-        <f t="shared" si="48"/>
-        <v>2044.0677374999996</v>
-      </c>
-      <c r="AJ26" s="1">
-        <f t="shared" si="48"/>
-        <v>1941.8643506249996</v>
-      </c>
-      <c r="AK26" s="1">
-        <f t="shared" si="48"/>
-        <v>1844.7711330937495</v>
-      </c>
-      <c r="AL26" s="1">
-        <f t="shared" si="48"/>
-        <v>1752.532576439062</v>
-      </c>
-      <c r="AM26" s="1">
-        <f t="shared" si="48"/>
-        <v>1664.9059476171089</v>
-      </c>
-      <c r="AN26" s="1">
-        <f t="shared" si="48"/>
-        <v>1581.6606502362533</v>
-      </c>
-      <c r="AO26" s="1">
-        <f t="shared" si="48"/>
-        <v>1502.5776177244406</v>
-      </c>
-      <c r="AP26" s="1">
-        <f t="shared" si="48"/>
-        <v>1427.4487368382186</v>
-      </c>
-      <c r="AQ26" s="1">
-        <f t="shared" si="48"/>
-        <v>1356.0762999963076</v>
-      </c>
-      <c r="AR26" s="1">
-        <f t="shared" si="48"/>
-        <v>1288.2724849964923</v>
-      </c>
-      <c r="AS26" s="1">
-        <f t="shared" si="48"/>
-        <v>1223.8588607466677</v>
-      </c>
-      <c r="AT26" s="1">
-        <f t="shared" si="48"/>
-        <v>1162.6659177093343</v>
-      </c>
-      <c r="AU26" s="1">
-        <f t="shared" si="48"/>
-        <v>1104.5326218238674</v>
-      </c>
-      <c r="AV26" s="1">
-        <f t="shared" si="48"/>
-        <v>1049.305990732674</v>
-      </c>
-      <c r="AW26" s="1">
-        <f t="shared" si="48"/>
-        <v>996.84069119604021</v>
-      </c>
-      <c r="AX26" s="1">
-        <f t="shared" si="48"/>
-        <v>946.99865663623814</v>
+        <f t="shared" ref="AF26:AF27" si="48">SUM(K26:N26)</f>
+        <v>2231.1000000000004</v>
       </c>
     </row>
     <row r="27" spans="2:50" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12">
-        <f t="shared" ref="E27:L27" si="49">+E25+E26</f>
-        <v>1714</v>
+        <v>573.1</v>
       </c>
       <c r="F27" s="12">
-        <f t="shared" si="49"/>
-        <v>2532.3000000000002</v>
+        <v>806.3</v>
       </c>
       <c r="G27" s="12">
-        <f t="shared" si="49"/>
-        <v>1109.2</v>
+        <v>595</v>
       </c>
       <c r="H27" s="12">
-        <f t="shared" si="49"/>
-        <v>1222.4000000000001</v>
+        <v>637.29999999999995</v>
       </c>
       <c r="I27" s="12">
-        <f t="shared" si="49"/>
-        <v>1356.5</v>
+        <v>654.1</v>
       </c>
       <c r="J27" s="12">
-        <f t="shared" si="49"/>
-        <v>1487.4</v>
+        <v>787.9</v>
       </c>
       <c r="K27" s="12">
-        <f t="shared" si="49"/>
-        <v>1186.5999999999999</v>
+        <v>634.9</v>
       </c>
       <c r="L27" s="12">
-        <f t="shared" si="49"/>
-        <v>1101.2</v>
+        <v>572.6</v>
       </c>
       <c r="M27" s="12">
-        <f t="shared" ref="M27:N27" si="50">+M25+M26</f>
-        <v>1112.5</v>
+        <v>563.29999999999995</v>
       </c>
       <c r="N27" s="12">
-        <f t="shared" si="50"/>
-        <v>613.29999999999995</v>
-      </c>
-      <c r="O27" s="12"/>
+        <v>632.79999999999995</v>
+      </c>
+      <c r="O27" s="12">
+        <v>605</v>
+      </c>
       <c r="P27" s="12"/>
       <c r="Q27" s="12"/>
       <c r="AC27" s="1">
-        <f t="shared" ref="AC27:AD27" si="51">+AC25+AC26</f>
-        <v>4655.2999999999993</v>
+        <v>2374.6999999999998</v>
       </c>
       <c r="AD27" s="1">
-        <f t="shared" si="51"/>
-        <v>6495.4</v>
+        <v>2504.5</v>
       </c>
       <c r="AE27" s="1">
-        <f>+AE25+AE26</f>
-        <v>5175.5</v>
+        <f t="shared" si="47"/>
+        <v>2674.3</v>
       </c>
       <c r="AF27" s="1">
-        <f>+AF25+AF26</f>
-        <v>4013.6000000000004</v>
+        <f t="shared" si="48"/>
+        <v>2403.6</v>
       </c>
       <c r="AG27" s="1">
-        <f t="shared" ref="AG27:AX27" si="52">+AG25+AG26</f>
-        <v>2264.895</v>
+        <f>+AF27*0.95</f>
+        <v>2283.4199999999996</v>
       </c>
       <c r="AH27" s="1">
-        <f t="shared" si="52"/>
-        <v>2151.6502499999997</v>
+        <f t="shared" ref="AH27:AX27" si="49">+AG27*0.95</f>
+        <v>2169.2489999999993</v>
       </c>
       <c r="AI27" s="1">
-        <f t="shared" si="52"/>
-        <v>2044.0677374999996</v>
+        <f t="shared" si="49"/>
+        <v>2060.7865499999994</v>
       </c>
       <c r="AJ27" s="1">
-        <f t="shared" si="52"/>
-        <v>1941.8643506249996</v>
+        <f t="shared" si="49"/>
+        <v>1957.7472224999992</v>
       </c>
       <c r="AK27" s="1">
-        <f t="shared" si="52"/>
-        <v>1844.7711330937495</v>
+        <f t="shared" si="49"/>
+        <v>1859.8598613749991</v>
       </c>
       <c r="AL27" s="1">
-        <f t="shared" si="52"/>
-        <v>1752.532576439062</v>
+        <f t="shared" si="49"/>
+        <v>1766.866868306249</v>
       </c>
       <c r="AM27" s="1">
-        <f t="shared" si="52"/>
-        <v>1664.9059476171089</v>
+        <f t="shared" si="49"/>
+        <v>1678.5235248909364</v>
       </c>
       <c r="AN27" s="1">
-        <f t="shared" si="52"/>
-        <v>1581.6606502362533</v>
+        <f t="shared" si="49"/>
+        <v>1594.5973486463895</v>
       </c>
       <c r="AO27" s="1">
-        <f t="shared" si="52"/>
-        <v>1502.5776177244406</v>
+        <f t="shared" si="49"/>
+        <v>1514.86748121407</v>
       </c>
       <c r="AP27" s="1">
-        <f t="shared" si="52"/>
-        <v>1427.4487368382186</v>
+        <f t="shared" si="49"/>
+        <v>1439.1241071533664</v>
       </c>
       <c r="AQ27" s="1">
-        <f t="shared" si="52"/>
-        <v>1356.0762999963076</v>
+        <f t="shared" si="49"/>
+        <v>1367.1679017956981</v>
       </c>
       <c r="AR27" s="1">
-        <f t="shared" si="52"/>
-        <v>1288.2724849964923</v>
+        <f t="shared" si="49"/>
+        <v>1298.809506705913</v>
       </c>
       <c r="AS27" s="1">
-        <f t="shared" si="52"/>
-        <v>1223.8588607466677</v>
+        <f t="shared" si="49"/>
+        <v>1233.8690313706172</v>
       </c>
       <c r="AT27" s="1">
-        <f t="shared" si="52"/>
-        <v>1162.6659177093343</v>
+        <f t="shared" si="49"/>
+        <v>1172.1755798020863</v>
       </c>
       <c r="AU27" s="1">
-        <f t="shared" si="52"/>
-        <v>1104.5326218238674</v>
+        <f t="shared" si="49"/>
+        <v>1113.5668008119819</v>
       </c>
       <c r="AV27" s="1">
-        <f t="shared" si="52"/>
-        <v>1049.305990732674</v>
+        <f t="shared" si="49"/>
+        <v>1057.8884607713828</v>
       </c>
       <c r="AW27" s="1">
-        <f t="shared" si="52"/>
-        <v>996.84069119604021</v>
+        <f t="shared" si="49"/>
+        <v>1004.9940377328136</v>
       </c>
       <c r="AX27" s="1">
-        <f t="shared" si="52"/>
-        <v>946.99865663623814</v>
+        <f t="shared" si="49"/>
+        <v>954.74433584617282</v>
       </c>
     </row>
     <row r="28" spans="2:50" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12">
-        <f t="shared" ref="E28:L28" si="53">+E24-E27</f>
-        <v>1212.9999999999991</v>
+        <f t="shared" ref="E28:L28" si="50">+E26+E27</f>
+        <v>1714</v>
       </c>
       <c r="F28" s="12">
+        <f t="shared" si="50"/>
+        <v>2532.3000000000002</v>
+      </c>
+      <c r="G28" s="12">
+        <f t="shared" si="50"/>
+        <v>1109.2</v>
+      </c>
+      <c r="H28" s="12">
+        <f t="shared" si="50"/>
+        <v>1222.4000000000001</v>
+      </c>
+      <c r="I28" s="12">
+        <f t="shared" si="50"/>
+        <v>1356.5</v>
+      </c>
+      <c r="J28" s="12">
+        <f t="shared" si="50"/>
+        <v>1487.4</v>
+      </c>
+      <c r="K28" s="12">
+        <f t="shared" si="50"/>
+        <v>1186.5999999999999</v>
+      </c>
+      <c r="L28" s="12">
+        <f t="shared" si="50"/>
+        <v>1101.2</v>
+      </c>
+      <c r="M28" s="12">
+        <f t="shared" ref="M28:N28" si="51">+M26+M27</f>
+        <v>1112.5</v>
+      </c>
+      <c r="N28" s="12">
+        <f t="shared" si="51"/>
+        <v>1234.4000000000001</v>
+      </c>
+      <c r="O28" s="12">
+        <f t="shared" ref="O28:R28" si="52">+O26+O27</f>
+        <v>1175.5999999999999</v>
+      </c>
+      <c r="P28" s="12">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="12">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="12">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AC28" s="1">
+        <f t="shared" ref="AC28:AD28" si="53">+AC26+AC27</f>
+        <v>4655.2999999999993</v>
+      </c>
+      <c r="AD28" s="1">
         <f t="shared" si="53"/>
-        <v>-170.30000000000064</v>
-      </c>
-      <c r="G28" s="12">
-        <f t="shared" si="53"/>
-        <v>1106.7000000000005</v>
-      </c>
-      <c r="H28" s="12">
-        <f t="shared" si="53"/>
-        <v>1092.8999999999996</v>
-      </c>
-      <c r="I28" s="12">
-        <f t="shared" si="53"/>
-        <v>910.60000000000036</v>
-      </c>
-      <c r="J28" s="12">
-        <f t="shared" si="53"/>
-        <v>586.59999999999945</v>
-      </c>
-      <c r="K28" s="12">
-        <f t="shared" si="53"/>
-        <v>591.30000000000018</v>
-      </c>
-      <c r="L28" s="12">
-        <f t="shared" si="53"/>
-        <v>1003.8999999999999</v>
-      </c>
-      <c r="M28" s="12">
-        <f t="shared" ref="M28:N28" si="54">+M24-M27</f>
-        <v>926.5</v>
-      </c>
-      <c r="N28" s="12">
+        <v>6495.4</v>
+      </c>
+      <c r="AE28" s="1">
+        <f>+AE26+AE27</f>
+        <v>5175.5</v>
+      </c>
+      <c r="AF28" s="1">
+        <f>+AF26+AF27</f>
+        <v>4634.7000000000007</v>
+      </c>
+      <c r="AG28" s="1">
+        <f t="shared" ref="AG28:AX28" si="54">+AG26+AG27</f>
+        <v>2283.4199999999996</v>
+      </c>
+      <c r="AH28" s="1">
         <f t="shared" si="54"/>
-        <v>1448.1022100000002</v>
-      </c>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="AC28" s="1">
-        <f t="shared" ref="AC28:AD28" si="55">+AC24-AC27</f>
-        <v>7767.2000000000025</v>
-      </c>
-      <c r="AD28" s="1">
-        <f t="shared" si="55"/>
-        <v>5144.0000000000018</v>
-      </c>
-      <c r="AE28" s="1">
-        <f>+AE24-AE27</f>
-        <v>3696.7999999999993</v>
-      </c>
-      <c r="AF28" s="1">
-        <f>+AF24-AF27</f>
-        <v>3969.8022099999998</v>
-      </c>
-      <c r="AG28" s="1">
-        <f t="shared" ref="AG28:AX28" si="56">+AG24-AG27</f>
-        <v>6679.7271641999996</v>
-      </c>
-      <c r="AH28" s="1">
-        <f t="shared" si="56"/>
-        <v>8320.1704330419998</v>
+        <v>2169.2489999999993</v>
       </c>
       <c r="AI28" s="1">
-        <f t="shared" si="56"/>
-        <v>9305.3822181857013</v>
+        <f t="shared" si="54"/>
+        <v>2060.7865499999994</v>
       </c>
       <c r="AJ28" s="1">
-        <f t="shared" si="56"/>
-        <v>10358.415683312847</v>
+        <f t="shared" si="54"/>
+        <v>1957.7472224999992</v>
       </c>
       <c r="AK28" s="1">
-        <f t="shared" si="56"/>
-        <v>10188.381452405369</v>
+        <f t="shared" si="54"/>
+        <v>1859.8598613749991</v>
       </c>
       <c r="AL28" s="1">
-        <f t="shared" si="56"/>
-        <v>10110.503579411119</v>
+        <f t="shared" si="54"/>
+        <v>1766.866868306249</v>
       </c>
       <c r="AM28" s="1">
-        <f t="shared" si="56"/>
-        <v>10114.499543564372</v>
+        <f t="shared" si="54"/>
+        <v>1678.5235248909364</v>
       </c>
       <c r="AN28" s="1">
-        <f t="shared" si="56"/>
-        <v>9964.0367389630592</v>
+        <f t="shared" si="54"/>
+        <v>1594.5973486463895</v>
       </c>
       <c r="AO28" s="1">
-        <f t="shared" si="56"/>
-        <v>9498.227628283541</v>
+        <f t="shared" si="54"/>
+        <v>1514.86748121407</v>
       </c>
       <c r="AP28" s="1">
-        <f t="shared" si="56"/>
-        <v>9351.5596342673616</v>
+        <f t="shared" si="54"/>
+        <v>1439.1241071533664</v>
       </c>
       <c r="AQ28" s="1">
-        <f t="shared" si="56"/>
-        <v>9256.1474160648268</v>
+        <f t="shared" si="54"/>
+        <v>1367.1679017956981</v>
       </c>
       <c r="AR28" s="1">
-        <f t="shared" si="56"/>
-        <v>9204.4261269000745</v>
+        <f t="shared" si="54"/>
+        <v>1298.809506705913</v>
       </c>
       <c r="AS28" s="1">
-        <f t="shared" si="56"/>
-        <v>9190.1025249309023</v>
+        <f t="shared" si="54"/>
+        <v>1233.8690313706172</v>
       </c>
       <c r="AT28" s="1">
-        <f t="shared" si="56"/>
-        <v>9207.9323888972976</v>
+        <f t="shared" si="54"/>
+        <v>1172.1755798020863</v>
       </c>
       <c r="AU28" s="1">
-        <f t="shared" si="56"/>
-        <v>9253.5385452884566</v>
+        <f t="shared" si="54"/>
+        <v>1113.5668008119819</v>
       </c>
       <c r="AV28" s="1">
-        <f t="shared" si="56"/>
-        <v>9323.2618844529206</v>
+        <f t="shared" si="54"/>
+        <v>1057.8884607713828</v>
       </c>
       <c r="AW28" s="1">
-        <f t="shared" si="56"/>
-        <v>9414.0392016648693</v>
+        <f t="shared" si="54"/>
+        <v>1004.9940377328136</v>
       </c>
       <c r="AX28" s="1">
-        <f t="shared" si="56"/>
-        <v>9523.3028750029043</v>
+        <f t="shared" si="54"/>
+        <v>954.74433584617282</v>
       </c>
     </row>
     <row r="29" spans="2:50" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12">
-        <f>73-128.6</f>
-        <v>-55.599999999999994</v>
+        <f t="shared" ref="E29:L29" si="55">+E25-E28</f>
+        <v>1212.9999999999991</v>
       </c>
       <c r="F29" s="12">
-        <f>66.4+683.5</f>
-        <v>749.9</v>
+        <f t="shared" si="55"/>
+        <v>-170.30000000000064</v>
       </c>
       <c r="G29" s="12">
-        <f>68.5-506.9</f>
-        <v>-438.4</v>
+        <f t="shared" si="55"/>
+        <v>1106.7000000000005</v>
       </c>
       <c r="H29" s="12">
-        <v>-15.2</v>
+        <f t="shared" si="55"/>
+        <v>1092.8999999999996</v>
       </c>
       <c r="I29" s="12">
-        <f>21.2-502.9</f>
-        <v>-481.7</v>
+        <f t="shared" si="55"/>
+        <v>910.60000000000036</v>
       </c>
       <c r="J29" s="12">
-        <f>67.3-182.1</f>
-        <v>-114.8</v>
+        <f t="shared" si="55"/>
+        <v>586.59999999999945</v>
       </c>
       <c r="K29" s="12">
-        <f>-117.3-263.3</f>
-        <v>-380.6</v>
+        <f t="shared" si="55"/>
+        <v>591.30000000000018</v>
       </c>
       <c r="L29" s="12">
-        <v>29.4</v>
+        <f t="shared" si="55"/>
+        <v>1003.8999999999999</v>
       </c>
       <c r="M29" s="12">
-        <f>45.3+56</f>
-        <v>101.3</v>
-      </c>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
+        <f t="shared" ref="M29:N29" si="56">+M25-M28</f>
+        <v>926.5</v>
+      </c>
+      <c r="N29" s="12">
+        <f t="shared" si="56"/>
+        <v>738.69999999999936</v>
+      </c>
+      <c r="O29" s="12">
+        <f t="shared" ref="O29:R29" si="57">+O25-O28</f>
+        <v>624.60000000000014</v>
+      </c>
+      <c r="P29" s="12">
+        <f t="shared" si="57"/>
+        <v>2701.39</v>
+      </c>
+      <c r="Q29" s="12">
+        <f t="shared" si="57"/>
+        <v>2953.11</v>
+      </c>
+      <c r="R29" s="12">
+        <f t="shared" si="57"/>
+        <v>3181.3499999999995</v>
+      </c>
       <c r="AC29" s="1">
-        <f>241.6+83.3</f>
-        <v>324.89999999999998</v>
+        <f t="shared" ref="AC29:AD29" si="58">+AC25-AC28</f>
+        <v>7767.2000000000025</v>
       </c>
       <c r="AD29" s="1">
-        <f>232.9+497.4</f>
-        <v>730.3</v>
+        <f t="shared" si="58"/>
+        <v>5144.0000000000018</v>
       </c>
       <c r="AE29" s="1">
-        <f t="shared" ref="AE29" si="57">SUM(G29:J29)</f>
-        <v>-1050.0999999999999</v>
+        <f>+AE25-AE28</f>
+        <v>3696.7999999999993</v>
       </c>
       <c r="AF29" s="1">
-        <f t="shared" ref="AF29" si="58">SUM(K29:N29)</f>
-        <v>-249.90000000000003</v>
+        <f>+AF25-AF28</f>
+        <v>4125.2000000000007</v>
+      </c>
+      <c r="AG29" s="1">
+        <f t="shared" ref="AG29:AX29" si="59">+AG25-AG28</f>
+        <v>7299.7510799999982</v>
+      </c>
+      <c r="AH29" s="1">
+        <f t="shared" si="59"/>
+        <v>8876.7650488000036</v>
+      </c>
+      <c r="AI29" s="1">
+        <f t="shared" si="59"/>
+        <v>9810.0074829800014</v>
+      </c>
+      <c r="AJ29" s="1">
+        <f t="shared" si="59"/>
+        <v>10815.333240497999</v>
+      </c>
+      <c r="AK29" s="1">
+        <f t="shared" si="59"/>
+        <v>10602.004664623251</v>
+      </c>
+      <c r="AL29" s="1">
+        <f t="shared" si="59"/>
+        <v>10484.880108899613</v>
+      </c>
+      <c r="AM29" s="1">
+        <f t="shared" si="59"/>
+        <v>10453.334271885411</v>
+      </c>
+      <c r="AN29" s="1">
+        <f t="shared" si="59"/>
+        <v>10270.714911072835</v>
+      </c>
+      <c r="AO29" s="1">
+        <f t="shared" si="59"/>
+        <v>9770.4730494850646</v>
+      </c>
+      <c r="AP29" s="1">
+        <f t="shared" si="59"/>
+        <v>9596.2259959570365</v>
+      </c>
+      <c r="AQ29" s="1">
+        <f t="shared" si="59"/>
+        <v>9475.9886530559306</v>
+      </c>
+      <c r="AR29" s="1">
+        <f t="shared" si="59"/>
+        <v>9401.922658298834</v>
+      </c>
+      <c r="AS29" s="1">
+        <f t="shared" si="59"/>
+        <v>9367.4885750026187</v>
+      </c>
+      <c r="AT29" s="1">
+        <f t="shared" si="59"/>
+        <v>9367.2205048901342</v>
+      </c>
+      <c r="AU29" s="1">
+        <f t="shared" si="59"/>
+        <v>9396.5416195431899</v>
+      </c>
+      <c r="AV29" s="1">
+        <f t="shared" si="59"/>
+        <v>9451.6129500010065</v>
+      </c>
+      <c r="AW29" s="1">
+        <f t="shared" si="59"/>
+        <v>9529.2092379837741</v>
+      </c>
+      <c r="AX29" s="1">
+        <f t="shared" si="59"/>
+        <v>9626.6168326962943</v>
       </c>
     </row>
     <row r="30" spans="2:50" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12">
-        <f t="shared" ref="E30:L30" si="59">+E28+E29</f>
-        <v>1157.3999999999992</v>
+        <f>73-128.6</f>
+        <v>-55.599999999999994</v>
       </c>
       <c r="F30" s="12">
-        <f t="shared" si="59"/>
-        <v>579.59999999999934</v>
+        <f>66.4+683.5</f>
+        <v>749.9</v>
       </c>
       <c r="G30" s="12">
-        <f t="shared" si="59"/>
-        <v>668.30000000000052</v>
+        <f>68.5-506.9</f>
+        <v>-438.4</v>
       </c>
       <c r="H30" s="12">
-        <f t="shared" si="59"/>
-        <v>1077.6999999999996</v>
+        <v>-15.2</v>
       </c>
       <c r="I30" s="12">
-        <f t="shared" si="59"/>
-        <v>428.90000000000038</v>
+        <f>21.2-502.9</f>
+        <v>-481.7</v>
       </c>
       <c r="J30" s="12">
-        <f t="shared" si="59"/>
-        <v>471.79999999999944</v>
+        <f>67.3-182.1</f>
+        <v>-114.8</v>
       </c>
       <c r="K30" s="12">
-        <f t="shared" si="59"/>
-        <v>210.70000000000016</v>
+        <f>-117.3-263.3</f>
+        <v>-380.6</v>
       </c>
       <c r="L30" s="12">
-        <f t="shared" si="59"/>
-        <v>1033.3</v>
+        <v>29.4</v>
       </c>
       <c r="M30" s="12">
-        <f>+L30</f>
-        <v>1033.3</v>
+        <f>45.3+56</f>
+        <v>101.3</v>
       </c>
       <c r="N30" s="12">
-        <f>+M30</f>
-        <v>1033.3</v>
-      </c>
-      <c r="O30" s="12"/>
+        <v>-113.1</v>
+      </c>
+      <c r="O30" s="12">
+        <v>-69.400000000000006</v>
+      </c>
       <c r="P30" s="12"/>
       <c r="Q30" s="12"/>
       <c r="AC30" s="1">
-        <f t="shared" ref="AC30:AD30" si="60">+AC28+AC29</f>
-        <v>8092.1000000000022</v>
+        <f>241.6+83.3</f>
+        <v>324.89999999999998</v>
       </c>
       <c r="AD30" s="1">
-        <f t="shared" si="60"/>
-        <v>5874.300000000002</v>
+        <f>232.9+497.4</f>
+        <v>730.3</v>
       </c>
       <c r="AE30" s="1">
-        <f>+AE28+AE29</f>
-        <v>2646.6999999999994</v>
+        <f t="shared" ref="AE30" si="60">SUM(G30:J30)</f>
+        <v>-1050.0999999999999</v>
       </c>
       <c r="AF30" s="1">
-        <f>+AF28+AF29</f>
-        <v>3719.9022099999997</v>
-      </c>
-      <c r="AG30" s="1">
-        <f t="shared" ref="AG30:AX30" si="61">+AG28+AG29</f>
-        <v>6679.7271641999996</v>
-      </c>
-      <c r="AH30" s="1">
-        <f t="shared" si="61"/>
-        <v>8320.1704330419998</v>
-      </c>
-      <c r="AI30" s="1">
-        <f t="shared" si="61"/>
-        <v>9305.3822181857013</v>
-      </c>
-      <c r="AJ30" s="1">
-        <f t="shared" si="61"/>
-        <v>10358.415683312847</v>
-      </c>
-      <c r="AK30" s="1">
-        <f t="shared" si="61"/>
-        <v>10188.381452405369</v>
-      </c>
-      <c r="AL30" s="1">
-        <f t="shared" si="61"/>
-        <v>10110.503579411119</v>
-      </c>
-      <c r="AM30" s="1">
-        <f t="shared" si="61"/>
-        <v>10114.499543564372</v>
-      </c>
-      <c r="AN30" s="1">
-        <f t="shared" si="61"/>
-        <v>9964.0367389630592</v>
-      </c>
-      <c r="AO30" s="1">
-        <f t="shared" si="61"/>
-        <v>9498.227628283541</v>
-      </c>
-      <c r="AP30" s="1">
-        <f t="shared" si="61"/>
-        <v>9351.5596342673616</v>
-      </c>
-      <c r="AQ30" s="1">
-        <f t="shared" si="61"/>
-        <v>9256.1474160648268</v>
-      </c>
-      <c r="AR30" s="1">
-        <f t="shared" si="61"/>
-        <v>9204.4261269000745</v>
-      </c>
-      <c r="AS30" s="1">
-        <f t="shared" si="61"/>
-        <v>9190.1025249309023</v>
-      </c>
-      <c r="AT30" s="1">
-        <f t="shared" si="61"/>
-        <v>9207.9323888972976</v>
-      </c>
-      <c r="AU30" s="1">
-        <f t="shared" si="61"/>
-        <v>9253.5385452884566</v>
-      </c>
-      <c r="AV30" s="1">
-        <f t="shared" si="61"/>
-        <v>9323.2618844529206</v>
-      </c>
-      <c r="AW30" s="1">
-        <f t="shared" si="61"/>
-        <v>9414.0392016648693</v>
-      </c>
-      <c r="AX30" s="1">
-        <f t="shared" si="61"/>
-        <v>9523.3028750029043</v>
+        <f t="shared" ref="AF30" si="61">SUM(K30:N30)</f>
+        <v>-363</v>
       </c>
     </row>
     <row r="31" spans="2:50" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12">
+        <f t="shared" ref="E31:R31" si="62">+E29+E30</f>
+        <v>1157.3999999999992</v>
+      </c>
+      <c r="F31" s="12">
+        <f t="shared" si="62"/>
+        <v>579.59999999999934</v>
+      </c>
+      <c r="G31" s="12">
+        <f t="shared" si="62"/>
+        <v>668.30000000000052</v>
+      </c>
+      <c r="H31" s="12">
+        <f t="shared" si="62"/>
+        <v>1077.6999999999996</v>
+      </c>
+      <c r="I31" s="12">
+        <f t="shared" si="62"/>
+        <v>428.90000000000038</v>
+      </c>
+      <c r="J31" s="12">
+        <f t="shared" si="62"/>
+        <v>471.79999999999944</v>
+      </c>
+      <c r="K31" s="12">
+        <f t="shared" si="62"/>
+        <v>210.70000000000016</v>
+      </c>
+      <c r="L31" s="12">
+        <f t="shared" si="62"/>
+        <v>1033.3</v>
+      </c>
+      <c r="M31" s="12">
+        <f t="shared" si="62"/>
+        <v>1027.8</v>
+      </c>
+      <c r="N31" s="12">
+        <f t="shared" si="62"/>
+        <v>625.59999999999934</v>
+      </c>
+      <c r="O31" s="12">
+        <f t="shared" si="62"/>
+        <v>555.20000000000016</v>
+      </c>
+      <c r="P31" s="12">
+        <f t="shared" si="62"/>
+        <v>2701.39</v>
+      </c>
+      <c r="Q31" s="12">
+        <f t="shared" si="62"/>
+        <v>2953.11</v>
+      </c>
+      <c r="R31" s="12">
+        <f t="shared" si="62"/>
+        <v>3181.3499999999995</v>
+      </c>
+      <c r="AC31" s="1">
+        <f t="shared" ref="AC31:AD31" si="63">+AC29+AC30</f>
+        <v>8092.1000000000022</v>
+      </c>
+      <c r="AD31" s="1">
+        <f t="shared" si="63"/>
+        <v>5874.300000000002</v>
+      </c>
+      <c r="AE31" s="1">
+        <f>+AE29+AE30</f>
+        <v>2646.6999999999994</v>
+      </c>
+      <c r="AF31" s="1">
+        <f>+AF29+AF30</f>
+        <v>3762.2000000000007</v>
+      </c>
+      <c r="AG31" s="1">
+        <f t="shared" ref="AG31:AX31" si="64">+AG29+AG30</f>
+        <v>7299.7510799999982</v>
+      </c>
+      <c r="AH31" s="1">
+        <f t="shared" si="64"/>
+        <v>8876.7650488000036</v>
+      </c>
+      <c r="AI31" s="1">
+        <f t="shared" si="64"/>
+        <v>9810.0074829800014</v>
+      </c>
+      <c r="AJ31" s="1">
+        <f t="shared" si="64"/>
+        <v>10815.333240497999</v>
+      </c>
+      <c r="AK31" s="1">
+        <f t="shared" si="64"/>
+        <v>10602.004664623251</v>
+      </c>
+      <c r="AL31" s="1">
+        <f t="shared" si="64"/>
+        <v>10484.880108899613</v>
+      </c>
+      <c r="AM31" s="1">
+        <f t="shared" si="64"/>
+        <v>10453.334271885411</v>
+      </c>
+      <c r="AN31" s="1">
+        <f t="shared" si="64"/>
+        <v>10270.714911072835</v>
+      </c>
+      <c r="AO31" s="1">
+        <f t="shared" si="64"/>
+        <v>9770.4730494850646</v>
+      </c>
+      <c r="AP31" s="1">
+        <f t="shared" si="64"/>
+        <v>9596.2259959570365</v>
+      </c>
+      <c r="AQ31" s="1">
+        <f t="shared" si="64"/>
+        <v>9475.9886530559306</v>
+      </c>
+      <c r="AR31" s="1">
+        <f t="shared" si="64"/>
+        <v>9401.922658298834</v>
+      </c>
+      <c r="AS31" s="1">
+        <f t="shared" si="64"/>
+        <v>9367.4885750026187</v>
+      </c>
+      <c r="AT31" s="1">
+        <f t="shared" si="64"/>
+        <v>9367.2205048901342</v>
+      </c>
+      <c r="AU31" s="1">
+        <f t="shared" si="64"/>
+        <v>9396.5416195431899</v>
+      </c>
+      <c r="AV31" s="1">
+        <f t="shared" si="64"/>
+        <v>9451.6129500010065</v>
+      </c>
+      <c r="AW31" s="1">
+        <f t="shared" si="64"/>
+        <v>9529.2092379837741</v>
+      </c>
+      <c r="AX31" s="1">
+        <f t="shared" si="64"/>
+        <v>9626.6168326962943</v>
+      </c>
+    </row>
+    <row r="32" spans="2:50" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12">
         <f>240.8+13.1+2.4</f>
         <v>256.3</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F32" s="12">
         <f>13.3-18-0.3</f>
         <v>-4.9999999999999991</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G32" s="12">
         <f>44.2+18.2-5.6</f>
         <v>56.800000000000004</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H32" s="12">
         <f>409.1-34.3+577</f>
         <v>951.8</v>
       </c>
-      <c r="I31" s="12">
+      <c r="I32" s="12">
         <f>-25.9-1.1-11.1</f>
         <v>-38.1</v>
       </c>
-      <c r="J31" s="12">
+      <c r="J32" s="12">
         <f>443.2-17.7-388.7</f>
         <v>36.800000000000011</v>
       </c>
-      <c r="K31" s="12">
+      <c r="K32" s="12">
         <f>125.6+3.3-85.3</f>
         <v>43.600000000000009</v>
       </c>
-      <c r="L31" s="12">
+      <c r="L32" s="12">
         <f>216.7-5.9</f>
         <v>210.79999999999998</v>
       </c>
-      <c r="M31" s="12">
+      <c r="M32" s="12">
         <v>236.2</v>
       </c>
-      <c r="N31" s="12">
-        <f>+N30*0.2</f>
-        <v>206.66</v>
-      </c>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="AC31" s="1">
+      <c r="N32" s="12">
+        <v>54.3</v>
+      </c>
+      <c r="O32" s="12">
+        <v>50.7</v>
+      </c>
+      <c r="P32" s="12">
+        <f>+P31*0.2</f>
+        <v>540.27800000000002</v>
+      </c>
+      <c r="Q32" s="12">
+        <f>+Q31*0.2</f>
+        <v>590.62200000000007</v>
+      </c>
+      <c r="R32" s="12">
+        <f>+R31*0.2</f>
+        <v>636.27</v>
+      </c>
+      <c r="AC32" s="1">
         <f>1158+79.4</f>
         <v>1237.4000000000001</v>
       </c>
-      <c r="AD31" s="1">
+      <c r="AD32" s="1">
         <f>992.3+59.9</f>
         <v>1052.2</v>
       </c>
-      <c r="AE31" s="1">
-        <f t="shared" ref="AE31" si="62">SUM(G31:J31)</f>
+      <c r="AE32" s="1">
+        <f t="shared" ref="AE32" si="65">SUM(G32:J32)</f>
         <v>1007.3</v>
       </c>
-      <c r="AF31" s="1">
-        <f t="shared" ref="AF31" si="63">SUM(K31:N31)</f>
-        <v>697.26</v>
-      </c>
-      <c r="AG31" s="1">
-        <f>+AG30*0.2</f>
-        <v>1335.94543284</v>
-      </c>
-      <c r="AH31" s="1">
-        <f t="shared" ref="AH31:AX31" si="64">+AH30*0.2</f>
-        <v>1664.0340866084</v>
-      </c>
-      <c r="AI31" s="1">
-        <f t="shared" si="64"/>
-        <v>1861.0764436371403</v>
-      </c>
-      <c r="AJ31" s="1">
-        <f t="shared" si="64"/>
-        <v>2071.6831366625697</v>
-      </c>
-      <c r="AK31" s="1">
-        <f t="shared" si="64"/>
-        <v>2037.6762904810739</v>
-      </c>
-      <c r="AL31" s="1">
-        <f t="shared" si="64"/>
-        <v>2022.100715882224</v>
-      </c>
-      <c r="AM31" s="1">
-        <f t="shared" si="64"/>
-        <v>2022.8999087128745</v>
-      </c>
-      <c r="AN31" s="1">
-        <f t="shared" si="64"/>
-        <v>1992.8073477926118</v>
-      </c>
-      <c r="AO31" s="1">
-        <f t="shared" si="64"/>
-        <v>1899.6455256567083</v>
-      </c>
-      <c r="AP31" s="1">
-        <f t="shared" si="64"/>
-        <v>1870.3119268534724</v>
-      </c>
-      <c r="AQ31" s="1">
-        <f t="shared" si="64"/>
-        <v>1851.2294832129655</v>
-      </c>
-      <c r="AR31" s="1">
-        <f t="shared" si="64"/>
-        <v>1840.8852253800151</v>
-      </c>
-      <c r="AS31" s="1">
-        <f t="shared" si="64"/>
-        <v>1838.0205049861806</v>
-      </c>
-      <c r="AT31" s="1">
-        <f t="shared" si="64"/>
-        <v>1841.5864777794595</v>
-      </c>
-      <c r="AU31" s="1">
-        <f t="shared" si="64"/>
-        <v>1850.7077090576913</v>
-      </c>
-      <c r="AV31" s="1">
-        <f t="shared" si="64"/>
-        <v>1864.6523768905843</v>
-      </c>
-      <c r="AW31" s="1">
-        <f t="shared" si="64"/>
-        <v>1882.8078403329739</v>
-      </c>
-      <c r="AX31" s="1">
-        <f t="shared" si="64"/>
-        <v>1904.660575000581</v>
-      </c>
-    </row>
-    <row r="32" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" s="12">
-        <f t="shared" ref="E32:N32" si="65">+E30-E31</f>
-        <v>901.09999999999923</v>
-      </c>
-      <c r="F32" s="12">
-        <f t="shared" si="65"/>
-        <v>584.59999999999934</v>
-      </c>
-      <c r="G32" s="12">
-        <f t="shared" si="65"/>
-        <v>611.50000000000057</v>
-      </c>
-      <c r="H32" s="12">
-        <f t="shared" si="65"/>
-        <v>125.89999999999964</v>
-      </c>
-      <c r="I32" s="12">
-        <f t="shared" si="65"/>
-        <v>467.0000000000004</v>
-      </c>
-      <c r="J32" s="12">
-        <f t="shared" si="65"/>
-        <v>434.99999999999943</v>
-      </c>
-      <c r="K32" s="12">
-        <f t="shared" si="65"/>
-        <v>167.10000000000014</v>
-      </c>
-      <c r="L32" s="12">
-        <f t="shared" si="65"/>
-        <v>822.5</v>
-      </c>
-      <c r="M32" s="12">
-        <f>+M30-M31</f>
-        <v>797.09999999999991</v>
-      </c>
-      <c r="N32" s="12">
-        <f t="shared" si="65"/>
-        <v>826.64</v>
-      </c>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="AC32" s="1">
-        <f>+AC30-AC31</f>
-        <v>6854.7000000000025</v>
-      </c>
-      <c r="AD32" s="1">
-        <f>+AD30-AD31</f>
-        <v>4822.1000000000022</v>
-      </c>
-      <c r="AE32" s="1">
-        <f>+AE30-AE31</f>
-        <v>1639.3999999999994</v>
-      </c>
       <c r="AF32" s="1">
-        <f>+AF30-AF31</f>
-        <v>3022.64221</v>
+        <f t="shared" ref="AF32" si="66">SUM(K32:N32)</f>
+        <v>544.9</v>
       </c>
       <c r="AG32" s="1">
-        <f>+AG30-AG31</f>
-        <v>5343.7817313599999</v>
+        <f>+AG31*0.2</f>
+        <v>1459.9502159999997</v>
       </c>
       <c r="AH32" s="1">
-        <f t="shared" ref="AH32:AX32" si="66">+AH30-AH31</f>
-        <v>6656.1363464336</v>
+        <f t="shared" ref="AH32:AX32" si="67">+AH31*0.2</f>
+        <v>1775.3530097600008</v>
       </c>
       <c r="AI32" s="1">
-        <f t="shared" si="66"/>
-        <v>7444.3057745485612</v>
+        <f t="shared" si="67"/>
+        <v>1962.0014965960004</v>
       </c>
       <c r="AJ32" s="1">
-        <f t="shared" si="66"/>
-        <v>8286.7325466502771</v>
+        <f t="shared" si="67"/>
+        <v>2163.0666480996001</v>
       </c>
       <c r="AK32" s="1">
-        <f t="shared" si="66"/>
-        <v>8150.7051619242948</v>
+        <f t="shared" si="67"/>
+        <v>2120.4009329246505</v>
       </c>
       <c r="AL32" s="1">
-        <f t="shared" si="66"/>
-        <v>8088.4028635288951</v>
+        <f t="shared" si="67"/>
+        <v>2096.9760217799226</v>
       </c>
       <c r="AM32" s="1">
-        <f t="shared" si="66"/>
-        <v>8091.5996348514982</v>
+        <f t="shared" si="67"/>
+        <v>2090.6668543770825</v>
       </c>
       <c r="AN32" s="1">
-        <f t="shared" si="66"/>
-        <v>7971.2293911704473</v>
+        <f t="shared" si="67"/>
+        <v>2054.1429822145669</v>
       </c>
       <c r="AO32" s="1">
-        <f t="shared" si="66"/>
-        <v>7598.5821026268331</v>
+        <f t="shared" si="67"/>
+        <v>1954.094609897013</v>
       </c>
       <c r="AP32" s="1">
-        <f t="shared" si="66"/>
-        <v>7481.2477074138897</v>
+        <f t="shared" si="67"/>
+        <v>1919.2451991914074</v>
       </c>
       <c r="AQ32" s="1">
-        <f t="shared" si="66"/>
-        <v>7404.9179328518612</v>
+        <f t="shared" si="67"/>
+        <v>1895.1977306111862</v>
       </c>
       <c r="AR32" s="1">
-        <f t="shared" si="66"/>
-        <v>7363.5409015200594</v>
+        <f t="shared" si="67"/>
+        <v>1880.3845316597669</v>
       </c>
       <c r="AS32" s="1">
-        <f t="shared" si="66"/>
-        <v>7352.0820199447217</v>
+        <f t="shared" si="67"/>
+        <v>1873.4977150005238</v>
       </c>
       <c r="AT32" s="1">
-        <f t="shared" si="66"/>
-        <v>7366.3459111178381</v>
+        <f t="shared" si="67"/>
+        <v>1873.4441009780269</v>
       </c>
       <c r="AU32" s="1">
-        <f t="shared" si="66"/>
-        <v>7402.8308362307653</v>
+        <f t="shared" si="67"/>
+        <v>1879.3083239086382</v>
       </c>
       <c r="AV32" s="1">
-        <f t="shared" si="66"/>
-        <v>7458.6095075623361</v>
+        <f t="shared" si="67"/>
+        <v>1890.3225900002014</v>
       </c>
       <c r="AW32" s="1">
-        <f t="shared" si="66"/>
-        <v>7531.2313613318956</v>
+        <f t="shared" si="67"/>
+        <v>1905.8418475967549</v>
       </c>
       <c r="AX32" s="1">
-        <f t="shared" si="66"/>
-        <v>7618.6423000023233</v>
+        <f t="shared" si="67"/>
+        <v>1925.323366539259</v>
       </c>
     </row>
     <row r="33" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" s="15">
-        <f t="shared" ref="E33:L33" si="67">+E32/E34</f>
-        <v>5.7321882951653897</v>
-      </c>
-      <c r="F33" s="15">
-        <f t="shared" si="67"/>
-        <v>3.796103896103892</v>
-      </c>
-      <c r="G33" s="15">
-        <f t="shared" si="67"/>
-        <v>4.0151017728168128</v>
-      </c>
-      <c r="H33" s="15">
-        <f t="shared" si="67"/>
-        <v>0.83877415056628679</v>
-      </c>
-      <c r="I33" s="15">
-        <f t="shared" si="67"/>
-        <v>3.1426648721399757</v>
-      </c>
-      <c r="J33" s="15">
-        <f t="shared" si="67"/>
-        <v>2.9491525423728775</v>
-      </c>
-      <c r="K33" s="15">
-        <f t="shared" si="67"/>
-        <v>1.1321138211382122</v>
-      </c>
-      <c r="L33" s="15">
-        <f t="shared" si="67"/>
-        <v>5.625854993160055</v>
-      </c>
-      <c r="M33" s="15">
-        <f t="shared" ref="M33:N33" si="68">+M32/M34</f>
-        <v>5.5048342541436455</v>
-      </c>
-      <c r="N33" s="15">
+        <v>70</v>
+      </c>
+      <c r="E33" s="12">
+        <f t="shared" ref="E33:R33" si="68">+E31-E32</f>
+        <v>901.09999999999923</v>
+      </c>
+      <c r="F33" s="12">
         <f t="shared" si="68"/>
-        <v>5.7088397790055243</v>
-      </c>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
-      <c r="AC33" s="17">
-        <f>+AC32/AC34</f>
-        <v>36.577908217716129</v>
-      </c>
-      <c r="AD33" s="17">
-        <f>+AD32/AD34</f>
-        <v>29.895226286422826</v>
-      </c>
-      <c r="AE33" s="17">
-        <f>+AE32/AE34</f>
-        <v>10.956725146198826</v>
-      </c>
-      <c r="AF33" s="17">
-        <f>+AF32/AF34</f>
-        <v>20.724320946177581</v>
-      </c>
-      <c r="AG33" s="17">
-        <f>+AG32/AG34</f>
-        <v>36.638887427905381</v>
-      </c>
-      <c r="AH33" s="17">
-        <f t="shared" ref="AH33:AX33" si="69">+AH32/AH34</f>
-        <v>45.636862162726089</v>
-      </c>
-      <c r="AI33" s="17">
+        <v>584.59999999999934</v>
+      </c>
+      <c r="G33" s="12">
+        <f t="shared" si="68"/>
+        <v>611.50000000000057</v>
+      </c>
+      <c r="H33" s="12">
+        <f t="shared" si="68"/>
+        <v>125.89999999999964</v>
+      </c>
+      <c r="I33" s="12">
+        <f t="shared" si="68"/>
+        <v>467.0000000000004</v>
+      </c>
+      <c r="J33" s="12">
+        <f t="shared" si="68"/>
+        <v>434.99999999999943</v>
+      </c>
+      <c r="K33" s="12">
+        <f t="shared" si="68"/>
+        <v>167.10000000000014</v>
+      </c>
+      <c r="L33" s="12">
+        <f t="shared" si="68"/>
+        <v>822.5</v>
+      </c>
+      <c r="M33" s="12">
+        <f>+M31-M32</f>
+        <v>791.59999999999991</v>
+      </c>
+      <c r="N33" s="12">
+        <f t="shared" si="68"/>
+        <v>571.29999999999939</v>
+      </c>
+      <c r="O33" s="12">
+        <f t="shared" si="68"/>
+        <v>504.50000000000017</v>
+      </c>
+      <c r="P33" s="12">
+        <f t="shared" si="68"/>
+        <v>2161.1120000000001</v>
+      </c>
+      <c r="Q33" s="12">
+        <f t="shared" si="68"/>
+        <v>2362.4880000000003</v>
+      </c>
+      <c r="R33" s="12">
+        <f t="shared" si="68"/>
+        <v>2545.0799999999995</v>
+      </c>
+      <c r="S33" s="12"/>
+      <c r="AC33" s="1">
+        <f>+AC31-AC32</f>
+        <v>6854.7000000000025</v>
+      </c>
+      <c r="AD33" s="1">
+        <f>+AD31-AD32</f>
+        <v>4822.1000000000022</v>
+      </c>
+      <c r="AE33" s="1">
+        <f>+AE31-AE32</f>
+        <v>1639.3999999999994</v>
+      </c>
+      <c r="AF33" s="1">
+        <f>+AF31-AF32</f>
+        <v>3217.3000000000006</v>
+      </c>
+      <c r="AG33" s="1">
+        <f>+AG31-AG32</f>
+        <v>5839.8008639999989</v>
+      </c>
+      <c r="AH33" s="1">
+        <f t="shared" ref="AH33:AX33" si="69">+AH31-AH32</f>
+        <v>7101.412039040003</v>
+      </c>
+      <c r="AI33" s="1">
         <f t="shared" si="69"/>
-        <v>51.040834930055276</v>
-      </c>
-      <c r="AJ33" s="17">
+        <v>7848.0059863840015</v>
+      </c>
+      <c r="AJ33" s="1">
         <f t="shared" si="69"/>
-        <v>56.816815540968648</v>
-      </c>
-      <c r="AK33" s="17">
+        <v>8652.2665923983986</v>
+      </c>
+      <c r="AK33" s="1">
         <f t="shared" si="69"/>
-        <v>55.884162920289988</v>
-      </c>
-      <c r="AL33" s="17">
+        <v>8481.6037316986003</v>
+      </c>
+      <c r="AL33" s="1">
         <f t="shared" si="69"/>
-        <v>55.456995978943404</v>
-      </c>
-      <c r="AM33" s="17">
+        <v>8387.9040871196903</v>
+      </c>
+      <c r="AM33" s="1">
         <f t="shared" si="69"/>
-        <v>55.478914191645515</v>
-      </c>
-      <c r="AN33" s="17">
+        <v>8362.6674175083281</v>
+      </c>
+      <c r="AN33" s="1">
         <f t="shared" si="69"/>
-        <v>54.653612555162482</v>
-      </c>
-      <c r="AO33" s="17">
+        <v>8216.5719288582677</v>
+      </c>
+      <c r="AO33" s="1">
         <f t="shared" si="69"/>
-        <v>52.098608862713974</v>
-      </c>
-      <c r="AP33" s="17">
+        <v>7816.3784395880521</v>
+      </c>
+      <c r="AP33" s="1">
         <f t="shared" si="69"/>
-        <v>51.294122094027358</v>
-      </c>
-      <c r="AQ33" s="17">
+        <v>7676.9807967656288</v>
+      </c>
+      <c r="AQ33" s="1">
         <f t="shared" si="69"/>
-        <v>50.770777736385746</v>
-      </c>
-      <c r="AR33" s="17">
+        <v>7580.7909224447449</v>
+      </c>
+      <c r="AR33" s="1">
         <f t="shared" si="69"/>
-        <v>50.487081943915392</v>
-      </c>
-      <c r="AS33" s="17">
+        <v>7521.5381266390668</v>
+      </c>
+      <c r="AS33" s="1">
         <f t="shared" si="69"/>
-        <v>50.408515734965526</v>
-      </c>
-      <c r="AT33" s="17">
+        <v>7493.9908600020954</v>
+      </c>
+      <c r="AT33" s="1">
         <f t="shared" si="69"/>
-        <v>50.506314097482608</v>
-      </c>
-      <c r="AU33" s="17">
+        <v>7493.7764039121075</v>
+      </c>
+      <c r="AU33" s="1">
         <f t="shared" si="69"/>
-        <v>50.75646785211358</v>
-      </c>
-      <c r="AV33" s="17">
+        <v>7517.2332956345517</v>
+      </c>
+      <c r="AV33" s="1">
         <f t="shared" si="69"/>
-        <v>51.138906462546018</v>
-      </c>
-      <c r="AW33" s="17">
+        <v>7561.2903600008049</v>
+      </c>
+      <c r="AW33" s="1">
         <f t="shared" si="69"/>
-        <v>51.636827983077794</v>
-      </c>
-      <c r="AX33" s="17">
+        <v>7623.3673903870194</v>
+      </c>
+      <c r="AX33" s="1">
         <f t="shared" si="69"/>
-        <v>52.236148783012162</v>
+        <v>7701.2934661570353</v>
       </c>
     </row>
     <row r="34" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E34" s="12">
+        <v>1</v>
+      </c>
+      <c r="E34" s="15">
+        <f t="shared" ref="E34:L34" si="70">+E33/E35</f>
+        <v>5.7321882951653897</v>
+      </c>
+      <c r="F34" s="15">
+        <f t="shared" si="70"/>
+        <v>3.796103896103892</v>
+      </c>
+      <c r="G34" s="15">
+        <f t="shared" si="70"/>
+        <v>4.0151017728168128</v>
+      </c>
+      <c r="H34" s="15">
+        <f t="shared" si="70"/>
+        <v>0.83877415056628679</v>
+      </c>
+      <c r="I34" s="15">
+        <f t="shared" si="70"/>
+        <v>3.1426648721399757</v>
+      </c>
+      <c r="J34" s="15">
+        <f t="shared" si="70"/>
+        <v>2.9491525423728775</v>
+      </c>
+      <c r="K34" s="15">
+        <f t="shared" si="70"/>
+        <v>1.1321138211382122</v>
+      </c>
+      <c r="L34" s="15">
+        <f t="shared" si="70"/>
+        <v>5.625854993160055</v>
+      </c>
+      <c r="M34" s="15">
+        <f t="shared" ref="M34:R34" si="71">+M33/M35</f>
+        <v>5.4668508287292807</v>
+      </c>
+      <c r="N34" s="15">
+        <f t="shared" si="71"/>
+        <v>3.9345730027548171</v>
+      </c>
+      <c r="O34" s="15">
+        <f t="shared" si="71"/>
+        <v>3.4745179063360898</v>
+      </c>
+      <c r="P34" s="15">
+        <f t="shared" si="71"/>
+        <v>14.883691460055099</v>
+      </c>
+      <c r="Q34" s="15">
+        <f t="shared" si="71"/>
+        <v>16.270578512396696</v>
+      </c>
+      <c r="R34" s="15">
+        <f t="shared" si="71"/>
+        <v>17.528099173553716</v>
+      </c>
+      <c r="AC34" s="17">
+        <f>+AC33/AC35</f>
+        <v>36.577908217716129</v>
+      </c>
+      <c r="AD34" s="17">
+        <f>+AD33/AD35</f>
+        <v>29.895226286422826</v>
+      </c>
+      <c r="AE34" s="17">
+        <f>+AE33/AE35</f>
+        <v>10.956725146198826</v>
+      </c>
+      <c r="AF34" s="17">
+        <f>+AF33/AF35</f>
+        <v>22.043850633778696</v>
+      </c>
+      <c r="AG34" s="17">
+        <f>+AG33/AG35</f>
+        <v>40.012338910585811</v>
+      </c>
+      <c r="AH34" s="17">
+        <f t="shared" ref="AH34:AX34" si="72">+AH33/AH35</f>
+        <v>48.656471661802009</v>
+      </c>
+      <c r="AI34" s="17">
+        <f t="shared" si="72"/>
+        <v>53.771880687797207</v>
+      </c>
+      <c r="AJ34" s="17">
+        <f t="shared" si="72"/>
+        <v>59.282402140448092</v>
+      </c>
+      <c r="AK34" s="17">
+        <f t="shared" si="72"/>
+        <v>58.113077983546425</v>
+      </c>
+      <c r="AL34" s="17">
+        <f t="shared" si="72"/>
+        <v>57.471079733605279</v>
+      </c>
+      <c r="AM34" s="17">
+        <f t="shared" si="72"/>
+        <v>57.298166615336271</v>
+      </c>
+      <c r="AN34" s="17">
+        <f t="shared" si="72"/>
+        <v>56.297169776349904</v>
+      </c>
+      <c r="AO34" s="17">
+        <f t="shared" si="72"/>
+        <v>53.555179442192895</v>
+      </c>
+      <c r="AP34" s="17">
+        <f t="shared" si="72"/>
+        <v>52.600073975783687</v>
+      </c>
+      <c r="AQ34" s="17">
+        <f t="shared" si="72"/>
+        <v>51.941013514523782</v>
+      </c>
+      <c r="AR34" s="17">
+        <f t="shared" si="72"/>
+        <v>51.535033413080285</v>
+      </c>
+      <c r="AS34" s="17">
+        <f t="shared" si="72"/>
+        <v>51.346288866064377</v>
+      </c>
+      <c r="AT34" s="17">
+        <f t="shared" si="72"/>
+        <v>51.344819485523182</v>
+      </c>
+      <c r="AU34" s="17">
+        <f t="shared" si="72"/>
+        <v>51.505538168102447</v>
+      </c>
+      <c r="AV34" s="17">
+        <f t="shared" si="72"/>
+        <v>51.807402261053824</v>
+      </c>
+      <c r="AW34" s="17">
+        <f t="shared" si="72"/>
+        <v>52.232733061918601</v>
+      </c>
+      <c r="AX34" s="17">
+        <f t="shared" si="72"/>
+        <v>52.766656157293838</v>
+      </c>
+    </row>
+    <row r="35" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="12">
         <v>157.19999999999999</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F35" s="12">
         <v>154</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G35" s="12">
         <v>152.30000000000001</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H35" s="12">
         <v>150.1</v>
       </c>
-      <c r="I34" s="12">
+      <c r="I35" s="12">
         <v>148.6</v>
       </c>
-      <c r="J34" s="12">
+      <c r="J35" s="12">
         <v>147.5</v>
       </c>
-      <c r="K34" s="12">
+      <c r="K35" s="12">
         <v>147.6</v>
       </c>
-      <c r="L34" s="12">
+      <c r="L35" s="12">
         <v>146.19999999999999</v>
       </c>
-      <c r="M34" s="12">
+      <c r="M35" s="12">
         <v>144.80000000000001</v>
       </c>
-      <c r="N34" s="12">
-        <f>+M34</f>
-        <v>144.80000000000001</v>
-      </c>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="AC34" s="1">
+      <c r="N35" s="12">
+        <v>145.19999999999999</v>
+      </c>
+      <c r="O35" s="12">
+        <v>145.19999999999999</v>
+      </c>
+      <c r="P35" s="12">
+        <f>+O35</f>
+        <v>145.19999999999999</v>
+      </c>
+      <c r="Q35" s="12">
+        <f>+P35</f>
+        <v>145.19999999999999</v>
+      </c>
+      <c r="R35" s="12">
+        <f>+Q35</f>
+        <v>145.19999999999999</v>
+      </c>
+      <c r="AC35" s="1">
         <v>187.4</v>
       </c>
-      <c r="AD34" s="1">
+      <c r="AD35" s="1">
         <v>161.30000000000001</v>
       </c>
-      <c r="AE34" s="1">
-        <f>AVERAGE(G34:J34)</f>
+      <c r="AE35" s="1">
+        <f>AVERAGE(G35:J35)</f>
         <v>149.625</v>
       </c>
-      <c r="AF34" s="1">
-        <f>AVERAGE(K34:N34)</f>
-        <v>145.85</v>
-      </c>
-      <c r="AG34" s="1">
-        <f>+AF34</f>
-        <v>145.85</v>
-      </c>
-      <c r="AH34" s="1">
-        <f t="shared" ref="AH34:AX34" si="70">+AG34</f>
-        <v>145.85</v>
-      </c>
-      <c r="AI34" s="1">
-        <f t="shared" si="70"/>
-        <v>145.85</v>
-      </c>
-      <c r="AJ34" s="1">
-        <f t="shared" si="70"/>
-        <v>145.85</v>
-      </c>
-      <c r="AK34" s="1">
-        <f t="shared" si="70"/>
-        <v>145.85</v>
-      </c>
-      <c r="AL34" s="1">
-        <f t="shared" si="70"/>
-        <v>145.85</v>
-      </c>
-      <c r="AM34" s="1">
-        <f t="shared" si="70"/>
-        <v>145.85</v>
-      </c>
-      <c r="AN34" s="1">
-        <f t="shared" si="70"/>
-        <v>145.85</v>
-      </c>
-      <c r="AO34" s="1">
-        <f t="shared" si="70"/>
-        <v>145.85</v>
-      </c>
-      <c r="AP34" s="1">
-        <f t="shared" si="70"/>
-        <v>145.85</v>
-      </c>
-      <c r="AQ34" s="1">
-        <f t="shared" si="70"/>
-        <v>145.85</v>
-      </c>
-      <c r="AR34" s="1">
-        <f t="shared" si="70"/>
-        <v>145.85</v>
-      </c>
-      <c r="AS34" s="1">
-        <f t="shared" si="70"/>
-        <v>145.85</v>
-      </c>
-      <c r="AT34" s="1">
-        <f t="shared" si="70"/>
-        <v>145.85</v>
-      </c>
-      <c r="AU34" s="1">
-        <f t="shared" si="70"/>
-        <v>145.85</v>
-      </c>
-      <c r="AV34" s="1">
-        <f t="shared" si="70"/>
-        <v>145.85</v>
-      </c>
-      <c r="AW34" s="1">
-        <f t="shared" si="70"/>
-        <v>145.85</v>
-      </c>
-      <c r="AX34" s="1">
-        <f t="shared" si="70"/>
-        <v>145.85</v>
-      </c>
-    </row>
-    <row r="35" spans="2:53" x14ac:dyDescent="0.2">
-      <c r="AZ35" t="s">
-        <v>82</v>
-      </c>
-      <c r="BA35" s="18">
-        <v>-0.01</v>
+      <c r="AF35" s="1">
+        <f>AVERAGE(K35:N35)</f>
+        <v>145.94999999999999</v>
+      </c>
+      <c r="AG35" s="1">
+        <f>+AF35</f>
+        <v>145.94999999999999</v>
+      </c>
+      <c r="AH35" s="1">
+        <f t="shared" ref="AH35:AX35" si="73">+AG35</f>
+        <v>145.94999999999999</v>
+      </c>
+      <c r="AI35" s="1">
+        <f t="shared" si="73"/>
+        <v>145.94999999999999</v>
+      </c>
+      <c r="AJ35" s="1">
+        <f t="shared" si="73"/>
+        <v>145.94999999999999</v>
+      </c>
+      <c r="AK35" s="1">
+        <f t="shared" si="73"/>
+        <v>145.94999999999999</v>
+      </c>
+      <c r="AL35" s="1">
+        <f t="shared" si="73"/>
+        <v>145.94999999999999</v>
+      </c>
+      <c r="AM35" s="1">
+        <f t="shared" si="73"/>
+        <v>145.94999999999999</v>
+      </c>
+      <c r="AN35" s="1">
+        <f t="shared" si="73"/>
+        <v>145.94999999999999</v>
+      </c>
+      <c r="AO35" s="1">
+        <f t="shared" si="73"/>
+        <v>145.94999999999999</v>
+      </c>
+      <c r="AP35" s="1">
+        <f t="shared" si="73"/>
+        <v>145.94999999999999</v>
+      </c>
+      <c r="AQ35" s="1">
+        <f t="shared" si="73"/>
+        <v>145.94999999999999</v>
+      </c>
+      <c r="AR35" s="1">
+        <f t="shared" si="73"/>
+        <v>145.94999999999999</v>
+      </c>
+      <c r="AS35" s="1">
+        <f t="shared" si="73"/>
+        <v>145.94999999999999</v>
+      </c>
+      <c r="AT35" s="1">
+        <f t="shared" si="73"/>
+        <v>145.94999999999999</v>
+      </c>
+      <c r="AU35" s="1">
+        <f t="shared" si="73"/>
+        <v>145.94999999999999</v>
+      </c>
+      <c r="AV35" s="1">
+        <f t="shared" si="73"/>
+        <v>145.94999999999999</v>
+      </c>
+      <c r="AW35" s="1">
+        <f t="shared" si="73"/>
+        <v>145.94999999999999</v>
+      </c>
+      <c r="AX35" s="1">
+        <f t="shared" si="73"/>
+        <v>145.94999999999999</v>
       </c>
     </row>
     <row r="36" spans="2:53" x14ac:dyDescent="0.2">
       <c r="AZ36" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="BA36" s="18">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="37" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="AZ37" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA37" s="18">
         <v>0.08</v>
       </c>
     </row>
-    <row r="37" spans="2:53" x14ac:dyDescent="0.2">
-      <c r="B37" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I37" s="16">
-        <f>+I22/E22-1</f>
+    <row r="38" spans="2:53" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="22">
+        <f>+I23/E23-1</f>
         <v>-0.1768904949497937</v>
       </c>
-      <c r="J37" s="16">
-        <f>+J22/F22-1</f>
+      <c r="J38" s="22">
+        <f>+J23/F23-1</f>
         <v>-4.1541050269929158E-2</v>
       </c>
-      <c r="K37" s="16">
-        <f>+K22/G22-1</f>
+      <c r="K38" s="22">
+        <f>+K23/G23-1</f>
         <v>-6.0207869339272579E-2</v>
       </c>
-      <c r="L37" s="16">
-        <f>+L22/H22-1</f>
+      <c r="L38" s="22">
+        <f>+L23/H23-1</f>
         <v>-6.6990990990990817E-2</v>
       </c>
-      <c r="M37" s="16">
-        <f>+M22/I22-1</f>
+      <c r="M38" s="22">
+        <f>+M23/I23-1</f>
         <v>-9.7304688905682335E-2</v>
       </c>
-      <c r="AD37" s="18">
-        <f>+AD22/AC22-1</f>
+      <c r="N38" s="22">
+        <f>+N23/J23-1</f>
+        <v>-6.9529278373139269E-2</v>
+      </c>
+      <c r="O38" s="22">
+        <f>+O23/K23-1</f>
+        <v>-2.7174342365115844E-2</v>
+      </c>
+      <c r="P38" s="22">
+        <f t="shared" ref="P38:R38" si="74">+P23/L23-1</f>
+        <v>4.3370283109960939E-2</v>
+      </c>
+      <c r="Q38" s="22">
+        <f t="shared" si="74"/>
+        <v>0.17724137931034489</v>
+      </c>
+      <c r="R38" s="22">
+        <f t="shared" si="74"/>
+        <v>0.25053066037735849</v>
+      </c>
+      <c r="AD38" s="24">
+        <f>+AD23/AC23-1</f>
         <v>-6.4912122076241974E-2</v>
       </c>
-      <c r="AE37" s="18">
-        <f t="shared" ref="AE37:AX37" si="71">+AE22/AD22-1</f>
+      <c r="AE38" s="24">
+        <f t="shared" ref="AE38:AX38" si="75">+AE23/AD23-1</f>
         <v>-0.18316647575978484</v>
       </c>
-      <c r="AF37" s="18">
-        <f t="shared" si="71"/>
-        <v>-7.3543890001820933E-2</v>
-      </c>
-      <c r="AG37" s="18">
-        <f t="shared" si="71"/>
-        <v>7.211619995830687E-2</v>
-      </c>
-      <c r="AH37" s="18">
-        <f t="shared" si="71"/>
-        <v>0.17073929907900065</v>
-      </c>
-      <c r="AI37" s="18">
-        <f t="shared" si="71"/>
-        <v>8.3808661283221397E-2</v>
-      </c>
-      <c r="AJ37" s="18">
-        <f t="shared" si="71"/>
-        <v>8.3777635212692436E-2</v>
-      </c>
-      <c r="AK37" s="18">
-        <f t="shared" si="71"/>
-        <v>-2.1717184300007353E-2</v>
-      </c>
-      <c r="AL37" s="18">
-        <f t="shared" si="71"/>
-        <v>-1.4137311767652649E-2</v>
-      </c>
-      <c r="AM37" s="18">
-        <f t="shared" si="71"/>
-        <v>-7.0496847156161779E-3</v>
-      </c>
-      <c r="AN37" s="18">
-        <f t="shared" si="71"/>
-        <v>-1.9840398749931043E-2</v>
-      </c>
-      <c r="AO37" s="18">
-        <f t="shared" si="71"/>
-        <v>-4.7194389808021708E-2</v>
-      </c>
-      <c r="AP37" s="18">
-        <f t="shared" si="71"/>
-        <v>-2.0161876330179518E-2</v>
-      </c>
-      <c r="AQ37" s="18">
-        <f t="shared" si="71"/>
-        <v>-1.5473098201828184E-2</v>
-      </c>
-      <c r="AR37" s="18">
-        <f t="shared" si="71"/>
-        <v>-1.1262964988541624E-2</v>
-      </c>
-      <c r="AS37" s="18">
-        <f t="shared" si="71"/>
-        <v>-7.5040015091756285E-3</v>
-      </c>
-      <c r="AT37" s="18">
-        <f t="shared" si="71"/>
-        <v>-4.1639369942909621E-3</v>
-      </c>
-      <c r="AU37" s="18">
-        <f t="shared" si="71"/>
-        <v>-1.2079476153584734E-3</v>
-      </c>
-      <c r="AV37" s="18">
-        <f t="shared" si="71"/>
-        <v>1.3995567166307232E-3</v>
-      </c>
-      <c r="AW37" s="18">
-        <f t="shared" si="71"/>
-        <v>3.6935904528492269E-3</v>
-      </c>
-      <c r="AX37" s="18">
-        <f t="shared" si="71"/>
-        <v>5.7076480940847496E-3</v>
-      </c>
-      <c r="AZ37" t="s">
-        <v>84</v>
-      </c>
-      <c r="BA37" s="1">
-        <f>NPV(BA36,AG32:AX32)+Main!J5-Main!J6</f>
-        <v>70462.859365994213</v>
-      </c>
-    </row>
-    <row r="38" spans="2:53" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E38" s="16">
-        <f>+E24/E22</f>
+      <c r="AF38" s="24">
+        <f t="shared" si="75"/>
+        <v>5.1174649426337648E-3</v>
+      </c>
+      <c r="AG38" s="24">
+        <f t="shared" si="75"/>
+        <v>5.8759036799477693E-2</v>
+      </c>
+      <c r="AH38" s="24">
+        <f t="shared" si="75"/>
+        <v>0.15264706813519657</v>
+      </c>
+      <c r="AI38" s="24">
+        <f t="shared" si="75"/>
+        <v>7.4667656634892721E-2</v>
+      </c>
+      <c r="AJ38" s="24">
+        <f t="shared" si="75"/>
+        <v>7.6008936513532577E-2</v>
+      </c>
+      <c r="AK38" s="24">
+        <f t="shared" si="75"/>
+        <v>-2.4364986809666034E-2</v>
+      </c>
+      <c r="AL38" s="24">
+        <f t="shared" si="75"/>
+        <v>-1.6860843604424858E-2</v>
+      </c>
+      <c r="AM38" s="24">
+        <f t="shared" si="75"/>
+        <v>-9.7854763612542639E-3</v>
+      </c>
+      <c r="AN38" s="24">
+        <f t="shared" si="75"/>
+        <v>-2.1970710629986789E-2</v>
+      </c>
+      <c r="AO38" s="24">
+        <f t="shared" si="75"/>
+        <v>-4.8879601002073669E-2</v>
+      </c>
+      <c r="AP38" s="24">
+        <f t="shared" si="75"/>
+        <v>-2.2151784158279675E-2</v>
+      </c>
+      <c r="AQ38" s="24">
+        <f t="shared" si="75"/>
+        <v>-1.7416171345991494E-2</v>
+      </c>
+      <c r="AR38" s="24">
+        <f t="shared" si="75"/>
+        <v>-1.3134956516251184E-2</v>
+      </c>
+      <c r="AS38" s="24">
+        <f t="shared" si="75"/>
+        <v>-9.2867064700956625E-3</v>
+      </c>
+      <c r="AT38" s="24">
+        <f t="shared" si="75"/>
+        <v>-5.8446780102736628E-3</v>
+      </c>
+      <c r="AU38" s="24">
+        <f t="shared" si="75"/>
+        <v>-2.7788750040038668E-3</v>
+      </c>
+      <c r="AV38" s="24">
+        <f t="shared" si="75"/>
+        <v>-5.7754835488421641E-5</v>
+      </c>
+      <c r="AW38" s="24">
+        <f t="shared" si="75"/>
+        <v>2.3504316692777305E-3</v>
+      </c>
+      <c r="AX38" s="24">
+        <f t="shared" si="75"/>
+        <v>4.4766454179394621E-3</v>
+      </c>
+      <c r="AZ38" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="BA38" s="13">
+        <f>NPV(BA37,AG33:AX33)+Main!J5-Main!J6</f>
+        <v>73154.666167274831</v>
+      </c>
+    </row>
+    <row r="39" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16">
+        <f>+J18/F18-1</f>
+        <v>-4.6836982968369689E-2</v>
+      </c>
+      <c r="K39" s="16">
+        <f>+K18/G18-1</f>
+        <v>-6.5741284984401127E-2</v>
+      </c>
+      <c r="L39" s="16">
+        <f>+L18/H18-1</f>
+        <v>-8.103756708407861E-2</v>
+      </c>
+      <c r="M39" s="16">
+        <f>+M18/I18-1</f>
+        <v>-0.11044112980006349</v>
+      </c>
+      <c r="N39" s="16">
+        <f>+N18/J18-1</f>
+        <v>-0.1318716382532592</v>
+      </c>
+      <c r="O39" s="16">
+        <f>+O18/K18-1</f>
+        <v>-0.15578570391521074</v>
+      </c>
+      <c r="P39" s="16">
+        <f t="shared" ref="P39:R39" si="76">+P18/L18-1</f>
+        <v>-0.12021121277009916</v>
+      </c>
+      <c r="Q39" s="16">
+        <f t="shared" si="76"/>
+        <v>3.3591560063197523E-2</v>
+      </c>
+      <c r="R39" s="16">
+        <f t="shared" si="76"/>
+        <v>0.15208716198477279</v>
+      </c>
+      <c r="AD39" s="18"/>
+      <c r="AE39" s="18"/>
+      <c r="AF39" s="18"/>
+      <c r="AG39" s="18"/>
+      <c r="AH39" s="18"/>
+      <c r="AI39" s="18"/>
+      <c r="AJ39" s="18"/>
+      <c r="AK39" s="18"/>
+      <c r="AL39" s="18"/>
+      <c r="AM39" s="18"/>
+      <c r="AN39" s="18"/>
+      <c r="AO39" s="18"/>
+      <c r="AP39" s="18"/>
+      <c r="AQ39" s="18"/>
+      <c r="AR39" s="18"/>
+      <c r="AS39" s="18"/>
+      <c r="AT39" s="18"/>
+      <c r="AU39" s="18"/>
+      <c r="AV39" s="18"/>
+      <c r="AW39" s="18"/>
+      <c r="AX39" s="18"/>
+      <c r="BA39" s="1"/>
+    </row>
+    <row r="40" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" s="16">
+        <f>+E25/E23</f>
         <v>0.86697668907911496</v>
       </c>
-      <c r="F38" s="16">
-        <f>+F24/F22</f>
+      <c r="F40" s="16">
+        <f>+F25/F23</f>
         <v>0.82801654630863075</v>
       </c>
-      <c r="G38" s="16">
-        <f>+G24/G22</f>
+      <c r="G40" s="16">
+        <f>+G25/G23</f>
         <v>0.82253155159613967</v>
       </c>
-      <c r="H38" s="16">
-        <f t="shared" ref="H38" si="72">+H24/H22</f>
+      <c r="H40" s="16">
+        <f t="shared" ref="H40" si="77">+H25/H23</f>
         <v>0.83434234234234239</v>
       </c>
-      <c r="I38" s="16">
-        <f t="shared" ref="I38:J38" si="73">+I24/I22</f>
+      <c r="I40" s="16">
+        <f t="shared" ref="I40:J40" si="78">+I25/I23</f>
         <v>0.8158264061319227</v>
       </c>
-      <c r="J38" s="16">
-        <f t="shared" si="73"/>
+      <c r="J40" s="16">
+        <f t="shared" si="78"/>
         <v>0.7585677188105775</v>
       </c>
-      <c r="K38" s="16">
-        <f t="shared" ref="K38:N38" si="74">+K24/K22</f>
+      <c r="K40" s="16">
+        <f t="shared" ref="K40:O40" si="79">+K25/K23</f>
         <v>0.70222766411248916</v>
       </c>
-      <c r="L38" s="16">
-        <f t="shared" si="74"/>
+      <c r="L40" s="16">
+        <f t="shared" si="79"/>
         <v>0.8130624541346414</v>
       </c>
-      <c r="M38" s="16">
-        <f t="shared" si="74"/>
+      <c r="M40" s="16">
+        <f t="shared" si="79"/>
         <v>0.81283635638827989</v>
       </c>
-      <c r="N38" s="16">
-        <f t="shared" si="74"/>
-        <v>0.81000000000000016</v>
-      </c>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="AC38" s="18">
-        <f t="shared" ref="AC38:AE38" si="75">+AC24/AC22</f>
+      <c r="N40" s="16">
+        <f t="shared" si="79"/>
+        <v>0.77558962264150932</v>
+      </c>
+      <c r="O40" s="16">
+        <f t="shared" si="79"/>
+        <v>0.73089727974015428</v>
+      </c>
+      <c r="P40" s="16">
+        <f t="shared" ref="P40:R40" si="80">+P25/P23</f>
+        <v>1</v>
+      </c>
+      <c r="Q40" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="R40" s="16">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="AC40" s="18">
+        <f t="shared" ref="AC40:AD40" si="81">+AC25/AC23</f>
         <v>0.86399961051335739</v>
       </c>
-      <c r="AD38" s="18">
-        <f t="shared" si="75"/>
+      <c r="AD40" s="18">
+        <f t="shared" si="81"/>
         <v>0.86573047915148083</v>
       </c>
-      <c r="AE38" s="18">
-        <f>+AE24/AE22</f>
+      <c r="AE40" s="18">
+        <f>+AE25/AE23</f>
         <v>0.80789473684210533</v>
       </c>
-      <c r="AF38" s="18">
-        <f t="shared" ref="AF38:AX38" si="76">+AF24/AF22</f>
-        <v>0.78466037358095231</v>
-      </c>
-      <c r="AG38" s="18">
-        <f t="shared" si="76"/>
+      <c r="AF40" s="18">
+        <f t="shared" ref="AF40:AX40" si="82">+AF25/AF23</f>
+        <v>0.79359859397365506</v>
+      </c>
+      <c r="AG40" s="18">
+        <f t="shared" si="82"/>
         <v>0.82</v>
       </c>
-      <c r="AH38" s="18">
-        <f t="shared" si="76"/>
+      <c r="AH40" s="18">
+        <f t="shared" si="82"/>
+        <v>0.82000000000000006</v>
+      </c>
+      <c r="AI40" s="18">
+        <f t="shared" si="82"/>
+        <v>0.81999999999999984</v>
+      </c>
+      <c r="AJ40" s="18">
+        <f t="shared" si="82"/>
         <v>0.82</v>
       </c>
-      <c r="AI38" s="18">
-        <f t="shared" si="76"/>
+      <c r="AK40" s="18">
+        <f t="shared" si="82"/>
         <v>0.82</v>
       </c>
-      <c r="AJ38" s="18">
-        <f t="shared" si="76"/>
+      <c r="AL40" s="18">
+        <f t="shared" si="82"/>
+        <v>0.82000000000000006</v>
+      </c>
+      <c r="AM40" s="18">
+        <f t="shared" si="82"/>
         <v>0.82</v>
       </c>
-      <c r="AK38" s="18">
-        <f t="shared" si="76"/>
+      <c r="AN40" s="18">
+        <f t="shared" si="82"/>
         <v>0.82</v>
       </c>
-      <c r="AL38" s="18">
-        <f t="shared" si="76"/>
+      <c r="AO40" s="18">
+        <f t="shared" si="82"/>
         <v>0.82</v>
       </c>
-      <c r="AM38" s="18">
-        <f t="shared" si="76"/>
+      <c r="AP40" s="18">
+        <f t="shared" si="82"/>
         <v>0.82</v>
       </c>
-      <c r="AN38" s="18">
-        <f t="shared" si="76"/>
+      <c r="AQ40" s="18">
+        <f t="shared" si="82"/>
         <v>0.82</v>
       </c>
-      <c r="AO38" s="18">
-        <f t="shared" si="76"/>
-        <v>0.81999999999999984</v>
-      </c>
-      <c r="AP38" s="18">
-        <f t="shared" si="76"/>
+      <c r="AR40" s="18">
+        <f t="shared" si="82"/>
         <v>0.82</v>
       </c>
-      <c r="AQ38" s="18">
-        <f t="shared" si="76"/>
+      <c r="AS40" s="18">
+        <f t="shared" si="82"/>
         <v>0.82</v>
       </c>
-      <c r="AR38" s="18">
-        <f t="shared" si="76"/>
+      <c r="AT40" s="18">
+        <f t="shared" si="82"/>
         <v>0.82</v>
       </c>
-      <c r="AS38" s="18">
-        <f t="shared" si="76"/>
+      <c r="AU40" s="18">
+        <f t="shared" si="82"/>
+        <v>0.82000000000000006</v>
+      </c>
+      <c r="AV40" s="18">
+        <f t="shared" si="82"/>
         <v>0.82</v>
       </c>
-      <c r="AT38" s="18">
-        <f t="shared" si="76"/>
-        <v>0.82000000000000006</v>
-      </c>
-      <c r="AU38" s="18">
-        <f t="shared" si="76"/>
-        <v>0.82000000000000006</v>
-      </c>
-      <c r="AV38" s="18">
-        <f t="shared" si="76"/>
+      <c r="AW40" s="18">
+        <f t="shared" si="82"/>
         <v>0.82</v>
       </c>
-      <c r="AW38" s="18">
-        <f t="shared" si="76"/>
+      <c r="AX40" s="18">
+        <f t="shared" si="82"/>
         <v>0.82</v>
       </c>
-      <c r="AX38" s="18">
-        <f t="shared" si="76"/>
-        <v>0.82</v>
-      </c>
-      <c r="AZ38" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA38" s="17">
-        <f>BA37/Main!J3</f>
-        <v>485.95075424823597</v>
-      </c>
-    </row>
-    <row r="40" spans="2:53" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>118</v>
-      </c>
-      <c r="M40" s="12">
-        <f>M41-M55</f>
+      <c r="AZ40" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA40" s="17">
+        <f>BA38/Main!J3</f>
+        <v>504.51493908465403</v>
+      </c>
+    </row>
+    <row r="42" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>112</v>
+      </c>
+      <c r="L42" s="12">
+        <f>L43-L57</f>
+        <v>124.39999999999964</v>
+      </c>
+      <c r="M42" s="12">
+        <f>M43-M57</f>
         <v>1104.8000000000002</v>
       </c>
-    </row>
-    <row r="41" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12">
-        <f>3675.6+1235.5+860.3+1612.6</f>
-        <v>7384</v>
-      </c>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
-    </row>
-    <row r="42" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12">
-        <v>1568.8</v>
-      </c>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="12"/>
+      <c r="N42" s="12">
+        <f>N43-N57</f>
+        <v>846.69999999999982</v>
+      </c>
+      <c r="O42" s="12">
+        <f>O43-O57</f>
+        <v>1117.5999999999995</v>
+      </c>
     </row>
     <row r="43" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
@@ -5907,18 +6405,28 @@
       <c r="I43" s="12"/>
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
+      <c r="L43" s="12">
+        <f>4797.9+1102.9+1500.8</f>
+        <v>7401.5999999999995</v>
+      </c>
       <c r="M43" s="12">
-        <v>415.4</v>
-      </c>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
+        <f>3675.6+1235.5+860.3+1612.6</f>
+        <v>7384</v>
+      </c>
+      <c r="N43" s="12">
+        <f>3419.3+1473.5+705.7+1529.2</f>
+        <v>7127.7</v>
+      </c>
+      <c r="O43" s="12">
+        <f>2898.2+2143.1+978.2+1380.8</f>
+        <v>7400.2999999999993</v>
+      </c>
       <c r="P43" s="12"/>
       <c r="Q43" s="12"/>
     </row>
     <row r="44" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
@@ -5929,18 +6437,24 @@
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
+      <c r="L44" s="12">
+        <v>1567.6</v>
+      </c>
       <c r="M44" s="12">
-        <v>1375</v>
-      </c>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
+        <v>1568.8</v>
+      </c>
+      <c r="N44" s="12">
+        <v>1705</v>
+      </c>
+      <c r="O44" s="12">
+        <v>1634.4</v>
+      </c>
       <c r="P44" s="12"/>
       <c r="Q44" s="12"/>
     </row>
     <row r="45" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
@@ -5953,16 +6467,20 @@
       <c r="K45" s="12"/>
       <c r="L45" s="12"/>
       <c r="M45" s="12">
-        <v>1495.5</v>
-      </c>
-      <c r="N45" s="12"/>
-      <c r="O45" s="12"/>
+        <v>415.4</v>
+      </c>
+      <c r="N45" s="12">
+        <v>431.4</v>
+      </c>
+      <c r="O45" s="12">
+        <v>393.8</v>
+      </c>
       <c r="P45" s="12"/>
       <c r="Q45" s="12"/>
     </row>
     <row r="46" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
@@ -5973,18 +6491,24 @@
       <c r="I46" s="12"/>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
+      <c r="L46" s="12">
+        <v>1294.2</v>
+      </c>
       <c r="M46" s="12">
-        <v>3266.4</v>
-      </c>
-      <c r="N46" s="12"/>
-      <c r="O46" s="12"/>
+        <v>1375</v>
+      </c>
+      <c r="N46" s="12">
+        <v>1344.4</v>
+      </c>
+      <c r="O46" s="12">
+        <v>1281</v>
+      </c>
       <c r="P46" s="12"/>
       <c r="Q46" s="12"/>
     </row>
     <row r="47" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
@@ -5995,18 +6519,24 @@
       <c r="I47" s="12"/>
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
+      <c r="L47" s="12">
+        <v>2081.1999999999998</v>
+      </c>
       <c r="M47" s="12">
-        <v>424.5</v>
-      </c>
-      <c r="N47" s="12"/>
-      <c r="O47" s="12"/>
+        <v>1495.5</v>
+      </c>
+      <c r="N47" s="12">
+        <v>1417.6</v>
+      </c>
+      <c r="O47" s="12">
+        <v>1412</v>
+      </c>
       <c r="P47" s="12"/>
       <c r="Q47" s="12"/>
     </row>
     <row r="48" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
@@ -6017,19 +6547,24 @@
       <c r="I48" s="12"/>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
+      <c r="L48" s="12">
+        <v>3355.1</v>
+      </c>
       <c r="M48" s="12">
-        <f>5741.2+2008.9</f>
-        <v>7750.1</v>
-      </c>
-      <c r="N48" s="12"/>
-      <c r="O48" s="12"/>
+        <v>3266.4</v>
+      </c>
+      <c r="N48" s="12">
+        <v>3298.6</v>
+      </c>
+      <c r="O48" s="12">
+        <v>3300.9</v>
+      </c>
       <c r="P48" s="12"/>
       <c r="Q48" s="12"/>
     </row>
     <row r="49" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
@@ -6040,72 +6575,105 @@
       <c r="I49" s="12"/>
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
+      <c r="L49" s="12">
+        <v>321.10000000000002</v>
+      </c>
       <c r="M49" s="12">
-        <v>1174.5</v>
-      </c>
-      <c r="N49" s="12"/>
-      <c r="O49" s="12"/>
+        <v>424.5</v>
+      </c>
+      <c r="N49" s="12">
+        <v>403.9</v>
+      </c>
+      <c r="O49" s="12">
+        <v>399.1</v>
+      </c>
       <c r="P49" s="12"/>
       <c r="Q49" s="12"/>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12">
+        <f>2075.3+5749.6</f>
+        <v>7824.9000000000005</v>
       </c>
       <c r="M50" s="12">
-        <f>SUM(M41:M49)</f>
+        <f>5741.2+2008.9</f>
+        <v>7750.1</v>
+      </c>
+      <c r="N50" s="12">
+        <f>1850.1+5749</f>
+        <v>7599.1</v>
+      </c>
+      <c r="O50" s="12">
+        <f>1813.3+5751.8</f>
+        <v>7565.1</v>
+      </c>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+    </row>
+    <row r="51" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12">
+        <v>1235.7</v>
+      </c>
+      <c r="M51" s="12">
+        <v>1174.5</v>
+      </c>
+      <c r="N51" s="12">
+        <v>1226.4000000000001</v>
+      </c>
+      <c r="O51" s="12">
+        <v>1211.8</v>
+      </c>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="12"/>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L52" s="12">
+        <f>SUM(L43:L51)</f>
+        <v>25081.4</v>
+      </c>
+      <c r="M52" s="12">
+        <f>SUM(M43:M51)</f>
         <v>24854.199999999997</v>
       </c>
-    </row>
-    <row r="52" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12">
-        <f>237.3+328.9</f>
-        <v>566.20000000000005</v>
-      </c>
-      <c r="N52" s="12"/>
-      <c r="O52" s="12"/>
-      <c r="P52" s="12"/>
-      <c r="Q52" s="12"/>
-    </row>
-    <row r="53" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12">
-        <v>383.2</v>
-      </c>
-      <c r="N53" s="12"/>
-      <c r="O53" s="12"/>
-      <c r="P53" s="12"/>
-      <c r="Q53" s="12"/>
+      <c r="N52" s="12">
+        <f>SUM(N43:N51)</f>
+        <v>24554.100000000002</v>
+      </c>
+      <c r="O52" s="12">
+        <f>SUM(O43:O51)</f>
+        <v>24598.399999999998</v>
+      </c>
     </row>
     <row r="54" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
@@ -6118,16 +6686,21 @@
       <c r="K54" s="12"/>
       <c r="L54" s="12"/>
       <c r="M54" s="12">
-        <v>3305.9</v>
-      </c>
-      <c r="N54" s="12"/>
-      <c r="O54" s="12"/>
+        <f>237.3+328.9</f>
+        <v>566.20000000000005</v>
+      </c>
+      <c r="N54" s="12">
+        <v>259.89999999999998</v>
+      </c>
+      <c r="O54" s="12">
+        <v>235.5</v>
+      </c>
       <c r="P54" s="12"/>
       <c r="Q54" s="12"/>
     </row>
     <row r="55" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
@@ -6140,16 +6713,20 @@
       <c r="K55" s="12"/>
       <c r="L55" s="12"/>
       <c r="M55" s="12">
-        <v>6279.2</v>
-      </c>
-      <c r="N55" s="12"/>
-      <c r="O55" s="12"/>
+        <v>383.2</v>
+      </c>
+      <c r="N55" s="12">
+        <v>491.5</v>
+      </c>
+      <c r="O55" s="12">
+        <v>491.2</v>
+      </c>
       <c r="P55" s="12"/>
       <c r="Q55" s="12"/>
     </row>
     <row r="56" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
@@ -6160,18 +6737,24 @@
       <c r="I56" s="12"/>
       <c r="J56" s="12"/>
       <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
+      <c r="L56" s="12">
+        <v>4018.2</v>
+      </c>
       <c r="M56" s="12">
-        <v>354.8</v>
-      </c>
-      <c r="N56" s="12"/>
-      <c r="O56" s="12"/>
+        <v>3305.9</v>
+      </c>
+      <c r="N56" s="12">
+        <v>2521.4</v>
+      </c>
+      <c r="O56" s="12">
+        <v>2288.1999999999998</v>
+      </c>
       <c r="P56" s="12"/>
       <c r="Q56" s="12"/>
     </row>
     <row r="57" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
-        <v>112</v>
+        <v>4</v>
       </c>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
@@ -6182,18 +6765,25 @@
       <c r="I57" s="12"/>
       <c r="J57" s="12"/>
       <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
+      <c r="L57" s="12">
+        <f>999.8+6277.4</f>
+        <v>7277.2</v>
+      </c>
       <c r="M57" s="12">
-        <v>1198.0999999999999</v>
-      </c>
-      <c r="N57" s="12"/>
-      <c r="O57" s="12"/>
+        <v>6279.2</v>
+      </c>
+      <c r="N57" s="12">
+        <v>6281</v>
+      </c>
+      <c r="O57" s="12">
+        <v>6282.7</v>
+      </c>
       <c r="P57" s="12"/>
       <c r="Q57" s="12"/>
     </row>
     <row r="58" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
@@ -6204,12 +6794,18 @@
       <c r="I58" s="12"/>
       <c r="J58" s="12"/>
       <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
+      <c r="L58" s="12">
+        <v>480.6</v>
+      </c>
       <c r="M58" s="12">
-        <v>12766.8</v>
-      </c>
-      <c r="N58" s="12"/>
-      <c r="O58" s="12"/>
+        <v>354.8</v>
+      </c>
+      <c r="N58" s="12">
+        <v>334.7</v>
+      </c>
+      <c r="O58" s="12">
+        <v>251.3</v>
+      </c>
       <c r="P58" s="12"/>
       <c r="Q58" s="12"/>
     </row>
@@ -6226,15 +6822,106 @@
       <c r="I59" s="12"/>
       <c r="J59" s="12"/>
       <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
+      <c r="L59" s="12">
+        <v>274.2</v>
+      </c>
       <c r="M59" s="12">
-        <f>SUM(M52:M58)</f>
-        <v>24854.199999999997</v>
-      </c>
-      <c r="N59" s="12"/>
-      <c r="O59" s="12"/>
+        <v>1198.0999999999999</v>
+      </c>
+      <c r="N59" s="12">
+        <v>333</v>
+      </c>
+      <c r="O59" s="12">
+        <v>327</v>
+      </c>
       <c r="P59" s="12"/>
       <c r="Q59" s="12"/>
+    </row>
+    <row r="60" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12">
+        <v>1167.8</v>
+      </c>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12">
+        <v>944.2</v>
+      </c>
+      <c r="O60" s="12">
+        <v>935.5</v>
+      </c>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12"/>
+    </row>
+    <row r="61" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12">
+        <v>11863.4</v>
+      </c>
+      <c r="M61" s="12">
+        <v>12766.8</v>
+      </c>
+      <c r="N61" s="12">
+        <v>13388.4</v>
+      </c>
+      <c r="O61" s="12">
+        <v>13787</v>
+      </c>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="12"/>
+    </row>
+    <row r="62" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12">
+        <f>SUM(L54:L61)</f>
+        <v>25081.4</v>
+      </c>
+      <c r="M62" s="12">
+        <f>SUM(M54:M61)</f>
+        <v>24854.199999999997</v>
+      </c>
+      <c r="N62" s="12">
+        <f>SUM(N54:N61)</f>
+        <v>24554.1</v>
+      </c>
+      <c r="O62" s="12">
+        <f>SUM(O54:O61)</f>
+        <v>24598.399999999998</v>
+      </c>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/BIIB.xlsx
+++ b/BIIB.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A025A2BC-850E-468B-BA32-2E91C40DA432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3767EC90-09EB-4808-B1E3-A97CEB464F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30390" yWindow="2040" windowWidth="28650" windowHeight="17400" activeTab="1" xr2:uid="{7CBEE6B4-8223-452C-B8C6-1EC2B28F2C97}"/>
+    <workbookView xWindow="-51690" yWindow="795" windowWidth="23760" windowHeight="19950" activeTab="1" xr2:uid="{7CBEE6B4-8223-452C-B8C6-1EC2B28F2C97}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
+    <sheet name="Leqembi" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="175">
   <si>
     <t>Price</t>
   </si>
@@ -463,13 +464,112 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>Leqembi, BAN2401</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>lecanemab</t>
+  </si>
+  <si>
+    <t>anti-AB protofibril antibody. Protofibrils are 28-500mers which are still soluble.</t>
+  </si>
+  <si>
+    <t>Clinical Trials</t>
+  </si>
+  <si>
+    <t>Phase III "CLARITY" n=1906 early Alzheimer's - NCT03887455, full results at CTAD 11/29/22</t>
+  </si>
+  <si>
+    <t>PE: CDR-SB at 18 months</t>
+  </si>
+  <si>
+    <t>10mg/kg q2w, 720mg subcutaneous qw</t>
+  </si>
+  <si>
+    <t>at 18 weeks - but what was baseline? 3.5 (donanemab) or 6.7 (donepezil)</t>
+  </si>
+  <si>
+    <t>File for approval by 3/31/23.</t>
+  </si>
+  <si>
+    <t>1.42/year in Aricept</t>
+  </si>
+  <si>
+    <t>Phase III "AHEAD 3-45" n=1400 - NCT04468659</t>
+  </si>
+  <si>
+    <t>PACC5 PE at 4 years(!!)</t>
+  </si>
+  <si>
+    <t>Eisai JV</t>
+  </si>
+  <si>
+    <t>-0.45 p=0.00005 at 18 months (CDR-SB, compared with placebo at 18 months by 27%, which represents a treatment difference in the score change of -0.45 (p=0.00005) in the analysis of Intent-to-treat (ITT) population.")</t>
+  </si>
+  <si>
+    <t>n=859 lecanemab, baseline ADAS-cog14 24.45+-7.08</t>
+  </si>
+  <si>
+    <t>n=875 placebo, baseline ADAS-cog14 24.37+-7.56</t>
+  </si>
+  <si>
+    <t>Lecanemab in patients with early Alzheimer's disease: detailed results on biomarker, cognitive, and clinical effects from the randomized and open-label extension of the phase 2 proof-of-concept study</t>
+  </si>
+  <si>
+    <t>Phase II "Study 201" n=856</t>
+  </si>
+  <si>
+    <t>ADAS-cog14 baseline</t>
+  </si>
+  <si>
+    <t>n=52 2.5mg/kg q2w 22.7+-8.1</t>
+  </si>
+  <si>
+    <t>n=48 5.0mg/kg qm 22.9+-7.7</t>
+  </si>
+  <si>
+    <t>n=89 5.0mg/kg q2w 22.8+-6.7</t>
+  </si>
+  <si>
+    <t>A randomized, double-blind, phase 2b proof-of-concept clinical trial in early Alzheimer's disease with lecanemab, an anti-Aβ protofibril antibody</t>
+  </si>
+  <si>
+    <t>n=246 10mg/kg q2w 22.1+-7.7, +2.5 at 18 months</t>
+  </si>
+  <si>
+    <t>n=238 placebo 22.6+-7.7, +5.0 at 18 months</t>
+  </si>
+  <si>
+    <t>n=246 10mg/kg qm 21.9+-7.3, +4.8 at 18 months</t>
+  </si>
+  <si>
+    <t>Phase II 4 month trial</t>
+  </si>
+  <si>
+    <t>Safety and tolerability of BAN2401--a clinical study in Alzheimer's disease with a protofibril selective Aβ antibody</t>
+  </si>
+  <si>
+    <t>still recruiting as of 10/6/2024</t>
+  </si>
+  <si>
+    <t>Zinbryta</t>
+  </si>
+  <si>
+    <t>Eloctate</t>
+  </si>
+  <si>
+    <t>Alprolix</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -497,13 +597,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -605,7 +719,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -651,6 +765,9 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -675,16 +792,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>38966</xdr:colOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>38967</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>38966</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>43295</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>38967</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -699,8 +816,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17160734" y="0"/>
-          <a:ext cx="0" cy="6222929"/>
+          <a:off x="23803842" y="0"/>
+          <a:ext cx="0" cy="13311187"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -733,7 +850,7 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>25982</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>130343</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -771,6 +888,143 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>281559</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>52691</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>141862</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>12767</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB8E170A-3133-9BA9-9F85-E81A351B4E5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4472559" y="1836095"/>
+          <a:ext cx="3508175" cy="2716246"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>180201</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>41415</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>573890</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>132523</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{019E1EED-8854-3E85-821B-3BC152F20C16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8073527" y="5176632"/>
+          <a:ext cx="3458254" cy="1416326"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>275452</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>115957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>198783</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>6685</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03294A57-0E29-D0D1-1D88-9E260BCCEAA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4491300" y="4754218"/>
+          <a:ext cx="3600809" cy="2706815"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1075,9 +1329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5306BA9-19F6-4D66-A355-F53C1BBA84BC}">
   <dimension ref="B2:K28"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
-    </sheetView>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1111,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="17">
-        <v>204.76</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
@@ -1151,7 +1403,7 @@
       </c>
       <c r="J4" s="1">
         <f>+J2*J3</f>
-        <v>29690.199999999997</v>
+        <v>26970</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
@@ -1209,7 +1461,7 @@
       </c>
       <c r="J7" s="1">
         <f>+J4-J5+J6</f>
-        <v>28573.199999999997</v>
+        <v>25853</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
@@ -1440,13 +1692,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7CEB2B-BE50-4D86-B93D-DDDB8C03F4F9}">
-  <dimension ref="A1:CE65"/>
+  <dimension ref="A1:CE68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="Y3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X4" sqref="X3:X4"/>
+      <selection pane="bottomRight" activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1811,10 +2063,31 @@
       <c r="T3" s="12">
         <v>252.2</v>
       </c>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
+      <c r="U3" s="12">
+        <f>+T3-10</f>
+        <v>242.2</v>
+      </c>
+      <c r="V3" s="12">
+        <f>+U3-10</f>
+        <v>232.2</v>
+      </c>
       <c r="W3" s="12"/>
       <c r="X3" s="12"/>
+      <c r="AD3" s="1">
+        <v>2909.2</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>3638.4</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>3968.1</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>4214</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>4274.1000000000004</v>
+      </c>
       <c r="AI3" s="1">
         <f>3306.5+1126.2</f>
         <v>4432.7</v>
@@ -1832,76 +2105,76 @@
         <v>1443.9</v>
       </c>
       <c r="AM3" s="1">
-        <f>+AL3*0.8</f>
-        <v>1155.1200000000001</v>
+        <f>SUM(O3:R3)</f>
+        <v>1012.5</v>
       </c>
       <c r="AN3" s="1">
-        <f t="shared" ref="AN3:AU3" si="1">+AM3*0.8</f>
-        <v>924.09600000000012</v>
+        <f>SUM(S3:V3)</f>
+        <v>980.90000000000009</v>
       </c>
       <c r="AO3" s="1">
-        <f t="shared" si="1"/>
-        <v>739.27680000000009</v>
+        <f t="shared" ref="AO3:AU4" si="1">+AN3*0.8</f>
+        <v>784.72000000000014</v>
       </c>
       <c r="AP3" s="1">
         <f t="shared" si="1"/>
-        <v>591.42144000000008</v>
+        <v>627.77600000000018</v>
       </c>
       <c r="AQ3" s="1">
         <f t="shared" si="1"/>
-        <v>473.13715200000007</v>
+        <v>502.22080000000017</v>
       </c>
       <c r="AR3" s="1">
         <f t="shared" si="1"/>
-        <v>378.50972160000009</v>
+        <v>401.77664000000016</v>
       </c>
       <c r="AS3" s="1">
         <f t="shared" si="1"/>
-        <v>302.8077772800001</v>
+        <v>321.42131200000017</v>
       </c>
       <c r="AT3" s="1">
         <f t="shared" si="1"/>
-        <v>242.24622182400009</v>
+        <v>257.13704960000013</v>
       </c>
       <c r="AU3" s="1">
         <f t="shared" si="1"/>
-        <v>193.79697745920009</v>
+        <v>205.70963968000012</v>
       </c>
       <c r="AV3" s="1">
         <f t="shared" ref="AV3" si="2">+AU3*0.8</f>
-        <v>155.0375819673601</v>
+        <v>164.56771174400012</v>
       </c>
       <c r="AW3" s="1">
         <f t="shared" ref="AW3:BD3" si="3">+AV3*0.8</f>
-        <v>124.03006557388808</v>
+        <v>131.65416939520011</v>
       </c>
       <c r="AX3" s="1">
         <f t="shared" si="3"/>
-        <v>99.224052459110467</v>
+        <v>105.3233355161601</v>
       </c>
       <c r="AY3" s="1">
         <f t="shared" si="3"/>
-        <v>79.37924196728838</v>
+        <v>84.258668412928088</v>
       </c>
       <c r="AZ3" s="1">
         <f t="shared" si="3"/>
-        <v>63.503393573830706</v>
+        <v>67.406934730342471</v>
       </c>
       <c r="BA3" s="1">
         <f t="shared" si="3"/>
-        <v>50.802714859064565</v>
+        <v>53.925547784273981</v>
       </c>
       <c r="BB3" s="1">
         <f t="shared" si="3"/>
-        <v>40.642171887251656</v>
+        <v>43.140438227419189</v>
       </c>
       <c r="BC3" s="1">
         <f t="shared" si="3"/>
-        <v>32.513737509801324</v>
+        <v>34.512350581935351</v>
       </c>
       <c r="BD3" s="1">
         <f t="shared" si="3"/>
-        <v>26.010990007841059</v>
+        <v>27.609880465548283</v>
       </c>
     </row>
     <row r="4" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1958,10 +2231,24 @@
       <c r="T4" s="12">
         <v>165.8</v>
       </c>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
+      <c r="U4" s="12">
+        <f>+T4+5</f>
+        <v>170.8</v>
+      </c>
+      <c r="V4" s="12">
+        <f>+U4+5</f>
+        <v>175.8</v>
+      </c>
       <c r="W4" s="12"/>
       <c r="X4" s="12"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="29"/>
       <c r="AI4" s="1">
         <v>5.5</v>
       </c>
@@ -1969,84 +2256,84 @@
         <v>64.3</v>
       </c>
       <c r="AK4" s="1">
-        <f t="shared" ref="AK4:AK25" si="4">SUM(G4:J4)</f>
+        <f t="shared" ref="AK4:AK28" si="4">SUM(G4:J4)</f>
         <v>410.29999999999995</v>
       </c>
       <c r="AL4" s="1">
-        <f t="shared" ref="AL4:AL25" si="5">SUM(K4:N4)</f>
+        <f t="shared" ref="AL4:AL28" si="5">SUM(K4:N4)</f>
         <v>553.40000000000009</v>
       </c>
       <c r="AM4" s="1">
-        <f>+AL4*1.1</f>
-        <v>608.74000000000012</v>
+        <f t="shared" ref="AM4:AM28" si="6">SUM(O4:R4)</f>
+        <v>576.29999999999995</v>
       </c>
       <c r="AN4" s="1">
-        <f t="shared" ref="AN4:AO4" si="6">+AM4*1.1</f>
-        <v>669.61400000000015</v>
+        <f t="shared" ref="AN4:AN28" si="7">SUM(S4:V4)</f>
+        <v>639.90000000000009</v>
       </c>
       <c r="AO4" s="1">
-        <f t="shared" si="6"/>
-        <v>736.57540000000017</v>
+        <f t="shared" si="1"/>
+        <v>511.92000000000007</v>
       </c>
       <c r="AP4" s="1">
         <f>+AO4*1.03</f>
-        <v>758.67266200000017</v>
+        <v>527.27760000000012</v>
       </c>
       <c r="AQ4" s="1">
-        <f t="shared" ref="AQ4:AT4" si="7">+AP4*1.03</f>
-        <v>781.43284186000017</v>
+        <f t="shared" ref="AQ4:AT4" si="8">+AP4*1.03</f>
+        <v>543.09592800000019</v>
       </c>
       <c r="AR4" s="1">
-        <f t="shared" si="7"/>
-        <v>804.87582711580023</v>
+        <f t="shared" si="8"/>
+        <v>559.38880584000026</v>
       </c>
       <c r="AS4" s="1">
-        <f t="shared" si="7"/>
-        <v>829.0221019292743</v>
+        <f t="shared" si="8"/>
+        <v>576.17047001520029</v>
       </c>
       <c r="AT4" s="1">
-        <f t="shared" si="7"/>
-        <v>853.89276498715253</v>
+        <f t="shared" si="8"/>
+        <v>593.45558411565628</v>
       </c>
       <c r="AU4" s="1">
         <f>+AT4*0.5</f>
-        <v>426.94638249357627</v>
+        <v>296.72779205782814</v>
       </c>
       <c r="AV4" s="1">
         <f>+AU4*0.8</f>
-        <v>341.55710599486105</v>
+        <v>237.38223364626253</v>
       </c>
       <c r="AW4" s="1">
-        <f t="shared" ref="AW4:BD4" si="8">+AV4*0.8</f>
-        <v>273.24568479588885</v>
+        <f t="shared" ref="AW4:BD4" si="9">+AV4*0.8</f>
+        <v>189.90578691701003</v>
       </c>
       <c r="AX4" s="1">
-        <f t="shared" si="8"/>
-        <v>218.5965478367111</v>
+        <f t="shared" si="9"/>
+        <v>151.92462953360803</v>
       </c>
       <c r="AY4" s="1">
-        <f t="shared" si="8"/>
-        <v>174.87723826936889</v>
+        <f t="shared" si="9"/>
+        <v>121.53970362688642</v>
       </c>
       <c r="AZ4" s="1">
-        <f t="shared" si="8"/>
-        <v>139.90179061549512</v>
+        <f t="shared" si="9"/>
+        <v>97.231762901509143</v>
       </c>
       <c r="BA4" s="1">
-        <f t="shared" si="8"/>
-        <v>111.92143249239609</v>
+        <f t="shared" si="9"/>
+        <v>77.785410321207323</v>
       </c>
       <c r="BB4" s="1">
-        <f t="shared" si="8"/>
-        <v>89.53714599391688</v>
+        <f t="shared" si="9"/>
+        <v>62.22832825696586</v>
       </c>
       <c r="BC4" s="1">
-        <f t="shared" si="8"/>
-        <v>71.629716795133504</v>
+        <f t="shared" si="9"/>
+        <v>49.782662605572689</v>
       </c>
       <c r="BD4" s="1">
-        <f t="shared" si="8"/>
-        <v>57.303773436106809</v>
+        <f t="shared" si="9"/>
+        <v>39.826130084458157</v>
       </c>
     </row>
     <row r="5" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2103,10 +2390,40 @@
       <c r="T5" s="12">
         <v>182.8</v>
       </c>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
+      <c r="U5" s="12">
+        <f>+Q5*0.9</f>
+        <v>190.98</v>
+      </c>
+      <c r="V5" s="12">
+        <f>+R5*0.9</f>
+        <v>185.49</v>
+      </c>
       <c r="W5" s="12"/>
       <c r="X5" s="12"/>
+      <c r="AA5" s="1">
+        <v>2686.6</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>2913.1</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>3005.5</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>3057.6</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>2968.7</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>2795.2</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>2645.8</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>2363</v>
+      </c>
       <c r="AI5" s="1">
         <f>1202.1+463.8</f>
         <v>1665.8999999999999</v>
@@ -2124,76 +2441,76 @@
         <v>973.5</v>
       </c>
       <c r="AM5" s="1">
-        <f>+AL5*0.9</f>
-        <v>876.15</v>
+        <f t="shared" si="6"/>
+        <v>811.00000000000011</v>
       </c>
       <c r="AN5" s="1">
-        <f t="shared" ref="AN5:BD5" si="9">+AM5*0.9</f>
-        <v>788.53499999999997</v>
+        <f t="shared" si="7"/>
+        <v>737.77</v>
       </c>
       <c r="AO5" s="1">
-        <f t="shared" si="9"/>
-        <v>709.68150000000003</v>
+        <f t="shared" ref="AO5:BD5" si="10">+AN5*0.9</f>
+        <v>663.99300000000005</v>
       </c>
       <c r="AP5" s="1">
-        <f t="shared" si="9"/>
-        <v>638.71334999999999</v>
+        <f t="shared" si="10"/>
+        <v>597.59370000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <f t="shared" si="9"/>
-        <v>574.84201500000006</v>
+        <f t="shared" si="10"/>
+        <v>537.83433000000002</v>
       </c>
       <c r="AR5" s="1">
-        <f t="shared" si="9"/>
-        <v>517.35781350000002</v>
+        <f t="shared" si="10"/>
+        <v>484.05089700000002</v>
       </c>
       <c r="AS5" s="1">
-        <f t="shared" si="9"/>
-        <v>465.62203215000005</v>
+        <f t="shared" si="10"/>
+        <v>435.6458073</v>
       </c>
       <c r="AT5" s="1">
-        <f t="shared" si="9"/>
-        <v>419.05982893500004</v>
+        <f t="shared" si="10"/>
+        <v>392.08122657000001</v>
       </c>
       <c r="AU5" s="1">
-        <f t="shared" si="9"/>
-        <v>377.15384604150006</v>
+        <f t="shared" si="10"/>
+        <v>352.87310391300002</v>
       </c>
       <c r="AV5" s="1">
-        <f t="shared" si="9"/>
-        <v>339.43846143735004</v>
+        <f t="shared" si="10"/>
+        <v>317.58579352170005</v>
       </c>
       <c r="AW5" s="1">
-        <f t="shared" si="9"/>
-        <v>305.49461529361503</v>
+        <f t="shared" si="10"/>
+        <v>285.82721416953007</v>
       </c>
       <c r="AX5" s="1">
-        <f t="shared" si="9"/>
-        <v>274.94515376425352</v>
+        <f t="shared" si="10"/>
+        <v>257.24449275257706</v>
       </c>
       <c r="AY5" s="1">
-        <f t="shared" si="9"/>
-        <v>247.45063838782818</v>
+        <f t="shared" si="10"/>
+        <v>231.52004347731935</v>
       </c>
       <c r="AZ5" s="1">
-        <f t="shared" si="9"/>
-        <v>222.70557454904537</v>
+        <f t="shared" si="10"/>
+        <v>208.36803912958743</v>
       </c>
       <c r="BA5" s="1">
-        <f t="shared" si="9"/>
-        <v>200.43501709414085</v>
+        <f t="shared" si="10"/>
+        <v>187.53123521662869</v>
       </c>
       <c r="BB5" s="1">
-        <f t="shared" si="9"/>
-        <v>180.39151538472677</v>
+        <f t="shared" si="10"/>
+        <v>168.77811169496582</v>
       </c>
       <c r="BC5" s="1">
-        <f t="shared" si="9"/>
-        <v>162.35236384625409</v>
+        <f t="shared" si="10"/>
+        <v>151.90030052546925</v>
       </c>
       <c r="BD5" s="1">
-        <f t="shared" si="9"/>
-        <v>146.11712746162868</v>
+        <f t="shared" si="10"/>
+        <v>136.71027047292233</v>
       </c>
     </row>
     <row r="6" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2250,8 +2567,14 @@
       <c r="T6" s="12">
         <v>68.099999999999994</v>
       </c>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
+      <c r="U6" s="12">
+        <f>+Q6*0.9</f>
+        <v>58.95</v>
+      </c>
+      <c r="V6" s="12">
+        <f>+R6*0.9</f>
+        <v>66.510000000000005</v>
+      </c>
       <c r="W6" s="12"/>
       <c r="X6" s="12"/>
       <c r="AI6" s="1">
@@ -2271,76 +2594,76 @@
         <v>331.9</v>
       </c>
       <c r="AM6" s="1">
-        <f>+AL6*0.95</f>
-        <v>315.30499999999995</v>
+        <f t="shared" si="6"/>
+        <v>294.70000000000005</v>
       </c>
       <c r="AN6" s="1">
-        <f t="shared" ref="AN6:BD6" si="10">+AM6*0.95</f>
-        <v>299.53974999999991</v>
+        <f t="shared" si="7"/>
+        <v>258.65999999999997</v>
       </c>
       <c r="AO6" s="1">
-        <f t="shared" si="10"/>
-        <v>284.56276249999991</v>
+        <f t="shared" ref="AO6:BD6" si="11">+AN6*0.95</f>
+        <v>245.72699999999995</v>
       </c>
       <c r="AP6" s="1">
-        <f t="shared" si="10"/>
-        <v>270.33462437499992</v>
+        <f t="shared" si="11"/>
+        <v>233.44064999999995</v>
       </c>
       <c r="AQ6" s="1">
-        <f t="shared" si="10"/>
-        <v>256.81789315624991</v>
+        <f t="shared" si="11"/>
+        <v>221.76861749999995</v>
       </c>
       <c r="AR6" s="1">
-        <f t="shared" si="10"/>
-        <v>243.97699849843741</v>
+        <f t="shared" si="11"/>
+        <v>210.68018662499995</v>
       </c>
       <c r="AS6" s="1">
-        <f t="shared" si="10"/>
-        <v>231.77814857351552</v>
+        <f t="shared" si="11"/>
+        <v>200.14617729374993</v>
       </c>
       <c r="AT6" s="1">
-        <f t="shared" si="10"/>
-        <v>220.18924114483974</v>
+        <f t="shared" si="11"/>
+        <v>190.13886842906243</v>
       </c>
       <c r="AU6" s="1">
-        <f t="shared" si="10"/>
-        <v>209.17977908759775</v>
+        <f t="shared" si="11"/>
+        <v>180.63192500760931</v>
       </c>
       <c r="AV6" s="1">
-        <f t="shared" si="10"/>
-        <v>198.72079013321786</v>
+        <f t="shared" si="11"/>
+        <v>171.60032875722885</v>
       </c>
       <c r="AW6" s="1">
-        <f t="shared" si="10"/>
-        <v>188.78475062655696</v>
+        <f t="shared" si="11"/>
+        <v>163.02031231936741</v>
       </c>
       <c r="AX6" s="1">
-        <f t="shared" si="10"/>
-        <v>179.34551309522911</v>
+        <f t="shared" si="11"/>
+        <v>154.86929670339902</v>
       </c>
       <c r="AY6" s="1">
-        <f t="shared" si="10"/>
-        <v>170.37823744046764</v>
+        <f t="shared" si="11"/>
+        <v>147.12583186822906</v>
       </c>
       <c r="AZ6" s="1">
-        <f t="shared" si="10"/>
-        <v>161.85932556844426</v>
+        <f t="shared" si="11"/>
+        <v>139.76954027481759</v>
       </c>
       <c r="BA6" s="1">
-        <f t="shared" si="10"/>
-        <v>153.76635929002205</v>
+        <f t="shared" si="11"/>
+        <v>132.7810632610767</v>
       </c>
       <c r="BB6" s="1">
-        <f t="shared" si="10"/>
-        <v>146.07804132552096</v>
+        <f t="shared" si="11"/>
+        <v>126.14201009802285</v>
       </c>
       <c r="BC6" s="1">
-        <f t="shared" si="10"/>
-        <v>138.77413925924489</v>
+        <f t="shared" si="11"/>
+        <v>119.83490959312171</v>
       </c>
       <c r="BD6" s="1">
-        <f t="shared" si="10"/>
-        <v>131.83543229628265</v>
+        <f t="shared" si="11"/>
+        <v>113.84316411346562</v>
       </c>
     </row>
     <row r="7" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2397,10 +2720,31 @@
       <c r="T7" s="12">
         <v>462.2</v>
       </c>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
+      <c r="U7" s="12">
+        <f>+Q7*0.9</f>
+        <v>410.67</v>
+      </c>
+      <c r="V7" s="12">
+        <f>+R7*0.9</f>
+        <v>418.23</v>
+      </c>
       <c r="W7" s="12"/>
       <c r="X7" s="12"/>
+      <c r="AD7" s="1">
+        <v>1959.5</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>1886.1</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>1963.8</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>1973.1</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>1864</v>
+      </c>
       <c r="AI7" s="1">
         <v>1892.2</v>
       </c>
@@ -2416,76 +2760,76 @@
         <v>2030.9</v>
       </c>
       <c r="AM7" s="1">
-        <f>+AL7*1.01</f>
-        <v>2051.2090000000003</v>
+        <f t="shared" si="6"/>
+        <v>1876.9</v>
       </c>
       <c r="AN7" s="1">
-        <f t="shared" ref="AN7" si="11">+AM7*1.01</f>
-        <v>2071.7210900000005</v>
+        <f t="shared" si="7"/>
+        <v>1722.4</v>
       </c>
       <c r="AO7" s="1">
         <f>+AN7*0.85</f>
-        <v>1760.9629265000003</v>
+        <v>1464.04</v>
       </c>
       <c r="AP7" s="1">
         <f t="shared" ref="AP7:BD7" si="12">+AO7*0.85</f>
-        <v>1496.8184875250001</v>
+        <v>1244.434</v>
       </c>
       <c r="AQ7" s="1">
         <f t="shared" si="12"/>
-        <v>1272.2957143962501</v>
+        <v>1057.7689</v>
       </c>
       <c r="AR7" s="1">
         <f t="shared" si="12"/>
-        <v>1081.4513572368126</v>
+        <v>899.103565</v>
       </c>
       <c r="AS7" s="1">
         <f t="shared" si="12"/>
-        <v>919.23365365129064</v>
+        <v>764.23803024999995</v>
       </c>
       <c r="AT7" s="1">
         <f t="shared" si="12"/>
-        <v>781.34860560359698</v>
+        <v>649.60232571249992</v>
       </c>
       <c r="AU7" s="1">
         <f t="shared" si="12"/>
-        <v>664.14631476305738</v>
+        <v>552.16197685562497</v>
       </c>
       <c r="AV7" s="1">
         <f t="shared" si="12"/>
-        <v>564.52436754859878</v>
+        <v>469.33768032728119</v>
       </c>
       <c r="AW7" s="1">
         <f t="shared" si="12"/>
-        <v>479.84571241630897</v>
+        <v>398.93702827818902</v>
       </c>
       <c r="AX7" s="1">
         <f t="shared" si="12"/>
-        <v>407.8688555538626</v>
+        <v>339.09647403646068</v>
       </c>
       <c r="AY7" s="1">
         <f t="shared" si="12"/>
-        <v>346.68852722078321</v>
+        <v>288.23200293099154</v>
       </c>
       <c r="AZ7" s="1">
         <f t="shared" si="12"/>
-        <v>294.68524813766572</v>
+        <v>244.99720249134279</v>
       </c>
       <c r="BA7" s="1">
         <f t="shared" si="12"/>
-        <v>250.48246091701586</v>
+        <v>208.24762211764136</v>
       </c>
       <c r="BB7" s="1">
         <f t="shared" si="12"/>
-        <v>212.91009177946347</v>
+        <v>177.01047879999516</v>
       </c>
       <c r="BC7" s="1">
         <f t="shared" si="12"/>
-        <v>180.97357801254395</v>
+        <v>150.45890697999587</v>
       </c>
       <c r="BD7" s="1">
         <f t="shared" si="12"/>
-        <v>153.82754131066235</v>
+        <v>127.89007093299649</v>
       </c>
     </row>
     <row r="8" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2542,10 +2886,31 @@
       <c r="T8" s="12">
         <v>18.7</v>
       </c>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
+      <c r="U8" s="12">
+        <f>+Q8*0.9</f>
+        <v>18</v>
+      </c>
+      <c r="V8" s="12">
+        <f>+R8*0.9</f>
+        <v>20.7</v>
+      </c>
       <c r="W8" s="12"/>
       <c r="X8" s="12"/>
+      <c r="AD8" s="1">
+        <v>80.2</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>89.7</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>84.9</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>91.6</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>92.7</v>
+      </c>
       <c r="AI8" s="1">
         <v>97.1</v>
       </c>
@@ -2561,76 +2926,76 @@
         <v>96.6</v>
       </c>
       <c r="AM8" s="1">
-        <f>+AL8*0.9</f>
-        <v>86.94</v>
+        <f t="shared" si="6"/>
+        <v>90.5</v>
       </c>
       <c r="AN8" s="1">
-        <f t="shared" ref="AN8:BD8" si="13">+AM8*0.9</f>
-        <v>78.245999999999995</v>
+        <f t="shared" si="7"/>
+        <v>76.599999999999994</v>
       </c>
       <c r="AO8" s="1">
-        <f t="shared" si="13"/>
-        <v>70.421399999999991</v>
+        <f t="shared" ref="AO8:BD8" si="13">+AN8*0.9</f>
+        <v>68.94</v>
       </c>
       <c r="AP8" s="1">
         <f t="shared" si="13"/>
-        <v>63.379259999999995</v>
+        <v>62.045999999999999</v>
       </c>
       <c r="AQ8" s="1">
         <f t="shared" si="13"/>
-        <v>57.041333999999999</v>
+        <v>55.8414</v>
       </c>
       <c r="AR8" s="1">
         <f t="shared" si="13"/>
-        <v>51.337200600000003</v>
+        <v>50.257260000000002</v>
       </c>
       <c r="AS8" s="1">
         <f t="shared" si="13"/>
-        <v>46.203480540000001</v>
+        <v>45.231534000000003</v>
       </c>
       <c r="AT8" s="1">
         <f t="shared" si="13"/>
-        <v>41.583132486000004</v>
+        <v>40.708380600000005</v>
       </c>
       <c r="AU8" s="1">
         <f t="shared" si="13"/>
-        <v>37.424819237400001</v>
+        <v>36.637542540000005</v>
       </c>
       <c r="AV8" s="1">
         <f t="shared" si="13"/>
-        <v>33.68233731366</v>
+        <v>32.973788286000008</v>
       </c>
       <c r="AW8" s="1">
         <f t="shared" si="13"/>
-        <v>30.314103582293999</v>
+        <v>29.676409457400009</v>
       </c>
       <c r="AX8" s="1">
         <f t="shared" si="13"/>
-        <v>27.282693224064598</v>
+        <v>26.708768511660008</v>
       </c>
       <c r="AY8" s="1">
         <f t="shared" si="13"/>
-        <v>24.55442390165814</v>
+        <v>24.037891660494008</v>
       </c>
       <c r="AZ8" s="1">
         <f t="shared" si="13"/>
-        <v>22.098981511492326</v>
+        <v>21.634102494444608</v>
       </c>
       <c r="BA8" s="1">
         <f t="shared" si="13"/>
-        <v>19.889083360343093</v>
+        <v>19.470692245000148</v>
       </c>
       <c r="BB8" s="1">
         <f t="shared" si="13"/>
-        <v>17.900175024308783</v>
+        <v>17.523623020500132</v>
       </c>
       <c r="BC8" s="1">
         <f t="shared" si="13"/>
-        <v>16.110157521877905</v>
+        <v>15.771260718450119</v>
       </c>
       <c r="BD8" s="1">
         <f t="shared" si="13"/>
-        <v>14.499141769690116</v>
+        <v>14.194134646605107</v>
       </c>
     </row>
     <row r="9" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2687,10 +3052,27 @@
       <c r="T9" s="12">
         <v>429.1</v>
       </c>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
+      <c r="U9" s="12">
+        <f>+Q9</f>
+        <v>448.2</v>
+      </c>
+      <c r="V9" s="12">
+        <f>+R9</f>
+        <v>412.6</v>
+      </c>
       <c r="W9" s="12"/>
       <c r="X9" s="12"/>
+      <c r="AD9" s="29"/>
+      <c r="AE9" s="29"/>
+      <c r="AF9" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>883.7</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>1724.2</v>
+      </c>
       <c r="AI9" s="1">
         <v>2097</v>
       </c>
@@ -2706,76 +3088,76 @@
         <v>1793.3999999999999</v>
       </c>
       <c r="AM9" s="1">
-        <f t="shared" ref="AM9:BD9" si="14">+AL9*0.9</f>
-        <v>1614.06</v>
+        <f t="shared" si="6"/>
+        <v>1741.2000000000003</v>
       </c>
       <c r="AN9" s="1">
-        <f t="shared" si="14"/>
-        <v>1452.654</v>
+        <f t="shared" si="7"/>
+        <v>1631.2000000000003</v>
       </c>
       <c r="AO9" s="1">
-        <f t="shared" si="14"/>
-        <v>1307.3886</v>
+        <f t="shared" ref="AO9:BD9" si="14">+AN9*0.9</f>
+        <v>1468.0800000000004</v>
       </c>
       <c r="AP9" s="1">
         <f t="shared" si="14"/>
-        <v>1176.6497400000001</v>
+        <v>1321.2720000000004</v>
       </c>
       <c r="AQ9" s="1">
         <f t="shared" si="14"/>
-        <v>1058.984766</v>
+        <v>1189.1448000000005</v>
       </c>
       <c r="AR9" s="1">
         <f t="shared" si="14"/>
-        <v>953.08628940000006</v>
+        <v>1070.2303200000006</v>
       </c>
       <c r="AS9" s="1">
         <f t="shared" si="14"/>
-        <v>857.77766046000011</v>
+        <v>963.20728800000052</v>
       </c>
       <c r="AT9" s="1">
         <f t="shared" si="14"/>
-        <v>771.9998944140001</v>
+        <v>866.88655920000053</v>
       </c>
       <c r="AU9" s="1">
         <f t="shared" si="14"/>
-        <v>694.79990497260007</v>
+        <v>780.19790328000045</v>
       </c>
       <c r="AV9" s="1">
         <f t="shared" si="14"/>
-        <v>625.31991447534006</v>
+        <v>702.17811295200045</v>
       </c>
       <c r="AW9" s="1">
         <f t="shared" si="14"/>
-        <v>562.78792302780607</v>
+        <v>631.96030165680043</v>
       </c>
       <c r="AX9" s="1">
         <f t="shared" si="14"/>
-        <v>506.5091307250255</v>
+        <v>568.76427149112044</v>
       </c>
       <c r="AY9" s="1">
         <f t="shared" si="14"/>
-        <v>455.85821765252297</v>
+        <v>511.88784434200841</v>
       </c>
       <c r="AZ9" s="1">
         <f t="shared" si="14"/>
-        <v>410.2723958872707</v>
+        <v>460.69905990780757</v>
       </c>
       <c r="BA9" s="1">
         <f t="shared" si="14"/>
-        <v>369.24515629854363</v>
+        <v>414.62915391702683</v>
       </c>
       <c r="BB9" s="1">
         <f t="shared" si="14"/>
-        <v>332.32064066868929</v>
+        <v>373.16623852532416</v>
       </c>
       <c r="BC9" s="1">
         <f t="shared" si="14"/>
-        <v>299.08857660182036</v>
+        <v>335.84961467279174</v>
       </c>
       <c r="BD9" s="1">
         <f t="shared" si="14"/>
-        <v>269.17971894163833</v>
+        <v>302.26465320551256</v>
       </c>
     </row>
     <row r="10" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2806,10 +3188,97 @@
       <c r="T10" s="12">
         <v>100</v>
       </c>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
+      <c r="U10" s="12">
+        <f>+T10+25</f>
+        <v>125</v>
+      </c>
+      <c r="V10" s="12">
+        <f>+U10+25</f>
+        <v>150</v>
+      </c>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
+      <c r="AD10" s="29"/>
+      <c r="AE10" s="29"/>
+      <c r="AF10" s="29"/>
+      <c r="AG10" s="29"/>
+      <c r="AH10" s="29"/>
+      <c r="AI10" s="29"/>
+      <c r="AJ10" s="29"/>
+      <c r="AK10" s="29"/>
+      <c r="AL10" s="29"/>
+      <c r="AM10" s="1">
+        <f t="shared" si="6"/>
+        <v>55.9</v>
+      </c>
+      <c r="AN10" s="1">
+        <f t="shared" si="7"/>
+        <v>453</v>
+      </c>
+      <c r="AO10" s="1">
+        <f>+AN10*2</f>
+        <v>906</v>
+      </c>
+      <c r="AP10" s="1">
+        <f>+AO10*1.5</f>
+        <v>1359</v>
+      </c>
+      <c r="AQ10" s="1">
+        <f>+AP10*1.3</f>
+        <v>1766.7</v>
+      </c>
+      <c r="AR10" s="1">
+        <f>+AQ10*1.1</f>
+        <v>1943.3700000000001</v>
+      </c>
+      <c r="AS10" s="1">
+        <f>+AR10*1.02</f>
+        <v>1982.2374000000002</v>
+      </c>
+      <c r="AT10" s="1">
+        <f>+AS10*1.02</f>
+        <v>2021.8821480000001</v>
+      </c>
+      <c r="AU10" s="1">
+        <f>+AT10*1.02</f>
+        <v>2062.3197909600003</v>
+      </c>
+      <c r="AV10" s="1">
+        <f>+AU10*1.02</f>
+        <v>2103.5661867792005</v>
+      </c>
+      <c r="AW10" s="1">
+        <f>+AV10*1.02</f>
+        <v>2145.6375105147845</v>
+      </c>
+      <c r="AX10" s="1">
+        <f>+AW10*1.02</f>
+        <v>2188.5502607250801</v>
+      </c>
+      <c r="AY10" s="1">
+        <f>+AX10*1.02</f>
+        <v>2232.3212659395817</v>
+      </c>
+      <c r="AZ10" s="1">
+        <f>+AY10*0.1</f>
+        <v>223.23212659395818</v>
+      </c>
+      <c r="BA10" s="1">
+        <f t="shared" ref="BA10:BD10" si="15">+AZ10*0.1</f>
+        <v>22.323212659395821</v>
+      </c>
+      <c r="BB10" s="1">
+        <f t="shared" si="15"/>
+        <v>2.2323212659395821</v>
+      </c>
+      <c r="BC10" s="1">
+        <f t="shared" si="15"/>
+        <v>0.22323212659395822</v>
+      </c>
+      <c r="BD10" s="1">
+        <f t="shared" si="15"/>
+        <v>2.2323212659395825E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
@@ -2839,6 +3308,95 @@
       <c r="T11" s="1">
         <v>5</v>
       </c>
+      <c r="U11" s="1">
+        <f>+T11</f>
+        <v>5</v>
+      </c>
+      <c r="V11" s="1">
+        <f>+U11</f>
+        <v>5</v>
+      </c>
+      <c r="AD11" s="29"/>
+      <c r="AE11" s="29"/>
+      <c r="AF11" s="29"/>
+      <c r="AG11" s="29"/>
+      <c r="AH11" s="29"/>
+      <c r="AI11" s="29"/>
+      <c r="AJ11" s="29"/>
+      <c r="AK11" s="29"/>
+      <c r="AL11" s="29"/>
+      <c r="AM11" s="1">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+      <c r="AN11" s="1">
+        <f t="shared" si="7"/>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="AO11" s="1">
+        <f>+AN11*1.1</f>
+        <v>21.560000000000002</v>
+      </c>
+      <c r="AP11" s="1">
+        <f t="shared" ref="AP11:BD11" si="16">+AO11*1.1</f>
+        <v>23.716000000000005</v>
+      </c>
+      <c r="AQ11" s="1">
+        <f t="shared" si="16"/>
+        <v>26.087600000000005</v>
+      </c>
+      <c r="AR11" s="1">
+        <f t="shared" si="16"/>
+        <v>28.696360000000009</v>
+      </c>
+      <c r="AS11" s="1">
+        <f t="shared" si="16"/>
+        <v>31.565996000000013</v>
+      </c>
+      <c r="AT11" s="1">
+        <f t="shared" si="16"/>
+        <v>34.72259560000002</v>
+      </c>
+      <c r="AU11" s="1">
+        <f t="shared" si="16"/>
+        <v>38.194855160000024</v>
+      </c>
+      <c r="AV11" s="1">
+        <f t="shared" si="16"/>
+        <v>42.014340676000032</v>
+      </c>
+      <c r="AW11" s="1">
+        <f t="shared" si="16"/>
+        <v>46.215774743600036</v>
+      </c>
+      <c r="AX11" s="1">
+        <f t="shared" si="16"/>
+        <v>50.837352217960046</v>
+      </c>
+      <c r="AY11" s="1">
+        <f t="shared" si="16"/>
+        <v>55.921087439756057</v>
+      </c>
+      <c r="AZ11" s="1">
+        <f t="shared" si="16"/>
+        <v>61.513196183731665</v>
+      </c>
+      <c r="BA11" s="1">
+        <f t="shared" si="16"/>
+        <v>67.66451580210483</v>
+      </c>
+      <c r="BB11" s="1">
+        <f t="shared" si="16"/>
+        <v>74.430967382315316</v>
+      </c>
+      <c r="BC11" s="1">
+        <f t="shared" si="16"/>
+        <v>81.874064120546848</v>
+      </c>
+      <c r="BD11" s="1">
+        <f t="shared" si="16"/>
+        <v>90.061470532601547</v>
+      </c>
     </row>
     <row r="12" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
@@ -2894,10 +3452,27 @@
       <c r="T12" s="12">
         <v>117.3</v>
       </c>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
+      <c r="U12" s="12">
+        <f>+Q12</f>
+        <v>112.8</v>
+      </c>
+      <c r="V12" s="12">
+        <f>+R12</f>
+        <v>107.8</v>
+      </c>
       <c r="W12" s="12"/>
       <c r="X12" s="12"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="29"/>
+      <c r="AF12" s="1">
+        <v>100.6</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>370.8</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>485.2</v>
+      </c>
       <c r="AI12" s="1">
         <v>486.2</v>
       </c>
@@ -2913,76 +3488,76 @@
         <v>441</v>
       </c>
       <c r="AM12" s="1">
-        <f t="shared" ref="AM12:BD12" si="15">+AL12*0.9</f>
-        <v>396.90000000000003</v>
+        <f t="shared" si="6"/>
+        <v>438.8</v>
       </c>
       <c r="AN12" s="1">
-        <f t="shared" si="15"/>
-        <v>357.21000000000004</v>
+        <f t="shared" si="7"/>
+        <v>456.6</v>
       </c>
       <c r="AO12" s="1">
-        <f t="shared" si="15"/>
-        <v>321.48900000000003</v>
+        <f t="shared" ref="AO12:BD12" si="17">+AN12*0.9</f>
+        <v>410.94000000000005</v>
       </c>
       <c r="AP12" s="1">
-        <f t="shared" si="15"/>
-        <v>289.34010000000006</v>
+        <f t="shared" si="17"/>
+        <v>369.84600000000006</v>
       </c>
       <c r="AQ12" s="1">
-        <f t="shared" si="15"/>
-        <v>260.40609000000006</v>
+        <f t="shared" si="17"/>
+        <v>332.86140000000006</v>
       </c>
       <c r="AR12" s="1">
-        <f t="shared" si="15"/>
-        <v>234.36548100000007</v>
+        <f t="shared" si="17"/>
+        <v>299.57526000000007</v>
       </c>
       <c r="AS12" s="1">
-        <f t="shared" si="15"/>
-        <v>210.92893290000006</v>
+        <f t="shared" si="17"/>
+        <v>269.6177340000001</v>
       </c>
       <c r="AT12" s="1">
-        <f t="shared" si="15"/>
-        <v>189.83603961000006</v>
+        <f t="shared" si="17"/>
+        <v>242.6559606000001</v>
       </c>
       <c r="AU12" s="1">
-        <f t="shared" si="15"/>
-        <v>170.85243564900006</v>
+        <f t="shared" si="17"/>
+        <v>218.39036454000009</v>
       </c>
       <c r="AV12" s="1">
-        <f t="shared" si="15"/>
-        <v>153.76719208410006</v>
+        <f t="shared" si="17"/>
+        <v>196.5513280860001</v>
       </c>
       <c r="AW12" s="1">
-        <f t="shared" si="15"/>
-        <v>138.39047287569005</v>
+        <f t="shared" si="17"/>
+        <v>176.8961952774001</v>
       </c>
       <c r="AX12" s="1">
-        <f t="shared" si="15"/>
-        <v>124.55142558812105</v>
+        <f t="shared" si="17"/>
+        <v>159.20657574966009</v>
       </c>
       <c r="AY12" s="1">
-        <f t="shared" si="15"/>
-        <v>112.09628302930895</v>
+        <f t="shared" si="17"/>
+        <v>143.28591817469407</v>
       </c>
       <c r="AZ12" s="1">
-        <f t="shared" si="15"/>
-        <v>100.88665472637805</v>
+        <f t="shared" si="17"/>
+        <v>128.95732635722467</v>
       </c>
       <c r="BA12" s="1">
-        <f t="shared" si="15"/>
-        <v>90.797989253740255</v>
+        <f t="shared" si="17"/>
+        <v>116.06159372150221</v>
       </c>
       <c r="BB12" s="1">
-        <f t="shared" si="15"/>
-        <v>81.718190328366234</v>
+        <f t="shared" si="17"/>
+        <v>104.45543434935199</v>
       </c>
       <c r="BC12" s="1">
-        <f t="shared" si="15"/>
-        <v>73.54637129552961</v>
+        <f t="shared" si="17"/>
+        <v>94.009890914416786</v>
       </c>
       <c r="BD12" s="1">
-        <f t="shared" si="15"/>
-        <v>66.191734165976655</v>
+        <f t="shared" si="17"/>
+        <v>84.608901822975113</v>
       </c>
     </row>
     <row r="13" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3039,10 +3614,23 @@
       <c r="T13" s="12">
         <v>53.2</v>
       </c>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
+      <c r="U13" s="12">
+        <f>+Q13</f>
+        <v>54.4</v>
+      </c>
+      <c r="V13" s="12">
+        <f>+R13</f>
+        <v>54.5</v>
+      </c>
       <c r="W13" s="12"/>
       <c r="X13" s="12"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="29"/>
+      <c r="AF13" s="29"/>
+      <c r="AG13" s="29"/>
+      <c r="AH13" s="1">
+        <v>16.7</v>
+      </c>
       <c r="AI13" s="1">
         <v>184</v>
       </c>
@@ -3058,369 +3646,158 @@
         <v>224.5</v>
       </c>
       <c r="AM13" s="1">
-        <f t="shared" ref="AM13:BD13" si="16">+AL13*0.9</f>
-        <v>202.05</v>
+        <f t="shared" si="6"/>
+        <v>222.1</v>
       </c>
       <c r="AN13" s="1">
-        <f t="shared" si="16"/>
-        <v>181.84500000000003</v>
+        <f t="shared" si="7"/>
+        <v>216.9</v>
       </c>
       <c r="AO13" s="1">
-        <f t="shared" si="16"/>
-        <v>163.66050000000004</v>
+        <f t="shared" ref="AO13:BD13" si="18">+AN13*0.9</f>
+        <v>195.21</v>
       </c>
       <c r="AP13" s="1">
-        <f t="shared" si="16"/>
-        <v>147.29445000000004</v>
+        <f t="shared" si="18"/>
+        <v>175.68900000000002</v>
       </c>
       <c r="AQ13" s="1">
-        <f t="shared" si="16"/>
-        <v>132.56500500000004</v>
+        <f t="shared" si="18"/>
+        <v>158.12010000000004</v>
       </c>
       <c r="AR13" s="1">
-        <f t="shared" si="16"/>
-        <v>119.30850450000004</v>
+        <f t="shared" si="18"/>
+        <v>142.30809000000005</v>
       </c>
       <c r="AS13" s="1">
-        <f t="shared" si="16"/>
-        <v>107.37765405000003</v>
+        <f t="shared" si="18"/>
+        <v>128.07728100000006</v>
       </c>
       <c r="AT13" s="1">
-        <f t="shared" si="16"/>
-        <v>96.639888645000028</v>
+        <f t="shared" si="18"/>
+        <v>115.26955290000005</v>
       </c>
       <c r="AU13" s="1">
-        <f t="shared" si="16"/>
-        <v>86.975899780500029</v>
+        <f t="shared" si="18"/>
+        <v>103.74259761000005</v>
       </c>
       <c r="AV13" s="1">
-        <f t="shared" si="16"/>
-        <v>78.278309802450025</v>
+        <f t="shared" si="18"/>
+        <v>93.368337849000042</v>
       </c>
       <c r="AW13" s="1">
-        <f t="shared" si="16"/>
-        <v>70.450478822205028</v>
+        <f t="shared" si="18"/>
+        <v>84.031504064100034</v>
       </c>
       <c r="AX13" s="1">
-        <f t="shared" si="16"/>
-        <v>63.405430939984527</v>
+        <f t="shared" si="18"/>
+        <v>75.628353657690027</v>
       </c>
       <c r="AY13" s="1">
-        <f t="shared" si="16"/>
-        <v>57.064887845986078</v>
+        <f t="shared" si="18"/>
+        <v>68.065518291921023</v>
       </c>
       <c r="AZ13" s="1">
-        <f t="shared" si="16"/>
-        <v>51.358399061387473</v>
+        <f t="shared" si="18"/>
+        <v>61.258966462728921</v>
       </c>
       <c r="BA13" s="1">
-        <f t="shared" si="16"/>
-        <v>46.222559155248724</v>
+        <f t="shared" si="18"/>
+        <v>55.133069816456029</v>
       </c>
       <c r="BB13" s="1">
-        <f t="shared" si="16"/>
-        <v>41.60030323972385</v>
+        <f t="shared" si="18"/>
+        <v>49.61976283481043</v>
       </c>
       <c r="BC13" s="1">
-        <f t="shared" si="16"/>
-        <v>37.440272915751464</v>
+        <f t="shared" si="18"/>
+        <v>44.657786551329387</v>
       </c>
       <c r="BD13" s="1">
-        <f t="shared" si="16"/>
-        <v>33.696245624176321</v>
+        <f t="shared" si="18"/>
+        <v>40.192007896196451</v>
       </c>
     </row>
     <row r="14" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>172</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="12">
-        <v>27.5</v>
-      </c>
-      <c r="F14" s="12">
-        <v>26.1</v>
-      </c>
-      <c r="G14" s="12">
-        <v>25.5</v>
-      </c>
-      <c r="H14" s="12">
-        <v>25.3</v>
-      </c>
-      <c r="I14" s="12">
-        <v>24.6</v>
-      </c>
-      <c r="J14" s="12">
-        <v>24</v>
-      </c>
-      <c r="K14" s="12">
-        <v>22.5</v>
-      </c>
-      <c r="L14" s="12">
-        <v>20.5</v>
-      </c>
-      <c r="M14" s="12">
-        <v>19</v>
-      </c>
-      <c r="N14" s="12">
-        <v>19.3</v>
-      </c>
-      <c r="O14" s="12">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="P14" s="12">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="Q14" s="12">
-        <v>20.2</v>
-      </c>
-      <c r="R14" s="12">
-        <v>16.7</v>
-      </c>
-      <c r="S14" s="12">
-        <v>17.8</v>
-      </c>
-      <c r="T14" s="12">
-        <v>13.1</v>
-      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
       <c r="U14" s="12"/>
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
       <c r="X14" s="12"/>
-      <c r="AI14" s="1">
-        <v>68.099999999999994</v>
-      </c>
-      <c r="AJ14" s="1">
-        <v>97.9</v>
-      </c>
-      <c r="AK14" s="1">
-        <f t="shared" si="4"/>
-        <v>99.4</v>
-      </c>
-      <c r="AL14" s="1">
-        <f t="shared" si="5"/>
-        <v>81.3</v>
-      </c>
-      <c r="AM14" s="1">
-        <f t="shared" ref="AM14:BD14" si="17">+AL14*0.9</f>
-        <v>73.17</v>
-      </c>
-      <c r="AN14" s="1">
-        <f t="shared" si="17"/>
-        <v>65.853000000000009</v>
-      </c>
-      <c r="AO14" s="1">
-        <f t="shared" si="17"/>
-        <v>59.267700000000012</v>
-      </c>
-      <c r="AP14" s="1">
-        <f t="shared" si="17"/>
-        <v>53.340930000000014</v>
-      </c>
-      <c r="AQ14" s="1">
-        <f t="shared" si="17"/>
-        <v>48.006837000000012</v>
-      </c>
-      <c r="AR14" s="1">
-        <f t="shared" si="17"/>
-        <v>43.206153300000011</v>
-      </c>
-      <c r="AS14" s="1">
-        <f t="shared" si="17"/>
-        <v>38.885537970000009</v>
-      </c>
-      <c r="AT14" s="1">
-        <f t="shared" si="17"/>
-        <v>34.996984173000008</v>
-      </c>
-      <c r="AU14" s="1">
-        <f t="shared" si="17"/>
-        <v>31.497285755700009</v>
-      </c>
-      <c r="AV14" s="1">
-        <f t="shared" si="17"/>
-        <v>28.347557180130007</v>
-      </c>
-      <c r="AW14" s="1">
-        <f t="shared" si="17"/>
-        <v>25.512801462117007</v>
-      </c>
-      <c r="AX14" s="1">
-        <f t="shared" si="17"/>
-        <v>22.961521315905308</v>
-      </c>
-      <c r="AY14" s="1">
-        <f t="shared" si="17"/>
-        <v>20.665369184314777</v>
-      </c>
-      <c r="AZ14" s="1">
-        <f t="shared" si="17"/>
-        <v>18.598832265883299</v>
-      </c>
-      <c r="BA14" s="1">
-        <f t="shared" si="17"/>
-        <v>16.738949039294969</v>
-      </c>
-      <c r="BB14" s="1">
-        <f t="shared" si="17"/>
-        <v>15.065054135365472</v>
-      </c>
-      <c r="BC14" s="1">
-        <f t="shared" si="17"/>
-        <v>13.558548721828926</v>
-      </c>
-      <c r="BD14" s="1">
-        <f t="shared" si="17"/>
-        <v>12.202693849646034</v>
+      <c r="AD14" s="29"/>
+      <c r="AE14" s="29"/>
+      <c r="AF14" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>52.7</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>1.4</v>
       </c>
     </row>
     <row r="15" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>173</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="12">
-        <v>0</v>
-      </c>
-      <c r="F15" s="12">
-        <v>0</v>
-      </c>
-      <c r="G15" s="12">
-        <v>0</v>
-      </c>
-      <c r="H15" s="12">
-        <v>0</v>
-      </c>
-      <c r="I15" s="12">
-        <v>0</v>
-      </c>
-      <c r="J15" s="12">
-        <v>0</v>
-      </c>
-      <c r="K15" s="12">
-        <v>0</v>
-      </c>
-      <c r="L15" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="M15" s="12">
-        <v>0.7</v>
-      </c>
-      <c r="N15" s="12">
-        <v>3.1</v>
-      </c>
-      <c r="O15" s="12">
-        <v>8.6</v>
-      </c>
-      <c r="P15" s="12">
-        <v>7</v>
-      </c>
-      <c r="Q15" s="12">
-        <v>6.9</v>
-      </c>
-      <c r="R15" s="12">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="S15" s="12">
-        <v>5.6</v>
-      </c>
-      <c r="T15" s="12">
-        <v>13.7</v>
-      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
       <c r="U15" s="12"/>
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
       <c r="X15" s="12"/>
-      <c r="AI15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AL15" s="1">
-        <f t="shared" si="5"/>
-        <v>4.3</v>
-      </c>
-      <c r="AM15" s="1">
-        <v>50</v>
-      </c>
-      <c r="AN15" s="1">
-        <v>100</v>
-      </c>
-      <c r="AO15" s="1">
-        <f t="shared" ref="AO15:BD15" si="18">+AN15*0.9</f>
-        <v>90</v>
-      </c>
-      <c r="AP15" s="1">
-        <f t="shared" si="18"/>
-        <v>81</v>
-      </c>
-      <c r="AQ15" s="1">
-        <f t="shared" si="18"/>
-        <v>72.900000000000006</v>
-      </c>
-      <c r="AR15" s="1">
-        <f t="shared" si="18"/>
-        <v>65.610000000000014</v>
-      </c>
-      <c r="AS15" s="1">
-        <f t="shared" si="18"/>
-        <v>59.049000000000014</v>
-      </c>
-      <c r="AT15" s="1">
-        <f t="shared" si="18"/>
-        <v>53.144100000000016</v>
-      </c>
-      <c r="AU15" s="1">
-        <f t="shared" si="18"/>
-        <v>47.829690000000014</v>
-      </c>
-      <c r="AV15" s="1">
-        <f t="shared" si="18"/>
-        <v>43.046721000000012</v>
-      </c>
-      <c r="AW15" s="1">
-        <f t="shared" si="18"/>
-        <v>38.742048900000015</v>
-      </c>
-      <c r="AX15" s="1">
-        <f t="shared" si="18"/>
-        <v>34.867844010000013</v>
-      </c>
-      <c r="AY15" s="1">
-        <f t="shared" si="18"/>
-        <v>31.381059609000012</v>
-      </c>
-      <c r="AZ15" s="1">
-        <f t="shared" si="18"/>
-        <v>28.242953648100013</v>
-      </c>
-      <c r="BA15" s="1">
-        <f t="shared" si="18"/>
-        <v>25.418658283290011</v>
-      </c>
-      <c r="BB15" s="1">
-        <f t="shared" si="18"/>
-        <v>22.876792454961009</v>
-      </c>
-      <c r="BC15" s="1">
-        <f t="shared" si="18"/>
-        <v>20.589113209464909</v>
-      </c>
-      <c r="BD15" s="1">
-        <f t="shared" si="18"/>
-        <v>18.53020188851842</v>
+      <c r="AD15" s="1">
+        <v>58.4</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>319.7</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>513.20000000000005</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>48.4</v>
       </c>
     </row>
     <row r="16" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -3439,174 +3816,338 @@
       <c r="Q16" s="12"/>
       <c r="R16" s="12"/>
       <c r="S16" s="12"/>
-      <c r="T16" s="12">
-        <v>0.8</v>
-      </c>
+      <c r="T16" s="12"/>
       <c r="U16" s="12"/>
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
       <c r="X16" s="12"/>
+      <c r="AD16" s="1">
+        <v>76</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>234.5</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>333.7</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>26</v>
+      </c>
     </row>
     <row r="17" spans="2:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>137</v>
+        <v>53</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
+      <c r="E17" s="12">
+        <v>27.5</v>
+      </c>
+      <c r="F17" s="12">
+        <v>26.1</v>
+      </c>
+      <c r="G17" s="12">
+        <v>25.5</v>
+      </c>
+      <c r="H17" s="12">
+        <v>25.3</v>
+      </c>
+      <c r="I17" s="12">
+        <v>24.6</v>
+      </c>
+      <c r="J17" s="12">
+        <v>24</v>
+      </c>
+      <c r="K17" s="12">
+        <v>22.5</v>
+      </c>
+      <c r="L17" s="12">
+        <v>20.5</v>
+      </c>
+      <c r="M17" s="12">
+        <v>19</v>
+      </c>
+      <c r="N17" s="12">
+        <v>19.3</v>
+      </c>
+      <c r="O17" s="12">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="P17" s="12">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="Q17" s="12">
+        <v>20.2</v>
+      </c>
+      <c r="R17" s="12">
+        <v>16.7</v>
+      </c>
+      <c r="S17" s="12">
+        <v>17.8</v>
+      </c>
       <c r="T17" s="12">
-        <v>14.9</v>
-      </c>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
+        <v>13.1</v>
+      </c>
+      <c r="U17" s="12">
+        <f>+Q17</f>
+        <v>20.2</v>
+      </c>
+      <c r="V17" s="12">
+        <f>+R17</f>
+        <v>16.7</v>
+      </c>
       <c r="W17" s="12"/>
       <c r="X17" s="12"/>
+      <c r="AD17" s="29"/>
+      <c r="AE17" s="29"/>
+      <c r="AF17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>9</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>43.2</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>97.9</v>
+      </c>
+      <c r="AK17" s="1">
+        <f t="shared" si="4"/>
+        <v>99.4</v>
+      </c>
+      <c r="AL17" s="1">
+        <f t="shared" si="5"/>
+        <v>81.3</v>
+      </c>
+      <c r="AM17" s="1">
+        <f t="shared" si="6"/>
+        <v>77.400000000000006</v>
+      </c>
+      <c r="AN17" s="1">
+        <f t="shared" si="7"/>
+        <v>67.8</v>
+      </c>
+      <c r="AO17" s="1">
+        <f t="shared" ref="AO17:BD17" si="19">+AN17*0.9</f>
+        <v>61.019999999999996</v>
+      </c>
+      <c r="AP17" s="1">
+        <f t="shared" si="19"/>
+        <v>54.917999999999999</v>
+      </c>
+      <c r="AQ17" s="1">
+        <f t="shared" si="19"/>
+        <v>49.426200000000001</v>
+      </c>
+      <c r="AR17" s="1">
+        <f t="shared" si="19"/>
+        <v>44.483580000000003</v>
+      </c>
+      <c r="AS17" s="1">
+        <f t="shared" si="19"/>
+        <v>40.035222000000005</v>
+      </c>
+      <c r="AT17" s="1">
+        <f t="shared" si="19"/>
+        <v>36.031699800000005</v>
+      </c>
+      <c r="AU17" s="1">
+        <f t="shared" si="19"/>
+        <v>32.428529820000008</v>
+      </c>
+      <c r="AV17" s="1">
+        <f t="shared" si="19"/>
+        <v>29.18567683800001</v>
+      </c>
+      <c r="AW17" s="1">
+        <f t="shared" si="19"/>
+        <v>26.267109154200011</v>
+      </c>
+      <c r="AX17" s="1">
+        <f t="shared" si="19"/>
+        <v>23.640398238780008</v>
+      </c>
+      <c r="AY17" s="1">
+        <f t="shared" si="19"/>
+        <v>21.27635841490201</v>
+      </c>
+      <c r="AZ17" s="1">
+        <f t="shared" si="19"/>
+        <v>19.14872257341181</v>
+      </c>
+      <c r="BA17" s="1">
+        <f t="shared" si="19"/>
+        <v>17.23385031607063</v>
+      </c>
+      <c r="BB17" s="1">
+        <f t="shared" si="19"/>
+        <v>15.510465284463567</v>
+      </c>
+      <c r="BC17" s="1">
+        <f t="shared" si="19"/>
+        <v>13.959418756017211</v>
+      </c>
+      <c r="BD17" s="1">
+        <f t="shared" si="19"/>
+        <v>12.563476880415489</v>
+      </c>
     </row>
     <row r="18" spans="2:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12">
+        <v>0</v>
+      </c>
+      <c r="F18" s="12">
+        <v>0</v>
+      </c>
+      <c r="G18" s="12">
+        <v>0</v>
+      </c>
+      <c r="H18" s="12">
+        <v>0</v>
+      </c>
+      <c r="I18" s="12">
+        <v>0</v>
+      </c>
+      <c r="J18" s="12">
+        <v>0</v>
+      </c>
+      <c r="K18" s="12">
+        <v>0</v>
+      </c>
+      <c r="L18" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="M18" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="N18" s="12">
         <v>3.1</v>
       </c>
-      <c r="F18" s="12">
-        <v>3.1</v>
-      </c>
-      <c r="G18" s="12">
-        <v>2.8</v>
-      </c>
-      <c r="H18" s="12">
-        <v>3.1</v>
-      </c>
-      <c r="I18" s="12">
-        <v>2.5</v>
-      </c>
-      <c r="J18" s="12">
-        <v>2.7</v>
-      </c>
-      <c r="K18" s="12">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="L18" s="12">
-        <v>2.7</v>
-      </c>
-      <c r="M18" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="N18" s="12">
-        <v>1.8</v>
-      </c>
       <c r="O18" s="12">
-        <v>2.4</v>
-      </c>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="AI18" s="1">
-        <v>15.2</v>
-      </c>
-      <c r="AJ18" s="1">
-        <v>12.2</v>
-      </c>
-      <c r="AK18" s="1">
-        <f t="shared" si="4"/>
-        <v>11.100000000000001</v>
-      </c>
+        <v>8.6</v>
+      </c>
+      <c r="P18" s="12">
+        <v>7</v>
+      </c>
+      <c r="Q18" s="12">
+        <v>6.9</v>
+      </c>
+      <c r="R18" s="12">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="S18" s="12">
+        <v>5.6</v>
+      </c>
+      <c r="T18" s="12">
+        <v>13.7</v>
+      </c>
+      <c r="U18" s="12">
+        <f>+T18+1</f>
+        <v>14.7</v>
+      </c>
+      <c r="V18" s="12">
+        <f>+U18+1</f>
+        <v>15.7</v>
+      </c>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="AD18" s="29"/>
+      <c r="AE18" s="29"/>
+      <c r="AF18" s="29"/>
+      <c r="AG18" s="29"/>
+      <c r="AH18" s="29"/>
+      <c r="AI18" s="29"/>
+      <c r="AJ18" s="29"/>
+      <c r="AK18" s="29"/>
       <c r="AL18" s="1">
         <f t="shared" si="5"/>
-        <v>8.2000000000000011</v>
+        <v>4.3</v>
       </c>
       <c r="AM18" s="1">
-        <f>+AL18*0.9</f>
-        <v>7.3800000000000008</v>
+        <f t="shared" si="6"/>
+        <v>31.7</v>
       </c>
       <c r="AN18" s="1">
-        <f t="shared" ref="AN18:BD18" si="19">+AM18*0.9</f>
-        <v>6.6420000000000012</v>
+        <f t="shared" si="7"/>
+        <v>49.7</v>
       </c>
       <c r="AO18" s="1">
-        <f t="shared" si="19"/>
-        <v>5.9778000000000011</v>
+        <f t="shared" ref="AO18:BD18" si="20">+AN18*0.9</f>
+        <v>44.730000000000004</v>
       </c>
       <c r="AP18" s="1">
-        <f t="shared" si="19"/>
-        <v>5.3800200000000009</v>
+        <f t="shared" si="20"/>
+        <v>40.257000000000005</v>
       </c>
       <c r="AQ18" s="1">
-        <f t="shared" si="19"/>
-        <v>4.8420180000000013</v>
+        <f t="shared" si="20"/>
+        <v>36.231300000000005</v>
       </c>
       <c r="AR18" s="1">
-        <f t="shared" si="19"/>
-        <v>4.3578162000000011</v>
+        <f t="shared" si="20"/>
+        <v>32.608170000000008</v>
       </c>
       <c r="AS18" s="1">
-        <f t="shared" si="19"/>
-        <v>3.9220345800000009</v>
+        <f t="shared" si="20"/>
+        <v>29.347353000000009</v>
       </c>
       <c r="AT18" s="1">
-        <f t="shared" si="19"/>
-        <v>3.5298311220000009</v>
+        <f t="shared" si="20"/>
+        <v>26.412617700000009</v>
       </c>
       <c r="AU18" s="1">
-        <f t="shared" si="19"/>
-        <v>3.1768480098000009</v>
+        <f t="shared" si="20"/>
+        <v>23.771355930000009</v>
       </c>
       <c r="AV18" s="1">
-        <f t="shared" si="19"/>
-        <v>2.859163208820001</v>
+        <f t="shared" si="20"/>
+        <v>21.394220337000007</v>
       </c>
       <c r="AW18" s="1">
-        <f t="shared" si="19"/>
-        <v>2.573246887938001</v>
+        <f t="shared" si="20"/>
+        <v>19.254798303300007</v>
       </c>
       <c r="AX18" s="1">
-        <f t="shared" si="19"/>
-        <v>2.3159221991442012</v>
+        <f t="shared" si="20"/>
+        <v>17.329318472970005</v>
       </c>
       <c r="AY18" s="1">
-        <f t="shared" si="19"/>
-        <v>2.0843299792297811</v>
+        <f t="shared" si="20"/>
+        <v>15.596386625673006</v>
       </c>
       <c r="AZ18" s="1">
-        <f t="shared" si="19"/>
-        <v>1.8758969813068032</v>
+        <f t="shared" si="20"/>
+        <v>14.036747963105705</v>
       </c>
       <c r="BA18" s="1">
-        <f t="shared" si="19"/>
-        <v>1.6883072831761228</v>
+        <f t="shared" si="20"/>
+        <v>12.633073166795135</v>
       </c>
       <c r="BB18" s="1">
-        <f t="shared" si="19"/>
-        <v>1.5194765548585105</v>
+        <f t="shared" si="20"/>
+        <v>11.369765850115622</v>
       </c>
       <c r="BC18" s="1">
-        <f t="shared" si="19"/>
-        <v>1.3675288993726595</v>
+        <f t="shared" si="20"/>
+        <v>10.23278926510406</v>
       </c>
       <c r="BD18" s="1">
-        <f t="shared" si="19"/>
-        <v>1.2307760094353937</v>
+        <f t="shared" si="20"/>
+        <v>9.2095103385936543</v>
       </c>
     </row>
     <row r="19" spans="2:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -3620,3331 +4161,4119 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
-      <c r="O19" s="12">
-        <v>-18.899999999999999</v>
-      </c>
+      <c r="O19" s="12"/>
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
-      <c r="R19" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="S19" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="T19" s="26" t="s">
-        <v>139</v>
-      </c>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="U19" s="12">
+        <f>+T19+2</f>
+        <v>2.8</v>
+      </c>
+      <c r="V19" s="12">
+        <f>+U19+2</f>
+        <v>4.8</v>
+      </c>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="29"/>
+      <c r="AF19" s="29"/>
+      <c r="AG19" s="29"/>
+      <c r="AH19" s="29"/>
+      <c r="AI19" s="29"/>
+      <c r="AJ19" s="29"/>
+      <c r="AK19" s="29"/>
+      <c r="AL19" s="29"/>
       <c r="AM19" s="1">
-        <v>1500</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="AN19" s="1">
-        <v>4000</v>
+        <f t="shared" si="7"/>
+        <v>8.3999999999999986</v>
       </c>
       <c r="AO19" s="1">
-        <v>6000</v>
+        <f>+AN19+2</f>
+        <v>10.399999999999999</v>
       </c>
       <c r="AP19" s="1">
-        <v>8000</v>
+        <f t="shared" ref="AP19:BD19" si="21">+AO19+2</f>
+        <v>12.399999999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <f>+AP19*1.05</f>
-        <v>8400</v>
+        <f t="shared" si="21"/>
+        <v>14.399999999999999</v>
       </c>
       <c r="AR19" s="1">
-        <f t="shared" ref="AR19:AS19" si="20">+AQ19*1.05</f>
-        <v>8820</v>
+        <f t="shared" si="21"/>
+        <v>16.399999999999999</v>
       </c>
       <c r="AS19" s="1">
-        <f t="shared" si="20"/>
-        <v>9261</v>
+        <f t="shared" si="21"/>
+        <v>18.399999999999999</v>
       </c>
       <c r="AT19" s="1">
-        <f>+AS19*1.02</f>
-        <v>9446.2199999999993</v>
+        <f t="shared" si="21"/>
+        <v>20.399999999999999</v>
       </c>
       <c r="AU19" s="1">
-        <f t="shared" ref="AU19:BD19" si="21">+AT19*1.02</f>
-        <v>9635.1443999999992</v>
+        <f t="shared" si="21"/>
+        <v>22.4</v>
       </c>
       <c r="AV19" s="1">
         <f t="shared" si="21"/>
-        <v>9827.847287999999</v>
+        <v>24.4</v>
       </c>
       <c r="AW19" s="1">
         <f t="shared" si="21"/>
-        <v>10024.404233759999</v>
+        <v>26.4</v>
       </c>
       <c r="AX19" s="1">
         <f t="shared" si="21"/>
-        <v>10224.892318435199</v>
+        <v>28.4</v>
       </c>
       <c r="AY19" s="1">
         <f t="shared" si="21"/>
-        <v>10429.390164803903</v>
+        <v>30.4</v>
       </c>
       <c r="AZ19" s="1">
         <f t="shared" si="21"/>
-        <v>10637.977968099982</v>
+        <v>32.4</v>
       </c>
       <c r="BA19" s="1">
         <f t="shared" si="21"/>
-        <v>10850.737527461981</v>
+        <v>34.4</v>
       </c>
       <c r="BB19" s="1">
         <f t="shared" si="21"/>
-        <v>11067.752278011221</v>
+        <v>36.4</v>
       </c>
       <c r="BC19" s="1">
         <f t="shared" si="21"/>
-        <v>11289.107323571447</v>
+        <v>38.4</v>
       </c>
       <c r="BD19" s="1">
         <f t="shared" si="21"/>
-        <v>11514.889470042875</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="20" spans="2:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="12">
-        <v>0</v>
-      </c>
-      <c r="F20" s="12">
-        <v>0</v>
-      </c>
-      <c r="G20" s="12">
-        <v>0</v>
-      </c>
-      <c r="H20" s="12">
-        <v>1.6</v>
-      </c>
-      <c r="I20" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="J20" s="12">
-        <v>1</v>
-      </c>
-      <c r="K20" s="12">
-        <v>2.8</v>
-      </c>
-      <c r="L20" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="M20" s="12">
-        <v>1.6</v>
-      </c>
-      <c r="N20" s="12">
-        <v>0.3</v>
-      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
-      <c r="AI20" s="1">
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12">
+        <v>14.9</v>
+      </c>
+      <c r="U20" s="12">
+        <f>+T20+1</f>
+        <v>15.9</v>
+      </c>
+      <c r="V20" s="12">
+        <f>+U20+1</f>
+        <v>16.899999999999999</v>
+      </c>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="29"/>
+      <c r="AF20" s="29"/>
+      <c r="AG20" s="29"/>
+      <c r="AH20" s="29"/>
+      <c r="AI20" s="29"/>
+      <c r="AJ20" s="29"/>
+      <c r="AK20" s="29"/>
+      <c r="AL20" s="29"/>
+      <c r="AM20" s="1">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AJ20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK20" s="1">
-        <f t="shared" si="4"/>
-        <v>2.9000000000000004</v>
-      </c>
-      <c r="AL20" s="1">
-        <f t="shared" si="5"/>
-        <v>4.8</v>
-      </c>
-      <c r="AM20" s="1">
-        <f t="shared" ref="AM20:BD20" si="22">+AL20*0.9</f>
-        <v>4.32</v>
-      </c>
       <c r="AN20" s="1">
-        <f t="shared" si="22"/>
-        <v>3.8880000000000003</v>
+        <f t="shared" si="7"/>
+        <v>47.7</v>
       </c>
       <c r="AO20" s="1">
-        <f t="shared" si="22"/>
-        <v>3.4992000000000005</v>
+        <f>+AN20</f>
+        <v>47.7</v>
       </c>
       <c r="AP20" s="1">
-        <f t="shared" si="22"/>
-        <v>3.1492800000000005</v>
+        <f t="shared" ref="AP20:BD20" si="22">+AO20</f>
+        <v>47.7</v>
       </c>
       <c r="AQ20" s="1">
         <f t="shared" si="22"/>
-        <v>2.8343520000000004</v>
+        <v>47.7</v>
       </c>
       <c r="AR20" s="1">
         <f t="shared" si="22"/>
-        <v>2.5509168000000004</v>
+        <v>47.7</v>
       </c>
       <c r="AS20" s="1">
         <f t="shared" si="22"/>
-        <v>2.2958251200000004</v>
+        <v>47.7</v>
       </c>
       <c r="AT20" s="1">
         <f t="shared" si="22"/>
-        <v>2.0662426080000005</v>
+        <v>47.7</v>
       </c>
       <c r="AU20" s="1">
         <f t="shared" si="22"/>
-        <v>1.8596183472000005</v>
+        <v>47.7</v>
       </c>
       <c r="AV20" s="1">
         <f t="shared" si="22"/>
-        <v>1.6736565124800005</v>
+        <v>47.7</v>
       </c>
       <c r="AW20" s="1">
         <f t="shared" si="22"/>
-        <v>1.5062908612320005</v>
+        <v>47.7</v>
       </c>
       <c r="AX20" s="1">
         <f t="shared" si="22"/>
-        <v>1.3556617751088005</v>
+        <v>47.7</v>
       </c>
       <c r="AY20" s="1">
         <f t="shared" si="22"/>
-        <v>1.2200955975979204</v>
+        <v>47.7</v>
       </c>
       <c r="AZ20" s="1">
         <f t="shared" si="22"/>
-        <v>1.0980860378381283</v>
+        <v>47.7</v>
       </c>
       <c r="BA20" s="1">
         <f t="shared" si="22"/>
-        <v>0.98827743405431545</v>
+        <v>47.7</v>
       </c>
       <c r="BB20" s="1">
         <f t="shared" si="22"/>
-        <v>0.88944969064888391</v>
+        <v>47.7</v>
       </c>
       <c r="BC20" s="1">
         <f t="shared" si="22"/>
-        <v>0.80050472158399555</v>
+        <v>47.7</v>
       </c>
       <c r="BD20" s="1">
         <f t="shared" si="22"/>
-        <v>0.72045424942559599</v>
+        <v>47.7</v>
       </c>
     </row>
     <row r="21" spans="2:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12">
-        <f>SUM(E3:E20)</f>
-        <v>2690.2999999999993</v>
+        <v>3.1</v>
       </c>
       <c r="F21" s="12">
-        <f>SUM(F3:F20)</f>
-        <v>2301.5999999999995</v>
+        <v>3.1</v>
       </c>
       <c r="G21" s="12">
-        <f>SUM(G3:G20)</f>
-        <v>2211.7000000000003</v>
+        <v>2.8</v>
       </c>
       <c r="H21" s="12">
-        <f>SUM(H3:H20)</f>
-        <v>2235.9999999999995</v>
+        <v>3.1</v>
       </c>
       <c r="I21" s="12">
-        <f>SUM(I3:I20)</f>
-        <v>2205.7000000000003</v>
+        <v>2.5</v>
       </c>
       <c r="J21" s="12">
-        <f>SUM(J3:J20)</f>
-        <v>2193.7999999999997</v>
+        <v>2.7</v>
       </c>
       <c r="K21" s="12">
-        <f>SUM(K3:K20)</f>
-        <v>2066.3000000000002</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L21" s="12">
-        <f>SUM(L3:L20)</f>
-        <v>2054.7999999999997</v>
+        <v>2.7</v>
       </c>
       <c r="M21" s="12">
-        <f>SUM(M3:M20)</f>
-        <v>1962.1000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="N21" s="12">
-        <f>SUM(N3:N20)</f>
-        <v>1904.4999999999998</v>
+        <v>1.8</v>
       </c>
       <c r="O21" s="12">
-        <f>SUM(O3:O20)</f>
-        <v>1744.4</v>
-      </c>
-      <c r="P21" s="12">
-        <f>SUM(P3:P20)</f>
-        <v>1841.5</v>
-      </c>
-      <c r="Q21" s="12">
-        <f>SUM(Q3:Q20)</f>
-        <v>1801.5000000000002</v>
-      </c>
-      <c r="R21" s="12">
-        <f>SUM(R3:R20)</f>
-        <v>1828.4</v>
-      </c>
-      <c r="S21" s="12">
-        <f>SUM(S3:S20)</f>
-        <v>1696.6999999999998</v>
-      </c>
-      <c r="T21" s="12">
-        <f>SUM(T3:T20)</f>
-        <v>1896.9</v>
-      </c>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
+        <v>2.4</v>
+      </c>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="AD21" s="1">
+        <v>62.5</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>51.4</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>45.9</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>39.6</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>22.3</v>
+      </c>
       <c r="AI21" s="1">
-        <f>SUM(AI3:AI20)</f>
-        <v>11379.800000000001</v>
+        <v>15.2</v>
       </c>
       <c r="AJ21" s="1">
-        <f>SUM(AJ3:AJ20)</f>
-        <v>10692.2</v>
+        <v>12.2</v>
       </c>
       <c r="AK21" s="1">
-        <f>SUM(AK3:AK20)</f>
-        <v>8847.1999999999989</v>
+        <f t="shared" si="4"/>
+        <v>11.100000000000001</v>
       </c>
       <c r="AL21" s="1">
-        <f>SUM(AL3:AL20)</f>
-        <v>7987.7000000000007</v>
+        <f t="shared" si="5"/>
+        <v>8.2000000000000011</v>
       </c>
       <c r="AM21" s="1">
-        <f>SUM(AM3:AM20)</f>
-        <v>8941.3439999999991</v>
+        <f t="shared" si="6"/>
+        <v>2.4</v>
       </c>
       <c r="AN21" s="1">
-        <f>SUM(AN3:AN20)</f>
-        <v>10999.843840000003</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <f>SUM(AO3:AO20)</f>
-        <v>12252.763589</v>
+        <f t="shared" ref="AO21:BD21" si="23">+AN21*0.9</f>
+        <v>0</v>
       </c>
       <c r="AP21" s="1">
-        <f>SUM(AP3:AP20)</f>
-        <v>13575.4943439</v>
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
       <c r="AQ21" s="1">
-        <f>SUM(AQ3:AQ20)</f>
-        <v>13396.1060184125</v>
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <f>SUM(AR3:AR20)</f>
-        <v>13319.994079751052</v>
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
       <c r="AS21" s="1">
-        <f>SUM(AS3:AS20)</f>
-        <v>13335.90383920408</v>
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <f>SUM(AT3:AT20)</f>
-        <v>13156.75277555259</v>
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
       <c r="AU21" s="1">
-        <f>SUM(AU3:AU20)</f>
-        <v>12580.784201597131</v>
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
       <c r="AV21" s="1">
-        <f>SUM(AV3:AV20)</f>
-        <v>12394.100446658367</v>
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
       <c r="AW21" s="1">
-        <f>SUM(AW3:AW20)</f>
-        <v>12266.082428885538</v>
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
       <c r="AX21" s="1">
-        <f>SUM(AX3:AX20)</f>
-        <v>12188.12207092172</v>
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <f>SUM(AY3:AY20)</f>
-        <v>12153.088714889258</v>
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
       <c r="AZ21" s="1">
-        <f>SUM(AZ3:AZ20)</f>
-        <v>12155.065500664121</v>
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
       <c r="BA21" s="1">
-        <f>SUM(BA3:BA20)</f>
-        <v>12189.134492222312</v>
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
       <c r="BB21" s="1">
-        <f>SUM(BB3:BB20)</f>
-        <v>12251.201326479024</v>
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
       <c r="BC21" s="1">
-        <f>SUM(BC3:BC20)</f>
-        <v>12337.851932881655</v>
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <f>SUM(BD3:BD20)</f>
-        <v>12446.235301053905</v>
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
-      <c r="E22" s="12">
-        <v>272.39999999999998</v>
-      </c>
-      <c r="F22" s="12">
-        <v>202.4</v>
-      </c>
-      <c r="G22" s="12">
-        <v>209.3</v>
-      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
       <c r="H22" s="12"/>
-      <c r="I22" s="12">
-        <v>264.3</v>
-      </c>
-      <c r="J22" s="12">
-        <v>261.2</v>
-      </c>
-      <c r="K22" s="12">
-        <v>252.3</v>
-      </c>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
       <c r="L22" s="12"/>
-      <c r="M22" s="12">
-        <v>281.10000000000002</v>
-      </c>
-      <c r="N22" s="12">
-        <v>311.10000000000002</v>
-      </c>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
       <c r="O22" s="12">
-        <v>283.60000000000002</v>
-      </c>
-      <c r="P22" s="12">
-        <v>325.5</v>
-      </c>
-      <c r="Q22" s="12">
-        <v>319.10000000000002</v>
-      </c>
-      <c r="R22" s="1">
-        <v>338</v>
-      </c>
-      <c r="S22" s="1">
-        <v>302.7</v>
-      </c>
-      <c r="T22" s="1">
-        <v>336.3</v>
-      </c>
-      <c r="AI22" s="1">
-        <v>748</v>
-      </c>
-      <c r="AJ22" s="1">
-        <v>897.6</v>
-      </c>
-      <c r="AK22" s="1">
-        <f t="shared" si="4"/>
-        <v>734.8</v>
-      </c>
-      <c r="AL22" s="1">
-        <f>SUM(K22:N22)</f>
-        <v>844.50000000000011</v>
-      </c>
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="S22" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="T22" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="U22" s="1">
+        <f>+T22+25</f>
+        <v>65</v>
+      </c>
+      <c r="V22" s="1">
+        <f>+U22+25</f>
+        <v>90</v>
+      </c>
+      <c r="AD22" s="29"/>
+      <c r="AE22" s="29"/>
+      <c r="AF22" s="29"/>
+      <c r="AG22" s="29"/>
+      <c r="AH22" s="29"/>
+      <c r="AI22" s="29"/>
+      <c r="AJ22" s="29"/>
+      <c r="AK22" s="29"/>
+      <c r="AL22" s="29"/>
       <c r="AM22" s="1">
-        <f>+AL22*0.9</f>
-        <v>760.05000000000007</v>
+        <f t="shared" si="6"/>
+        <v>-18.899999999999999</v>
       </c>
       <c r="AN22" s="1">
-        <f t="shared" ref="AN22:BD22" si="23">+AM22*0.9</f>
-        <v>684.04500000000007</v>
+        <f t="shared" si="7"/>
+        <v>155</v>
       </c>
       <c r="AO22" s="1">
-        <f t="shared" si="23"/>
-        <v>615.64050000000009</v>
+        <v>500</v>
       </c>
       <c r="AP22" s="1">
-        <f t="shared" si="23"/>
-        <v>554.07645000000014</v>
+        <v>1000</v>
       </c>
       <c r="AQ22" s="1">
-        <f t="shared" si="23"/>
-        <v>498.66880500000013</v>
+        <f>+AP22*1.05</f>
+        <v>1050</v>
       </c>
       <c r="AR22" s="1">
-        <f t="shared" si="23"/>
-        <v>448.80192450000015</v>
+        <f t="shared" ref="AR22:AS22" si="24">+AQ22*1.05</f>
+        <v>1102.5</v>
       </c>
       <c r="AS22" s="1">
-        <f t="shared" si="23"/>
-        <v>403.92173205000017</v>
+        <f t="shared" si="24"/>
+        <v>1157.625</v>
       </c>
       <c r="AT22" s="1">
-        <f t="shared" si="23"/>
-        <v>363.52955884500017</v>
+        <f>+AS22*1.02</f>
+        <v>1180.7774999999999</v>
       </c>
       <c r="AU22" s="1">
-        <f t="shared" si="23"/>
-        <v>327.17660296050013</v>
+        <f t="shared" ref="AU22:BD22" si="25">+AT22*1.02</f>
+        <v>1204.3930499999999</v>
       </c>
       <c r="AV22" s="1">
-        <f t="shared" si="23"/>
-        <v>294.45894266445015</v>
+        <f t="shared" si="25"/>
+        <v>1228.4809109999999</v>
       </c>
       <c r="AW22" s="1">
-        <f t="shared" si="23"/>
-        <v>265.01304839800514</v>
+        <f t="shared" si="25"/>
+        <v>1253.0505292199998</v>
       </c>
       <c r="AX22" s="1">
-        <f t="shared" si="23"/>
-        <v>238.51174355820464</v>
+        <f t="shared" si="25"/>
+        <v>1278.1115398043999</v>
       </c>
       <c r="AY22" s="1">
-        <f t="shared" si="23"/>
-        <v>214.66056920238418</v>
+        <f t="shared" si="25"/>
+        <v>1303.6737706004878</v>
       </c>
       <c r="AZ22" s="1">
-        <f t="shared" si="23"/>
-        <v>193.19451228214578</v>
+        <f t="shared" si="25"/>
+        <v>1329.7472460124977</v>
       </c>
       <c r="BA22" s="1">
-        <f t="shared" si="23"/>
-        <v>173.8750610539312</v>
+        <f t="shared" si="25"/>
+        <v>1356.3421909327476</v>
       </c>
       <c r="BB22" s="1">
-        <f t="shared" si="23"/>
-        <v>156.48755494853808</v>
+        <f t="shared" si="25"/>
+        <v>1383.4690347514027</v>
       </c>
       <c r="BC22" s="1">
-        <f t="shared" si="23"/>
-        <v>140.83879945368426</v>
+        <f t="shared" si="25"/>
+        <v>1411.1384154464308</v>
       </c>
       <c r="BD22" s="1">
-        <f t="shared" si="23"/>
-        <v>126.75491950831584</v>
+        <f t="shared" si="25"/>
+        <v>1439.3611837553594</v>
       </c>
     </row>
     <row r="23" spans="2:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12">
-        <v>287.7</v>
+        <v>0</v>
       </c>
       <c r="F23" s="12">
-        <v>216.6</v>
+        <v>0</v>
       </c>
       <c r="G23" s="12">
-        <v>179.7</v>
-      </c>
-      <c r="H23" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="12">
+        <v>1.6</v>
+      </c>
       <c r="I23" s="12">
-        <v>151.1</v>
+        <v>0.3</v>
       </c>
       <c r="J23" s="12">
-        <v>152.9</v>
+        <v>1</v>
       </c>
       <c r="K23" s="12">
-        <v>147.1</v>
-      </c>
-      <c r="L23" s="12"/>
+        <v>2.8</v>
+      </c>
+      <c r="L23" s="12">
+        <v>0.1</v>
+      </c>
       <c r="M23" s="12">
-        <v>135.80000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="N23" s="12">
-        <v>136.80000000000001</v>
-      </c>
-      <c r="O23" s="12">
-        <v>112.5</v>
-      </c>
-      <c r="P23" s="12">
-        <v>103.6</v>
-      </c>
-      <c r="Q23" s="12">
-        <v>98.9</v>
-      </c>
-      <c r="R23" s="1">
-        <v>94.4</v>
-      </c>
-      <c r="S23" s="1">
-        <v>87.1</v>
-      </c>
-      <c r="T23" s="1">
-        <v>103.4</v>
-      </c>
-      <c r="AI23" s="1">
-        <v>1542.4</v>
-      </c>
-      <c r="AJ23" s="1">
-        <v>1080.2</v>
-      </c>
+        <v>0.3</v>
+      </c>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="AD23" s="29"/>
+      <c r="AE23" s="29"/>
+      <c r="AF23" s="29"/>
+      <c r="AG23" s="29"/>
+      <c r="AH23" s="29"/>
+      <c r="AI23" s="29"/>
+      <c r="AJ23" s="29"/>
       <c r="AK23" s="1">
         <f t="shared" si="4"/>
-        <v>483.69999999999993</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="AL23" s="1">
         <f t="shared" si="5"/>
-        <v>419.7</v>
+        <v>4.8</v>
       </c>
       <c r="AM23" s="1">
-        <f t="shared" ref="AM23:BD23" si="24">+AL23*0.9</f>
-        <v>377.73</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="AN23" s="1">
-        <f t="shared" si="24"/>
-        <v>339.95700000000005</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <f t="shared" si="24"/>
-        <v>305.96130000000005</v>
+        <f t="shared" ref="AO23:BD23" si="26">+AN23*0.9</f>
+        <v>0</v>
       </c>
       <c r="AP23" s="1">
-        <f t="shared" si="24"/>
-        <v>275.36517000000003</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="AQ23" s="1">
-        <f t="shared" si="24"/>
-        <v>247.82865300000003</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="AR23" s="1">
-        <f t="shared" si="24"/>
-        <v>223.04578770000003</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="AS23" s="1">
-        <f t="shared" si="24"/>
-        <v>200.74120893000003</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <f t="shared" si="24"/>
-        <v>180.66708803700004</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="AU23" s="1">
-        <f t="shared" si="24"/>
-        <v>162.60037923330003</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="AV23" s="1">
-        <f t="shared" si="24"/>
-        <v>146.34034130997003</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="AW23" s="1">
-        <f t="shared" si="24"/>
-        <v>131.70630717897302</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="AX23" s="1">
-        <f t="shared" si="24"/>
-        <v>118.53567646107572</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <f t="shared" si="24"/>
-        <v>106.68210881496816</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="AZ23" s="1">
-        <f t="shared" si="24"/>
-        <v>96.013897933471341</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="BA23" s="1">
-        <f t="shared" si="24"/>
-        <v>86.412508140124203</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="BB23" s="1">
-        <f t="shared" si="24"/>
-        <v>77.77125732611178</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="BC23" s="1">
-        <f t="shared" si="24"/>
-        <v>69.994131593500597</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <f t="shared" si="24"/>
-        <v>62.994718434150542</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
+      <c r="E24" s="12">
+        <f t="shared" ref="E24:V24" si="27">SUM(E3:E23)</f>
+        <v>2690.2999999999993</v>
+      </c>
+      <c r="F24" s="12">
+        <f t="shared" si="27"/>
+        <v>2301.5999999999995</v>
+      </c>
+      <c r="G24" s="12">
+        <f t="shared" si="27"/>
+        <v>2211.7000000000003</v>
+      </c>
       <c r="H24" s="12">
-        <v>440</v>
-      </c>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
+        <f t="shared" si="27"/>
+        <v>2235.9999999999995</v>
+      </c>
+      <c r="I24" s="12">
+        <f t="shared" si="27"/>
+        <v>2205.7000000000003</v>
+      </c>
+      <c r="J24" s="12">
+        <f t="shared" si="27"/>
+        <v>2193.7999999999997</v>
+      </c>
+      <c r="K24" s="12">
+        <f t="shared" si="27"/>
+        <v>2066.3000000000002</v>
+      </c>
       <c r="L24" s="12">
-        <v>436.3</v>
+        <f t="shared" si="27"/>
+        <v>2054.7999999999997</v>
       </c>
       <c r="M24" s="12">
-        <f>+M22+M23</f>
-        <v>416.90000000000003</v>
+        <f t="shared" si="27"/>
+        <v>1962.1000000000001</v>
       </c>
       <c r="N24" s="12">
-        <f>+N22+N23</f>
-        <v>447.90000000000003</v>
+        <f t="shared" si="27"/>
+        <v>1904.4999999999998</v>
       </c>
       <c r="O24" s="12">
-        <f>+O22+O23+3.4</f>
-        <v>399.5</v>
+        <f t="shared" si="27"/>
+        <v>1744.4</v>
       </c>
       <c r="P24" s="12">
-        <v>4.3</v>
+        <f t="shared" si="27"/>
+        <v>1841.5</v>
       </c>
       <c r="Q24" s="12">
-        <v>2.9</v>
+        <f t="shared" si="27"/>
+        <v>1801.5000000000002</v>
       </c>
       <c r="R24" s="12">
-        <v>3.4</v>
+        <f t="shared" si="27"/>
+        <v>1828.4</v>
       </c>
       <c r="S24" s="12">
-        <v>4.2</v>
+        <f t="shared" si="27"/>
+        <v>1696.6999999999998</v>
       </c>
       <c r="T24" s="12">
-        <v>4.8</v>
-      </c>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
+        <f t="shared" si="27"/>
+        <v>1896.9</v>
+      </c>
+      <c r="U24" s="12">
+        <f t="shared" si="27"/>
+        <v>1955.6000000000004</v>
+      </c>
+      <c r="V24" s="12">
+        <f t="shared" si="27"/>
+        <v>1972.9300000000003</v>
+      </c>
       <c r="W24" s="12"/>
       <c r="X24" s="12"/>
+      <c r="AD24" s="1">
+        <f t="shared" ref="AD24:AI24" si="28">SUM(AD3:AD23)</f>
+        <v>8203.3999999999978</v>
+      </c>
+      <c r="AE24" s="1">
+        <f t="shared" si="28"/>
+        <v>9188.5000000000018</v>
+      </c>
+      <c r="AF24" s="1">
+        <f t="shared" si="28"/>
+        <v>9817.9</v>
+      </c>
+      <c r="AG24" s="1">
+        <f t="shared" si="28"/>
+        <v>10354.700000000001</v>
+      </c>
+      <c r="AH24" s="1">
+        <f t="shared" si="28"/>
+        <v>10886.800000000003</v>
+      </c>
+      <c r="AI24" s="1">
+        <f t="shared" ref="AI24:BD24" si="29">SUM(AI3:AI23)</f>
+        <v>11379.800000000001</v>
+      </c>
+      <c r="AJ24" s="1">
+        <f t="shared" si="29"/>
+        <v>10692.2</v>
+      </c>
       <c r="AK24" s="1">
-        <f t="shared" si="4"/>
-        <v>440</v>
+        <f t="shared" si="29"/>
+        <v>8847.1999999999989</v>
       </c>
       <c r="AL24" s="1">
-        <f t="shared" si="5"/>
-        <v>1301.1000000000001</v>
+        <f t="shared" si="29"/>
+        <v>7987.7000000000007</v>
       </c>
       <c r="AM24" s="1">
-        <f t="shared" ref="AM24:BD24" si="25">+AL24*0.9</f>
-        <v>1170.9900000000002</v>
+        <f t="shared" si="29"/>
+        <v>7215.8</v>
       </c>
       <c r="AN24" s="1">
-        <f t="shared" si="25"/>
-        <v>1053.8910000000003</v>
+        <f t="shared" si="29"/>
+        <v>7522.13</v>
       </c>
       <c r="AO24" s="1">
-        <f t="shared" si="25"/>
-        <v>948.50190000000032</v>
+        <f t="shared" si="29"/>
+        <v>7404.98</v>
       </c>
       <c r="AP24" s="1">
-        <f t="shared" si="25"/>
-        <v>853.65171000000032</v>
+        <f t="shared" si="29"/>
+        <v>7697.3659500000003</v>
       </c>
       <c r="AQ24" s="1">
-        <f t="shared" si="25"/>
-        <v>768.28653900000029</v>
+        <f t="shared" si="29"/>
+        <v>7589.2013754999998</v>
       </c>
       <c r="AR24" s="1">
-        <f t="shared" si="25"/>
-        <v>691.45788510000023</v>
+        <f t="shared" si="29"/>
+        <v>7333.1291344650017</v>
       </c>
       <c r="AS24" s="1">
-        <f t="shared" si="25"/>
-        <v>622.31209659000024</v>
+        <f t="shared" si="29"/>
+        <v>7010.6666048589514</v>
       </c>
       <c r="AT24" s="1">
-        <f t="shared" si="25"/>
-        <v>560.08088693100024</v>
+        <f t="shared" si="29"/>
+        <v>6715.8620688272194</v>
       </c>
       <c r="AU24" s="1">
-        <f t="shared" si="25"/>
-        <v>504.0727982379002</v>
+        <f t="shared" si="29"/>
+        <v>6158.2804273540632</v>
       </c>
       <c r="AV24" s="1">
-        <f t="shared" si="25"/>
-        <v>453.66551841411018</v>
+        <f t="shared" si="29"/>
+        <v>5882.2866507996732</v>
       </c>
       <c r="AW24" s="1">
-        <f t="shared" si="25"/>
-        <v>408.29896657269916</v>
+        <f t="shared" si="29"/>
+        <v>5656.4346434708805</v>
       </c>
       <c r="AX24" s="1">
-        <f t="shared" si="25"/>
-        <v>367.46906991542926</v>
+        <f t="shared" si="29"/>
+        <v>5473.3350674115245</v>
       </c>
       <c r="AY24" s="1">
-        <f t="shared" si="25"/>
-        <v>330.72216292388634</v>
+        <f t="shared" si="29"/>
+        <v>5326.8422918058723</v>
       </c>
       <c r="AZ24" s="1">
-        <f t="shared" si="25"/>
-        <v>297.6499466314977</v>
+        <f t="shared" si="29"/>
+        <v>3158.1009740765103</v>
       </c>
       <c r="BA24" s="1">
-        <f t="shared" si="25"/>
-        <v>267.88495196834793</v>
+        <f t="shared" si="29"/>
+        <v>2823.8622312779275</v>
       </c>
       <c r="BB24" s="1">
-        <f t="shared" si="25"/>
-        <v>241.09645677151315</v>
+        <f t="shared" si="29"/>
+        <v>2693.1769803415928</v>
       </c>
       <c r="BC24" s="1">
-        <f t="shared" si="25"/>
-        <v>216.98681109436183</v>
+        <f t="shared" si="29"/>
+        <v>2600.3056028577757</v>
       </c>
       <c r="BD24" s="1">
-        <f t="shared" si="25"/>
-        <v>195.28812998492566</v>
+        <f t="shared" si="29"/>
+        <v>2526.4571783603096</v>
       </c>
     </row>
     <row r="25" spans="2:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12">
-        <v>125.7</v>
+        <v>272.39999999999998</v>
       </c>
       <c r="F25" s="12">
-        <v>132</v>
+        <v>202.4</v>
       </c>
       <c r="G25" s="12">
-        <v>93.3</v>
-      </c>
-      <c r="H25" s="12">
-        <v>99</v>
-      </c>
+        <v>209.3</v>
+      </c>
+      <c r="H25" s="12"/>
       <c r="I25" s="12">
-        <v>157.80000000000001</v>
+        <v>264.3</v>
       </c>
       <c r="J25" s="12">
-        <v>126.2</v>
+        <v>261.2</v>
       </c>
       <c r="K25" s="12">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="L25" s="12">
-        <v>98</v>
-      </c>
+        <v>252.3</v>
+      </c>
+      <c r="L25" s="12"/>
       <c r="M25" s="12">
-        <v>129.5</v>
+        <v>281.10000000000002</v>
       </c>
       <c r="N25" s="12">
-        <v>191.6</v>
+        <v>311.10000000000002</v>
       </c>
       <c r="O25" s="12">
+        <v>283.60000000000002</v>
+      </c>
+      <c r="P25" s="12">
+        <v>325.5</v>
+      </c>
+      <c r="Q25" s="12">
         <v>319.10000000000002</v>
       </c>
-      <c r="P25" s="12">
-        <f>4.3+197.5-20.7</f>
-        <v>181.10000000000002</v>
-      </c>
-      <c r="Q25" s="12">
-        <f>3.7+304.2</f>
-        <v>307.89999999999998</v>
-      </c>
-      <c r="R25" s="12">
-        <f>4+118.1</f>
-        <v>122.1</v>
-      </c>
-      <c r="S25" s="12">
-        <f>15.2+184.6</f>
-        <v>199.79999999999998</v>
-      </c>
-      <c r="T25" s="12">
-        <f>120.8+2.7</f>
-        <v>123.5</v>
-      </c>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="12"/>
+      <c r="R25" s="1">
+        <v>338</v>
+      </c>
+      <c r="S25" s="1">
+        <v>302.7</v>
+      </c>
+      <c r="T25" s="1">
+        <v>336.3</v>
+      </c>
+      <c r="U25" s="1">
+        <f>+Q25</f>
+        <v>319.10000000000002</v>
+      </c>
+      <c r="V25" s="1">
+        <f>+R25</f>
+        <v>338</v>
+      </c>
       <c r="AI25" s="1">
-        <v>707.7</v>
+        <v>748</v>
       </c>
       <c r="AJ25" s="1">
-        <v>774.6</v>
+        <v>897.6</v>
       </c>
       <c r="AK25" s="1">
         <f t="shared" si="4"/>
-        <v>476.3</v>
+        <v>734.8</v>
       </c>
       <c r="AL25" s="1">
+        <f>SUM(K25:N25)</f>
+        <v>844.50000000000011</v>
+      </c>
+      <c r="AM25" s="1">
+        <f t="shared" si="6"/>
+        <v>1266.2</v>
+      </c>
+      <c r="AN25" s="1">
+        <f t="shared" si="7"/>
+        <v>1296.0999999999999</v>
+      </c>
+      <c r="AO25" s="1">
+        <f t="shared" ref="AO25:BD25" si="30">+AN25*0.9</f>
+        <v>1166.49</v>
+      </c>
+      <c r="AP25" s="1">
+        <f t="shared" si="30"/>
+        <v>1049.8410000000001</v>
+      </c>
+      <c r="AQ25" s="1">
+        <f t="shared" si="30"/>
+        <v>944.85690000000011</v>
+      </c>
+      <c r="AR25" s="1">
+        <f t="shared" si="30"/>
+        <v>850.37121000000013</v>
+      </c>
+      <c r="AS25" s="1">
+        <f t="shared" si="30"/>
+        <v>765.33408900000018</v>
+      </c>
+      <c r="AT25" s="1">
+        <f t="shared" si="30"/>
+        <v>688.80068010000014</v>
+      </c>
+      <c r="AU25" s="1">
+        <f t="shared" si="30"/>
+        <v>619.92061209000019</v>
+      </c>
+      <c r="AV25" s="1">
+        <f t="shared" si="30"/>
+        <v>557.92855088100021</v>
+      </c>
+      <c r="AW25" s="1">
+        <f t="shared" si="30"/>
+        <v>502.13569579290021</v>
+      </c>
+      <c r="AX25" s="1">
+        <f t="shared" si="30"/>
+        <v>451.92212621361017</v>
+      </c>
+      <c r="AY25" s="1">
+        <f t="shared" si="30"/>
+        <v>406.72991359224915</v>
+      </c>
+      <c r="AZ25" s="1">
+        <f t="shared" si="30"/>
+        <v>366.05692223302424</v>
+      </c>
+      <c r="BA25" s="1">
+        <f t="shared" si="30"/>
+        <v>329.45123000972183</v>
+      </c>
+      <c r="BB25" s="1">
+        <f t="shared" si="30"/>
+        <v>296.50610700874967</v>
+      </c>
+      <c r="BC25" s="1">
+        <f t="shared" si="30"/>
+        <v>266.85549630787472</v>
+      </c>
+      <c r="BD25" s="1">
+        <f t="shared" si="30"/>
+        <v>240.16994667708724</v>
+      </c>
+    </row>
+    <row r="26" spans="2:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12">
+        <v>287.7</v>
+      </c>
+      <c r="F26" s="12">
+        <v>216.6</v>
+      </c>
+      <c r="G26" s="12">
+        <v>179.7</v>
+      </c>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12">
+        <v>151.1</v>
+      </c>
+      <c r="J26" s="12">
+        <v>152.9</v>
+      </c>
+      <c r="K26" s="12">
+        <v>147.1</v>
+      </c>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12">
+        <v>135.80000000000001</v>
+      </c>
+      <c r="N26" s="12">
+        <v>136.80000000000001</v>
+      </c>
+      <c r="O26" s="12">
+        <v>112.5</v>
+      </c>
+      <c r="P26" s="12">
+        <v>103.6</v>
+      </c>
+      <c r="Q26" s="12">
+        <v>98.9</v>
+      </c>
+      <c r="R26" s="1">
+        <v>94.4</v>
+      </c>
+      <c r="S26" s="1">
+        <v>87.1</v>
+      </c>
+      <c r="T26" s="1">
+        <v>103.4</v>
+      </c>
+      <c r="U26" s="1">
+        <f>+Q26</f>
+        <v>98.9</v>
+      </c>
+      <c r="V26" s="1">
+        <f>+R26</f>
+        <v>94.4</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>1137.9000000000001</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>1126</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>1195.4000000000001</v>
+      </c>
+      <c r="AE26" s="1">
+        <v>1339.2</v>
+      </c>
+      <c r="AF26" s="1">
+        <v>1314.5</v>
+      </c>
+      <c r="AG26" s="1">
+        <v>1559.2</v>
+      </c>
+      <c r="AH26" s="1">
+        <v>1980.2</v>
+      </c>
+      <c r="AI26" s="1">
+        <v>1542.4</v>
+      </c>
+      <c r="AJ26" s="1">
+        <v>1080.2</v>
+      </c>
+      <c r="AK26" s="1">
+        <f t="shared" si="4"/>
+        <v>483.69999999999993</v>
+      </c>
+      <c r="AL26" s="1">
         <f t="shared" si="5"/>
-        <v>485.20000000000005</v>
-      </c>
-      <c r="AM25" s="1">
-        <f t="shared" ref="AM25:BD25" si="26">+AL25*0.9</f>
-        <v>436.68000000000006</v>
-      </c>
-      <c r="AN25" s="1">
-        <f t="shared" si="26"/>
-        <v>393.01200000000006</v>
-      </c>
-      <c r="AO25" s="1">
-        <f t="shared" si="26"/>
-        <v>353.71080000000006</v>
-      </c>
-      <c r="AP25" s="1">
-        <f t="shared" si="26"/>
-        <v>318.33972000000006</v>
-      </c>
-      <c r="AQ25" s="1">
-        <f t="shared" si="26"/>
-        <v>286.50574800000004</v>
-      </c>
-      <c r="AR25" s="1">
-        <f t="shared" si="26"/>
-        <v>257.85517320000002</v>
-      </c>
-      <c r="AS25" s="1">
-        <f t="shared" si="26"/>
-        <v>232.06965588000003</v>
-      </c>
-      <c r="AT25" s="1">
-        <f t="shared" si="26"/>
-        <v>208.86269029200002</v>
-      </c>
-      <c r="AU25" s="1">
-        <f t="shared" si="26"/>
-        <v>187.97642126280002</v>
-      </c>
-      <c r="AV25" s="1">
-        <f t="shared" si="26"/>
-        <v>169.17877913652001</v>
-      </c>
-      <c r="AW25" s="1">
-        <f t="shared" si="26"/>
-        <v>152.260901222868</v>
-      </c>
-      <c r="AX25" s="1">
-        <f t="shared" si="26"/>
-        <v>137.03481110058121</v>
-      </c>
-      <c r="AY25" s="1">
-        <f t="shared" si="26"/>
-        <v>123.33132999052309</v>
-      </c>
-      <c r="AZ25" s="1">
-        <f t="shared" si="26"/>
-        <v>110.99819699147078</v>
-      </c>
-      <c r="BA25" s="1">
-        <f t="shared" si="26"/>
-        <v>99.898377292323701</v>
-      </c>
-      <c r="BB25" s="1">
-        <f t="shared" si="26"/>
-        <v>89.908539563091338</v>
-      </c>
-      <c r="BC25" s="1">
-        <f t="shared" si="26"/>
-        <v>80.9176856067822</v>
-      </c>
-      <c r="BD25" s="1">
-        <f t="shared" si="26"/>
-        <v>72.825917046103982</v>
-      </c>
-    </row>
-    <row r="26" spans="2:56" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14">
-        <f t="shared" ref="E26:L26" si="27">SUM(E21:E25)</f>
-        <v>3376.099999999999</v>
-      </c>
-      <c r="F26" s="14">
-        <f t="shared" si="27"/>
-        <v>2852.5999999999995</v>
-      </c>
-      <c r="G26" s="14">
-        <f t="shared" si="27"/>
-        <v>2694.0000000000005</v>
-      </c>
-      <c r="H26" s="14">
-        <f t="shared" si="27"/>
-        <v>2774.9999999999995</v>
-      </c>
-      <c r="I26" s="14">
-        <f t="shared" si="27"/>
-        <v>2778.9000000000005</v>
-      </c>
-      <c r="J26" s="14">
-        <f t="shared" si="27"/>
-        <v>2734.0999999999995</v>
-      </c>
-      <c r="K26" s="14">
-        <f t="shared" si="27"/>
-        <v>2531.8000000000002</v>
-      </c>
-      <c r="L26" s="14">
-        <f t="shared" si="27"/>
-        <v>2589.1</v>
-      </c>
-      <c r="M26" s="14">
-        <f>+M21+M24+M25</f>
-        <v>2508.5</v>
-      </c>
-      <c r="N26" s="14">
-        <f>+N21+N24+N25</f>
-        <v>2543.9999999999995</v>
-      </c>
-      <c r="O26" s="14">
-        <f>+O21+O24+O25</f>
-        <v>2463</v>
-      </c>
-      <c r="P26" s="14">
-        <f t="shared" ref="P26:T26" si="28">SUM(P21:P25)</f>
-        <v>2456</v>
-      </c>
-      <c r="Q26" s="14">
-        <f t="shared" si="28"/>
-        <v>2530.3000000000006</v>
-      </c>
-      <c r="R26" s="14">
-        <f t="shared" si="28"/>
-        <v>2386.3000000000002</v>
-      </c>
-      <c r="S26" s="14">
-        <f t="shared" si="28"/>
-        <v>2290.5</v>
-      </c>
-      <c r="T26" s="14">
-        <f t="shared" si="28"/>
-        <v>2464.9000000000005</v>
-      </c>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
-      <c r="AI26" s="14">
-        <f t="shared" ref="AI26:AK26" si="29">SUM(AI21:AI25)</f>
-        <v>14377.900000000001</v>
-      </c>
-      <c r="AJ26" s="14">
-        <f t="shared" si="29"/>
-        <v>13444.600000000002</v>
-      </c>
-      <c r="AK26" s="14">
-        <f t="shared" si="29"/>
-        <v>10981.999999999998</v>
-      </c>
-      <c r="AL26" s="14">
-        <f>SUM(AL21:AL25)</f>
-        <v>11038.200000000003</v>
-      </c>
-      <c r="AM26" s="14">
-        <f t="shared" ref="AM26:BD26" si="30">SUM(AM21:AM25)</f>
-        <v>11686.793999999998</v>
-      </c>
-      <c r="AN26" s="14">
-        <f t="shared" si="30"/>
-        <v>13470.748840000004</v>
-      </c>
-      <c r="AO26" s="14">
-        <f t="shared" si="30"/>
-        <v>14476.578089000002</v>
-      </c>
-      <c r="AP26" s="14">
-        <f t="shared" si="30"/>
-        <v>15576.9273939</v>
-      </c>
-      <c r="AQ26" s="14">
-        <f t="shared" si="30"/>
-        <v>15197.3957634125</v>
-      </c>
-      <c r="AR26" s="14">
-        <f t="shared" si="30"/>
-        <v>14941.154850251052</v>
-      </c>
-      <c r="AS26" s="14">
-        <f t="shared" si="30"/>
-        <v>14794.948532654082</v>
-      </c>
-      <c r="AT26" s="14">
-        <f t="shared" si="30"/>
-        <v>14469.892999657592</v>
-      </c>
-      <c r="AU26" s="14">
-        <f t="shared" si="30"/>
-        <v>13762.61040329163</v>
-      </c>
-      <c r="AV26" s="14">
-        <f t="shared" si="30"/>
-        <v>13457.744028183419</v>
-      </c>
-      <c r="AW26" s="14">
-        <f t="shared" si="30"/>
-        <v>13223.361652258083</v>
-      </c>
-      <c r="AX26" s="14">
-        <f t="shared" si="30"/>
-        <v>13049.673371957009</v>
-      </c>
-      <c r="AY26" s="14">
-        <f t="shared" si="30"/>
-        <v>12928.484885821021</v>
-      </c>
-      <c r="AZ26" s="14">
-        <f t="shared" si="30"/>
-        <v>12852.922054502707</v>
-      </c>
-      <c r="BA26" s="14">
-        <f t="shared" si="30"/>
-        <v>12817.20539067704</v>
-      </c>
-      <c r="BB26" s="14">
-        <f t="shared" si="30"/>
-        <v>12816.46513508828</v>
-      </c>
-      <c r="BC26" s="14">
-        <f t="shared" si="30"/>
-        <v>12846.589360629985</v>
-      </c>
-      <c r="BD26" s="14">
-        <f t="shared" si="30"/>
-        <v>12904.0989860274</v>
+        <v>419.7</v>
+      </c>
+      <c r="AM26" s="1">
+        <f t="shared" si="6"/>
+        <v>409.4</v>
+      </c>
+      <c r="AN26" s="1">
+        <f t="shared" si="7"/>
+        <v>383.79999999999995</v>
+      </c>
+      <c r="AO26" s="1">
+        <f t="shared" ref="AO26:BD26" si="31">+AN26*0.9</f>
+        <v>345.41999999999996</v>
+      </c>
+      <c r="AP26" s="1">
+        <f t="shared" si="31"/>
+        <v>310.87799999999999</v>
+      </c>
+      <c r="AQ26" s="1">
+        <f t="shared" si="31"/>
+        <v>279.79019999999997</v>
+      </c>
+      <c r="AR26" s="1">
+        <f t="shared" si="31"/>
+        <v>251.81117999999998</v>
+      </c>
+      <c r="AS26" s="1">
+        <f t="shared" si="31"/>
+        <v>226.63006199999998</v>
+      </c>
+      <c r="AT26" s="1">
+        <f t="shared" si="31"/>
+        <v>203.9670558</v>
+      </c>
+      <c r="AU26" s="1">
+        <f t="shared" si="31"/>
+        <v>183.57035021999999</v>
+      </c>
+      <c r="AV26" s="1">
+        <f t="shared" si="31"/>
+        <v>165.213315198</v>
+      </c>
+      <c r="AW26" s="1">
+        <f t="shared" si="31"/>
+        <v>148.69198367820002</v>
+      </c>
+      <c r="AX26" s="1">
+        <f t="shared" si="31"/>
+        <v>133.82278531038003</v>
+      </c>
+      <c r="AY26" s="1">
+        <f t="shared" si="31"/>
+        <v>120.44050677934203</v>
+      </c>
+      <c r="AZ26" s="1">
+        <f t="shared" si="31"/>
+        <v>108.39645610140784</v>
+      </c>
+      <c r="BA26" s="1">
+        <f t="shared" si="31"/>
+        <v>97.556810491267058</v>
+      </c>
+      <c r="BB26" s="1">
+        <f t="shared" si="31"/>
+        <v>87.801129442140351</v>
+      </c>
+      <c r="BC26" s="1">
+        <f t="shared" si="31"/>
+        <v>79.021016497926311</v>
+      </c>
+      <c r="BD26" s="1">
+        <f t="shared" si="31"/>
+        <v>71.118914848133684</v>
       </c>
     </row>
     <row r="27" spans="2:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
-      <c r="E27" s="12">
-        <v>449.1</v>
-      </c>
-      <c r="F27" s="12">
-        <v>490.6</v>
-      </c>
-      <c r="G27" s="12">
-        <v>478.1</v>
-      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
       <c r="H27" s="12">
-        <v>459.7</v>
-      </c>
-      <c r="I27" s="12">
-        <v>511.8</v>
-      </c>
-      <c r="J27" s="12">
-        <v>660.1</v>
-      </c>
-      <c r="K27" s="12">
-        <v>753.9</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
       <c r="L27" s="12">
-        <v>484</v>
+        <v>436.3</v>
       </c>
       <c r="M27" s="12">
-        <v>469.5</v>
+        <f>+M25+M26</f>
+        <v>416.90000000000003</v>
       </c>
       <c r="N27" s="12">
-        <v>570.9</v>
+        <f>+N25+N26</f>
+        <v>447.90000000000003</v>
       </c>
       <c r="O27" s="12">
-        <v>662.8</v>
+        <f>+O25+O26+3.4</f>
+        <v>399.5</v>
       </c>
       <c r="P27" s="12">
-        <v>592.70000000000005</v>
+        <v>4.3</v>
       </c>
       <c r="Q27" s="12">
-        <v>659.6</v>
-      </c>
-      <c r="R27" s="1">
-        <v>586.79999999999995</v>
-      </c>
-      <c r="S27" s="1">
-        <v>500</v>
-      </c>
-      <c r="T27" s="1">
-        <v>503.7</v>
-      </c>
-      <c r="AI27" s="1">
-        <v>1955.4</v>
-      </c>
-      <c r="AJ27" s="1">
-        <v>1805.2</v>
-      </c>
+        <v>2.9</v>
+      </c>
+      <c r="R27" s="12">
+        <v>3.4</v>
+      </c>
+      <c r="S27" s="12">
+        <v>4.2</v>
+      </c>
+      <c r="T27" s="12">
+        <v>4.8</v>
+      </c>
+      <c r="U27" s="1">
+        <f>+Q27</f>
+        <v>2.9</v>
+      </c>
+      <c r="V27" s="1">
+        <f>+R27</f>
+        <v>3.4</v>
+      </c>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
       <c r="AK27" s="1">
-        <f t="shared" ref="AK27" si="31">SUM(G27:J27)</f>
-        <v>2109.6999999999998</v>
+        <f t="shared" si="4"/>
+        <v>440</v>
       </c>
       <c r="AL27" s="1">
-        <f t="shared" ref="AL27" si="32">SUM(K27:N27)</f>
-        <v>2278.3000000000002</v>
+        <f t="shared" si="5"/>
+        <v>1301.1000000000001</v>
       </c>
       <c r="AM27" s="1">
-        <f>+AM26-AM28</f>
-        <v>2103.6229199999998</v>
+        <f t="shared" si="6"/>
+        <v>410.09999999999997</v>
       </c>
       <c r="AN27" s="1">
-        <f t="shared" ref="AN27:BD27" si="33">+AN26-AN28</f>
-        <v>2424.7347912000005</v>
+        <f t="shared" si="7"/>
+        <v>15.3</v>
       </c>
       <c r="AO27" s="1">
-        <f t="shared" si="33"/>
-        <v>2605.784056020002</v>
+        <f t="shared" ref="AO27:BD27" si="32">+AN27*0.9</f>
+        <v>13.770000000000001</v>
       </c>
       <c r="AP27" s="1">
-        <f t="shared" si="33"/>
-        <v>2803.8469309020002</v>
+        <f t="shared" si="32"/>
+        <v>12.393000000000001</v>
       </c>
       <c r="AQ27" s="1">
-        <f t="shared" si="33"/>
-        <v>2735.5312374142504</v>
+        <f t="shared" si="32"/>
+        <v>11.153700000000001</v>
       </c>
       <c r="AR27" s="1">
-        <f t="shared" si="33"/>
-        <v>2689.4078730451893</v>
+        <f t="shared" si="32"/>
+        <v>10.03833</v>
       </c>
       <c r="AS27" s="1">
-        <f t="shared" si="33"/>
-        <v>2663.0907358777349</v>
+        <f t="shared" si="32"/>
+        <v>9.034497</v>
       </c>
       <c r="AT27" s="1">
-        <f t="shared" si="33"/>
-        <v>2604.5807399383666</v>
+        <f t="shared" si="32"/>
+        <v>8.1310473000000005</v>
       </c>
       <c r="AU27" s="1">
-        <f t="shared" si="33"/>
-        <v>2477.2698725924947</v>
+        <f t="shared" si="32"/>
+        <v>7.3179425700000005</v>
       </c>
       <c r="AV27" s="1">
-        <f t="shared" si="33"/>
-        <v>2422.3939250730164</v>
+        <f t="shared" si="32"/>
+        <v>6.5861483130000007</v>
       </c>
       <c r="AW27" s="1">
-        <f t="shared" si="33"/>
-        <v>2380.205097406455</v>
+        <f t="shared" si="32"/>
+        <v>5.9275334817000012</v>
       </c>
       <c r="AX27" s="1">
-        <f t="shared" si="33"/>
-        <v>2348.9412069522623</v>
+        <f t="shared" si="32"/>
+        <v>5.3347801335300016</v>
       </c>
       <c r="AY27" s="1">
-        <f t="shared" si="33"/>
-        <v>2327.1272794477845</v>
+        <f t="shared" si="32"/>
+        <v>4.8013021201770014</v>
       </c>
       <c r="AZ27" s="1">
-        <f t="shared" si="33"/>
-        <v>2313.5259698104874</v>
+        <f t="shared" si="32"/>
+        <v>4.3211719081593012</v>
       </c>
       <c r="BA27" s="1">
-        <f t="shared" si="33"/>
-        <v>2307.096970321867</v>
+        <f t="shared" si="32"/>
+        <v>3.8890547173433712</v>
       </c>
       <c r="BB27" s="1">
-        <f t="shared" si="33"/>
-        <v>2306.9637243158904</v>
+        <f t="shared" si="32"/>
+        <v>3.500149245609034</v>
       </c>
       <c r="BC27" s="1">
-        <f t="shared" si="33"/>
-        <v>2312.386084913398</v>
+        <f t="shared" si="32"/>
+        <v>3.1501343210481307</v>
       </c>
       <c r="BD27" s="1">
-        <f t="shared" si="33"/>
-        <v>2322.7378174849327</v>
+        <f t="shared" si="32"/>
+        <v>2.8351208889433179</v>
       </c>
     </row>
     <row r="28" spans="2:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12">
-        <f t="shared" ref="E28:L28" si="34">+E26-E27</f>
-        <v>2926.9999999999991</v>
+        <v>125.7</v>
       </c>
       <c r="F28" s="12">
-        <f t="shared" si="34"/>
-        <v>2361.9999999999995</v>
+        <v>132</v>
       </c>
       <c r="G28" s="12">
-        <f t="shared" si="34"/>
-        <v>2215.9000000000005</v>
+        <v>93.3</v>
       </c>
       <c r="H28" s="12">
-        <f t="shared" si="34"/>
-        <v>2315.2999999999997</v>
+        <v>99</v>
       </c>
       <c r="I28" s="12">
-        <f t="shared" si="34"/>
-        <v>2267.1000000000004</v>
+        <v>157.80000000000001</v>
       </c>
       <c r="J28" s="12">
-        <f t="shared" si="34"/>
-        <v>2073.9999999999995</v>
+        <v>126.2</v>
       </c>
       <c r="K28" s="12">
-        <f t="shared" si="34"/>
-        <v>1777.9</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="L28" s="12">
-        <f t="shared" si="34"/>
-        <v>2105.1</v>
+        <v>98</v>
       </c>
       <c r="M28" s="12">
-        <f t="shared" ref="M28:R28" si="35">+M26-M27</f>
-        <v>2039</v>
+        <v>129.5</v>
       </c>
       <c r="N28" s="12">
-        <f t="shared" si="35"/>
-        <v>1973.0999999999995</v>
+        <v>191.6</v>
       </c>
       <c r="O28" s="12">
-        <f t="shared" si="35"/>
-        <v>1800.2</v>
+        <v>319.10000000000002</v>
       </c>
       <c r="P28" s="12">
-        <f t="shared" si="35"/>
-        <v>1863.3</v>
+        <f>4.3+197.5-20.7</f>
+        <v>181.10000000000002</v>
       </c>
       <c r="Q28" s="12">
-        <f t="shared" si="35"/>
-        <v>1870.7000000000007</v>
+        <f>3.7+304.2</f>
+        <v>307.89999999999998</v>
       </c>
       <c r="R28" s="12">
-        <f>+R26-R27</f>
-        <v>1799.5000000000002</v>
+        <f>4+118.1</f>
+        <v>122.1</v>
       </c>
       <c r="S28" s="12">
-        <f>+S26-S27</f>
-        <v>1790.5</v>
+        <f>15.2+184.6</f>
+        <v>199.79999999999998</v>
       </c>
       <c r="T28" s="12">
-        <f>+T26-T27</f>
-        <v>1961.2000000000005</v>
-      </c>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12"/>
+        <f>120.8+2.7</f>
+        <v>123.5</v>
+      </c>
+      <c r="U28" s="1">
+        <f>+Q28</f>
+        <v>307.89999999999998</v>
+      </c>
+      <c r="V28" s="1">
+        <f>+R28</f>
+        <v>122.1</v>
+      </c>
       <c r="W28" s="12"/>
       <c r="X28" s="12"/>
+      <c r="AB28" s="1">
+        <v>212.5</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>263.89999999999998</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>304.5</v>
+      </c>
+      <c r="AE28" s="1">
+        <v>236.1</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>316.39999999999998</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>360</v>
+      </c>
+      <c r="AH28" s="1">
+        <v>585.9</v>
+      </c>
       <c r="AI28" s="1">
-        <f>+AI26-AI27</f>
-        <v>12422.500000000002</v>
+        <v>707.7</v>
       </c>
       <c r="AJ28" s="1">
-        <f>+AJ26-AJ27</f>
-        <v>11639.400000000001</v>
+        <v>774.6</v>
       </c>
       <c r="AK28" s="1">
-        <f>+AK26-AK27</f>
-        <v>8872.2999999999993</v>
+        <f t="shared" si="4"/>
+        <v>476.3</v>
       </c>
       <c r="AL28" s="1">
-        <f>+AL26-AL27</f>
-        <v>8759.9000000000015</v>
+        <f t="shared" si="5"/>
+        <v>485.20000000000005</v>
       </c>
       <c r="AM28" s="1">
-        <f>+AM26*0.82</f>
-        <v>9583.1710799999983</v>
+        <f t="shared" si="6"/>
+        <v>930.2</v>
       </c>
       <c r="AN28" s="1">
-        <f t="shared" ref="AN28:BD28" si="36">+AN26*0.82</f>
-        <v>11046.014048800003</v>
+        <f t="shared" si="7"/>
+        <v>753.3</v>
       </c>
       <c r="AO28" s="1">
+        <f t="shared" ref="AO28:BD28" si="33">+AN28*0.9</f>
+        <v>677.97</v>
+      </c>
+      <c r="AP28" s="1">
+        <f t="shared" si="33"/>
+        <v>610.173</v>
+      </c>
+      <c r="AQ28" s="1">
+        <f t="shared" si="33"/>
+        <v>549.15570000000002</v>
+      </c>
+      <c r="AR28" s="1">
+        <f t="shared" si="33"/>
+        <v>494.24013000000002</v>
+      </c>
+      <c r="AS28" s="1">
+        <f t="shared" si="33"/>
+        <v>444.81611700000002</v>
+      </c>
+      <c r="AT28" s="1">
+        <f t="shared" si="33"/>
+        <v>400.33450530000005</v>
+      </c>
+      <c r="AU28" s="1">
+        <f t="shared" si="33"/>
+        <v>360.30105477000006</v>
+      </c>
+      <c r="AV28" s="1">
+        <f t="shared" si="33"/>
+        <v>324.27094929300006</v>
+      </c>
+      <c r="AW28" s="1">
+        <f t="shared" si="33"/>
+        <v>291.84385436370007</v>
+      </c>
+      <c r="AX28" s="1">
+        <f t="shared" si="33"/>
+        <v>262.65946892733007</v>
+      </c>
+      <c r="AY28" s="1">
+        <f t="shared" si="33"/>
+        <v>236.39352203459705</v>
+      </c>
+      <c r="AZ28" s="1">
+        <f t="shared" si="33"/>
+        <v>212.75416983113735</v>
+      </c>
+      <c r="BA28" s="1">
+        <f t="shared" si="33"/>
+        <v>191.47875284802362</v>
+      </c>
+      <c r="BB28" s="1">
+        <f t="shared" si="33"/>
+        <v>172.33087756322126</v>
+      </c>
+      <c r="BC28" s="1">
+        <f t="shared" si="33"/>
+        <v>155.09778980689913</v>
+      </c>
+      <c r="BD28" s="1">
+        <f t="shared" si="33"/>
+        <v>139.58801082620923</v>
+      </c>
+    </row>
+    <row r="29" spans="2:56" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14">
+        <f t="shared" ref="E29:L29" si="34">SUM(E24:E28)</f>
+        <v>3376.099999999999</v>
+      </c>
+      <c r="F29" s="14">
+        <f t="shared" si="34"/>
+        <v>2852.5999999999995</v>
+      </c>
+      <c r="G29" s="14">
+        <f t="shared" si="34"/>
+        <v>2694.0000000000005</v>
+      </c>
+      <c r="H29" s="14">
+        <f t="shared" si="34"/>
+        <v>2774.9999999999995</v>
+      </c>
+      <c r="I29" s="14">
+        <f t="shared" si="34"/>
+        <v>2778.9000000000005</v>
+      </c>
+      <c r="J29" s="14">
+        <f t="shared" si="34"/>
+        <v>2734.0999999999995</v>
+      </c>
+      <c r="K29" s="14">
+        <f t="shared" si="34"/>
+        <v>2531.8000000000002</v>
+      </c>
+      <c r="L29" s="14">
+        <f t="shared" si="34"/>
+        <v>2589.1</v>
+      </c>
+      <c r="M29" s="14">
+        <f>+M24+M27+M28</f>
+        <v>2508.5</v>
+      </c>
+      <c r="N29" s="14">
+        <f>+N24+N27+N28</f>
+        <v>2543.9999999999995</v>
+      </c>
+      <c r="O29" s="14">
+        <f>+O24+O27+O28</f>
+        <v>2463</v>
+      </c>
+      <c r="P29" s="14">
+        <f t="shared" ref="P29:V29" si="35">SUM(P24:P28)</f>
+        <v>2456</v>
+      </c>
+      <c r="Q29" s="14">
+        <f t="shared" si="35"/>
+        <v>2530.3000000000006</v>
+      </c>
+      <c r="R29" s="14">
+        <f t="shared" si="35"/>
+        <v>2386.3000000000002</v>
+      </c>
+      <c r="S29" s="14">
+        <f t="shared" si="35"/>
+        <v>2290.5</v>
+      </c>
+      <c r="T29" s="14">
+        <f t="shared" si="35"/>
+        <v>2464.9000000000005</v>
+      </c>
+      <c r="U29" s="14">
+        <f t="shared" si="35"/>
+        <v>2684.4000000000005</v>
+      </c>
+      <c r="V29" s="14">
+        <f t="shared" si="35"/>
+        <v>2530.8300000000004</v>
+      </c>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="AB29" s="14">
+        <f t="shared" ref="AB29:AI29" si="36">SUM(AB24:AB28)</f>
+        <v>1350.4</v>
+      </c>
+      <c r="AC29" s="14">
         <f t="shared" si="36"/>
-        <v>11870.79403298</v>
-      </c>
-      <c r="AP28" s="1">
+        <v>1389.9</v>
+      </c>
+      <c r="AD29" s="14">
         <f t="shared" si="36"/>
-        <v>12773.080462997999</v>
-      </c>
-      <c r="AQ28" s="1">
+        <v>9703.2999999999975</v>
+      </c>
+      <c r="AE29" s="14">
         <f t="shared" si="36"/>
-        <v>12461.86452599825</v>
-      </c>
-      <c r="AR28" s="1">
+        <v>10763.800000000003</v>
+      </c>
+      <c r="AF29" s="14">
         <f t="shared" si="36"/>
-        <v>12251.746977205863</v>
-      </c>
-      <c r="AS28" s="1">
+        <v>11448.8</v>
+      </c>
+      <c r="AG29" s="14">
         <f t="shared" si="36"/>
-        <v>12131.857796776347</v>
-      </c>
-      <c r="AT28" s="1">
+        <v>12273.900000000001</v>
+      </c>
+      <c r="AH29" s="14">
         <f t="shared" si="36"/>
-        <v>11865.312259719225</v>
-      </c>
-      <c r="AU28" s="1">
-        <f t="shared" si="36"/>
-        <v>11285.340530699135</v>
-      </c>
-      <c r="AV28" s="1">
-        <f t="shared" si="36"/>
-        <v>11035.350103110402</v>
-      </c>
-      <c r="AW28" s="1">
-        <f t="shared" si="36"/>
-        <v>10843.156554851628</v>
-      </c>
-      <c r="AX28" s="1">
-        <f t="shared" si="36"/>
-        <v>10700.732165004747</v>
-      </c>
-      <c r="AY28" s="1">
-        <f t="shared" si="36"/>
-        <v>10601.357606373236</v>
-      </c>
-      <c r="AZ28" s="1">
-        <f t="shared" si="36"/>
-        <v>10539.39608469222</v>
-      </c>
-      <c r="BA28" s="1">
-        <f t="shared" si="36"/>
-        <v>10510.108420355173</v>
-      </c>
-      <c r="BB28" s="1">
-        <f t="shared" si="36"/>
-        <v>10509.501410772389</v>
-      </c>
-      <c r="BC28" s="1">
-        <f t="shared" si="36"/>
-        <v>10534.203275716587</v>
-      </c>
-      <c r="BD28" s="1">
-        <f t="shared" si="36"/>
-        <v>10581.361168542468</v>
-      </c>
-    </row>
-    <row r="29" spans="2:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12">
-        <v>1140.9000000000001</v>
-      </c>
-      <c r="F29" s="12">
-        <v>1726</v>
-      </c>
-      <c r="G29" s="12">
-        <v>514.20000000000005</v>
-      </c>
-      <c r="H29" s="12">
-        <v>585.1</v>
-      </c>
-      <c r="I29" s="12">
-        <v>702.4</v>
-      </c>
-      <c r="J29" s="12">
-        <v>699.5</v>
-      </c>
-      <c r="K29" s="12">
-        <v>551.70000000000005</v>
-      </c>
-      <c r="L29" s="12">
-        <v>528.6</v>
-      </c>
-      <c r="M29" s="12">
-        <v>549.20000000000005</v>
-      </c>
-      <c r="N29" s="12">
-        <v>601.6</v>
-      </c>
-      <c r="O29" s="12">
-        <v>570.6</v>
-      </c>
-      <c r="P29" s="12">
-        <v>583.79999999999995</v>
-      </c>
-      <c r="Q29" s="12">
-        <v>539.1</v>
-      </c>
-      <c r="R29" s="1">
-        <v>568.1</v>
-      </c>
-      <c r="S29" s="1">
-        <v>446.7</v>
-      </c>
-      <c r="T29" s="1">
-        <v>463.6</v>
-      </c>
-      <c r="AI29" s="1">
-        <v>2280.6</v>
-      </c>
-      <c r="AJ29" s="1">
-        <v>3990.9</v>
-      </c>
-      <c r="AK29" s="1">
-        <f t="shared" ref="AK29:AK30" si="37">SUM(G29:J29)</f>
-        <v>2501.2000000000003</v>
-      </c>
-      <c r="AL29" s="1">
-        <f t="shared" ref="AL29:AL30" si="38">SUM(K29:N29)</f>
-        <v>2231.1000000000004</v>
+        <v>13452.900000000003</v>
+      </c>
+      <c r="AI29" s="14">
+        <f t="shared" ref="AI29:AK29" si="37">SUM(AI24:AI28)</f>
+        <v>14377.900000000001</v>
+      </c>
+      <c r="AJ29" s="14">
+        <f t="shared" si="37"/>
+        <v>13444.600000000002</v>
+      </c>
+      <c r="AK29" s="14">
+        <f t="shared" si="37"/>
+        <v>10981.999999999998</v>
+      </c>
+      <c r="AL29" s="14">
+        <f>SUM(AL24:AL28)</f>
+        <v>11038.200000000003</v>
+      </c>
+      <c r="AM29" s="14">
+        <f>SUM(AM24:AM28)</f>
+        <v>10231.700000000001</v>
+      </c>
+      <c r="AN29" s="14">
+        <f t="shared" ref="AN29:BD29" si="38">SUM(AN24:AN28)</f>
+        <v>9970.6299999999974</v>
+      </c>
+      <c r="AO29" s="14">
+        <f t="shared" si="38"/>
+        <v>9608.6299999999992</v>
+      </c>
+      <c r="AP29" s="14">
+        <f t="shared" si="38"/>
+        <v>9680.6509500000011</v>
+      </c>
+      <c r="AQ29" s="14">
+        <f t="shared" si="38"/>
+        <v>9374.1578754999991</v>
+      </c>
+      <c r="AR29" s="14">
+        <f t="shared" si="38"/>
+        <v>8939.5899844650012</v>
+      </c>
+      <c r="AS29" s="14">
+        <f t="shared" si="38"/>
+        <v>8456.4813698589514</v>
+      </c>
+      <c r="AT29" s="14">
+        <f t="shared" si="38"/>
+        <v>8017.09535732722</v>
+      </c>
+      <c r="AU29" s="14">
+        <f t="shared" si="38"/>
+        <v>7329.3903870040631</v>
+      </c>
+      <c r="AV29" s="14">
+        <f t="shared" si="38"/>
+        <v>6936.2856144846728</v>
+      </c>
+      <c r="AW29" s="14">
+        <f t="shared" si="38"/>
+        <v>6605.0337107873811</v>
+      </c>
+      <c r="AX29" s="14">
+        <f t="shared" si="38"/>
+        <v>6327.0742279963742</v>
+      </c>
+      <c r="AY29" s="14">
+        <f t="shared" si="38"/>
+        <v>6095.2075363322383</v>
+      </c>
+      <c r="AZ29" s="14">
+        <f t="shared" si="38"/>
+        <v>3849.6296941502387</v>
+      </c>
+      <c r="BA29" s="14">
+        <f t="shared" si="38"/>
+        <v>3446.2380793442835</v>
+      </c>
+      <c r="BB29" s="14">
+        <f t="shared" si="38"/>
+        <v>3253.3152436013129</v>
+      </c>
+      <c r="BC29" s="14">
+        <f t="shared" si="38"/>
+        <v>3104.4300397915235</v>
+      </c>
+      <c r="BD29" s="14">
+        <f t="shared" si="38"/>
+        <v>2980.1691716006831</v>
       </c>
     </row>
     <row r="30" spans="2:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12">
-        <v>573.1</v>
+        <v>449.1</v>
       </c>
       <c r="F30" s="12">
-        <v>806.3</v>
+        <v>490.6</v>
       </c>
       <c r="G30" s="12">
-        <v>595</v>
+        <v>478.1</v>
       </c>
       <c r="H30" s="12">
-        <v>637.29999999999995</v>
+        <v>459.7</v>
       </c>
       <c r="I30" s="12">
-        <v>654.1</v>
+        <v>511.8</v>
       </c>
       <c r="J30" s="12">
-        <v>787.9</v>
+        <v>660.1</v>
       </c>
       <c r="K30" s="12">
-        <v>634.9</v>
+        <v>753.9</v>
       </c>
       <c r="L30" s="12">
-        <v>572.6</v>
+        <v>484</v>
       </c>
       <c r="M30" s="12">
-        <v>563.29999999999995</v>
+        <v>469.5</v>
       </c>
       <c r="N30" s="12">
-        <v>632.79999999999995</v>
+        <v>570.9</v>
       </c>
       <c r="O30" s="12">
-        <v>605</v>
+        <v>662.8</v>
       </c>
       <c r="P30" s="12">
-        <v>533.79999999999995</v>
+        <v>592.70000000000005</v>
       </c>
       <c r="Q30" s="12">
-        <v>553</v>
+        <v>659.6</v>
       </c>
       <c r="R30" s="1">
-        <v>587.9</v>
+        <v>586.79999999999995</v>
       </c>
       <c r="S30" s="1">
-        <v>569.4</v>
+        <v>500</v>
       </c>
       <c r="T30" s="1">
-        <v>541.5</v>
+        <v>503.7</v>
+      </c>
+      <c r="U30" s="1">
+        <f>+U29-U31</f>
+        <v>536.88000000000011</v>
+      </c>
+      <c r="V30" s="1">
+        <f>+V29-V31</f>
+        <v>506.16599999999994</v>
+      </c>
+      <c r="AD30" s="1">
+        <v>1171</v>
+      </c>
+      <c r="AE30" s="1">
+        <v>1240.4000000000001</v>
+      </c>
+      <c r="AF30" s="1">
+        <v>1478.7</v>
+      </c>
+      <c r="AG30" s="1">
+        <v>1630</v>
+      </c>
+      <c r="AH30" s="1">
+        <v>1816.3</v>
       </c>
       <c r="AI30" s="1">
-        <v>2374.6999999999998</v>
+        <v>1955.4</v>
       </c>
       <c r="AJ30" s="1">
-        <v>2504.5</v>
+        <v>1805.2</v>
       </c>
       <c r="AK30" s="1">
-        <f t="shared" si="37"/>
-        <v>2674.3</v>
+        <f t="shared" ref="AK30" si="39">SUM(G30:J30)</f>
+        <v>2109.6999999999998</v>
       </c>
       <c r="AL30" s="1">
-        <f t="shared" si="38"/>
-        <v>2403.6</v>
+        <f t="shared" ref="AL30" si="40">SUM(K30:N30)</f>
+        <v>2278.3000000000002</v>
       </c>
       <c r="AM30" s="1">
-        <f>+AL30*0.95</f>
-        <v>2283.4199999999996</v>
+        <f>+AM29-AM31</f>
+        <v>1841.7060000000001</v>
       </c>
       <c r="AN30" s="1">
-        <f t="shared" ref="AN30:BD30" si="39">+AM30*0.95</f>
-        <v>2169.2489999999993</v>
+        <f t="shared" ref="AN30:BD30" si="41">+AN29-AN31</f>
+        <v>1794.7133999999996</v>
       </c>
       <c r="AO30" s="1">
-        <f t="shared" si="39"/>
-        <v>2060.7865499999994</v>
+        <f t="shared" si="41"/>
+        <v>1729.5534000000007</v>
       </c>
       <c r="AP30" s="1">
-        <f t="shared" si="39"/>
-        <v>1957.7472224999992</v>
+        <f t="shared" si="41"/>
+        <v>1742.5171710000004</v>
       </c>
       <c r="AQ30" s="1">
-        <f t="shared" si="39"/>
-        <v>1859.8598613749991</v>
+        <f t="shared" si="41"/>
+        <v>1687.3484175900003</v>
       </c>
       <c r="AR30" s="1">
-        <f t="shared" si="39"/>
-        <v>1766.866868306249</v>
+        <f t="shared" si="41"/>
+        <v>1609.1261972037009</v>
       </c>
       <c r="AS30" s="1">
-        <f t="shared" si="39"/>
-        <v>1678.5235248909364</v>
+        <f t="shared" si="41"/>
+        <v>1522.1666465746121</v>
       </c>
       <c r="AT30" s="1">
-        <f t="shared" si="39"/>
-        <v>1594.5973486463895</v>
+        <f t="shared" si="41"/>
+        <v>1443.0771643189</v>
       </c>
       <c r="AU30" s="1">
-        <f t="shared" si="39"/>
-        <v>1514.86748121407</v>
+        <f t="shared" si="41"/>
+        <v>1319.2902696607316</v>
       </c>
       <c r="AV30" s="1">
-        <f t="shared" si="39"/>
-        <v>1439.1241071533664</v>
+        <f t="shared" si="41"/>
+        <v>1248.531410607241</v>
       </c>
       <c r="AW30" s="1">
-        <f t="shared" si="39"/>
-        <v>1367.1679017956981</v>
+        <f t="shared" si="41"/>
+        <v>1188.9060679417289</v>
       </c>
       <c r="AX30" s="1">
-        <f t="shared" si="39"/>
-        <v>1298.809506705913</v>
+        <f t="shared" si="41"/>
+        <v>1138.8733610393474</v>
       </c>
       <c r="AY30" s="1">
-        <f t="shared" si="39"/>
-        <v>1233.8690313706172</v>
+        <f t="shared" si="41"/>
+        <v>1097.1373565398035</v>
       </c>
       <c r="AZ30" s="1">
-        <f t="shared" si="39"/>
-        <v>1172.1755798020863</v>
+        <f t="shared" si="41"/>
+        <v>692.93334494704322</v>
       </c>
       <c r="BA30" s="1">
-        <f t="shared" si="39"/>
-        <v>1113.5668008119819</v>
+        <f t="shared" si="41"/>
+        <v>620.3228542819711</v>
       </c>
       <c r="BB30" s="1">
-        <f t="shared" si="39"/>
-        <v>1057.8884607713828</v>
+        <f t="shared" si="41"/>
+        <v>585.59674384823666</v>
       </c>
       <c r="BC30" s="1">
-        <f t="shared" si="39"/>
-        <v>1004.9940377328136</v>
+        <f t="shared" si="41"/>
+        <v>558.79740716247443</v>
       </c>
       <c r="BD30" s="1">
-        <f t="shared" si="39"/>
-        <v>954.74433584617282</v>
+        <f t="shared" si="41"/>
+        <v>536.43045088812323</v>
       </c>
     </row>
     <row r="31" spans="2:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12">
-        <f t="shared" ref="E31:L31" si="40">+E29+E30</f>
-        <v>1714</v>
+        <f t="shared" ref="E31:L31" si="42">+E29-E30</f>
+        <v>2926.9999999999991</v>
       </c>
       <c r="F31" s="12">
-        <f t="shared" si="40"/>
-        <v>2532.3000000000002</v>
+        <f t="shared" si="42"/>
+        <v>2361.9999999999995</v>
       </c>
       <c r="G31" s="12">
-        <f t="shared" si="40"/>
-        <v>1109.2</v>
+        <f t="shared" si="42"/>
+        <v>2215.9000000000005</v>
       </c>
       <c r="H31" s="12">
-        <f t="shared" si="40"/>
-        <v>1222.4000000000001</v>
+        <f t="shared" si="42"/>
+        <v>2315.2999999999997</v>
       </c>
       <c r="I31" s="12">
-        <f t="shared" si="40"/>
-        <v>1356.5</v>
+        <f t="shared" si="42"/>
+        <v>2267.1000000000004</v>
       </c>
       <c r="J31" s="12">
-        <f t="shared" si="40"/>
-        <v>1487.4</v>
+        <f t="shared" si="42"/>
+        <v>2073.9999999999995</v>
       </c>
       <c r="K31" s="12">
-        <f t="shared" si="40"/>
-        <v>1186.5999999999999</v>
+        <f t="shared" si="42"/>
+        <v>1777.9</v>
       </c>
       <c r="L31" s="12">
-        <f t="shared" si="40"/>
-        <v>1101.2</v>
+        <f t="shared" si="42"/>
+        <v>2105.1</v>
       </c>
       <c r="M31" s="12">
-        <f t="shared" ref="M31:N31" si="41">+M29+M30</f>
-        <v>1112.5</v>
+        <f t="shared" ref="M31:Q31" si="43">+M29-M30</f>
+        <v>2039</v>
       </c>
       <c r="N31" s="12">
-        <f t="shared" si="41"/>
-        <v>1234.4000000000001</v>
+        <f t="shared" si="43"/>
+        <v>1973.0999999999995</v>
       </c>
       <c r="O31" s="12">
-        <f t="shared" ref="O31:R31" si="42">+O29+O30</f>
-        <v>1175.5999999999999</v>
+        <f t="shared" si="43"/>
+        <v>1800.2</v>
       </c>
       <c r="P31" s="12">
-        <f t="shared" si="42"/>
-        <v>1117.5999999999999</v>
+        <f t="shared" si="43"/>
+        <v>1863.3</v>
       </c>
       <c r="Q31" s="12">
-        <f t="shared" si="42"/>
-        <v>1092.0999999999999</v>
+        <f t="shared" si="43"/>
+        <v>1870.7000000000007</v>
       </c>
       <c r="R31" s="12">
-        <f t="shared" si="42"/>
-        <v>1156</v>
+        <f>+R29-R30</f>
+        <v>1799.5000000000002</v>
       </c>
       <c r="S31" s="12">
-        <f>+S29+S30</f>
-        <v>1016.0999999999999</v>
+        <f>+S29-S30</f>
+        <v>1790.5</v>
       </c>
       <c r="T31" s="12">
-        <f>+T29+T30</f>
-        <v>1005.1</v>
-      </c>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
+        <f>+T29-T30</f>
+        <v>1961.2000000000005</v>
+      </c>
+      <c r="U31" s="12">
+        <f>+U29*0.8</f>
+        <v>2147.5200000000004</v>
+      </c>
+      <c r="V31" s="12">
+        <f>+V29*0.8</f>
+        <v>2024.6640000000004</v>
+      </c>
       <c r="W31" s="12"/>
       <c r="X31" s="12"/>
+      <c r="AD31" s="1">
+        <f t="shared" ref="AD31:AE31" si="44">+AD29-AD30</f>
+        <v>8532.2999999999975</v>
+      </c>
+      <c r="AE31" s="1">
+        <f t="shared" si="44"/>
+        <v>9523.4000000000033</v>
+      </c>
+      <c r="AF31" s="1">
+        <f>+AF29-AF30</f>
+        <v>9970.0999999999985</v>
+      </c>
+      <c r="AG31" s="1">
+        <f>+AG29-AG30</f>
+        <v>10643.900000000001</v>
+      </c>
+      <c r="AH31" s="1">
+        <f>+AH29-AH30</f>
+        <v>11636.600000000004</v>
+      </c>
       <c r="AI31" s="1">
-        <f t="shared" ref="AI31:AJ31" si="43">+AI29+AI30</f>
-        <v>4655.2999999999993</v>
+        <f>+AI29-AI30</f>
+        <v>12422.500000000002</v>
       </c>
       <c r="AJ31" s="1">
-        <f t="shared" si="43"/>
-        <v>6495.4</v>
+        <f>+AJ29-AJ30</f>
+        <v>11639.400000000001</v>
       </c>
       <c r="AK31" s="1">
-        <f>+AK29+AK30</f>
-        <v>5175.5</v>
+        <f>+AK29-AK30</f>
+        <v>8872.2999999999993</v>
       </c>
       <c r="AL31" s="1">
-        <f>+AL29+AL30</f>
-        <v>4634.7000000000007</v>
+        <f>+AL29-AL30</f>
+        <v>8759.9000000000015</v>
       </c>
       <c r="AM31" s="1">
-        <f t="shared" ref="AM31:BD31" si="44">+AM29+AM30</f>
-        <v>2283.4199999999996</v>
+        <f>+AM29*0.82</f>
+        <v>8389.9940000000006</v>
       </c>
       <c r="AN31" s="1">
-        <f t="shared" si="44"/>
-        <v>2169.2489999999993</v>
+        <f t="shared" ref="AN31:BD31" si="45">+AN29*0.82</f>
+        <v>8175.9165999999977</v>
       </c>
       <c r="AO31" s="1">
-        <f t="shared" si="44"/>
-        <v>2060.7865499999994</v>
+        <f t="shared" si="45"/>
+        <v>7879.0765999999985</v>
       </c>
       <c r="AP31" s="1">
-        <f t="shared" si="44"/>
-        <v>1957.7472224999992</v>
+        <f t="shared" si="45"/>
+        <v>7938.1337790000007</v>
       </c>
       <c r="AQ31" s="1">
-        <f t="shared" si="44"/>
-        <v>1859.8598613749991</v>
+        <f t="shared" si="45"/>
+        <v>7686.8094579099989</v>
       </c>
       <c r="AR31" s="1">
-        <f t="shared" si="44"/>
-        <v>1766.866868306249</v>
+        <f t="shared" si="45"/>
+        <v>7330.4637872613002</v>
       </c>
       <c r="AS31" s="1">
-        <f t="shared" si="44"/>
-        <v>1678.5235248909364</v>
+        <f t="shared" si="45"/>
+        <v>6934.3147232843394</v>
       </c>
       <c r="AT31" s="1">
-        <f t="shared" si="44"/>
-        <v>1594.5973486463895</v>
+        <f t="shared" si="45"/>
+        <v>6574.0181930083199</v>
       </c>
       <c r="AU31" s="1">
-        <f t="shared" si="44"/>
-        <v>1514.86748121407</v>
+        <f t="shared" si="45"/>
+        <v>6010.1001173433315</v>
       </c>
       <c r="AV31" s="1">
-        <f t="shared" si="44"/>
-        <v>1439.1241071533664</v>
+        <f t="shared" si="45"/>
+        <v>5687.7542038774318</v>
       </c>
       <c r="AW31" s="1">
-        <f t="shared" si="44"/>
-        <v>1367.1679017956981</v>
+        <f t="shared" si="45"/>
+        <v>5416.1276428456522</v>
       </c>
       <c r="AX31" s="1">
-        <f t="shared" si="44"/>
-        <v>1298.809506705913</v>
+        <f t="shared" si="45"/>
+        <v>5188.2008669570268</v>
       </c>
       <c r="AY31" s="1">
-        <f t="shared" si="44"/>
-        <v>1233.8690313706172</v>
+        <f t="shared" si="45"/>
+        <v>4998.0701797924348</v>
       </c>
       <c r="AZ31" s="1">
-        <f t="shared" si="44"/>
-        <v>1172.1755798020863</v>
+        <f t="shared" si="45"/>
+        <v>3156.6963492031955</v>
       </c>
       <c r="BA31" s="1">
-        <f t="shared" si="44"/>
-        <v>1113.5668008119819</v>
+        <f t="shared" si="45"/>
+        <v>2825.9152250623124</v>
       </c>
       <c r="BB31" s="1">
-        <f t="shared" si="44"/>
-        <v>1057.8884607713828</v>
+        <f t="shared" si="45"/>
+        <v>2667.7184997530762</v>
       </c>
       <c r="BC31" s="1">
-        <f t="shared" si="44"/>
-        <v>1004.9940377328136</v>
+        <f t="shared" si="45"/>
+        <v>2545.6326326290491</v>
       </c>
       <c r="BD31" s="1">
-        <f t="shared" si="44"/>
-        <v>954.74433584617282</v>
+        <f t="shared" si="45"/>
+        <v>2443.7387207125598</v>
       </c>
     </row>
     <row r="32" spans="2:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12">
-        <f t="shared" ref="E32:L32" si="45">+E28-E31</f>
-        <v>1212.9999999999991</v>
+        <v>1140.9000000000001</v>
       </c>
       <c r="F32" s="12">
-        <f t="shared" si="45"/>
-        <v>-170.30000000000064</v>
+        <v>1726</v>
       </c>
       <c r="G32" s="12">
-        <f t="shared" si="45"/>
-        <v>1106.7000000000005</v>
+        <v>514.20000000000005</v>
       </c>
       <c r="H32" s="12">
-        <f t="shared" si="45"/>
-        <v>1092.8999999999996</v>
+        <v>585.1</v>
       </c>
       <c r="I32" s="12">
-        <f t="shared" si="45"/>
-        <v>910.60000000000036</v>
+        <v>702.4</v>
       </c>
       <c r="J32" s="12">
-        <f t="shared" si="45"/>
-        <v>586.59999999999945</v>
+        <v>699.5</v>
       </c>
       <c r="K32" s="12">
-        <f t="shared" si="45"/>
-        <v>591.30000000000018</v>
+        <v>551.70000000000005</v>
       </c>
       <c r="L32" s="12">
-        <f t="shared" si="45"/>
-        <v>1003.8999999999999</v>
+        <v>528.6</v>
       </c>
       <c r="M32" s="12">
-        <f t="shared" ref="M32:N32" si="46">+M28-M31</f>
-        <v>926.5</v>
+        <v>549.20000000000005</v>
       </c>
       <c r="N32" s="12">
-        <f t="shared" si="46"/>
-        <v>738.69999999999936</v>
+        <v>601.6</v>
       </c>
       <c r="O32" s="12">
-        <f t="shared" ref="O32:R32" si="47">+O28-O31</f>
-        <v>624.60000000000014</v>
+        <v>570.6</v>
       </c>
       <c r="P32" s="12">
-        <f t="shared" si="47"/>
-        <v>745.7</v>
+        <v>583.79999999999995</v>
       </c>
       <c r="Q32" s="12">
-        <f t="shared" si="47"/>
-        <v>778.60000000000082</v>
-      </c>
-      <c r="R32" s="12">
-        <f t="shared" si="47"/>
-        <v>643.50000000000023</v>
-      </c>
-      <c r="S32" s="12">
-        <f>+S28-S31</f>
-        <v>774.40000000000009</v>
-      </c>
-      <c r="T32" s="12">
-        <f>+T28-T31</f>
-        <v>956.10000000000048</v>
-      </c>
-      <c r="U32" s="12"/>
-      <c r="V32" s="12"/>
-      <c r="W32" s="12"/>
-      <c r="X32" s="12"/>
+        <v>539.1</v>
+      </c>
+      <c r="R32" s="1">
+        <v>568.1</v>
+      </c>
+      <c r="S32" s="1">
+        <v>446.7</v>
+      </c>
+      <c r="T32" s="1">
+        <v>463.6</v>
+      </c>
+      <c r="U32" s="1">
+        <f>+Q32</f>
+        <v>539.1</v>
+      </c>
+      <c r="V32" s="1">
+        <f>+R32</f>
+        <v>568.1</v>
+      </c>
+      <c r="AD32" s="1">
+        <v>1893.4</v>
+      </c>
+      <c r="AE32" s="1">
+        <v>2012.8</v>
+      </c>
+      <c r="AF32" s="1">
+        <v>1973.3</v>
+      </c>
+      <c r="AG32" s="1">
+        <v>2253.6</v>
+      </c>
+      <c r="AH32" s="1">
+        <v>2597.1999999999998</v>
+      </c>
       <c r="AI32" s="1">
-        <f t="shared" ref="AI32:AJ32" si="48">+AI28-AI31</f>
-        <v>7767.2000000000025</v>
+        <v>2280.6</v>
       </c>
       <c r="AJ32" s="1">
-        <f t="shared" si="48"/>
-        <v>5144.0000000000018</v>
+        <v>3990.9</v>
       </c>
       <c r="AK32" s="1">
-        <f>+AK28-AK31</f>
-        <v>3696.7999999999993</v>
+        <f t="shared" ref="AK32:AK33" si="46">SUM(G32:J32)</f>
+        <v>2501.2000000000003</v>
       </c>
       <c r="AL32" s="1">
-        <f>+AL28-AL31</f>
-        <v>4125.2000000000007</v>
-      </c>
-      <c r="AM32" s="1">
-        <f t="shared" ref="AM32:BD32" si="49">+AM28-AM31</f>
-        <v>7299.7510799999982</v>
-      </c>
-      <c r="AN32" s="1">
-        <f t="shared" si="49"/>
-        <v>8876.7650488000036</v>
-      </c>
-      <c r="AO32" s="1">
-        <f t="shared" si="49"/>
-        <v>9810.0074829800014</v>
-      </c>
-      <c r="AP32" s="1">
-        <f t="shared" si="49"/>
-        <v>10815.333240497999</v>
-      </c>
-      <c r="AQ32" s="1">
-        <f t="shared" si="49"/>
-        <v>10602.004664623251</v>
-      </c>
-      <c r="AR32" s="1">
-        <f t="shared" si="49"/>
-        <v>10484.880108899613</v>
-      </c>
-      <c r="AS32" s="1">
-        <f t="shared" si="49"/>
-        <v>10453.334271885411</v>
-      </c>
-      <c r="AT32" s="1">
-        <f t="shared" si="49"/>
-        <v>10270.714911072835</v>
-      </c>
-      <c r="AU32" s="1">
-        <f t="shared" si="49"/>
-        <v>9770.4730494850646</v>
-      </c>
-      <c r="AV32" s="1">
-        <f t="shared" si="49"/>
-        <v>9596.2259959570365</v>
-      </c>
-      <c r="AW32" s="1">
-        <f t="shared" si="49"/>
-        <v>9475.9886530559306</v>
-      </c>
-      <c r="AX32" s="1">
-        <f t="shared" si="49"/>
-        <v>9401.922658298834</v>
-      </c>
-      <c r="AY32" s="1">
-        <f t="shared" si="49"/>
-        <v>9367.4885750026187</v>
-      </c>
-      <c r="AZ32" s="1">
-        <f t="shared" si="49"/>
-        <v>9367.2205048901342</v>
-      </c>
-      <c r="BA32" s="1">
-        <f t="shared" si="49"/>
-        <v>9396.5416195431899</v>
-      </c>
-      <c r="BB32" s="1">
-        <f t="shared" si="49"/>
-        <v>9451.6129500010065</v>
-      </c>
-      <c r="BC32" s="1">
-        <f t="shared" si="49"/>
-        <v>9529.2092379837741</v>
-      </c>
-      <c r="BD32" s="1">
-        <f t="shared" si="49"/>
-        <v>9626.6168326962943</v>
+        <f t="shared" ref="AL32:AL33" si="47">SUM(K32:N32)</f>
+        <v>2231.1000000000004</v>
       </c>
     </row>
     <row r="33" spans="2:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12">
-        <f>73-128.6</f>
-        <v>-55.599999999999994</v>
+        <v>573.1</v>
       </c>
       <c r="F33" s="12">
-        <f>66.4+683.5</f>
-        <v>749.9</v>
+        <v>806.3</v>
       </c>
       <c r="G33" s="12">
-        <f>68.5-506.9</f>
-        <v>-438.4</v>
+        <v>595</v>
       </c>
       <c r="H33" s="12">
-        <v>-15.2</v>
+        <v>637.29999999999995</v>
       </c>
       <c r="I33" s="12">
-        <f>21.2-502.9</f>
-        <v>-481.7</v>
+        <v>654.1</v>
       </c>
       <c r="J33" s="12">
-        <f>67.3-182.1</f>
-        <v>-114.8</v>
+        <v>787.9</v>
       </c>
       <c r="K33" s="12">
-        <f>-117.3-263.3</f>
-        <v>-380.6</v>
+        <v>634.9</v>
       </c>
       <c r="L33" s="12">
-        <v>29.4</v>
+        <v>572.6</v>
       </c>
       <c r="M33" s="12">
-        <f>45.3+56</f>
-        <v>101.3</v>
+        <v>563.29999999999995</v>
       </c>
       <c r="N33" s="12">
-        <v>-113.1</v>
+        <v>632.79999999999995</v>
       </c>
       <c r="O33" s="12">
-        <v>-69.400000000000006</v>
+        <v>605</v>
       </c>
       <c r="P33" s="12">
-        <v>14.7</v>
+        <v>533.79999999999995</v>
       </c>
       <c r="Q33" s="12">
-        <v>-300</v>
+        <v>553</v>
       </c>
       <c r="R33" s="1">
-        <v>-67.3</v>
+        <v>587.9</v>
       </c>
       <c r="S33" s="1">
-        <v>-93.7</v>
+        <v>569.4</v>
       </c>
       <c r="T33" s="1">
-        <v>-85.2</v>
+        <v>541.5</v>
+      </c>
+      <c r="U33" s="1">
+        <f>+Q33</f>
+        <v>553</v>
+      </c>
+      <c r="V33" s="1">
+        <f>+R33</f>
+        <v>587.9</v>
+      </c>
+      <c r="AD33" s="1">
+        <v>2232.3000000000002</v>
+      </c>
+      <c r="AE33" s="1">
+        <v>2113.1</v>
+      </c>
+      <c r="AF33" s="1">
+        <v>1946.6</v>
+      </c>
+      <c r="AG33" s="1">
+        <v>1933.9</v>
+      </c>
+      <c r="AH33" s="1">
+        <v>2106.3000000000002</v>
       </c>
       <c r="AI33" s="1">
-        <f>241.6+83.3</f>
-        <v>324.89999999999998</v>
+        <v>2374.6999999999998</v>
       </c>
       <c r="AJ33" s="1">
-        <f>232.9+497.4</f>
-        <v>730.3</v>
+        <v>2504.5</v>
       </c>
       <c r="AK33" s="1">
-        <f t="shared" ref="AK33" si="50">SUM(G33:J33)</f>
-        <v>-1050.0999999999999</v>
+        <f t="shared" si="46"/>
+        <v>2674.3</v>
       </c>
       <c r="AL33" s="1">
-        <f t="shared" ref="AL33" si="51">SUM(K33:N33)</f>
-        <v>-363</v>
+        <f t="shared" si="47"/>
+        <v>2403.6</v>
+      </c>
+      <c r="AM33" s="1">
+        <f>+AL33*0.95</f>
+        <v>2283.4199999999996</v>
+      </c>
+      <c r="AN33" s="1">
+        <f t="shared" ref="AN33:BD33" si="48">+AM33*0.95</f>
+        <v>2169.2489999999993</v>
+      </c>
+      <c r="AO33" s="1">
+        <f t="shared" si="48"/>
+        <v>2060.7865499999994</v>
+      </c>
+      <c r="AP33" s="1">
+        <f t="shared" si="48"/>
+        <v>1957.7472224999992</v>
+      </c>
+      <c r="AQ33" s="1">
+        <f t="shared" si="48"/>
+        <v>1859.8598613749991</v>
+      </c>
+      <c r="AR33" s="1">
+        <f t="shared" si="48"/>
+        <v>1766.866868306249</v>
+      </c>
+      <c r="AS33" s="1">
+        <f t="shared" si="48"/>
+        <v>1678.5235248909364</v>
+      </c>
+      <c r="AT33" s="1">
+        <f t="shared" si="48"/>
+        <v>1594.5973486463895</v>
+      </c>
+      <c r="AU33" s="1">
+        <f t="shared" si="48"/>
+        <v>1514.86748121407</v>
+      </c>
+      <c r="AV33" s="1">
+        <f t="shared" si="48"/>
+        <v>1439.1241071533664</v>
+      </c>
+      <c r="AW33" s="1">
+        <f t="shared" si="48"/>
+        <v>1367.1679017956981</v>
+      </c>
+      <c r="AX33" s="1">
+        <f t="shared" si="48"/>
+        <v>1298.809506705913</v>
+      </c>
+      <c r="AY33" s="1">
+        <f t="shared" si="48"/>
+        <v>1233.8690313706172</v>
+      </c>
+      <c r="AZ33" s="1">
+        <f t="shared" si="48"/>
+        <v>1172.1755798020863</v>
+      </c>
+      <c r="BA33" s="1">
+        <f t="shared" si="48"/>
+        <v>1113.5668008119819</v>
+      </c>
+      <c r="BB33" s="1">
+        <f t="shared" si="48"/>
+        <v>1057.8884607713828</v>
+      </c>
+      <c r="BC33" s="1">
+        <f t="shared" si="48"/>
+        <v>1004.9940377328136</v>
+      </c>
+      <c r="BD33" s="1">
+        <f t="shared" si="48"/>
+        <v>954.74433584617282</v>
       </c>
     </row>
     <row r="34" spans="2:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12">
-        <f t="shared" ref="E34:S34" si="52">+E32+E33</f>
-        <v>1157.3999999999992</v>
+        <f t="shared" ref="E34:L34" si="49">+E32+E33</f>
+        <v>1714</v>
       </c>
       <c r="F34" s="12">
-        <f t="shared" si="52"/>
-        <v>579.59999999999934</v>
+        <f t="shared" si="49"/>
+        <v>2532.3000000000002</v>
       </c>
       <c r="G34" s="12">
-        <f t="shared" si="52"/>
-        <v>668.30000000000052</v>
+        <f t="shared" si="49"/>
+        <v>1109.2</v>
       </c>
       <c r="H34" s="12">
-        <f t="shared" si="52"/>
-        <v>1077.6999999999996</v>
+        <f t="shared" si="49"/>
+        <v>1222.4000000000001</v>
       </c>
       <c r="I34" s="12">
-        <f t="shared" si="52"/>
-        <v>428.90000000000038</v>
+        <f t="shared" si="49"/>
+        <v>1356.5</v>
       </c>
       <c r="J34" s="12">
-        <f t="shared" si="52"/>
-        <v>471.79999999999944</v>
+        <f t="shared" si="49"/>
+        <v>1487.4</v>
       </c>
       <c r="K34" s="12">
-        <f t="shared" si="52"/>
-        <v>210.70000000000016</v>
+        <f t="shared" si="49"/>
+        <v>1186.5999999999999</v>
       </c>
       <c r="L34" s="12">
-        <f t="shared" si="52"/>
-        <v>1033.3</v>
+        <f t="shared" si="49"/>
+        <v>1101.2</v>
       </c>
       <c r="M34" s="12">
-        <f t="shared" si="52"/>
-        <v>1027.8</v>
+        <f t="shared" ref="M34:N34" si="50">+M32+M33</f>
+        <v>1112.5</v>
       </c>
       <c r="N34" s="12">
-        <f t="shared" si="52"/>
-        <v>625.59999999999934</v>
+        <f t="shared" si="50"/>
+        <v>1234.4000000000001</v>
       </c>
       <c r="O34" s="12">
-        <f t="shared" si="52"/>
-        <v>555.20000000000016</v>
+        <f t="shared" ref="O34:R34" si="51">+O32+O33</f>
+        <v>1175.5999999999999</v>
       </c>
       <c r="P34" s="12">
-        <f t="shared" si="52"/>
-        <v>760.40000000000009</v>
+        <f t="shared" si="51"/>
+        <v>1117.5999999999999</v>
       </c>
       <c r="Q34" s="12">
-        <f t="shared" si="52"/>
-        <v>478.60000000000082</v>
+        <f t="shared" si="51"/>
+        <v>1092.0999999999999</v>
       </c>
       <c r="R34" s="12">
-        <f t="shared" si="52"/>
-        <v>576.20000000000027</v>
+        <f t="shared" si="51"/>
+        <v>1156</v>
       </c>
       <c r="S34" s="12">
-        <f t="shared" si="52"/>
-        <v>680.7</v>
+        <f>+S32+S33</f>
+        <v>1016.0999999999999</v>
       </c>
       <c r="T34" s="12">
         <f>+T32+T33</f>
-        <v>870.90000000000043</v>
-      </c>
-      <c r="U34" s="12"/>
-      <c r="V34" s="12"/>
+        <v>1005.1</v>
+      </c>
+      <c r="U34" s="12">
+        <f>+U32+U33</f>
+        <v>1092.0999999999999</v>
+      </c>
+      <c r="V34" s="12">
+        <f>+V32+V33</f>
+        <v>1156</v>
+      </c>
       <c r="W34" s="12"/>
       <c r="X34" s="12"/>
+      <c r="AD34" s="1">
+        <f t="shared" ref="AD34:AF34" si="52">+AD32+AD33</f>
+        <v>4125.7000000000007</v>
+      </c>
+      <c r="AE34" s="1">
+        <f t="shared" si="52"/>
+        <v>4125.8999999999996</v>
+      </c>
+      <c r="AF34" s="1">
+        <f t="shared" si="52"/>
+        <v>3919.8999999999996</v>
+      </c>
+      <c r="AG34" s="1">
+        <f t="shared" ref="AG34:AH34" si="53">+AG32+AG33</f>
+        <v>4187.5</v>
+      </c>
+      <c r="AH34" s="1">
+        <f t="shared" si="53"/>
+        <v>4703.5</v>
+      </c>
       <c r="AI34" s="1">
-        <f t="shared" ref="AI34:AJ34" si="53">+AI32+AI33</f>
-        <v>8092.1000000000022</v>
+        <f t="shared" ref="AI34:AJ34" si="54">+AI32+AI33</f>
+        <v>4655.2999999999993</v>
       </c>
       <c r="AJ34" s="1">
-        <f t="shared" si="53"/>
-        <v>5874.300000000002</v>
+        <f t="shared" si="54"/>
+        <v>6495.4</v>
       </c>
       <c r="AK34" s="1">
         <f>+AK32+AK33</f>
-        <v>2646.6999999999994</v>
+        <v>5175.5</v>
       </c>
       <c r="AL34" s="1">
         <f>+AL32+AL33</f>
-        <v>3762.2000000000007</v>
+        <v>4634.7000000000007</v>
       </c>
       <c r="AM34" s="1">
-        <f t="shared" ref="AM34:BD34" si="54">+AM32+AM33</f>
-        <v>7299.7510799999982</v>
+        <f t="shared" ref="AM34:BD34" si="55">+AM32+AM33</f>
+        <v>2283.4199999999996</v>
       </c>
       <c r="AN34" s="1">
-        <f t="shared" si="54"/>
-        <v>8876.7650488000036</v>
+        <f t="shared" si="55"/>
+        <v>2169.2489999999993</v>
       </c>
       <c r="AO34" s="1">
-        <f t="shared" si="54"/>
-        <v>9810.0074829800014</v>
+        <f t="shared" si="55"/>
+        <v>2060.7865499999994</v>
       </c>
       <c r="AP34" s="1">
-        <f t="shared" si="54"/>
-        <v>10815.333240497999</v>
+        <f t="shared" si="55"/>
+        <v>1957.7472224999992</v>
       </c>
       <c r="AQ34" s="1">
-        <f t="shared" si="54"/>
-        <v>10602.004664623251</v>
+        <f t="shared" si="55"/>
+        <v>1859.8598613749991</v>
       </c>
       <c r="AR34" s="1">
-        <f t="shared" si="54"/>
-        <v>10484.880108899613</v>
+        <f t="shared" si="55"/>
+        <v>1766.866868306249</v>
       </c>
       <c r="AS34" s="1">
-        <f t="shared" si="54"/>
-        <v>10453.334271885411</v>
+        <f t="shared" si="55"/>
+        <v>1678.5235248909364</v>
       </c>
       <c r="AT34" s="1">
-        <f t="shared" si="54"/>
-        <v>10270.714911072835</v>
+        <f t="shared" si="55"/>
+        <v>1594.5973486463895</v>
       </c>
       <c r="AU34" s="1">
-        <f t="shared" si="54"/>
-        <v>9770.4730494850646</v>
+        <f t="shared" si="55"/>
+        <v>1514.86748121407</v>
       </c>
       <c r="AV34" s="1">
-        <f t="shared" si="54"/>
-        <v>9596.2259959570365</v>
+        <f t="shared" si="55"/>
+        <v>1439.1241071533664</v>
       </c>
       <c r="AW34" s="1">
-        <f t="shared" si="54"/>
-        <v>9475.9886530559306</v>
+        <f t="shared" si="55"/>
+        <v>1367.1679017956981</v>
       </c>
       <c r="AX34" s="1">
-        <f t="shared" si="54"/>
-        <v>9401.922658298834</v>
+        <f t="shared" si="55"/>
+        <v>1298.809506705913</v>
       </c>
       <c r="AY34" s="1">
-        <f t="shared" si="54"/>
-        <v>9367.4885750026187</v>
+        <f t="shared" si="55"/>
+        <v>1233.8690313706172</v>
       </c>
       <c r="AZ34" s="1">
-        <f t="shared" si="54"/>
-        <v>9367.2205048901342</v>
+        <f t="shared" si="55"/>
+        <v>1172.1755798020863</v>
       </c>
       <c r="BA34" s="1">
-        <f t="shared" si="54"/>
-        <v>9396.5416195431899</v>
+        <f t="shared" si="55"/>
+        <v>1113.5668008119819</v>
       </c>
       <c r="BB34" s="1">
-        <f t="shared" si="54"/>
-        <v>9451.6129500010065</v>
+        <f t="shared" si="55"/>
+        <v>1057.8884607713828</v>
       </c>
       <c r="BC34" s="1">
-        <f t="shared" si="54"/>
-        <v>9529.2092379837741</v>
+        <f t="shared" si="55"/>
+        <v>1004.9940377328136</v>
       </c>
       <c r="BD34" s="1">
-        <f t="shared" si="54"/>
-        <v>9626.6168326962943</v>
+        <f t="shared" si="55"/>
+        <v>954.74433584617282</v>
       </c>
     </row>
     <row r="35" spans="2:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12">
+        <f t="shared" ref="E35:L35" si="56">+E31-E34</f>
+        <v>1212.9999999999991</v>
+      </c>
+      <c r="F35" s="12">
+        <f t="shared" si="56"/>
+        <v>-170.30000000000064</v>
+      </c>
+      <c r="G35" s="12">
+        <f t="shared" si="56"/>
+        <v>1106.7000000000005</v>
+      </c>
+      <c r="H35" s="12">
+        <f t="shared" si="56"/>
+        <v>1092.8999999999996</v>
+      </c>
+      <c r="I35" s="12">
+        <f t="shared" si="56"/>
+        <v>910.60000000000036</v>
+      </c>
+      <c r="J35" s="12">
+        <f t="shared" si="56"/>
+        <v>586.59999999999945</v>
+      </c>
+      <c r="K35" s="12">
+        <f t="shared" si="56"/>
+        <v>591.30000000000018</v>
+      </c>
+      <c r="L35" s="12">
+        <f t="shared" si="56"/>
+        <v>1003.8999999999999</v>
+      </c>
+      <c r="M35" s="12">
+        <f t="shared" ref="M35:N35" si="57">+M31-M34</f>
+        <v>926.5</v>
+      </c>
+      <c r="N35" s="12">
+        <f t="shared" si="57"/>
+        <v>738.69999999999936</v>
+      </c>
+      <c r="O35" s="12">
+        <f t="shared" ref="O35:R35" si="58">+O31-O34</f>
+        <v>624.60000000000014</v>
+      </c>
+      <c r="P35" s="12">
+        <f t="shared" si="58"/>
+        <v>745.7</v>
+      </c>
+      <c r="Q35" s="12">
+        <f t="shared" si="58"/>
+        <v>778.60000000000082</v>
+      </c>
+      <c r="R35" s="12">
+        <f t="shared" si="58"/>
+        <v>643.50000000000023</v>
+      </c>
+      <c r="S35" s="12">
+        <f>+S31-S34</f>
+        <v>774.40000000000009</v>
+      </c>
+      <c r="T35" s="12">
+        <f>+T31-T34</f>
+        <v>956.10000000000048</v>
+      </c>
+      <c r="U35" s="12">
+        <f>+U31-U34</f>
+        <v>1055.4200000000005</v>
+      </c>
+      <c r="V35" s="12">
+        <f>+V31-V34</f>
+        <v>868.66400000000044</v>
+      </c>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
+      <c r="AD35" s="1">
+        <f t="shared" ref="AD35:AF35" si="59">+AD31-AD34</f>
+        <v>4406.5999999999967</v>
+      </c>
+      <c r="AE35" s="1">
+        <f t="shared" si="59"/>
+        <v>5397.5000000000036</v>
+      </c>
+      <c r="AF35" s="1">
+        <f t="shared" si="59"/>
+        <v>6050.1999999999989</v>
+      </c>
+      <c r="AG35" s="1">
+        <f t="shared" ref="AG35:AH35" si="60">+AG31-AG34</f>
+        <v>6456.4000000000015</v>
+      </c>
+      <c r="AH35" s="1">
+        <f t="shared" si="60"/>
+        <v>6933.100000000004</v>
+      </c>
+      <c r="AI35" s="1">
+        <f t="shared" ref="AI35:AJ35" si="61">+AI31-AI34</f>
+        <v>7767.2000000000025</v>
+      </c>
+      <c r="AJ35" s="1">
+        <f t="shared" si="61"/>
+        <v>5144.0000000000018</v>
+      </c>
+      <c r="AK35" s="1">
+        <f>+AK31-AK34</f>
+        <v>3696.7999999999993</v>
+      </c>
+      <c r="AL35" s="1">
+        <f>+AL31-AL34</f>
+        <v>4125.2000000000007</v>
+      </c>
+      <c r="AM35" s="1">
+        <f t="shared" ref="AM35:BD35" si="62">+AM31-AM34</f>
+        <v>6106.5740000000005</v>
+      </c>
+      <c r="AN35" s="1">
+        <f t="shared" si="62"/>
+        <v>6006.6675999999989</v>
+      </c>
+      <c r="AO35" s="1">
+        <f t="shared" si="62"/>
+        <v>5818.2900499999996</v>
+      </c>
+      <c r="AP35" s="1">
+        <f t="shared" si="62"/>
+        <v>5980.3865565000015</v>
+      </c>
+      <c r="AQ35" s="1">
+        <f t="shared" si="62"/>
+        <v>5826.9495965349997</v>
+      </c>
+      <c r="AR35" s="1">
+        <f t="shared" si="62"/>
+        <v>5563.5969189550515</v>
+      </c>
+      <c r="AS35" s="1">
+        <f t="shared" si="62"/>
+        <v>5255.7911983934027</v>
+      </c>
+      <c r="AT35" s="1">
+        <f t="shared" si="62"/>
+        <v>4979.42084436193</v>
+      </c>
+      <c r="AU35" s="1">
+        <f t="shared" si="62"/>
+        <v>4495.2326361292617</v>
+      </c>
+      <c r="AV35" s="1">
+        <f t="shared" si="62"/>
+        <v>4248.6300967240659</v>
+      </c>
+      <c r="AW35" s="1">
+        <f t="shared" si="62"/>
+        <v>4048.9597410499541</v>
+      </c>
+      <c r="AX35" s="1">
+        <f t="shared" si="62"/>
+        <v>3889.3913602511138</v>
+      </c>
+      <c r="AY35" s="1">
+        <f t="shared" si="62"/>
+        <v>3764.2011484218174</v>
+      </c>
+      <c r="AZ35" s="1">
+        <f t="shared" si="62"/>
+        <v>1984.5207694011092</v>
+      </c>
+      <c r="BA35" s="1">
+        <f t="shared" si="62"/>
+        <v>1712.3484242503305</v>
+      </c>
+      <c r="BB35" s="1">
+        <f t="shared" si="62"/>
+        <v>1609.8300389816934</v>
+      </c>
+      <c r="BC35" s="1">
+        <f t="shared" si="62"/>
+        <v>1540.6385948962356</v>
+      </c>
+      <c r="BD35" s="1">
+        <f t="shared" si="62"/>
+        <v>1488.994384866387</v>
+      </c>
+    </row>
+    <row r="36" spans="2:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12">
+        <f>73-128.6</f>
+        <v>-55.599999999999994</v>
+      </c>
+      <c r="F36" s="12">
+        <f>66.4+683.5</f>
+        <v>749.9</v>
+      </c>
+      <c r="G36" s="12">
+        <f>68.5-506.9</f>
+        <v>-438.4</v>
+      </c>
+      <c r="H36" s="12">
+        <v>-15.2</v>
+      </c>
+      <c r="I36" s="12">
+        <f>21.2-502.9</f>
+        <v>-481.7</v>
+      </c>
+      <c r="J36" s="12">
+        <f>67.3-182.1</f>
+        <v>-114.8</v>
+      </c>
+      <c r="K36" s="12">
+        <f>-117.3-263.3</f>
+        <v>-380.6</v>
+      </c>
+      <c r="L36" s="12">
+        <v>29.4</v>
+      </c>
+      <c r="M36" s="12">
+        <f>45.3+56</f>
+        <v>101.3</v>
+      </c>
+      <c r="N36" s="12">
+        <v>-113.1</v>
+      </c>
+      <c r="O36" s="12">
+        <v>-69.400000000000006</v>
+      </c>
+      <c r="P36" s="12">
+        <v>14.7</v>
+      </c>
+      <c r="Q36" s="12">
+        <v>-300</v>
+      </c>
+      <c r="R36" s="1">
+        <v>-67.3</v>
+      </c>
+      <c r="S36" s="1">
+        <v>-93.7</v>
+      </c>
+      <c r="T36" s="1">
+        <v>-85.2</v>
+      </c>
+      <c r="U36" s="1">
+        <f>+T36</f>
+        <v>-85.2</v>
+      </c>
+      <c r="V36" s="1">
+        <f>+U36</f>
+        <v>-85.2</v>
+      </c>
+      <c r="AD36" s="1">
+        <v>-25.8</v>
+      </c>
+      <c r="AE36" s="1">
+        <v>-123.7</v>
+      </c>
+      <c r="AF36" s="1">
+        <f>-218.7+10.2</f>
+        <v>-208.5</v>
+      </c>
+      <c r="AG36" s="1">
+        <f>112.3-217</f>
+        <v>-104.7</v>
+      </c>
+      <c r="AH36" s="1">
+        <f>185+11</f>
+        <v>196</v>
+      </c>
+      <c r="AI36" s="1">
+        <f>241.6+83.3</f>
+        <v>324.89999999999998</v>
+      </c>
+      <c r="AJ36" s="1">
+        <f>232.9+497.4</f>
+        <v>730.3</v>
+      </c>
+      <c r="AK36" s="1">
+        <f t="shared" ref="AK36" si="63">SUM(G36:J36)</f>
+        <v>-1050.0999999999999</v>
+      </c>
+      <c r="AL36" s="1">
+        <f t="shared" ref="AL36" si="64">SUM(K36:N36)</f>
+        <v>-363</v>
+      </c>
+    </row>
+    <row r="37" spans="2:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12">
+        <f t="shared" ref="E37:S37" si="65">+E35+E36</f>
+        <v>1157.3999999999992</v>
+      </c>
+      <c r="F37" s="12">
+        <f t="shared" si="65"/>
+        <v>579.59999999999934</v>
+      </c>
+      <c r="G37" s="12">
+        <f t="shared" si="65"/>
+        <v>668.30000000000052</v>
+      </c>
+      <c r="H37" s="12">
+        <f t="shared" si="65"/>
+        <v>1077.6999999999996</v>
+      </c>
+      <c r="I37" s="12">
+        <f t="shared" si="65"/>
+        <v>428.90000000000038</v>
+      </c>
+      <c r="J37" s="12">
+        <f t="shared" si="65"/>
+        <v>471.79999999999944</v>
+      </c>
+      <c r="K37" s="12">
+        <f t="shared" si="65"/>
+        <v>210.70000000000016</v>
+      </c>
+      <c r="L37" s="12">
+        <f t="shared" si="65"/>
+        <v>1033.3</v>
+      </c>
+      <c r="M37" s="12">
+        <f t="shared" si="65"/>
+        <v>1027.8</v>
+      </c>
+      <c r="N37" s="12">
+        <f t="shared" si="65"/>
+        <v>625.59999999999934</v>
+      </c>
+      <c r="O37" s="12">
+        <f t="shared" si="65"/>
+        <v>555.20000000000016</v>
+      </c>
+      <c r="P37" s="12">
+        <f t="shared" si="65"/>
+        <v>760.40000000000009</v>
+      </c>
+      <c r="Q37" s="12">
+        <f t="shared" si="65"/>
+        <v>478.60000000000082</v>
+      </c>
+      <c r="R37" s="12">
+        <f t="shared" si="65"/>
+        <v>576.20000000000027</v>
+      </c>
+      <c r="S37" s="12">
+        <f t="shared" si="65"/>
+        <v>680.7</v>
+      </c>
+      <c r="T37" s="12">
+        <f>+T35+T36</f>
+        <v>870.90000000000043</v>
+      </c>
+      <c r="U37" s="12">
+        <f>+U35+U36</f>
+        <v>970.22000000000048</v>
+      </c>
+      <c r="V37" s="12">
+        <f>+V35+V36</f>
+        <v>783.4640000000004</v>
+      </c>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+      <c r="AD37" s="1">
+        <f t="shared" ref="AD37:AG37" si="66">+AD35+AD36</f>
+        <v>4380.7999999999965</v>
+      </c>
+      <c r="AE37" s="1">
+        <f t="shared" si="66"/>
+        <v>5273.8000000000038</v>
+      </c>
+      <c r="AF37" s="1">
+        <f t="shared" si="66"/>
+        <v>5841.6999999999989</v>
+      </c>
+      <c r="AG37" s="1">
+        <f t="shared" si="66"/>
+        <v>6351.7000000000016</v>
+      </c>
+      <c r="AH37" s="1">
+        <f t="shared" ref="AH37:AJ37" si="67">+AH35+AH36</f>
+        <v>7129.100000000004</v>
+      </c>
+      <c r="AI37" s="1">
+        <f t="shared" si="67"/>
+        <v>8092.1000000000022</v>
+      </c>
+      <c r="AJ37" s="1">
+        <f t="shared" si="67"/>
+        <v>5874.300000000002</v>
+      </c>
+      <c r="AK37" s="1">
+        <f>+AK35+AK36</f>
+        <v>2646.6999999999994</v>
+      </c>
+      <c r="AL37" s="1">
+        <f>+AL35+AL36</f>
+        <v>3762.2000000000007</v>
+      </c>
+      <c r="AM37" s="1">
+        <f t="shared" ref="AM37:BD37" si="68">+AM35+AM36</f>
+        <v>6106.5740000000005</v>
+      </c>
+      <c r="AN37" s="1">
+        <f t="shared" si="68"/>
+        <v>6006.6675999999989</v>
+      </c>
+      <c r="AO37" s="1">
+        <f t="shared" si="68"/>
+        <v>5818.2900499999996</v>
+      </c>
+      <c r="AP37" s="1">
+        <f t="shared" si="68"/>
+        <v>5980.3865565000015</v>
+      </c>
+      <c r="AQ37" s="1">
+        <f t="shared" si="68"/>
+        <v>5826.9495965349997</v>
+      </c>
+      <c r="AR37" s="1">
+        <f t="shared" si="68"/>
+        <v>5563.5969189550515</v>
+      </c>
+      <c r="AS37" s="1">
+        <f t="shared" si="68"/>
+        <v>5255.7911983934027</v>
+      </c>
+      <c r="AT37" s="1">
+        <f t="shared" si="68"/>
+        <v>4979.42084436193</v>
+      </c>
+      <c r="AU37" s="1">
+        <f t="shared" si="68"/>
+        <v>4495.2326361292617</v>
+      </c>
+      <c r="AV37" s="1">
+        <f t="shared" si="68"/>
+        <v>4248.6300967240659</v>
+      </c>
+      <c r="AW37" s="1">
+        <f t="shared" si="68"/>
+        <v>4048.9597410499541</v>
+      </c>
+      <c r="AX37" s="1">
+        <f t="shared" si="68"/>
+        <v>3889.3913602511138</v>
+      </c>
+      <c r="AY37" s="1">
+        <f t="shared" si="68"/>
+        <v>3764.2011484218174</v>
+      </c>
+      <c r="AZ37" s="1">
+        <f t="shared" si="68"/>
+        <v>1984.5207694011092</v>
+      </c>
+      <c r="BA37" s="1">
+        <f t="shared" si="68"/>
+        <v>1712.3484242503305</v>
+      </c>
+      <c r="BB37" s="1">
+        <f t="shared" si="68"/>
+        <v>1609.8300389816934</v>
+      </c>
+      <c r="BC37" s="1">
+        <f t="shared" si="68"/>
+        <v>1540.6385948962356</v>
+      </c>
+      <c r="BD37" s="1">
+        <f t="shared" si="68"/>
+        <v>1488.994384866387</v>
+      </c>
+    </row>
+    <row r="38" spans="2:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12">
         <f>240.8+13.1+2.4</f>
         <v>256.3</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F38" s="12">
         <f>13.3-18-0.3</f>
         <v>-4.9999999999999991</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G38" s="12">
         <f>44.2+18.2-5.6</f>
         <v>56.800000000000004</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H38" s="12">
         <f>409.1-34.3+577</f>
         <v>951.8</v>
       </c>
-      <c r="I35" s="12">
+      <c r="I38" s="12">
         <f>-25.9-1.1-11.1</f>
         <v>-38.1</v>
       </c>
-      <c r="J35" s="12">
+      <c r="J38" s="12">
         <f>443.2-17.7-388.7</f>
         <v>36.800000000000011</v>
       </c>
-      <c r="K35" s="12">
+      <c r="K38" s="12">
         <f>125.6+3.3-85.3</f>
         <v>43.600000000000009</v>
       </c>
-      <c r="L35" s="12">
+      <c r="L38" s="12">
         <f>216.7-5.9</f>
         <v>210.79999999999998</v>
       </c>
-      <c r="M35" s="12">
+      <c r="M38" s="12">
         <v>236.2</v>
       </c>
-      <c r="N35" s="12">
+      <c r="N38" s="12">
         <v>54.3</v>
       </c>
-      <c r="O35" s="12">
+      <c r="O38" s="12">
         <v>50.7</v>
       </c>
-      <c r="P35" s="12">
+      <c r="P38" s="12">
         <v>108.9</v>
       </c>
-      <c r="Q35" s="12">
+      <c r="Q38" s="12">
         <v>72.900000000000006</v>
       </c>
-      <c r="R35" s="12">
+      <c r="R38" s="12">
         <v>42.7</v>
       </c>
-      <c r="S35" s="12">
+      <c r="S38" s="12">
         <v>71.400000000000006</v>
       </c>
-      <c r="T35" s="12">
+      <c r="T38" s="12">
         <v>115.1</v>
       </c>
-      <c r="U35" s="12"/>
-      <c r="V35" s="12"/>
-      <c r="W35" s="12"/>
-      <c r="X35" s="12"/>
-      <c r="AI35" s="1">
+      <c r="U38" s="12">
+        <f>+U37*0.1</f>
+        <v>97.022000000000048</v>
+      </c>
+      <c r="V38" s="12">
+        <f>+V37*0.1</f>
+        <v>78.346400000000045</v>
+      </c>
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
+      <c r="AD38" s="1">
+        <f>989.9+6.8</f>
+        <v>996.69999999999993</v>
+      </c>
+      <c r="AE38" s="1">
+        <f>1161.6+46.2</f>
+        <v>1207.8</v>
+      </c>
+      <c r="AF38" s="1">
+        <f>2458.7+131</f>
+        <v>2589.6999999999998</v>
+      </c>
+      <c r="AG38" s="1">
+        <f>2458.7+131</f>
+        <v>2589.6999999999998</v>
+      </c>
+      <c r="AH38" s="1">
+        <f>1425.6+43.3</f>
+        <v>1468.8999999999999</v>
+      </c>
+      <c r="AI38" s="1">
         <f>1158+79.4</f>
         <v>1237.4000000000001</v>
       </c>
-      <c r="AJ35" s="1">
+      <c r="AJ38" s="1">
         <f>992.3+59.9</f>
         <v>1052.2</v>
       </c>
-      <c r="AK35" s="1">
-        <f t="shared" ref="AK35" si="55">SUM(G35:J35)</f>
+      <c r="AK38" s="1">
+        <f t="shared" ref="AK38" si="69">SUM(G38:J38)</f>
         <v>1007.3</v>
       </c>
-      <c r="AL35" s="1">
-        <f t="shared" ref="AL35" si="56">SUM(K35:N35)</f>
+      <c r="AL38" s="1">
+        <f t="shared" ref="AL38" si="70">SUM(K38:N38)</f>
         <v>544.9</v>
       </c>
-      <c r="AM35" s="1">
-        <f>+AM34*0.2</f>
-        <v>1459.9502159999997</v>
-      </c>
-      <c r="AN35" s="1">
-        <f t="shared" ref="AN35:BD35" si="57">+AN34*0.2</f>
-        <v>1775.3530097600008</v>
-      </c>
-      <c r="AO35" s="1">
-        <f t="shared" si="57"/>
-        <v>1962.0014965960004</v>
-      </c>
-      <c r="AP35" s="1">
-        <f t="shared" si="57"/>
-        <v>2163.0666480996001</v>
-      </c>
-      <c r="AQ35" s="1">
-        <f t="shared" si="57"/>
-        <v>2120.4009329246505</v>
-      </c>
-      <c r="AR35" s="1">
-        <f t="shared" si="57"/>
-        <v>2096.9760217799226</v>
-      </c>
-      <c r="AS35" s="1">
-        <f t="shared" si="57"/>
-        <v>2090.6668543770825</v>
-      </c>
-      <c r="AT35" s="1">
-        <f t="shared" si="57"/>
-        <v>2054.1429822145669</v>
-      </c>
-      <c r="AU35" s="1">
-        <f t="shared" si="57"/>
-        <v>1954.094609897013</v>
-      </c>
-      <c r="AV35" s="1">
-        <f t="shared" si="57"/>
-        <v>1919.2451991914074</v>
-      </c>
-      <c r="AW35" s="1">
-        <f t="shared" si="57"/>
-        <v>1895.1977306111862</v>
-      </c>
-      <c r="AX35" s="1">
-        <f t="shared" si="57"/>
-        <v>1880.3845316597669</v>
-      </c>
-      <c r="AY35" s="1">
-        <f t="shared" si="57"/>
-        <v>1873.4977150005238</v>
-      </c>
-      <c r="AZ35" s="1">
-        <f t="shared" si="57"/>
-        <v>1873.4441009780269</v>
-      </c>
-      <c r="BA35" s="1">
-        <f t="shared" si="57"/>
-        <v>1879.3083239086382</v>
-      </c>
-      <c r="BB35" s="1">
-        <f t="shared" si="57"/>
-        <v>1890.3225900002014</v>
-      </c>
-      <c r="BC35" s="1">
-        <f t="shared" si="57"/>
-        <v>1905.8418475967549</v>
-      </c>
-      <c r="BD35" s="1">
-        <f t="shared" si="57"/>
-        <v>1925.323366539259</v>
-      </c>
-    </row>
-    <row r="36" spans="2:59" x14ac:dyDescent="0.2">
-      <c r="B36" s="1" t="s">
+      <c r="AM38" s="1">
+        <f>+AM37*0.2</f>
+        <v>1221.3148000000001</v>
+      </c>
+      <c r="AN38" s="1">
+        <f t="shared" ref="AN38:BD38" si="71">+AN37*0.2</f>
+        <v>1201.3335199999999</v>
+      </c>
+      <c r="AO38" s="1">
+        <f t="shared" si="71"/>
+        <v>1163.6580099999999</v>
+      </c>
+      <c r="AP38" s="1">
+        <f t="shared" si="71"/>
+        <v>1196.0773113000002</v>
+      </c>
+      <c r="AQ38" s="1">
+        <f t="shared" si="71"/>
+        <v>1165.3899193069999</v>
+      </c>
+      <c r="AR38" s="1">
+        <f t="shared" si="71"/>
+        <v>1112.7193837910104</v>
+      </c>
+      <c r="AS38" s="1">
+        <f t="shared" si="71"/>
+        <v>1051.1582396786805</v>
+      </c>
+      <c r="AT38" s="1">
+        <f t="shared" si="71"/>
+        <v>995.884168872386</v>
+      </c>
+      <c r="AU38" s="1">
+        <f t="shared" si="71"/>
+        <v>899.0465272258524</v>
+      </c>
+      <c r="AV38" s="1">
+        <f t="shared" si="71"/>
+        <v>849.72601934481327</v>
+      </c>
+      <c r="AW38" s="1">
+        <f t="shared" si="71"/>
+        <v>809.79194820999089</v>
+      </c>
+      <c r="AX38" s="1">
+        <f t="shared" si="71"/>
+        <v>777.87827205022279</v>
+      </c>
+      <c r="AY38" s="1">
+        <f t="shared" si="71"/>
+        <v>752.84022968436352</v>
+      </c>
+      <c r="AZ38" s="1">
+        <f t="shared" si="71"/>
+        <v>396.90415388022188</v>
+      </c>
+      <c r="BA38" s="1">
+        <f t="shared" si="71"/>
+        <v>342.46968485006613</v>
+      </c>
+      <c r="BB38" s="1">
+        <f t="shared" si="71"/>
+        <v>321.96600779633872</v>
+      </c>
+      <c r="BC38" s="1">
+        <f t="shared" si="71"/>
+        <v>308.12771897924716</v>
+      </c>
+      <c r="BD38" s="1">
+        <f t="shared" si="71"/>
+        <v>297.7988769732774</v>
+      </c>
+    </row>
+    <row r="39" spans="2:59" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E36" s="12">
-        <f t="shared" ref="E36:R36" si="58">+E34-E35</f>
+      <c r="E39" s="12">
+        <f t="shared" ref="E39:R39" si="72">+E37-E38</f>
         <v>901.09999999999923</v>
       </c>
-      <c r="F36" s="12">
-        <f t="shared" si="58"/>
+      <c r="F39" s="12">
+        <f t="shared" si="72"/>
         <v>584.59999999999934</v>
       </c>
-      <c r="G36" s="12">
-        <f t="shared" si="58"/>
+      <c r="G39" s="12">
+        <f t="shared" si="72"/>
         <v>611.50000000000057</v>
       </c>
-      <c r="H36" s="12">
-        <f t="shared" si="58"/>
+      <c r="H39" s="12">
+        <f t="shared" si="72"/>
         <v>125.89999999999964</v>
       </c>
-      <c r="I36" s="12">
-        <f t="shared" si="58"/>
+      <c r="I39" s="12">
+        <f t="shared" si="72"/>
         <v>467.0000000000004</v>
       </c>
-      <c r="J36" s="12">
-        <f t="shared" si="58"/>
+      <c r="J39" s="12">
+        <f t="shared" si="72"/>
         <v>434.99999999999943</v>
       </c>
-      <c r="K36" s="12">
-        <f t="shared" si="58"/>
+      <c r="K39" s="12">
+        <f t="shared" si="72"/>
         <v>167.10000000000014</v>
       </c>
-      <c r="L36" s="12">
-        <f t="shared" si="58"/>
+      <c r="L39" s="12">
+        <f t="shared" si="72"/>
         <v>822.5</v>
       </c>
-      <c r="M36" s="12">
-        <f>+M34-M35</f>
+      <c r="M39" s="12">
+        <f>+M37-M38</f>
         <v>791.59999999999991</v>
       </c>
-      <c r="N36" s="12">
-        <f t="shared" si="58"/>
+      <c r="N39" s="12">
+        <f t="shared" si="72"/>
         <v>571.29999999999939</v>
       </c>
-      <c r="O36" s="12">
-        <f t="shared" si="58"/>
+      <c r="O39" s="12">
+        <f t="shared" si="72"/>
         <v>504.50000000000017</v>
       </c>
-      <c r="P36" s="12">
-        <f t="shared" si="58"/>
+      <c r="P39" s="12">
+        <f t="shared" si="72"/>
         <v>651.50000000000011</v>
       </c>
-      <c r="Q36" s="12">
-        <f t="shared" si="58"/>
+      <c r="Q39" s="12">
+        <f t="shared" si="72"/>
         <v>405.70000000000084</v>
       </c>
-      <c r="R36" s="12">
-        <f t="shared" si="58"/>
+      <c r="R39" s="12">
+        <f t="shared" si="72"/>
         <v>533.50000000000023</v>
       </c>
-      <c r="S36" s="12">
-        <f>+S34-S35</f>
+      <c r="S39" s="12">
+        <f>+S37-S38</f>
         <v>609.30000000000007</v>
       </c>
-      <c r="T36" s="12">
-        <f>+T34-T35</f>
+      <c r="T39" s="12">
+        <f>+T37-T38</f>
         <v>755.80000000000041</v>
       </c>
-      <c r="U36" s="12"/>
-      <c r="V36" s="12"/>
-      <c r="W36" s="12"/>
-      <c r="X36" s="12"/>
-      <c r="Y36" s="12"/>
-      <c r="AI36" s="1">
-        <f>+AI34-AI35</f>
+      <c r="U39" s="12">
+        <f>+U37-U38</f>
+        <v>873.19800000000043</v>
+      </c>
+      <c r="V39" s="12">
+        <f>+V37-V38</f>
+        <v>705.11760000000038</v>
+      </c>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="12"/>
+      <c r="AD39" s="1">
+        <f t="shared" ref="AD39:AE39" si="73">+AD37-AD38</f>
+        <v>3384.0999999999967</v>
+      </c>
+      <c r="AE39" s="1">
+        <f t="shared" si="73"/>
+        <v>4066.0000000000036</v>
+      </c>
+      <c r="AF39" s="1">
+        <f>+AF37-AF38</f>
+        <v>3251.9999999999991</v>
+      </c>
+      <c r="AG39" s="1">
+        <f>+AG37-AG38</f>
+        <v>3762.0000000000018</v>
+      </c>
+      <c r="AH39" s="1">
+        <f>+AH37-AH38</f>
+        <v>5660.2000000000044</v>
+      </c>
+      <c r="AI39" s="1">
+        <f>+AI37-AI38</f>
         <v>6854.7000000000025</v>
       </c>
-      <c r="AJ36" s="1">
-        <f>+AJ34-AJ35</f>
+      <c r="AJ39" s="1">
+        <f>+AJ37-AJ38</f>
         <v>4822.1000000000022</v>
       </c>
-      <c r="AK36" s="1">
-        <f>+AK34-AK35</f>
+      <c r="AK39" s="1">
+        <f>+AK37-AK38</f>
         <v>1639.3999999999994</v>
       </c>
-      <c r="AL36" s="1">
-        <f>+AL34-AL35</f>
+      <c r="AL39" s="1">
+        <f>+AL37-AL38</f>
         <v>3217.3000000000006</v>
       </c>
-      <c r="AM36" s="1">
-        <f>+AM34-AM35</f>
-        <v>5839.8008639999989</v>
-      </c>
-      <c r="AN36" s="1">
-        <f t="shared" ref="AN36:BD36" si="59">+AN34-AN35</f>
-        <v>7101.412039040003</v>
-      </c>
-      <c r="AO36" s="1">
-        <f t="shared" si="59"/>
-        <v>7848.0059863840015</v>
-      </c>
-      <c r="AP36" s="1">
-        <f t="shared" si="59"/>
-        <v>8652.2665923983986</v>
-      </c>
-      <c r="AQ36" s="1">
-        <f t="shared" si="59"/>
-        <v>8481.6037316986003</v>
-      </c>
-      <c r="AR36" s="1">
-        <f t="shared" si="59"/>
-        <v>8387.9040871196903</v>
-      </c>
-      <c r="AS36" s="1">
-        <f t="shared" si="59"/>
-        <v>8362.6674175083281</v>
-      </c>
-      <c r="AT36" s="1">
-        <f t="shared" si="59"/>
-        <v>8216.5719288582677</v>
-      </c>
-      <c r="AU36" s="1">
-        <f t="shared" si="59"/>
-        <v>7816.3784395880521</v>
-      </c>
-      <c r="AV36" s="1">
-        <f t="shared" si="59"/>
-        <v>7676.9807967656288</v>
-      </c>
-      <c r="AW36" s="1">
-        <f t="shared" si="59"/>
-        <v>7580.7909224447449</v>
-      </c>
-      <c r="AX36" s="1">
-        <f t="shared" si="59"/>
-        <v>7521.5381266390668</v>
-      </c>
-      <c r="AY36" s="1">
-        <f t="shared" si="59"/>
-        <v>7493.9908600020954</v>
-      </c>
-      <c r="AZ36" s="1">
-        <f t="shared" si="59"/>
-        <v>7493.7764039121075</v>
-      </c>
-      <c r="BA36" s="1">
-        <f t="shared" si="59"/>
-        <v>7517.2332956345517</v>
-      </c>
-      <c r="BB36" s="1">
-        <f t="shared" si="59"/>
-        <v>7561.2903600008049</v>
-      </c>
-      <c r="BC36" s="1">
-        <f t="shared" si="59"/>
-        <v>7623.3673903870194</v>
-      </c>
-      <c r="BD36" s="1">
-        <f t="shared" si="59"/>
-        <v>7701.2934661570353</v>
-      </c>
-    </row>
-    <row r="37" spans="2:59" x14ac:dyDescent="0.2">
-      <c r="B37" s="1" t="s">
+      <c r="AM39" s="1">
+        <f>+AM37-AM38</f>
+        <v>4885.2592000000004</v>
+      </c>
+      <c r="AN39" s="1">
+        <f t="shared" ref="AN39:BD39" si="74">+AN37-AN38</f>
+        <v>4805.3340799999987</v>
+      </c>
+      <c r="AO39" s="1">
+        <f t="shared" si="74"/>
+        <v>4654.6320399999995</v>
+      </c>
+      <c r="AP39" s="1">
+        <f t="shared" si="74"/>
+        <v>4784.309245200001</v>
+      </c>
+      <c r="AQ39" s="1">
+        <f t="shared" si="74"/>
+        <v>4661.5596772279996</v>
+      </c>
+      <c r="AR39" s="1">
+        <f t="shared" si="74"/>
+        <v>4450.8775351640415</v>
+      </c>
+      <c r="AS39" s="1">
+        <f t="shared" si="74"/>
+        <v>4204.632958714722</v>
+      </c>
+      <c r="AT39" s="1">
+        <f t="shared" si="74"/>
+        <v>3983.536675489544</v>
+      </c>
+      <c r="AU39" s="1">
+        <f t="shared" si="74"/>
+        <v>3596.1861089034091</v>
+      </c>
+      <c r="AV39" s="1">
+        <f t="shared" si="74"/>
+        <v>3398.9040773792526</v>
+      </c>
+      <c r="AW39" s="1">
+        <f t="shared" si="74"/>
+        <v>3239.1677928399631</v>
+      </c>
+      <c r="AX39" s="1">
+        <f t="shared" si="74"/>
+        <v>3111.5130882008912</v>
+      </c>
+      <c r="AY39" s="1">
+        <f t="shared" si="74"/>
+        <v>3011.3609187374541</v>
+      </c>
+      <c r="AZ39" s="1">
+        <f t="shared" si="74"/>
+        <v>1587.6166155208873</v>
+      </c>
+      <c r="BA39" s="1">
+        <f t="shared" si="74"/>
+        <v>1369.8787394002643</v>
+      </c>
+      <c r="BB39" s="1">
+        <f t="shared" si="74"/>
+        <v>1287.8640311853546</v>
+      </c>
+      <c r="BC39" s="1">
+        <f t="shared" si="74"/>
+        <v>1232.5108759169884</v>
+      </c>
+      <c r="BD39" s="1">
+        <f t="shared" si="74"/>
+        <v>1191.1955078931096</v>
+      </c>
+    </row>
+    <row r="40" spans="2:59" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E37" s="15">
-        <f t="shared" ref="E37:L37" si="60">+E36/E38</f>
+      <c r="E40" s="15">
+        <f t="shared" ref="E40:L40" si="75">+E39/E41</f>
         <v>5.7321882951653897</v>
       </c>
-      <c r="F37" s="15">
-        <f t="shared" si="60"/>
+      <c r="F40" s="15">
+        <f t="shared" si="75"/>
         <v>3.796103896103892</v>
       </c>
-      <c r="G37" s="15">
-        <f t="shared" si="60"/>
+      <c r="G40" s="15">
+        <f t="shared" si="75"/>
         <v>4.0151017728168128</v>
       </c>
-      <c r="H37" s="15">
-        <f t="shared" si="60"/>
+      <c r="H40" s="15">
+        <f t="shared" si="75"/>
         <v>0.83877415056628679</v>
       </c>
-      <c r="I37" s="15">
-        <f t="shared" si="60"/>
+      <c r="I40" s="15">
+        <f t="shared" si="75"/>
         <v>3.1426648721399757</v>
       </c>
-      <c r="J37" s="15">
-        <f t="shared" si="60"/>
+      <c r="J40" s="15">
+        <f t="shared" si="75"/>
         <v>2.9491525423728775</v>
       </c>
-      <c r="K37" s="15">
-        <f t="shared" si="60"/>
+      <c r="K40" s="15">
+        <f t="shared" si="75"/>
         <v>1.1321138211382122</v>
       </c>
-      <c r="L37" s="15">
-        <f t="shared" si="60"/>
+      <c r="L40" s="15">
+        <f t="shared" si="75"/>
         <v>5.625854993160055</v>
       </c>
-      <c r="M37" s="15">
-        <f t="shared" ref="M37:T37" si="61">+M36/M38</f>
+      <c r="M40" s="15">
+        <f t="shared" ref="M40:V40" si="76">+M39/M41</f>
         <v>5.4668508287292807</v>
       </c>
-      <c r="N37" s="15">
-        <f t="shared" si="61"/>
+      <c r="N40" s="15">
+        <f t="shared" si="76"/>
         <v>3.9345730027548171</v>
       </c>
-      <c r="O37" s="15">
-        <f t="shared" si="61"/>
+      <c r="O40" s="15">
+        <f t="shared" si="76"/>
         <v>3.4745179063360898</v>
       </c>
-      <c r="P37" s="15">
-        <f t="shared" si="61"/>
+      <c r="P40" s="15">
+        <f t="shared" si="76"/>
         <v>4.4776632302405508</v>
       </c>
-      <c r="Q37" s="15">
-        <f t="shared" si="61"/>
+      <c r="Q40" s="15">
+        <f t="shared" si="76"/>
         <v>2.801795580110503</v>
       </c>
-      <c r="R37" s="15">
-        <f t="shared" si="61"/>
+      <c r="R40" s="15">
+        <f t="shared" si="76"/>
         <v>3.661633493479755</v>
       </c>
-      <c r="S37" s="15">
-        <f t="shared" si="61"/>
+      <c r="S40" s="15">
+        <f t="shared" si="76"/>
         <v>4.1761480466072651</v>
       </c>
-      <c r="T37" s="15">
-        <f t="shared" si="61"/>
+      <c r="T40" s="15">
+        <f t="shared" si="76"/>
         <v>5.1802604523646361</v>
       </c>
-      <c r="U37" s="15"/>
-      <c r="V37" s="15"/>
-      <c r="W37" s="15"/>
-      <c r="X37" s="15"/>
-      <c r="AI37" s="17">
-        <f>+AI36/AI38</f>
+      <c r="U40" s="15">
+        <f t="shared" si="76"/>
+        <v>5.9849074708704624</v>
+      </c>
+      <c r="V40" s="15">
+        <f t="shared" si="76"/>
+        <v>4.8328827964359178</v>
+      </c>
+      <c r="W40" s="15"/>
+      <c r="X40" s="15"/>
+      <c r="AD40" s="17">
+        <f t="shared" ref="AD40:AE40" si="77">+AD39/AD41</f>
+        <v>14.266863406408081</v>
+      </c>
+      <c r="AE40" s="17">
+        <f t="shared" si="77"/>
+        <v>17.586505190311435</v>
+      </c>
+      <c r="AF40" s="17">
+        <f>+AF39/AF41</f>
+        <v>14.862888482632536</v>
+      </c>
+      <c r="AG40" s="17">
+        <f>+AG39/AG41</f>
+        <v>17.661971830985923</v>
+      </c>
+      <c r="AH40" s="17">
+        <f>+AH39/AH41</f>
+        <v>27.570384802727734</v>
+      </c>
+      <c r="AI40" s="17">
+        <f>+AI39/AI41</f>
         <v>36.577908217716129</v>
       </c>
-      <c r="AJ37" s="17">
-        <f>+AJ36/AJ38</f>
+      <c r="AJ40" s="17">
+        <f>+AJ39/AJ41</f>
         <v>29.895226286422826</v>
       </c>
-      <c r="AK37" s="17">
-        <f>+AK36/AK38</f>
+      <c r="AK40" s="17">
+        <f>+AK39/AK41</f>
         <v>10.956725146198826</v>
       </c>
-      <c r="AL37" s="17">
-        <f>+AL36/AL38</f>
+      <c r="AL40" s="17">
+        <f>+AL39/AL41</f>
         <v>22.043850633778696</v>
       </c>
-      <c r="AM37" s="17">
-        <f>+AM36/AM38</f>
-        <v>40.012338910585811</v>
-      </c>
-      <c r="AN37" s="17">
-        <f t="shared" ref="AN37:BD37" si="62">+AN36/AN38</f>
-        <v>48.656471661802009</v>
-      </c>
-      <c r="AO37" s="17">
-        <f t="shared" si="62"/>
-        <v>53.771880687797207</v>
-      </c>
-      <c r="AP37" s="17">
-        <f t="shared" si="62"/>
-        <v>59.282402140448092</v>
-      </c>
-      <c r="AQ37" s="17">
-        <f t="shared" si="62"/>
-        <v>58.113077983546425</v>
-      </c>
-      <c r="AR37" s="17">
-        <f t="shared" si="62"/>
-        <v>57.471079733605279</v>
-      </c>
-      <c r="AS37" s="17">
-        <f t="shared" si="62"/>
-        <v>57.298166615336271</v>
-      </c>
-      <c r="AT37" s="17">
-        <f t="shared" si="62"/>
-        <v>56.297169776349904</v>
-      </c>
-      <c r="AU37" s="17">
-        <f t="shared" si="62"/>
-        <v>53.555179442192895</v>
-      </c>
-      <c r="AV37" s="17">
-        <f t="shared" si="62"/>
-        <v>52.600073975783687</v>
-      </c>
-      <c r="AW37" s="17">
-        <f t="shared" si="62"/>
-        <v>51.941013514523782</v>
-      </c>
-      <c r="AX37" s="17">
-        <f t="shared" si="62"/>
-        <v>51.535033413080285</v>
-      </c>
-      <c r="AY37" s="17">
-        <f t="shared" si="62"/>
-        <v>51.346288866064377</v>
-      </c>
-      <c r="AZ37" s="17">
-        <f t="shared" si="62"/>
-        <v>51.344819485523182</v>
-      </c>
-      <c r="BA37" s="17">
-        <f t="shared" si="62"/>
-        <v>51.505538168102447</v>
-      </c>
-      <c r="BB37" s="17">
-        <f t="shared" si="62"/>
-        <v>51.807402261053824</v>
-      </c>
-      <c r="BC37" s="17">
-        <f t="shared" si="62"/>
-        <v>52.232733061918601</v>
-      </c>
-      <c r="BD37" s="17">
-        <f t="shared" si="62"/>
-        <v>52.766656157293838</v>
-      </c>
-    </row>
-    <row r="38" spans="2:59" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
+      <c r="AM40" s="17">
+        <f>+AM39/AM41</f>
+        <v>33.472142514559785</v>
+      </c>
+      <c r="AN40" s="17">
+        <f t="shared" ref="AN40:BD40" si="78">+AN39/AN41</f>
+        <v>32.924522644741344</v>
+      </c>
+      <c r="AO40" s="17">
+        <f t="shared" si="78"/>
+        <v>31.891963275094209</v>
+      </c>
+      <c r="AP40" s="17">
+        <f t="shared" si="78"/>
+        <v>32.780467593011316</v>
+      </c>
+      <c r="AQ40" s="17">
+        <f t="shared" si="78"/>
+        <v>31.939429100568688</v>
+      </c>
+      <c r="AR40" s="17">
+        <f t="shared" si="78"/>
+        <v>30.495906373169181</v>
+      </c>
+      <c r="AS40" s="17">
+        <f t="shared" si="78"/>
+        <v>28.808721882252293</v>
+      </c>
+      <c r="AT40" s="17">
+        <f t="shared" si="78"/>
+        <v>27.293844984512123</v>
+      </c>
+      <c r="AU40" s="17">
+        <f t="shared" si="78"/>
+        <v>24.639850009615685</v>
+      </c>
+      <c r="AV40" s="17">
+        <f t="shared" si="78"/>
+        <v>23.288140304071618</v>
+      </c>
+      <c r="AW40" s="17">
+        <f t="shared" si="78"/>
+        <v>22.193681348680805</v>
+      </c>
+      <c r="AX40" s="17">
+        <f t="shared" si="78"/>
+        <v>21.319034520047218</v>
+      </c>
+      <c r="AY40" s="17">
+        <f t="shared" si="78"/>
+        <v>20.632825753596808</v>
+      </c>
+      <c r="AZ40" s="17">
+        <f t="shared" si="78"/>
+        <v>10.877811685651849</v>
+      </c>
+      <c r="BA40" s="17">
+        <f t="shared" si="78"/>
+        <v>9.385945456665052</v>
+      </c>
+      <c r="BB40" s="17">
+        <f t="shared" si="78"/>
+        <v>8.8240084356653288</v>
+      </c>
+      <c r="BC40" s="17">
+        <f t="shared" si="78"/>
+        <v>8.4447473512640521</v>
+      </c>
+      <c r="BD40" s="17">
+        <f t="shared" si="78"/>
+        <v>8.1616684336629639</v>
+      </c>
+    </row>
+    <row r="41" spans="2:59" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E41" s="12">
         <v>157.19999999999999</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F41" s="12">
         <v>154</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G41" s="12">
         <v>152.30000000000001</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H41" s="12">
         <v>150.1</v>
       </c>
-      <c r="I38" s="12">
+      <c r="I41" s="12">
         <v>148.6</v>
       </c>
-      <c r="J38" s="12">
+      <c r="J41" s="12">
         <v>147.5</v>
       </c>
-      <c r="K38" s="12">
+      <c r="K41" s="12">
         <v>147.6</v>
       </c>
-      <c r="L38" s="12">
+      <c r="L41" s="12">
         <v>146.19999999999999</v>
       </c>
-      <c r="M38" s="12">
+      <c r="M41" s="12">
         <v>144.80000000000001</v>
       </c>
-      <c r="N38" s="12">
+      <c r="N41" s="12">
         <v>145.19999999999999</v>
       </c>
-      <c r="O38" s="12">
+      <c r="O41" s="12">
         <v>145.19999999999999</v>
       </c>
-      <c r="P38" s="12">
+      <c r="P41" s="12">
         <v>145.5</v>
       </c>
-      <c r="Q38" s="12">
+      <c r="Q41" s="12">
         <v>144.80000000000001</v>
       </c>
-      <c r="R38" s="12">
+      <c r="R41" s="12">
         <v>145.69999999999999</v>
       </c>
-      <c r="S38" s="12">
+      <c r="S41" s="12">
         <v>145.9</v>
       </c>
-      <c r="T38" s="12">
+      <c r="T41" s="12">
         <v>145.9</v>
       </c>
-      <c r="U38" s="12"/>
-      <c r="V38" s="12"/>
-      <c r="W38" s="12"/>
-      <c r="X38" s="12"/>
-      <c r="AI38" s="1">
+      <c r="U41" s="12">
+        <f>+T41</f>
+        <v>145.9</v>
+      </c>
+      <c r="V41" s="12">
+        <f>+U41</f>
+        <v>145.9</v>
+      </c>
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="AD41" s="1">
+        <v>237.2</v>
+      </c>
+      <c r="AE41" s="1">
+        <v>231.2</v>
+      </c>
+      <c r="AF41" s="1">
+        <v>218.8</v>
+      </c>
+      <c r="AG41" s="1">
+        <v>213</v>
+      </c>
+      <c r="AH41" s="1">
+        <v>205.3</v>
+      </c>
+      <c r="AI41" s="1">
         <v>187.4</v>
       </c>
-      <c r="AJ38" s="1">
+      <c r="AJ41" s="1">
         <v>161.30000000000001</v>
       </c>
-      <c r="AK38" s="1">
-        <f>AVERAGE(G38:J38)</f>
+      <c r="AK41" s="1">
+        <f>AVERAGE(G41:J41)</f>
         <v>149.625</v>
       </c>
-      <c r="AL38" s="1">
-        <f>AVERAGE(K38:N38)</f>
+      <c r="AL41" s="1">
+        <f>AVERAGE(K41:N41)</f>
         <v>145.94999999999999</v>
       </c>
-      <c r="AM38" s="1">
-        <f>+AL38</f>
+      <c r="AM41" s="1">
+        <f>+AL41</f>
         <v>145.94999999999999</v>
       </c>
-      <c r="AN38" s="1">
-        <f t="shared" ref="AN38:BD38" si="63">+AM38</f>
+      <c r="AN41" s="1">
+        <f t="shared" ref="AN41:BD41" si="79">+AM41</f>
         <v>145.94999999999999</v>
       </c>
-      <c r="AO38" s="1">
-        <f t="shared" si="63"/>
+      <c r="AO41" s="1">
+        <f t="shared" si="79"/>
         <v>145.94999999999999</v>
       </c>
-      <c r="AP38" s="1">
-        <f t="shared" si="63"/>
+      <c r="AP41" s="1">
+        <f t="shared" si="79"/>
         <v>145.94999999999999</v>
       </c>
-      <c r="AQ38" s="1">
-        <f t="shared" si="63"/>
+      <c r="AQ41" s="1">
+        <f t="shared" si="79"/>
         <v>145.94999999999999</v>
       </c>
-      <c r="AR38" s="1">
-        <f t="shared" si="63"/>
+      <c r="AR41" s="1">
+        <f t="shared" si="79"/>
         <v>145.94999999999999</v>
       </c>
-      <c r="AS38" s="1">
-        <f t="shared" si="63"/>
+      <c r="AS41" s="1">
+        <f t="shared" si="79"/>
         <v>145.94999999999999</v>
       </c>
-      <c r="AT38" s="1">
-        <f t="shared" si="63"/>
+      <c r="AT41" s="1">
+        <f t="shared" si="79"/>
         <v>145.94999999999999</v>
       </c>
-      <c r="AU38" s="1">
-        <f t="shared" si="63"/>
+      <c r="AU41" s="1">
+        <f t="shared" si="79"/>
         <v>145.94999999999999</v>
       </c>
-      <c r="AV38" s="1">
-        <f t="shared" si="63"/>
+      <c r="AV41" s="1">
+        <f t="shared" si="79"/>
         <v>145.94999999999999</v>
       </c>
-      <c r="AW38" s="1">
-        <f t="shared" si="63"/>
+      <c r="AW41" s="1">
+        <f t="shared" si="79"/>
         <v>145.94999999999999</v>
       </c>
-      <c r="AX38" s="1">
-        <f t="shared" si="63"/>
+      <c r="AX41" s="1">
+        <f t="shared" si="79"/>
         <v>145.94999999999999</v>
       </c>
-      <c r="AY38" s="1">
-        <f t="shared" si="63"/>
+      <c r="AY41" s="1">
+        <f t="shared" si="79"/>
         <v>145.94999999999999</v>
       </c>
-      <c r="AZ38" s="1">
-        <f t="shared" si="63"/>
+      <c r="AZ41" s="1">
+        <f t="shared" si="79"/>
         <v>145.94999999999999</v>
       </c>
-      <c r="BA38" s="1">
-        <f t="shared" si="63"/>
+      <c r="BA41" s="1">
+        <f t="shared" si="79"/>
         <v>145.94999999999999</v>
       </c>
-      <c r="BB38" s="1">
-        <f t="shared" si="63"/>
+      <c r="BB41" s="1">
+        <f t="shared" si="79"/>
         <v>145.94999999999999</v>
       </c>
-      <c r="BC38" s="1">
-        <f t="shared" si="63"/>
+      <c r="BC41" s="1">
+        <f t="shared" si="79"/>
         <v>145.94999999999999</v>
       </c>
-      <c r="BD38" s="1">
-        <f t="shared" si="63"/>
+      <c r="BD41" s="1">
+        <f t="shared" si="79"/>
         <v>145.94999999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:59" x14ac:dyDescent="0.2">
-      <c r="BF39" t="s">
+    <row r="42" spans="2:59" x14ac:dyDescent="0.2">
+      <c r="BF42" t="s">
         <v>78</v>
       </c>
-      <c r="BG39" s="18">
+      <c r="BG42" s="18">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="40" spans="2:59" x14ac:dyDescent="0.2">
-      <c r="BF40" t="s">
+    <row r="43" spans="2:59" x14ac:dyDescent="0.2">
+      <c r="BF43" t="s">
         <v>79</v>
       </c>
-      <c r="BG40" s="18">
+      <c r="BG43" s="18">
         <v>0.08</v>
       </c>
     </row>
-    <row r="41" spans="2:59" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="13" t="s">
+    <row r="44" spans="2:59" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="22">
-        <f t="shared" ref="I41:O41" si="64">+I26/E26-1</f>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="22">
+        <f t="shared" ref="I44:O44" si="80">+I29/E29-1</f>
         <v>-0.1768904949497937</v>
       </c>
-      <c r="J41" s="22">
-        <f t="shared" si="64"/>
+      <c r="J44" s="22">
+        <f t="shared" si="80"/>
         <v>-4.1541050269929158E-2</v>
       </c>
-      <c r="K41" s="22">
-        <f t="shared" si="64"/>
+      <c r="K44" s="22">
+        <f t="shared" si="80"/>
         <v>-6.0207869339272579E-2</v>
       </c>
-      <c r="L41" s="22">
-        <f t="shared" si="64"/>
+      <c r="L44" s="22">
+        <f t="shared" si="80"/>
         <v>-6.6990990990990817E-2</v>
       </c>
-      <c r="M41" s="22">
-        <f t="shared" si="64"/>
+      <c r="M44" s="22">
+        <f t="shared" si="80"/>
         <v>-9.7304688905682335E-2</v>
       </c>
-      <c r="N41" s="22">
-        <f t="shared" si="64"/>
+      <c r="N44" s="22">
+        <f t="shared" si="80"/>
         <v>-6.9529278373139269E-2</v>
       </c>
-      <c r="O41" s="22">
-        <f t="shared" si="64"/>
+      <c r="O44" s="22">
+        <f t="shared" si="80"/>
         <v>-2.7174342365115844E-2</v>
       </c>
-      <c r="P41" s="22">
-        <f t="shared" ref="P41:T41" si="65">+P26/L26-1</f>
+      <c r="P44" s="22">
+        <f t="shared" ref="P44:V44" si="81">+P29/L29-1</f>
         <v>-5.1407825112973593E-2</v>
       </c>
-      <c r="Q41" s="22">
-        <f t="shared" si="65"/>
+      <c r="Q44" s="22">
+        <f t="shared" si="81"/>
         <v>8.6904524616306933E-3</v>
       </c>
-      <c r="R41" s="22">
-        <f t="shared" si="65"/>
+      <c r="R44" s="22">
+        <f t="shared" si="81"/>
         <v>-6.1988993710691553E-2</v>
       </c>
-      <c r="S41" s="22">
-        <f t="shared" si="65"/>
+      <c r="S44" s="22">
+        <f t="shared" si="81"/>
         <v>-7.0036540803897651E-2</v>
       </c>
-      <c r="T41" s="22">
-        <f t="shared" si="65"/>
+      <c r="T44" s="22">
+        <f t="shared" si="81"/>
         <v>3.6237785016288715E-3</v>
       </c>
-      <c r="U41" s="22"/>
-      <c r="V41" s="22"/>
-      <c r="W41" s="22"/>
-      <c r="X41" s="22"/>
-      <c r="AJ41" s="24">
-        <f>+AJ26/AI26-1</f>
+      <c r="U44" s="22">
+        <f t="shared" si="81"/>
+        <v>6.0901869343556125E-2</v>
+      </c>
+      <c r="V44" s="22">
+        <f t="shared" si="81"/>
+        <v>6.056656748941891E-2</v>
+      </c>
+      <c r="W44" s="22"/>
+      <c r="X44" s="22"/>
+      <c r="AD44" s="24">
+        <f t="shared" ref="AD44:AJ44" si="82">+AD29/AC29-1</f>
+        <v>5.9812936182459149</v>
+      </c>
+      <c r="AE44" s="24">
+        <f t="shared" si="82"/>
+        <v>0.10929271484958791</v>
+      </c>
+      <c r="AF44" s="24">
+        <f t="shared" si="82"/>
+        <v>6.3639235214329126E-2</v>
+      </c>
+      <c r="AG44" s="24">
+        <f t="shared" si="82"/>
+        <v>7.2068688421494054E-2</v>
+      </c>
+      <c r="AH44" s="24">
+        <f t="shared" si="82"/>
+        <v>9.6057487840051081E-2</v>
+      </c>
+      <c r="AI44" s="24">
+        <f t="shared" si="82"/>
+        <v>6.8758408967583007E-2</v>
+      </c>
+      <c r="AJ44" s="24">
+        <f>+AJ29/AI29-1</f>
         <v>-6.4912122076241974E-2</v>
       </c>
-      <c r="AK41" s="24">
-        <f t="shared" ref="AK41:BD41" si="66">+AK26/AJ26-1</f>
+      <c r="AK44" s="24">
+        <f t="shared" ref="AK44:BD44" si="83">+AK29/AJ29-1</f>
         <v>-0.18316647575978484</v>
       </c>
-      <c r="AL41" s="24">
-        <f t="shared" si="66"/>
+      <c r="AL44" s="24">
+        <f t="shared" si="83"/>
         <v>5.1174649426337648E-3</v>
       </c>
-      <c r="AM41" s="24">
-        <f t="shared" si="66"/>
-        <v>5.8759036799477693E-2</v>
-      </c>
-      <c r="AN41" s="24">
-        <f t="shared" si="66"/>
-        <v>0.15264706813519657</v>
-      </c>
-      <c r="AO41" s="24">
-        <f t="shared" si="66"/>
-        <v>7.4667656634892721E-2</v>
-      </c>
-      <c r="AP41" s="24">
-        <f t="shared" si="66"/>
-        <v>7.6008936513532577E-2</v>
-      </c>
-      <c r="AQ41" s="24">
-        <f t="shared" si="66"/>
-        <v>-2.4364986809666034E-2</v>
-      </c>
-      <c r="AR41" s="24">
-        <f t="shared" si="66"/>
-        <v>-1.6860843604424858E-2</v>
-      </c>
-      <c r="AS41" s="24">
-        <f t="shared" si="66"/>
-        <v>-9.7854763612542639E-3</v>
-      </c>
-      <c r="AT41" s="24">
-        <f t="shared" si="66"/>
-        <v>-2.1970710629986789E-2</v>
-      </c>
-      <c r="AU41" s="24">
-        <f t="shared" si="66"/>
-        <v>-4.8879601002073669E-2</v>
-      </c>
-      <c r="AV41" s="24">
-        <f t="shared" si="66"/>
-        <v>-2.2151784158279675E-2</v>
-      </c>
-      <c r="AW41" s="24">
-        <f t="shared" si="66"/>
-        <v>-1.7416171345991494E-2</v>
-      </c>
-      <c r="AX41" s="24">
-        <f t="shared" si="66"/>
-        <v>-1.3134956516251184E-2</v>
-      </c>
-      <c r="AY41" s="24">
-        <f t="shared" si="66"/>
-        <v>-9.2867064700956625E-3</v>
-      </c>
-      <c r="AZ41" s="24">
-        <f t="shared" si="66"/>
-        <v>-5.8446780102736628E-3</v>
-      </c>
-      <c r="BA41" s="24">
-        <f t="shared" si="66"/>
-        <v>-2.7788750040038668E-3</v>
-      </c>
-      <c r="BB41" s="24">
-        <f t="shared" si="66"/>
-        <v>-5.7754835488421641E-5</v>
-      </c>
-      <c r="BC41" s="24">
-        <f t="shared" si="66"/>
-        <v>2.3504316692777305E-3</v>
-      </c>
-      <c r="BD41" s="24">
-        <f t="shared" si="66"/>
-        <v>4.4766454179394621E-3</v>
-      </c>
-      <c r="BF41" s="23" t="s">
+      <c r="AM44" s="24">
+        <f t="shared" si="83"/>
+        <v>-7.3064448913772284E-2</v>
+      </c>
+      <c r="AN44" s="24">
+        <f t="shared" si="83"/>
+        <v>-2.5515798938593126E-2</v>
+      </c>
+      <c r="AO44" s="24">
+        <f t="shared" si="83"/>
+        <v>-3.6306632579886977E-2</v>
+      </c>
+      <c r="AP44" s="24">
+        <f t="shared" si="83"/>
+        <v>7.4954441996415433E-3</v>
+      </c>
+      <c r="AQ44" s="24">
+        <f t="shared" si="83"/>
+        <v>-3.1660378633939112E-2</v>
+      </c>
+      <c r="AR44" s="24">
+        <f t="shared" si="83"/>
+        <v>-4.6358072565725661E-2</v>
+      </c>
+      <c r="AS44" s="24">
+        <f t="shared" si="83"/>
+        <v>-5.4041473428376952E-2</v>
+      </c>
+      <c r="AT44" s="24">
+        <f t="shared" si="83"/>
+        <v>-5.1958491163690668E-2</v>
+      </c>
+      <c r="AU44" s="24">
+        <f t="shared" si="83"/>
+        <v>-8.5779816713122847E-2</v>
+      </c>
+      <c r="AV44" s="24">
+        <f t="shared" si="83"/>
+        <v>-5.363403390497723E-2</v>
+      </c>
+      <c r="AW44" s="24">
+        <f t="shared" si="83"/>
+        <v>-4.7756381744943788E-2</v>
+      </c>
+      <c r="AX44" s="24">
+        <f t="shared" si="83"/>
+        <v>-4.2082977159835222E-2</v>
+      </c>
+      <c r="AY44" s="24">
+        <f t="shared" si="83"/>
+        <v>-3.664674750268615E-2</v>
+      </c>
+      <c r="AZ44" s="24">
+        <f t="shared" si="83"/>
+        <v>-0.36841696181739292</v>
+      </c>
+      <c r="BA44" s="24">
+        <f t="shared" si="83"/>
+        <v>-0.1047871215818329</v>
+      </c>
+      <c r="BB44" s="24">
+        <f t="shared" si="83"/>
+        <v>-5.5980704554131733E-2</v>
+      </c>
+      <c r="BC44" s="24">
+        <f t="shared" si="83"/>
+        <v>-4.5764149079195349E-2</v>
+      </c>
+      <c r="BD44" s="24">
+        <f t="shared" si="83"/>
+        <v>-4.0026950711759324E-2</v>
+      </c>
+      <c r="BF44" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="BG41" s="13">
-        <f>NPV(BG40,AM36:BD36)+Main!J5-Main!J6</f>
-        <v>73154.666167274831</v>
-      </c>
-    </row>
-    <row r="42" spans="2:59" x14ac:dyDescent="0.2">
-      <c r="B42" s="1" t="s">
+      <c r="BG44" s="13">
+        <f>NPV(BG43,AO39:BF39)+Main!J5-Main!J6</f>
+        <v>32469.226249302024</v>
+      </c>
+    </row>
+    <row r="45" spans="2:59" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16">
-        <f t="shared" ref="J42:O42" si="67">+J21/F21-1</f>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16">
+        <f t="shared" ref="J45:O45" si="84">+J24/F24-1</f>
         <v>-4.6836982968369689E-2</v>
       </c>
-      <c r="K42" s="16">
-        <f t="shared" si="67"/>
+      <c r="K45" s="16">
+        <f t="shared" si="84"/>
         <v>-6.5741284984401127E-2</v>
       </c>
-      <c r="L42" s="16">
-        <f t="shared" si="67"/>
+      <c r="L45" s="16">
+        <f t="shared" si="84"/>
         <v>-8.103756708407861E-2</v>
       </c>
-      <c r="M42" s="16">
-        <f t="shared" si="67"/>
+      <c r="M45" s="16">
+        <f t="shared" si="84"/>
         <v>-0.11044112980006349</v>
       </c>
-      <c r="N42" s="16">
-        <f t="shared" si="67"/>
+      <c r="N45" s="16">
+        <f t="shared" si="84"/>
         <v>-0.1318716382532592</v>
       </c>
-      <c r="O42" s="16">
-        <f t="shared" si="67"/>
+      <c r="O45" s="16">
+        <f t="shared" si="84"/>
         <v>-0.15578570391521074</v>
       </c>
-      <c r="P42" s="16">
-        <f t="shared" ref="P42:T42" si="68">+P21/L21-1</f>
+      <c r="P45" s="16">
+        <f t="shared" ref="P45:V45" si="85">+P24/L24-1</f>
         <v>-0.10380572318473802</v>
       </c>
-      <c r="Q42" s="16">
-        <f t="shared" si="68"/>
+      <c r="Q45" s="16">
+        <f t="shared" si="85"/>
         <v>-8.1851077926711091E-2</v>
       </c>
-      <c r="R42" s="16">
-        <f t="shared" si="68"/>
+      <c r="R45" s="16">
+        <f t="shared" si="85"/>
         <v>-3.9957994224205651E-2</v>
       </c>
-      <c r="S42" s="16">
-        <f t="shared" si="68"/>
+      <c r="S45" s="16">
+        <f t="shared" si="85"/>
         <v>-2.7344645723458072E-2</v>
       </c>
-      <c r="T42" s="16">
-        <f t="shared" si="68"/>
+      <c r="T45" s="16">
+        <f t="shared" si="85"/>
         <v>3.0084170513168695E-2</v>
       </c>
-      <c r="U42" s="16"/>
-      <c r="V42" s="16"/>
-      <c r="W42" s="16"/>
-      <c r="X42" s="16"/>
-      <c r="AJ42" s="18"/>
-      <c r="AK42" s="18"/>
-      <c r="AL42" s="18"/>
-      <c r="AM42" s="18"/>
-      <c r="AN42" s="18"/>
-      <c r="AO42" s="18"/>
-      <c r="AP42" s="18"/>
-      <c r="AQ42" s="18"/>
-      <c r="AR42" s="18"/>
-      <c r="AS42" s="18"/>
-      <c r="AT42" s="18"/>
-      <c r="AU42" s="18"/>
-      <c r="AV42" s="18"/>
-      <c r="AW42" s="18"/>
-      <c r="AX42" s="18"/>
-      <c r="AY42" s="18"/>
-      <c r="AZ42" s="18"/>
-      <c r="BA42" s="18"/>
-      <c r="BB42" s="18"/>
-      <c r="BC42" s="18"/>
-      <c r="BD42" s="18"/>
-      <c r="BG42" s="1"/>
-    </row>
-    <row r="43" spans="2:59" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
+      <c r="U45" s="16">
+        <f t="shared" si="85"/>
+        <v>8.5539827921176759E-2</v>
+      </c>
+      <c r="V45" s="16">
+        <f t="shared" si="85"/>
+        <v>7.9047254430102853E-2</v>
+      </c>
+      <c r="W45" s="16"/>
+      <c r="X45" s="16"/>
+      <c r="AJ45" s="18"/>
+      <c r="AK45" s="18"/>
+      <c r="AL45" s="18"/>
+      <c r="AM45" s="18"/>
+      <c r="AN45" s="18"/>
+      <c r="AO45" s="18"/>
+      <c r="AP45" s="18"/>
+      <c r="AQ45" s="18"/>
+      <c r="AR45" s="18"/>
+      <c r="AS45" s="18"/>
+      <c r="AT45" s="18"/>
+      <c r="AU45" s="18"/>
+      <c r="AV45" s="18"/>
+      <c r="AW45" s="18"/>
+      <c r="AX45" s="18"/>
+      <c r="AY45" s="18"/>
+      <c r="AZ45" s="18"/>
+      <c r="BA45" s="18"/>
+      <c r="BB45" s="18"/>
+      <c r="BC45" s="18"/>
+      <c r="BD45" s="18"/>
+      <c r="BF45" t="s">
+        <v>81</v>
+      </c>
+      <c r="BG45" s="17">
+        <f>BG44/Main!J3</f>
+        <v>223.92569827104845</v>
+      </c>
+    </row>
+    <row r="46" spans="2:59" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E43" s="16">
-        <f>+E28/E26</f>
+      <c r="E46" s="16">
+        <f>+E31/E29</f>
         <v>0.86697668907911496</v>
       </c>
-      <c r="F43" s="16">
-        <f>+F28/F26</f>
+      <c r="F46" s="16">
+        <f>+F31/F29</f>
         <v>0.82801654630863075</v>
       </c>
-      <c r="G43" s="16">
-        <f>+G28/G26</f>
+      <c r="G46" s="16">
+        <f>+G31/G29</f>
         <v>0.82253155159613967</v>
       </c>
-      <c r="H43" s="16">
-        <f t="shared" ref="H43" si="69">+H28/H26</f>
+      <c r="H46" s="16">
+        <f t="shared" ref="H46" si="86">+H31/H29</f>
         <v>0.83434234234234239</v>
       </c>
-      <c r="I43" s="16">
-        <f t="shared" ref="I43:J43" si="70">+I28/I26</f>
+      <c r="I46" s="16">
+        <f t="shared" ref="I46:J46" si="87">+I31/I29</f>
         <v>0.8158264061319227</v>
       </c>
-      <c r="J43" s="16">
-        <f t="shared" si="70"/>
+      <c r="J46" s="16">
+        <f t="shared" si="87"/>
         <v>0.7585677188105775</v>
       </c>
-      <c r="K43" s="16">
-        <f t="shared" ref="K43:O43" si="71">+K28/K26</f>
+      <c r="K46" s="16">
+        <f t="shared" ref="K46:O46" si="88">+K31/K29</f>
         <v>0.70222766411248916</v>
       </c>
-      <c r="L43" s="16">
-        <f t="shared" si="71"/>
+      <c r="L46" s="16">
+        <f t="shared" si="88"/>
         <v>0.8130624541346414</v>
       </c>
-      <c r="M43" s="16">
-        <f t="shared" si="71"/>
+      <c r="M46" s="16">
+        <f t="shared" si="88"/>
         <v>0.81283635638827989</v>
       </c>
-      <c r="N43" s="16">
-        <f t="shared" si="71"/>
+      <c r="N46" s="16">
+        <f t="shared" si="88"/>
         <v>0.77558962264150932</v>
       </c>
-      <c r="O43" s="16">
-        <f t="shared" si="71"/>
+      <c r="O46" s="16">
+        <f t="shared" si="88"/>
         <v>0.73089727974015428</v>
       </c>
-      <c r="P43" s="16">
-        <f t="shared" ref="P43:T43" si="72">+P28/P26</f>
+      <c r="P46" s="16">
+        <f t="shared" ref="P46:V46" si="89">+P31/P29</f>
         <v>0.75867263843648203</v>
       </c>
-      <c r="Q43" s="16">
-        <f t="shared" si="72"/>
+      <c r="Q46" s="16">
+        <f t="shared" si="89"/>
         <v>0.73931944828676455</v>
       </c>
-      <c r="R43" s="16">
-        <f t="shared" si="72"/>
+      <c r="R46" s="16">
+        <f t="shared" si="89"/>
         <v>0.75409629971084946</v>
       </c>
-      <c r="S43" s="16">
-        <f t="shared" si="72"/>
+      <c r="S46" s="16">
+        <f t="shared" si="89"/>
         <v>0.78170705086225711</v>
       </c>
-      <c r="T43" s="16">
-        <f t="shared" si="72"/>
+      <c r="T46" s="16">
+        <f t="shared" si="89"/>
         <v>0.79565093918617391</v>
       </c>
-      <c r="U43" s="16"/>
-      <c r="V43" s="16"/>
-      <c r="W43" s="16"/>
-      <c r="X43" s="16"/>
-      <c r="AI43" s="18">
-        <f t="shared" ref="AI43:AJ43" si="73">+AI28/AI26</f>
+      <c r="U46" s="16">
+        <f t="shared" si="89"/>
+        <v>0.8</v>
+      </c>
+      <c r="V46" s="16">
+        <f t="shared" si="89"/>
+        <v>0.8</v>
+      </c>
+      <c r="W46" s="16"/>
+      <c r="X46" s="16"/>
+      <c r="AD46" s="18">
+        <f t="shared" ref="AD46:AI46" si="90">+AD31/AD29</f>
+        <v>0.87931940679974852</v>
+      </c>
+      <c r="AE46" s="18">
+        <f t="shared" si="90"/>
+        <v>0.88476188706590619</v>
+      </c>
+      <c r="AF46" s="18">
+        <f t="shared" si="90"/>
+        <v>0.87084235902452656</v>
+      </c>
+      <c r="AG46" s="18">
+        <f t="shared" si="90"/>
+        <v>0.86719787516600266</v>
+      </c>
+      <c r="AH46" s="18">
+        <f t="shared" si="90"/>
+        <v>0.86498821815370674</v>
+      </c>
+      <c r="AI46" s="18">
+        <f t="shared" ref="AI46:AJ46" si="91">+AI31/AI29</f>
         <v>0.86399961051335739</v>
       </c>
-      <c r="AJ43" s="18">
-        <f t="shared" si="73"/>
+      <c r="AJ46" s="18">
+        <f t="shared" si="91"/>
         <v>0.86573047915148083</v>
       </c>
-      <c r="AK43" s="18">
-        <f>+AK28/AK26</f>
+      <c r="AK46" s="18">
+        <f>+AK31/AK29</f>
         <v>0.80789473684210533</v>
       </c>
-      <c r="AL43" s="18">
-        <f t="shared" ref="AL43:BD43" si="74">+AL28/AL26</f>
+      <c r="AL46" s="18">
+        <f t="shared" ref="AL46:BD46" si="92">+AL31/AL29</f>
         <v>0.79359859397365506</v>
       </c>
-      <c r="AM43" s="18">
-        <f t="shared" si="74"/>
+      <c r="AM46" s="18">
+        <f t="shared" si="92"/>
         <v>0.82</v>
       </c>
-      <c r="AN43" s="18">
-        <f t="shared" si="74"/>
+      <c r="AN46" s="18">
+        <f t="shared" si="92"/>
+        <v>0.82</v>
+      </c>
+      <c r="AO46" s="18">
+        <f t="shared" si="92"/>
+        <v>0.82</v>
+      </c>
+      <c r="AP46" s="18">
+        <f t="shared" si="92"/>
+        <v>0.82</v>
+      </c>
+      <c r="AQ46" s="18">
+        <f t="shared" si="92"/>
+        <v>0.82</v>
+      </c>
+      <c r="AR46" s="18">
+        <f t="shared" si="92"/>
+        <v>0.82</v>
+      </c>
+      <c r="AS46" s="18">
+        <f t="shared" si="92"/>
+        <v>0.82</v>
+      </c>
+      <c r="AT46" s="18">
+        <f t="shared" si="92"/>
+        <v>0.82</v>
+      </c>
+      <c r="AU46" s="18">
+        <f t="shared" si="92"/>
+        <v>0.82</v>
+      </c>
+      <c r="AV46" s="18">
+        <f t="shared" si="92"/>
         <v>0.82000000000000006</v>
       </c>
-      <c r="AO43" s="18">
-        <f t="shared" si="74"/>
-        <v>0.81999999999999984</v>
-      </c>
-      <c r="AP43" s="18">
-        <f t="shared" si="74"/>
+      <c r="AW46" s="18">
+        <f t="shared" si="92"/>
         <v>0.82</v>
       </c>
-      <c r="AQ43" s="18">
-        <f t="shared" si="74"/>
+      <c r="AX46" s="18">
+        <f t="shared" si="92"/>
         <v>0.82</v>
       </c>
-      <c r="AR43" s="18">
-        <f t="shared" si="74"/>
-        <v>0.82000000000000006</v>
-      </c>
-      <c r="AS43" s="18">
-        <f t="shared" si="74"/>
+      <c r="AY46" s="18">
+        <f t="shared" si="92"/>
         <v>0.82</v>
       </c>
-      <c r="AT43" s="18">
-        <f t="shared" si="74"/>
+      <c r="AZ46" s="18">
+        <f t="shared" si="92"/>
         <v>0.82</v>
       </c>
-      <c r="AU43" s="18">
-        <f t="shared" si="74"/>
+      <c r="BA46" s="18">
+        <f t="shared" si="92"/>
         <v>0.82</v>
       </c>
-      <c r="AV43" s="18">
-        <f t="shared" si="74"/>
+      <c r="BB46" s="18">
+        <f t="shared" si="92"/>
         <v>0.82</v>
       </c>
-      <c r="AW43" s="18">
-        <f t="shared" si="74"/>
+      <c r="BC46" s="18">
+        <f t="shared" si="92"/>
         <v>0.82</v>
       </c>
-      <c r="AX43" s="18">
-        <f t="shared" si="74"/>
+      <c r="BD46" s="18">
+        <f t="shared" si="92"/>
         <v>0.82</v>
       </c>
-      <c r="AY43" s="18">
-        <f t="shared" si="74"/>
-        <v>0.82</v>
-      </c>
-      <c r="AZ43" s="18">
-        <f t="shared" si="74"/>
-        <v>0.82</v>
-      </c>
-      <c r="BA43" s="18">
-        <f t="shared" si="74"/>
-        <v>0.82000000000000006</v>
-      </c>
-      <c r="BB43" s="18">
-        <f t="shared" si="74"/>
-        <v>0.82</v>
-      </c>
-      <c r="BC43" s="18">
-        <f t="shared" si="74"/>
-        <v>0.82</v>
-      </c>
-      <c r="BD43" s="18">
-        <f t="shared" si="74"/>
-        <v>0.82</v>
-      </c>
-      <c r="BF43" t="s">
-        <v>81</v>
-      </c>
-      <c r="BG43" s="17">
-        <f>BG41/Main!J3</f>
-        <v>504.51493908465403</v>
-      </c>
-    </row>
-    <row r="45" spans="2:59" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
+    </row>
+    <row r="48" spans="2:59" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
         <v>111</v>
       </c>
-      <c r="L45" s="12">
-        <f>L46-L60</f>
+      <c r="L48" s="12">
+        <f>L49-L63</f>
         <v>124.39999999999964</v>
       </c>
-      <c r="M45" s="12">
-        <f>M46-M60</f>
+      <c r="M48" s="12">
+        <f>M49-M63</f>
         <v>1104.8000000000002</v>
       </c>
-      <c r="N45" s="12">
-        <f>N46-N60</f>
+      <c r="N48" s="12">
+        <f>N49-N63</f>
         <v>846.69999999999982</v>
       </c>
-      <c r="O45" s="12">
-        <f>O46-O60</f>
+      <c r="O48" s="12">
+        <f>O49-O63</f>
         <v>1117.5999999999995</v>
-      </c>
-    </row>
-    <row r="46" spans="2:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12">
-        <f>4797.9+1102.9+1500.8</f>
-        <v>7401.5999999999995</v>
-      </c>
-      <c r="M46" s="12">
-        <f>3675.6+1235.5+860.3+1612.6</f>
-        <v>7384</v>
-      </c>
-      <c r="N46" s="12">
-        <f>3419.3+1473.5+705.7+1529.2</f>
-        <v>7127.7</v>
-      </c>
-      <c r="O46" s="12">
-        <f>2898.2+2143.1+978.2+1380.8</f>
-        <v>7400.2999999999993</v>
-      </c>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="12"/>
-      <c r="T46" s="1">
-        <f>1908.9+681.5</f>
-        <v>2590.4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12">
-        <v>1567.6</v>
-      </c>
-      <c r="M47" s="12">
-        <v>1568.8</v>
-      </c>
-      <c r="N47" s="12">
-        <v>1705</v>
-      </c>
-      <c r="O47" s="12">
-        <v>1634.4</v>
-      </c>
-      <c r="P47" s="12"/>
-      <c r="Q47" s="12"/>
-      <c r="T47" s="1">
-        <v>1627.1</v>
-      </c>
-    </row>
-    <row r="48" spans="2:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12">
-        <v>415.4</v>
-      </c>
-      <c r="N48" s="12">
-        <v>431.4</v>
-      </c>
-      <c r="O48" s="12">
-        <v>393.8</v>
-      </c>
-      <c r="P48" s="12"/>
-      <c r="Q48" s="12"/>
-      <c r="T48" s="1">
-        <v>451.1</v>
       </c>
     </row>
     <row r="49" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
@@ -6956,26 +8285,31 @@
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
       <c r="L49" s="12">
-        <v>1294.2</v>
+        <f>4797.9+1102.9+1500.8</f>
+        <v>7401.5999999999995</v>
       </c>
       <c r="M49" s="12">
-        <v>1375</v>
+        <f>3675.6+1235.5+860.3+1612.6</f>
+        <v>7384</v>
       </c>
       <c r="N49" s="12">
-        <v>1344.4</v>
+        <f>3419.3+1473.5+705.7+1529.2</f>
+        <v>7127.7</v>
       </c>
       <c r="O49" s="12">
-        <v>1281</v>
+        <f>2898.2+2143.1+978.2+1380.8</f>
+        <v>7400.2999999999993</v>
       </c>
       <c r="P49" s="12"/>
       <c r="Q49" s="12"/>
       <c r="T49" s="1">
-        <v>2506.1</v>
+        <f>1908.9+681.5</f>
+        <v>2590.4</v>
       </c>
     </row>
     <row r="50" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
@@ -6987,26 +8321,26 @@
       <c r="J50" s="12"/>
       <c r="K50" s="12"/>
       <c r="L50" s="12">
-        <v>2081.1999999999998</v>
+        <v>1567.6</v>
       </c>
       <c r="M50" s="12">
-        <v>1495.5</v>
+        <v>1568.8</v>
       </c>
       <c r="N50" s="12">
-        <v>1417.6</v>
+        <v>1705</v>
       </c>
       <c r="O50" s="12">
-        <v>1412</v>
+        <v>1634.4</v>
       </c>
       <c r="P50" s="12"/>
       <c r="Q50" s="12"/>
       <c r="T50" s="1">
-        <v>615.29999999999995</v>
+        <v>1627.1</v>
       </c>
     </row>
     <row r="51" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
@@ -7017,27 +8351,25 @@
       <c r="I51" s="12"/>
       <c r="J51" s="12"/>
       <c r="K51" s="12"/>
-      <c r="L51" s="12">
-        <v>3355.1</v>
-      </c>
+      <c r="L51" s="12"/>
       <c r="M51" s="12">
-        <v>3266.4</v>
+        <v>415.4</v>
       </c>
       <c r="N51" s="12">
-        <v>3298.6</v>
+        <v>431.4</v>
       </c>
       <c r="O51" s="12">
-        <v>3300.9</v>
+        <v>393.8</v>
       </c>
       <c r="P51" s="12"/>
       <c r="Q51" s="12"/>
       <c r="T51" s="1">
-        <v>3249.3</v>
+        <v>451.1</v>
       </c>
     </row>
     <row r="52" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
@@ -7049,26 +8381,26 @@
       <c r="J52" s="12"/>
       <c r="K52" s="12"/>
       <c r="L52" s="12">
-        <v>321.10000000000002</v>
+        <v>1294.2</v>
       </c>
       <c r="M52" s="12">
-        <v>424.5</v>
+        <v>1375</v>
       </c>
       <c r="N52" s="12">
-        <v>403.9</v>
+        <v>1344.4</v>
       </c>
       <c r="O52" s="12">
-        <v>399.1</v>
+        <v>1281</v>
       </c>
       <c r="P52" s="12"/>
       <c r="Q52" s="12"/>
       <c r="T52" s="1">
-        <v>389.4</v>
+        <v>2506.1</v>
       </c>
     </row>
     <row r="53" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
@@ -7080,31 +8412,26 @@
       <c r="J53" s="12"/>
       <c r="K53" s="12"/>
       <c r="L53" s="12">
-        <f>2075.3+5749.6</f>
-        <v>7824.9000000000005</v>
+        <v>2081.1999999999998</v>
       </c>
       <c r="M53" s="12">
-        <f>5741.2+2008.9</f>
-        <v>7750.1</v>
+        <v>1495.5</v>
       </c>
       <c r="N53" s="12">
-        <f>1850.1+5749</f>
-        <v>7599.1</v>
+        <v>1417.6</v>
       </c>
       <c r="O53" s="12">
-        <f>1813.3+5751.8</f>
-        <v>7565.1</v>
+        <v>1412</v>
       </c>
       <c r="P53" s="12"/>
       <c r="Q53" s="12"/>
       <c r="T53" s="1">
-        <f>8232.9+6227.4</f>
-        <v>14460.3</v>
+        <v>615.29999999999995</v>
       </c>
     </row>
     <row r="54" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
@@ -7116,67 +8443,93 @@
       <c r="J54" s="12"/>
       <c r="K54" s="12"/>
       <c r="L54" s="12">
-        <v>1235.7</v>
+        <v>3355.1</v>
       </c>
       <c r="M54" s="12">
-        <v>1174.5</v>
+        <v>3266.4</v>
       </c>
       <c r="N54" s="12">
-        <v>1226.4000000000001</v>
+        <v>3298.6</v>
       </c>
       <c r="O54" s="12">
-        <v>1211.8</v>
+        <v>3300.9</v>
       </c>
       <c r="P54" s="12"/>
       <c r="Q54" s="12"/>
       <c r="T54" s="1">
-        <v>915.1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.2">
+        <v>3249.3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
-        <v>108</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
       <c r="L55" s="12">
-        <f>SUM(L46:L54)</f>
-        <v>25081.4</v>
+        <v>321.10000000000002</v>
       </c>
       <c r="M55" s="12">
-        <f>SUM(M46:M54)</f>
-        <v>24854.199999999997</v>
+        <v>424.5</v>
       </c>
       <c r="N55" s="12">
-        <f>SUM(N46:N54)</f>
-        <v>24554.100000000002</v>
+        <v>403.9</v>
       </c>
       <c r="O55" s="12">
-        <f>SUM(O46:O54)</f>
-        <v>24598.399999999998</v>
-      </c>
-      <c r="P55" s="12">
-        <f t="shared" ref="P55:T55" si="75">SUM(P46:P54)</f>
-        <v>0</v>
-      </c>
-      <c r="Q55" s="12">
-        <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="R55" s="12">
-        <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="S55" s="12">
-        <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="T55" s="12">
-        <f t="shared" si="75"/>
-        <v>26804.1</v>
+        <v>399.1</v>
+      </c>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="T55" s="1">
+        <v>389.4</v>
+      </c>
+    </row>
+    <row r="56" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12">
+        <f>2075.3+5749.6</f>
+        <v>7824.9000000000005</v>
+      </c>
+      <c r="M56" s="12">
+        <f>5741.2+2008.9</f>
+        <v>7750.1</v>
+      </c>
+      <c r="N56" s="12">
+        <f>1850.1+5749</f>
+        <v>7599.1</v>
+      </c>
+      <c r="O56" s="12">
+        <f>1813.3+5751.8</f>
+        <v>7565.1</v>
+      </c>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
+      <c r="T56" s="1">
+        <f>8232.9+6227.4</f>
+        <v>14460.3</v>
       </c>
     </row>
     <row r="57" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
@@ -7187,86 +8540,68 @@
       <c r="I57" s="12"/>
       <c r="J57" s="12"/>
       <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
+      <c r="L57" s="12">
+        <v>1235.7</v>
+      </c>
       <c r="M57" s="12">
-        <f>237.3+328.9</f>
-        <v>566.20000000000005</v>
+        <v>1174.5</v>
       </c>
       <c r="N57" s="12">
-        <v>259.89999999999998</v>
+        <v>1226.4000000000001</v>
       </c>
       <c r="O57" s="12">
-        <v>235.5</v>
+        <v>1211.8</v>
       </c>
       <c r="P57" s="12"/>
       <c r="Q57" s="12"/>
       <c r="T57" s="1">
-        <v>281.60000000000002</v>
-      </c>
-    </row>
-    <row r="58" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>915.1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
+        <v>108</v>
+      </c>
+      <c r="L58" s="12">
+        <f>SUM(L49:L57)</f>
+        <v>25081.4</v>
+      </c>
       <c r="M58" s="12">
-        <v>383.2</v>
+        <f>SUM(M49:M57)</f>
+        <v>24854.199999999997</v>
       </c>
       <c r="N58" s="12">
-        <v>491.5</v>
+        <f>SUM(N49:N57)</f>
+        <v>24554.100000000002</v>
       </c>
       <c r="O58" s="12">
-        <v>491.2</v>
-      </c>
-      <c r="P58" s="12"/>
-      <c r="Q58" s="12"/>
-      <c r="T58" s="1">
-        <v>354.5</v>
-      </c>
-    </row>
-    <row r="59" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="12">
-        <v>4018.2</v>
-      </c>
-      <c r="M59" s="12">
-        <v>3305.9</v>
-      </c>
-      <c r="N59" s="12">
-        <v>2521.4</v>
-      </c>
-      <c r="O59" s="12">
-        <v>2288.1999999999998</v>
-      </c>
-      <c r="P59" s="12"/>
-      <c r="Q59" s="12"/>
-      <c r="T59" s="1">
-        <v>2472.1</v>
+        <f>SUM(O49:O57)</f>
+        <v>24598.399999999998</v>
+      </c>
+      <c r="P58" s="12">
+        <f t="shared" ref="P58:T58" si="93">SUM(P49:P57)</f>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="12">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="R58" s="12">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="S58" s="12">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="T58" s="12">
+        <f t="shared" si="93"/>
+        <v>26804.1</v>
       </c>
     </row>
     <row r="60" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
@@ -7277,28 +8612,26 @@
       <c r="I60" s="12"/>
       <c r="J60" s="12"/>
       <c r="K60" s="12"/>
-      <c r="L60" s="12">
-        <f>999.8+6277.4</f>
-        <v>7277.2</v>
-      </c>
+      <c r="L60" s="12"/>
       <c r="M60" s="12">
-        <v>6279.2</v>
+        <f>237.3+328.9</f>
+        <v>566.20000000000005</v>
       </c>
       <c r="N60" s="12">
-        <v>6281</v>
+        <v>259.89999999999998</v>
       </c>
       <c r="O60" s="12">
-        <v>6282.7</v>
+        <v>235.5</v>
       </c>
       <c r="P60" s="12"/>
       <c r="Q60" s="12"/>
       <c r="T60" s="1">
-        <v>6292</v>
+        <v>281.60000000000002</v>
       </c>
     </row>
     <row r="61" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
@@ -7309,27 +8642,25 @@
       <c r="I61" s="12"/>
       <c r="J61" s="12"/>
       <c r="K61" s="12"/>
-      <c r="L61" s="12">
-        <v>480.6</v>
-      </c>
+      <c r="L61" s="12"/>
       <c r="M61" s="12">
-        <v>354.8</v>
+        <v>383.2</v>
       </c>
       <c r="N61" s="12">
-        <v>334.7</v>
+        <v>491.5</v>
       </c>
       <c r="O61" s="12">
-        <v>251.3</v>
+        <v>491.2</v>
       </c>
       <c r="P61" s="12"/>
       <c r="Q61" s="12"/>
       <c r="T61" s="1">
-        <v>590.6</v>
+        <v>354.5</v>
       </c>
     </row>
     <row r="62" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
@@ -7341,26 +8672,26 @@
       <c r="J62" s="12"/>
       <c r="K62" s="12"/>
       <c r="L62" s="12">
-        <v>274.2</v>
+        <v>4018.2</v>
       </c>
       <c r="M62" s="12">
-        <v>1198.0999999999999</v>
+        <v>3305.9</v>
       </c>
       <c r="N62" s="12">
-        <v>333</v>
+        <v>2521.4</v>
       </c>
       <c r="O62" s="12">
-        <v>327</v>
+        <v>2288.1999999999998</v>
       </c>
       <c r="P62" s="12"/>
       <c r="Q62" s="12"/>
       <c r="T62" s="1">
-        <v>367.5</v>
+        <v>2472.1</v>
       </c>
     </row>
     <row r="63" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
@@ -7372,24 +8703,27 @@
       <c r="J63" s="12"/>
       <c r="K63" s="12"/>
       <c r="L63" s="12">
-        <v>1167.8</v>
-      </c>
-      <c r="M63" s="12"/>
+        <f>999.8+6277.4</f>
+        <v>7277.2</v>
+      </c>
+      <c r="M63" s="12">
+        <v>6279.2</v>
+      </c>
       <c r="N63" s="12">
-        <v>944.2</v>
+        <v>6281</v>
       </c>
       <c r="O63" s="12">
-        <v>935.5</v>
+        <v>6282.7</v>
       </c>
       <c r="P63" s="12"/>
       <c r="Q63" s="12"/>
       <c r="T63" s="1">
-        <v>556.70000000000005</v>
+        <v>6292</v>
       </c>
     </row>
     <row r="64" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
@@ -7401,26 +8735,26 @@
       <c r="J64" s="12"/>
       <c r="K64" s="12"/>
       <c r="L64" s="12">
-        <v>11863.4</v>
+        <v>480.6</v>
       </c>
       <c r="M64" s="12">
-        <v>12766.8</v>
+        <v>354.8</v>
       </c>
       <c r="N64" s="12">
-        <v>13388.4</v>
+        <v>334.7</v>
       </c>
       <c r="O64" s="12">
-        <v>13787</v>
+        <v>251.3</v>
       </c>
       <c r="P64" s="12"/>
       <c r="Q64" s="12"/>
       <c r="T64" s="1">
-        <v>15889.1</v>
+        <v>590.6</v>
       </c>
     </row>
     <row r="65" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
@@ -7432,42 +8766,133 @@
       <c r="J65" s="12"/>
       <c r="K65" s="12"/>
       <c r="L65" s="12">
-        <f>SUM(L57:L64)</f>
+        <v>274.2</v>
+      </c>
+      <c r="M65" s="12">
+        <v>1198.0999999999999</v>
+      </c>
+      <c r="N65" s="12">
+        <v>333</v>
+      </c>
+      <c r="O65" s="12">
+        <v>327</v>
+      </c>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="12"/>
+      <c r="T65" s="1">
+        <v>367.5</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12">
+        <v>1167.8</v>
+      </c>
+      <c r="M66" s="12"/>
+      <c r="N66" s="12">
+        <v>944.2</v>
+      </c>
+      <c r="O66" s="12">
+        <v>935.5</v>
+      </c>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="12"/>
+      <c r="T66" s="1">
+        <v>556.70000000000005</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12">
+        <v>11863.4</v>
+      </c>
+      <c r="M67" s="12">
+        <v>12766.8</v>
+      </c>
+      <c r="N67" s="12">
+        <v>13388.4</v>
+      </c>
+      <c r="O67" s="12">
+        <v>13787</v>
+      </c>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="12"/>
+      <c r="T67" s="1">
+        <v>15889.1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12">
+        <f>SUM(L60:L67)</f>
         <v>25081.4</v>
       </c>
-      <c r="M65" s="12">
-        <f>SUM(M57:M64)</f>
+      <c r="M68" s="12">
+        <f>SUM(M60:M67)</f>
         <v>24854.199999999997</v>
       </c>
-      <c r="N65" s="12">
-        <f>SUM(N57:N64)</f>
+      <c r="N68" s="12">
+        <f>SUM(N60:N67)</f>
         <v>24554.1</v>
       </c>
-      <c r="O65" s="12">
-        <f>SUM(O57:O64)</f>
+      <c r="O68" s="12">
+        <f>SUM(O60:O67)</f>
         <v>24598.399999999998</v>
       </c>
-      <c r="P65" s="12">
-        <f t="shared" ref="P65:U65" si="76">SUM(P57:P64)</f>
+      <c r="P68" s="12">
+        <f t="shared" ref="P68:T68" si="94">SUM(P60:P67)</f>
         <v>0</v>
       </c>
-      <c r="Q65" s="12">
-        <f t="shared" si="76"/>
+      <c r="Q68" s="12">
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
-      <c r="R65" s="12">
-        <f t="shared" si="76"/>
+      <c r="R68" s="12">
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
-      <c r="S65" s="12">
-        <f t="shared" si="76"/>
+      <c r="S68" s="12">
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
-      <c r="T65" s="12">
-        <f t="shared" si="76"/>
+      <c r="T68" s="12">
+        <f t="shared" si="94"/>
         <v>26804.100000000002</v>
       </c>
-      <c r="U65" s="12"/>
+      <c r="U68" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7477,4 +8902,199 @@
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56764B8F-8814-4227-BE08-2B6255B47A3D}">
+  <dimension ref="A1:I34"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C7" s="27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" s="17">
+        <f>0.45/0.27</f>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="H9" s="17">
+        <f>+G9-0.45</f>
+        <v>1.2166666666666666</v>
+      </c>
+      <c r="I9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>151</v>
+      </c>
+      <c r="I10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C11" s="28" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C12" s="28"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C13" s="28" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C14" s="28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C15" s="28"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C16" s="27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="27" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="27" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{E1E6991D-9889-4EF1-B64F-B96796731587}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>